--- a/data/Game/CharaText.xlsx
+++ b/data/Game/CharaText.xlsx
@@ -8,33 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F9FBB47-3193-4511-8BAC-2C569DA613D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F405479-7B98-47C0-B12B-530C31A8D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$117</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$122</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1251" uniqueCount="954">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1001">
   <si>
     <t>id</t>
   </si>
@@ -90,7 +79,7 @@
     <t>artist</t>
   </si>
   <si>
-    <t>EA 23.188 Patch 2</t>
+    <t>EA 23.200 Patch 2</t>
   </si>
   <si>
     <t>"You senseless bastard!"
@@ -785,6 +774,17 @@
   </si>
   <si>
     <t>@citizen</t>
+  </si>
+  <si>
+    <t>giant</t>
+  </si>
+  <si>
+    <t>*thud*
+*thump*</t>
+  </si>
+  <si>
+    <t>*ドスン*
+*ズシン*</t>
   </si>
   <si>
     <t>horse</t>
@@ -970,9 +970,9 @@
 「足元には気をつけて歩いてくれ」</t>
   </si>
   <si>
-    <t xml:space="preserve">"That’s a problem."
+    <t>"That’s a problem."
 "This too is part of my training."
-"No use stopping it." </t>
+"No use stopping it."</t>
   </si>
   <si>
     <t>「困るんだ、そういうの」
@@ -980,12 +980,22 @@
 「止めても無駄か」</t>
   </si>
   <si>
-    <t xml:space="preserve">"Ugh..." 
-"This message... to Palmia..." </t>
+    <t>"Ugh..."
+"This message... to Palmia..."</t>
   </si>
   <si>
     <t>「この知らせを…パルミアに…」
 「 …う、うぅ 」</t>
+  </si>
+  <si>
+    <t>"Well, that’s taken care of."
+"No hard feelings."
+"That should quiet things down a bit."</t>
+  </si>
+  <si>
+    <t>「やれやれ、片付いたな」
+「恨まないでくれ」
+「これで少しは静かになる」</t>
   </si>
   <si>
     <t>adventurer_fox</t>
@@ -2137,6 +2147,28 @@
     <t>*ぷちゅっ*</t>
   </si>
   <si>
+    <t>mammoth</t>
+  </si>
+  <si>
+    <t>"Trroooomp!"</t>
+  </si>
+  <si>
+    <t>「パォオオオオン！」
+「パオオオォン！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Toot..." </t>
+  </si>
+  <si>
+    <t>「パオン…」</t>
+  </si>
+  <si>
+    <t>"Trooomp!"</t>
+  </si>
+  <si>
+    <t>「パオオオオン！」</t>
+  </si>
+  <si>
     <t>snail</t>
   </si>
   <si>
@@ -2715,6 +2747,84 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t>larnneire</t>
+  </si>
+  <si>
+    <t>"You know the fairy tale where a wicked &amp;witch transforms a dashing prince into an monster?"
+The stunning beauty of Elea's face halts your step a moment.
+"The world is thrown into bedlam and chaos. &amp;We must remain strong in the face of it."
+"The man we saw in Vernis, he just might be..."
+Someone mutters in mysterious ancient language.
+"Elea is already being regarded as a heretic. &amp;Your lofty dignity isn't helping this."</t>
+  </si>
+  <si>
+    <t>「獣に変えられた王子の童話を知っているかしら？」
+痺れるほど美しいエレアの横顔にあなたは見とれた。
+「この世界は今、大きく変わろうとしているの」
+「ヴェルニースで見かけたあの男…まさか…」
+神秘的な古代の言葉で誰かが囁いた。
+「あなたはプライドが高すぎるのよ。&amp;ただでさえエレアは異端視されているのに」</t>
+  </si>
+  <si>
+    <t>"Do we really have to fight?"
+"Sorry  I don't have time for this."
+The Elean little girl has an angry look in her beautiful cold eyes.</t>
+  </si>
+  <si>
+    <t>「なぜ戦わなければならないの？」
+「悪いけど、遊んでいる暇は無いの」
+エレアの少女は美しい瞳を凍りつくようにとがらせた。</t>
+  </si>
+  <si>
+    <t>"A-ah...I failed my task...this world....this world will..."</t>
+  </si>
+  <si>
+    <t>「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
+  </si>
+  <si>
+    <t>"Sorry..."</t>
+  </si>
+  <si>
+    <t>「ごめんなさい…」</t>
+  </si>
+  <si>
+    <t>lomias</t>
+  </si>
+  <si>
+    <t>"Wait'll they hear the news we bring."
+"And they think they have problems. Hah!"
+"Hey... This is a fine looking place!"
+"Pah! It would take a child less than a day to &amp;walk to Vernis, we won't be late."
+"Man, that girl at the pub..."
+You hear someone testing the string of his bow.</t>
+  </si>
+  <si>
+    <t>「異形の森、か…」
+「我等のもたらす真実を彼らはどう受け止めるか」
+「ここもなかな住み心地がよさそうじゃないか」
+「ヴェルニースまでは&amp;子供の足でも一日でたどり着けるだろう」
+「あの酒場の娘にはまいったな！」
+誰かが弓矢を手入れする音が聞こえた。</t>
+  </si>
+  <si>
+    <t>"You repay kindness with ingratitude?"</t>
+  </si>
+  <si>
+    <t>「恩を仇で返すとはこのことだ」</t>
+  </si>
+  <si>
+    <t>"This is ridiculous..."</t>
+  </si>
+  <si>
+    <t>「おいおい、冗談だろう…」</t>
+  </si>
+  <si>
+    <t>"There's always someone I can never understand."</t>
+  </si>
+  <si>
+    <t>「世の中には、おかしな奴がいるものだ」</t>
+  </si>
+  <si>
     <t>raphael</t>
   </si>
   <si>
@@ -2739,7 +2849,7 @@
     <t>"Mamaaa!"</t>
   </si>
   <si>
-    <t>「ママー！」</t>
+    <t>「ママン！」</t>
   </si>
   <si>
     <t>"Ptui!"</t>
@@ -3123,6 +3233,24 @@
 「追放者…♥」</t>
   </si>
   <si>
+    <t>lurie_boss</t>
+  </si>
+  <si>
+    <t>"GROOOOAAARRR!"</t>
+  </si>
+  <si>
+    <t>「グウォオオォォオオン！」</t>
+  </si>
+  <si>
+    <t>"Whimper..."</t>
+  </si>
+  <si>
+    <t>"GRROOAARR!"</t>
+  </si>
+  <si>
+    <t>「グウォォオオ！」</t>
+  </si>
+  <si>
     <t>Alpha 11.1</t>
   </si>
   <si>
@@ -3130,6 +3258,9 @@
   </si>
   <si>
     <t>Alpha 20.64</t>
+  </si>
+  <si>
+    <t>EA 23.188 Patch 2</t>
   </si>
   <si>
     <t>Beta 22.86</t>
@@ -3220,69 +3351,15 @@
 *Xoảng!*</t>
   </si>
   <si>
-    <t>“Đ-Đừng… dừng lại đi!”  
-“Chẳng lẽ khúc nhạc của tôi dở đến thế sao?”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Không thể nào!"
-"Nó thực sự cay nghiệt."
-"Tôi tệ đến mức đó sao?" </t>
-  </si>
-  <si>
-    <t>"Đồ khốn vô cảm!"
-"Mày thật hèn hạ!"</t>
-  </si>
-  <si>
-    <t>“Đây mới gọi là nghệ thuật!”  
-“Tôi vốn sống yên bình, xa lánh tranh chấp cơ mà…”  
-“Nghệ thuậttttt đó~!”</t>
-  </si>
-  <si>
-    <t>"Tôi chẳng quan tâm đến con người nữa!"</t>
-  </si>
-  <si>
     <t>Bạn nghe thấy tiếng lắc cocktail.
 "Dùng một ly chứ, thưa ngài?"
 "Chúng tôi có loại bia Crim ủ lâu năm đấy."
 Quán bar đông nghịt người, náo nhiệt hẳn lên.</t>
   </si>
   <si>
-    <t>"Ê, dừng lại đi đồ say xỉn."
-"Anh uống nhiều quá rồi hả, thấy mệt chưa?"</t>
-  </si>
-  <si>
-    <t>"Tôi bị một tên say rượu giết..."
-"Số phận thật lố bịch."</t>
-  </si>
-  <si>
-    <t>"Đoán là giờ anh tỉnh rượu rồi nhỉ?"</t>
-  </si>
-  <si>
     <t>"Xin ngài..."
 "Xin chút lòng thương..."
 "Xin hãy bố thí cho tôi."</t>
-  </si>
-  <si>
-    <t>"X-xin ngài, đừng mà..."
-"Áaaa!"
-"Giết tôi cũng chẳng được lợi gì đâu..."
-"Đừng có coi thường tôi!"
-"Tại sao lại làm thế này!"
-"Phản đối bạo lực!"
-"K-khoan đã...!"</t>
-  </si>
-  <si>
-    <t>"Đồ tàn nhẫn!"
-"Áaaa!"
-"Tôi đâu đáng phải chịu thế này..."
-"Thật bất công."
-"Chỉ vì tôi là kẻ ăn xin..."
-"Cuộc đời tôi rốt cuộc là gì chứ..."</t>
-  </si>
-  <si>
-    <t>"Yếu! Quá yếu!"
-"Hả?"
-"Ha ha ha!"</t>
   </si>
   <si>
     <t>“Ôi chao.”  
@@ -3290,52 +3367,6 @@
 *cười khẩy*  
 “Muốn vui vẻ một chút không?”  
 “Để ta cho ngươi thấy những giấc mơ… thật kỳ lạ.”</t>
-  </si>
-  <si>
-    <t>"Muốn đánh nhau à?"
-"Tao sẽ lột sạch đồ của mày."</t>
-  </si>
-  <si>
-    <t>"Đồ khốn!"
-"Chuyện này chưa kết thúc đâu!"</t>
-  </si>
-  <si>
-    <t>“Ngủ ngon nhé.”</t>
-  </si>
-  <si>
-    <t>*phì~*
-"Meoow!"
-"Meew!"
-"Meow meow."
-Bạn nghe thấy tiếng mèo mài móng vuốt.</t>
-  </si>
-  <si>
-    <t>“Biết đường zìa nhà hông?”  
-“Zìa nhà thui.”  
-“Zìa nhà thui!”  
-“Mẹ ơi lối nào? Lối nào zìa nhà?”  
-“Meooo~”</t>
-  </si>
-  <si>
-    <t>“Mình sắp bị gíết mất rùi…”  
-“Chết mất thuiiii!”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Về… nh…à… thôi…”  </t>
-  </si>
-  <si>
-    <t>“Á~ giật cả mềnh!”</t>
-  </si>
-  <si>
-    <t>“Ku…”  
-“…po.”  
-“Kyu~”  
-“Kyu~po~”</t>
-  </si>
-  <si>
-    <t>“Cupo!”  
-“Cupaoo!”  
-“Cupa~~~!”</t>
   </si>
   <si>
     <t>"Meo~"
@@ -3346,118 +3377,35 @@
 *Gừ gừ*</t>
   </si>
   <si>
+    <t>“Biết đường zìa nhà hông?”  
+“Zìa nhà thui.”  
+“Zìa nhà thui!”  
+“Mẹ ơi lối nào? Lối nào zìa nhà?”  
+“Meooo~”</t>
+  </si>
+  <si>
+    <t>“Ku…”  
+“…po.”  
+“Kyu~”  
+“Kyu~po~”</t>
+  </si>
+  <si>
     <t>"Meo."
 "Meo meo."
 "Miu."
 *gừ gừ*</t>
   </si>
   <si>
-    <t>Con mèo đen khẽ vẫy đuôi.</t>
-  </si>
-  <si>
     <t>Xung quanh tràn ngập bầu không khí linh thiêng.
 Bạn cảm thấy có ánh nhìn hiền hòa của một ai đó.
 Một nơi vô cùng yên tĩnh và thanh bình.
 Trong tâm trí, vang vọng tiếng cầu nguyện kỳ lạ.</t>
   </si>
   <si>
-    <t>“Cứu với—!”  
-“Đ-Đừng mà!”  
-“Đồ tay sai của cái ác!”  
-“Đồ biến thái!”  
-"Đ-đ-đi đi!"
-“Sao lại chọc tôi?”  
-“Người lớn đúng là…”</t>
-  </si>
-  <si>
-    <t>“Mẹ ơi…”  
-“Hu hu…”  
-“Xuống địa ngục đi!”  
-“Waaa~aa!”  
-“Ughhh!”  
-“Mình… còn muốn sống nữa…”  
-“Cha mẹ ơi… tha thứ cho đứa con bất hiếu này…”</t>
-  </si>
-  <si>
-    <t>"Yếu xìu!"</t>
-  </si>
-  <si>
-    <t>"Ngươi đang làm gì vậy!"
-"Đồ man rợ!"
-"Cả tôi nữa sao?"</t>
-  </si>
-  <si>
-    <t>“Tôi vốn là một công dân lương thiện mà…”  
-“Đồ khốn!”  
-“Bó tay rồi…”  
-“Guèh…!”  
-“Không thể nào…”  
-“Tại sao lại là tôi chứ—!”  
-“Đây… đây là trò đùa gì thế!?”</t>
-  </si>
-  <si>
-    <t>"Sức mạnh nhân dân."</t>
-  </si>
-  <si>
-    <t>“Tôi vốn là thỏ lương thiện mà…”  
-“Đồ khốn!”  
-“Bó tay rồi…”  
-“Guèh…!”  
-“Không thể nào…”  
-“Tại sao lại là tôi chứ—!”  
-“Đây… đây là trò đùa gì thế!?”</t>
-  </si>
-  <si>
-    <t>"Sức mạnh thỏ."</t>
-  </si>
-  <si>
     <t xml:space="preserve">“Ước gì công tử có thể tự ý thức hơn một chút.”  
 “Anh có biết điều gì phân biệt một người lính với một tên côn đồ không? Chính là sự bóng loáng trên hàng cúc áo của anh ta đấy.”  
 “Ôi, Công chúa Stasha…”  
 “Thật duyên dáng làm sao!”  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Tên khốn, tao sẽ lôi mày ra tòa án quân sự.”  </t>
-  </si>
-  <si>
-    <t>“Đồ nhãi láo toét!”</t>
-  </si>
-  <si>
-    <t>"Nhãi ranh."</t>
-  </si>
-  <si>
-    <t>"Dừng lại đi, làm ơn."
-"Vô lý quá!"
-"Đồ hèn hạ!"
-"Đồ ngu!"
-"Lũ trẻ thời nay..."
-"Hãy tôn trọng người già!"
-"Ta chẳng có tiền đâu!"</t>
-  </si>
-  <si>
-    <t>"Chúa sẽ trừng phạt ngươi!"
-"Những năm tháng tuổi già của ta..."
-"Quỷ dữ!"
-"Ughhh!"
-"Ta sẽ hiện hồn về ám ngươi!"
-"Ta… chết rồi sao?"</t>
-  </si>
-  <si>
-    <t>"Trời ạ… sao ngươi yếu thế hả?"
-"Thanh niên thời nay đúng là chẳng ra gì."</t>
-  </si>
-  <si>
-    <t>"Ngươi làm gì vậy!"
-"Dừng lại!"</t>
-  </si>
-  <si>
-    <t>"Tao… tao…!"
-"Chỉ vì tao là dân quê mà…!"
-"Đừng có phí phạm đồ ăn!"
-"Khụ…!"</t>
-  </si>
-  <si>
-    <t>"Yếu xìu à."</t>
   </si>
   <si>
     <t>Bạn nghe thấy tiếng búa gõ nhịp nhàng vào thép.
@@ -3477,68 +3425,14 @@
 "Mwaha!"</t>
   </si>
   <si>
-    <t>"Cái gì?"</t>
-  </si>
-  <si>
-    <t>"Đứng lại đó, tội phạm!"
-"Đồ cặn bã! Đứng yên!"
-"Ngươi đã bị bắt!"
-"Ngươi sẽ phải trả giá cho tội ác của mình."</t>
-  </si>
-  <si>
     <t>"Bạn nghe thấy tiếng vó ngựa."
 *Lóc cóc*
 *Cộp cộp*</t>
   </si>
   <si>
-    <t>*Hííí… hííí…*</t>
-  </si>
-  <si>
-    <r>
-      <t>"</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hí hííí!</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <t>"Đồ sên chậm chạp!"
-"Ngươi gan to thật đấy khi dám chống lại ta."</t>
-  </si>
-  <si>
-    <t>"Ôi không, xác của ta sẽ làm ô nhiễm cả thành phố mất!"</t>
-  </si>
-  <si>
     <t>"#bigdaddy, đứng dậy đi… Làm ơn!"
 "Bạn nghe thấy tiếng một bé gái sợ hãi vang lên đâu đó."
 "Thiên thần ơi, thiên thần… chừng nào chưa tìm được đúng người, chúng ta không dám chết đâu…"</t>
-  </si>
-  <si>
-    <t>"Kh…không… đừng lại gần… cứu… làm ơn…"</t>
-  </si>
-  <si>
-    <t>"Kh…không… tôi không muốn chết… khôngoooo!"</t>
-  </si>
-  <si>
-    <t>"Quả mọng của ta sẽ được lấp đầy bằng máu của một thiên thần..."</t>
   </si>
   <si>
     <t>"Nhìn kìa… có một thiên thần."
@@ -3571,78 +3465,10 @@
 Bạn nghe thấy tiếng một bé gái đang tự nói một mình.</t>
   </si>
   <si>
-    <t>"Đồ biến thái!"</t>
-  </si>
-  <si>
-    <t>"B… ba…"</t>
-  </si>
-  <si>
-    <t>"Đúng là một người lớn đáng khinh!"</t>
-  </si>
-  <si>
     <t>"Hmm… để xem nào."
 "Mình đã để tấm bản đồ đó ở đâu nhỉ…?"
 "Thêm một cái mạng nhện nữa đây."
 "Cẩn thận dưới chân."</t>
-  </si>
-  <si>
-    <t>"Đó là một vấn đề đấy."
-"Chuyện này cũng là một phần trong quá trình rèn luyện của tôi."
-"Có ngăn cũng vô ích thôi."</t>
-  </si>
-  <si>
-    <t>"Ugh…"
-"Thông điệp này… gửi tới Palmia…"</t>
-  </si>
-  <si>
-    <t>"Không phải ở đây…!"
-"Hngh…"</t>
-  </si>
-  <si>
-    <t>"#self xù đuôi lên."
-"#self vẫy đuôi thật mạnh."</t>
-  </si>
-  <si>
-    <t>"Cái quái gì thế!"
-"Ngươi sẽ hối hận vì chuyện này."
-"Được rồi, giờ thì không quay đầu lại được nữa."
-"Giờ thì ngươi chết chắc!"
-"Lại đây nào, đồ gà."
-"Hử."
-"Đụng vào ta là ngươi chết."</t>
-  </si>
-  <si>
-    <t>"Ngươi… rồi sẽ phải trả giá cho chuyện này…"
-"Khôngooo!"
-"Đồ sát nhân!"
-"Dừng lại!"
-"X-xin tha cho tôi…"
-"Arrr–rr…"
-"Đ-đừng!"</t>
-  </si>
-  <si>
-    <t>"Nhìn ngươi kìa."
-"Tạm biệt."</t>
-  </si>
-  <si>
-    <t>"Chào mừng đến với cửa hàng của tôi!"
-"Hãy xem qua hàng hóa của tôi nhé!"
-"Rất vui khi có bạn ghé thăm."
-#self nhìn bạn và khẽ gật đầu.
-#self vẫy tay chào bạn.</t>
-  </si>
-  <si>
-    <t>"Vệ binh! Vệ binh!"
-"Phục kích!"
-"Đồ trộm cắp!"</t>
-  </si>
-  <si>
-    <t>"Xin tha mạng cho tôi."
-"Aaaa…."</t>
-  </si>
-  <si>
-    <t>"Chết đi, đồ trộm cắp."
-"Ngươi đáng phải chịu điều này."</t>
   </si>
   <si>
     <t>"Cá~ cá~ cá~ ♪"
@@ -3660,11 +3486,6 @@
 *tiếng ồn ào*</t>
   </si>
   <si>
-    <t>"Hãy lại đây xem tôi có gì này, #brother!"
-"Chỉ có ở #festival thôi đấy!"
-"#brother, đang vui chứ?"</t>
-  </si>
-  <si>
     <t>"Ôi, tối nay ăn gì đây nhỉ."
 "Làm hoài mà không chơi thì Miral sẽ thành một gã tẻ nhạt."
 "Trên đời này chẳng bao giờ có đủ thời gian để làm hết mọi việc."
@@ -3679,80 +3500,10 @@
 "Luôn phải giữ phong thái tao nhã."</t>
   </si>
   <si>
-    <t>"Vô lễ!"
-"Vệ binh! Mau bắt tên ngốc này lại!"
-"Vệ binh! Lại đây mau!"</t>
-  </si>
-  <si>
-    <t>"Tôi sẽ mách với ba tôi."
-"Cái gì! Sao ngươi dám!"
-"Không… Dừng lại…"</t>
-  </si>
-  <si>
-    <t>"Rác rưởi"</t>
-  </si>
-  <si>
-    <t>"Hãy chuộc lại tội lỗi của ngươi."
-"Ừ thì… ngươi cần phải bị trừng phạt."
-"Đồ khốn…!"
-"Chết tiệt!"</t>
-  </si>
-  <si>
-    <t>"Lạy Chúa, xin hãy giúp con!"</t>
-  </si>
-  <si>
-    <t>"Xuống địa ngục đi."</t>
-  </si>
-  <si>
-    <t>"Đồ hèn."
-"Lại đây nào, cưng."
-"Ồ!"
-"Nôn ra đi, đồ hèn!"
-"Giờ là lúc trừng phạt!"
-"Lại đây!"</t>
-  </si>
-  <si>
-    <t>"Chạy mau!"
-"Ngươi điên rồi!"
-"Khốn kiếp!"
-"Nhảm nhí!"
-"Dừng lại!"
-"Ta không thể thua!"</t>
-  </si>
-  <si>
-    <t>"Đừng bao giờ coi thường ta nữa."
-"Gyahaha!"
-"Xuống địa ngục đi."</t>
-  </si>
-  <si>
-    <t>"Tiền à? Ngươi muốn tiền đúng không?"
-"Tránh ngay cái bàn tay bẩn thỉu của ngươi ra!"
-"Vệ binh, cứu ta mau!"
-"Đồ nông dân tham tiền!"</t>
-  </si>
-  <si>
-    <t>"Ta sẽ không cho ngươi dù chỉ một xu."
-"Ôi Chúa ơi…"
-"Đồ khốn!"
-"Ta không muốn chết…!"
-"Thật may là ta đã viết di chúc."</t>
-  </si>
-  <si>
-    <t>"Không… không…!"
-"Xin lỗi… tôi đã làm cậu thất vọng."</t>
-  </si>
-  <si>
-    <t>Cô bé phủi bụi trên quần áo của mình.
-Cô bé mỉm cười với bạn.
-Bạn nhìn cô bé với ánh mắt ngưỡng mộ.</t>
-  </si>
-  <si>
-    <t>"K…không!"</t>
-  </si>
-  <si>
-    <t>Bạn xoa đầu em gái mình.
-Bạn nheo mắt nhìn em gái.
-Em gái ngước mắt nhìn bạn.</t>
+    <t>"Bạn nghe thấy tiếng cầu nguyện từ xa."
+"Hãy lại đây, những chú mèo con lạc lối, ta sẽ dẫn các con tới ánh sáng."
+"Hãy cầu nguyện thật thành tâm. Luôn luôn có cơ hội để được cứu rỗi."
+"Hãy đối xử với người khác như cách bạn muốn họ đối xử với mình."</t>
   </si>
   <si>
     <t>"#onii"
@@ -3767,51 +3518,19 @@
 "Em yêu anh nhiều lắm, #brother2♪"</t>
   </si>
   <si>
-    <t>"#brother2, tránh ra!"
-"Đừng có chạm vào #brother2!"
-"Nhìn em này, #brother2♪"</t>
-  </si>
-  <si>
-    <t>"Em… không thể… #brother2!"</t>
-  </si>
-  <si>
     <t>"Sự uy nghi tĩnh lặng của căn phòng khiến bạn cảm thấy mình nhỏ bé."
 "Bạn nhận ra lính gác ở đây vô cùng cảnh giác và được trang bị tận răng."
 "Đâu đó, tiếng đàn harpsichord vang lên một giai điệu xứng tầm giới quý tộc."</t>
   </si>
   <si>
-    <t>"Dừng lại ngay!"
-"Vệ binh! Bắt hắn lại!"</t>
-  </si>
-  <si>
-    <t>"Ta… xin lỗi…"</t>
-  </si>
-  <si>
-    <t>"Đi nào, mau dọn cái xác khó coi này đi."</t>
-  </si>
-  <si>
     <t>"Con đường chính nghĩa không phải lúc nào cũng dễ dàng, đúng không?"
 "Ta sẽ không để hắn làm hại những đứa con bé nhỏ của ta… Ta đã dành quá nhiều thời gian cho chúng để giờ phải thấy chúng thất bại."</t>
   </si>
   <si>
-    <t>"Sao anh/cô có thể làm như vậy chứ?"</t>
-  </si>
-  <si>
-    <t>"Ngươi không có trái tim sao?"</t>
-  </si>
-  <si>
-    <t>"Đừng có quấy rối tôi chỉ vì tôi là khách du lịch."
-"Ôi, đất nước này thật nguy hiểm."
-"Vùng đất này thật man rợ."
-"Tôi không có tiền đâu."</t>
-  </si>
-  <si>
-    <t>"Đáng lẽ tôi không nên tới một đất nước như thế này!"
-"Đó là một vụ tấn công khủng bố!"
-"Không!"</t>
-  </si>
-  <si>
-    <t>"Yếu xìu."</t>
+    <t>"Duy nhất, 1 cái duy nhất!"
+"Mọi người mau lại xem!"
+"Hãy nhìn đây! Cuộn may mắn huyền thoại đã xuất hiện!"
+"Đợi đến khi thấy những gì tôi có ở đây nhé!"</t>
   </si>
   <si>
     <t>"Miễn phí gối ôm St. Jure ngay bây giờ!"
@@ -3842,26 +3561,6 @@
 "Ôi chà chà♪"
 Bạn nghe thấy tiếng nước bì bõm.
 Bạn ngửi thấy hương thơm của suối nước nóng.</t>
-  </si>
-  <si>
-    <t>"Không được phép làm vậy!"
-"Dừng lại ngay!"
-"Tôi sẽ té nước nóng vào cậu đấy!"</t>
-  </si>
-  <si>
-    <t>"Tự ngươi chuốc lấy thôi."
-"Đáng đời lắm, đồ sâu bọ♪"</t>
-  </si>
-  <si>
-    <t>"Ngươi điên rồi sao?"
-"Vệ binh! Bắt chúng lại!"
-"Ngươi mất trí rồi!"</t>
-  </si>
-  <si>
-    <t>"Đám lính vô dụng."</t>
-  </si>
-  <si>
-    <t>"Kẻ ngu ngốc."</t>
   </si>
   <si>
     <t>"Lâu lắm rồi mới đặt chân lên đất liền."
@@ -3878,11 +3577,6 @@
 "Ý nghĩa của chuyện này là gì?"
 "Sách là kho tàng của trí tuệ."
 "Eureka!"</t>
-  </si>
-  <si>
-    <t>"Có một cuốn sách mà ta nghĩ ngươi sẽ thích."
-"Cần chút kiến thức mới không?"
-"Ta vừa nhập về sách mới."</t>
   </si>
   <si>
     <t>"Ôi chà, ôi chà."
@@ -3898,42 +3592,10 @@
 "Đồ ốc sên hư hỏng."</t>
   </si>
   <si>
-    <t>"Ngươi cần giúp chữa trị chăng?"
-"Thân thể ổn chứ?"
-"Ồ, lại là một nhà thám hiểm nữa à."</t>
-  </si>
-  <si>
-    <t>*thì thầm*
-"Ta có một câu chuyện hay cho ngươi."
-"Ồ!"
-"À ha, ta hiểu rồi."</t>
-  </si>
-  <si>
-    <t>"Ta có thông tin thú vị cho ngươi!"
-"Có muốn mua một câu chuyện không?"
-"Này, ta có tin tốt cho ngươi đây."</t>
-  </si>
-  <si>
     <t>"Lạy Chúa."
 "Con chiên tội nghiệp."
 "Mọi sự đều vì Ngài."
 Bạn nghe thấy tiếng cầu nguyện tha thiết.</t>
-  </si>
-  <si>
-    <t>"Đồ ngoại đạo!"
-"Xúc phạm thần linh!"
-"Sao ngươi dám!"
-"Giết! Giết!"</t>
-  </si>
-  <si>
-    <t>"Lạy Chúa…!"
-"Giờ con sẽ đến với Ngài, lạy Chúa của con!"
-"Nguyện Chúa nguyền rủa ngươi!"</t>
-  </si>
-  <si>
-    <t>"Hãy sám hối!"
-"Ngươi nhận lấy điều mình tạo ra."
-"Một cái chết xứng đáng cho kẻ ngoại đạo."</t>
   </si>
   <si>
     <t>Bạn nghe thấy tiếng ai đó đang lau chùi vũ khí.
@@ -3943,18 +3605,6 @@
 "Này… chỗ này trông cũng không tệ lắm nhỉ."</t>
   </si>
   <si>
-    <t>"Trời ạ."
-"Ngươi đang vội tìm cái chết à?"
-"Rắc rối thật."</t>
-  </si>
-  <si>
-    <t>"Fia… ta xin lỗi."</t>
-  </si>
-  <si>
-    <t>"Đã kết thúc rồi sao?"
-"Thật đáng tiếc."</t>
-  </si>
-  <si>
     <t>Bạn bị cuốn hút bởi gương mặt nghiêng của một cô gái đẹp như người Elean.
 "Ngươi có biết câu chuyện cổ tích về hoàng tử bị biến thành quái thú không?"
 "Mong là Chủ nhân Cetrus vẫn bình an..."
@@ -3962,41 +3612,11 @@
 "Ngươi vẫn mỉa mai như mọi khi."</t>
   </si>
   <si>
-    <t>"Ngươi cần được dạy dỗ."
-"Thật ngu ngốc."
-"Dừng lại ngay!"</t>
-  </si>
-  <si>
-    <t>Fiama phủi bụi trên quần áo của mình.</t>
-  </si>
-  <si>
-    <t>"Ngươi muốn gì?"
-"Nói ngắn gọn thôi."
-"Ồ, nhà thám hiểm, có việc gì?"</t>
-  </si>
-  <si>
-    <t>"Ta có thể giám định bất cứ thứ gì."
-"Có cần một người định giá không?"
-"Chuyện pháp khí cứ để ta lo."</t>
-  </si>
-  <si>
     <t>"Hmm… quạ bay thì đuôi cũng theo sau…"
 "Giờ thì, đến với điều bí ẩn tiếp theo nào…"
 "Nếu có cô em mèo, thì hẳn cũng phải có cô em chó chứ…"
 Bạn nghe thấy tiếng ai đó lật trang sách.
 Bạn nghe thấy tiếng ai đó đang viết.</t>
-  </si>
-  <si>
-    <t>"Đó là triết lý của ngươi sao?"
-"Hãy cho ta xem câu chuyện của ngươi."
-"Thế giới này thật nguy hiểm."
-"Này, đừng làm hỏng sách."</t>
-  </si>
-  <si>
-    <t>"Chắc ta sẽ khám phá thế giới bên kia tiếp vậy…"</t>
-  </si>
-  <si>
-    <t>"Vậy đó là câu chuyện của ngươi… Một kết thúc buồn."</t>
   </si>
   <si>
     <t>Ai đó lẩm bẩm bằng một ngôn ngữ cổ xưa đầy bí ẩn.
@@ -4032,9 +3652,6 @@
 “Cục cục.”</t>
   </si>
   <si>
-    <t>"Cục tác!"</t>
-  </si>
-  <si>
     <t>“Be-e-e.”
 “Be~.”
 “Be-e-e-e-e.”
@@ -4045,23 +3662,11 @@
 “Gâu gâu!”</t>
   </si>
   <si>
-    <t>"Be!"</t>
-  </si>
-  <si>
-    <t>"Auuuu!"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"G.. ừ… ư…u" </t>
-  </si>
-  <si>
     <t>Bạn nghe thấy tiếng sủa the thé của một con chó con.
 Từ xa vọng lại tiếng tru ai oán.
 "Gâu!"</t>
   </si>
   <si>
-    <t>"Ư ư…"</t>
-  </si>
-  <si>
     <t>“Ụt.”
 “Ụt ịt.”</t>
   </si>
@@ -4071,13 +3676,7 @@
 “Chít.”</t>
   </si>
   <si>
-    <t>“Chít!”</t>
-  </si>
-  <si>
     <t>Bạn nghe thấy tiếng nhạc vui tươi.</t>
-  </si>
-  <si>
-    <t>“Làm lại từ đầu vậy”</t>
   </si>
   <si>
     <t>“Boo…”
@@ -4092,27 +3691,10 @@
 "#title♪"</t>
   </si>
   <si>
-    <t>"Ngươi đã quá trớn rồi đấy!"
-"Giờ thì trừng phạt thôi!"</t>
-  </si>
-  <si>
-    <t>"Khônggg!"</t>
-  </si>
-  <si>
     <t>"Không biết bản dịch rune của câu này là gì nhỉ…"
 "Bạn nghe thấy tiếng ai đó đang sắp xếp sách lên kệ."
 "Chị lại bày bừa nữa rồi!"
 "Ta-la-la♪"</t>
-  </si>
-  <si>
-    <t>"Xin hãy dừng lại!"
-"Thì ra con người thật của cậu là như vậy…"</t>
-  </si>
-  <si>
-    <t>"Thật quá đáng…"</t>
-  </si>
-  <si>
-    <t>"Đồ vô dụng này!"</t>
   </si>
   <si>
     <t>"Ôi, Elin the White Widow, &amp;khuôn mặt u buồn của nàng phai dần dưới ánh trăng tròn."
@@ -4131,27 +3713,6 @@
 "La la la～♪"</t>
   </si>
   <si>
-    <t>"Tại sao lại làm vậy?"</t>
-  </si>
-  <si>
-    <t>"Mình không thích mấy thứ đáng sợ…"</t>
-  </si>
-  <si>
-    <t>"Á!"
-"Không thể!"</t>
-  </si>
-  <si>
-    <t>Cô tiểu thư phủi bụi trên quần áo.
-Cô tiểu thư nhìn bạn và mỉm cười rạng rỡ.
-Bạn bị cuốn hút bởi cô tiểu thư.
-"Ufufu♪"</t>
-  </si>
-  <si>
-    <t>"Chào mừng."
-"Mang theo nhiều tiền như vậy là không an toàn đâu."
-"Tiền là tất cả!"</t>
-  </si>
-  <si>
     <t>"Dừng lại… để tôi kiểm tra danh sách danh tính của cậu."</t>
   </si>
   <si>
@@ -4159,24 +3720,6 @@
   </si>
   <si>
     <t>"Dừng lại. để tôi kiểm tra danh sách danh tính của cậu."</t>
-  </si>
-  <si>
-    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Pháp Thuật."</t>
-  </si>
-  <si>
-    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Chiến Binh."</t>
-  </si>
-  <si>
-    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Đạo Tặc…"</t>
-  </si>
-  <si>
-    <t>"Nào, hãy nhảy cho ta xem."</t>
-  </si>
-  <si>
-    <t>"Không thể nào…!"</t>
-  </si>
-  <si>
-    <t>“Vô vị.”</t>
   </si>
   <si>
     <t>"Khò khò"
@@ -4193,9 +3736,6 @@
 "Ồ, ta vừa nghĩ ra một câu hay lắm!"
 "Trời ạ, đúng là lão hói già lắm mồm."
 "Này này, các quý cô đâu cả rồi?"</t>
-  </si>
-  <si>
-    <t>"Muốn nghe vài khúc nhạc chứ?"</t>
   </si>
   <si>
     <t>Bạn cảm thấy mặt đất rung lên theo từng bước chân của một Vệ Binh khổng lồ đang giận dữ.
@@ -4203,33 +3743,6 @@
 Bé gái: "Nhìn kìa #bigdaddy, các thiên thần đang nhảy múa trên bầu trời!"
 Bạn nghe thấy tiếng bước chân của một thứ mà bạn KHÔNG BAO GIỜ muốn chọc giận.
 Thình thịch</t>
-  </si>
-  <si>
-    <t>Bé gái: "Giết đi! Giết đi!"
-Bé gái: "Đập nó thành từng mảnh đi!"
-Bé gái: "Tiến lên #bigdaddy, tiến lên!!"</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Bé gái:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> "Hãy no bụng bằng máu của thiên thần."</t>
-    </r>
   </si>
   <si>
     <t>"Ngươi vẫn còn kém xa lắm!"
@@ -4245,9 +3758,6 @@
 "Chấn chỉnh lại thái độ của mình!"</t>
   </si>
   <si>
-    <t>"Đừng bỏ em lại một mình nữa…"</t>
-  </si>
-  <si>
     <t>"Những kẻ xưa cũ sẽ mang đến tai ương…"
 "Khà khà khà…"
 “Theo dòng thời gian khắc nghiệt, những huyền thoại rồi cũng sẽ mất đi sự thật của chúng.”
@@ -4255,22 +3765,6 @@
 "Lúc đó, ta đã…"</t>
   </si>
   <si>
-    <t>"Khà… khà…"
-"Ngươi khao khát diệt vong sao?"
-"Ngươi sẽ giương lưỡi kiếm chống lại ta ư?"
-"Hãy cho ta thấy sức mạnh của ngươi."</t>
-  </si>
-  <si>
-    <t>"Tha thứ cho ta, Telessia…"
-"Hãy cùng trở về với bóng tối."
-"Khà khà khà…"</t>
-  </si>
-  <si>
-    <t>"Khà khà khà…"
-"Đúng là ngu ngốc."
-"Hãy trở về với bóng tối đi."</t>
-  </si>
-  <si>
     <t>"Khởi nghiệp khai phá thực sự là một nghệ thuật."
 "Phải lên kế hoạch thật kỹ lưỡng."
 "Mảnh đất này hứa hẹn một tương lai tươi sáng."
@@ -4278,34 +3772,9 @@
 "Rượu vang của Olvina thì không gì sánh được."</t>
   </si>
   <si>
-    <t>"Chuyện quái gì thế này!"
-"Ngươi đang làm gì vậy!"
-"Ý nghĩa của chuyện này là gì!"</t>
-  </si>
-  <si>
-    <t>"Đau đầu quá…"</t>
-  </si>
-  <si>
-    <t>"Hừ."
-"Đáng đời!"</t>
-  </si>
-  <si>
     <t>Bạn cảm giác như có ai đó đang nhìn chằm chằm vào mình.
 Ai đó khẽ thì thầm một câu thần chú.
 Bạn nghĩ mình vừa nghe thấy một tiếng ngân nga khe khẽ.</t>
-  </si>
-  <si>
-    <t>"Ngốc nghếch."
-"Ngươi muốn chết sao?"
-"Dừng lại."
-"…"</t>
-  </si>
-  <si>
-    <t>"Á!"
-"Không đời nào!"</t>
-  </si>
-  <si>
-    <t>"Chết đi!"</t>
   </si>
   <si>
     <t>Bạn cảm giác như gió đang tinh nghịch chọc vào mình.
@@ -4320,83 +3789,22 @@
 "Âm thanh của nước là người kể chuyện cổ xưa nhất."</t>
   </si>
   <si>
-    <t>"Ta không thích chuyện này, nhưng…"
-"Nếu không còn cách nào khác."
-"Nếu đó là điều ngươi mong muốn."</t>
-  </si>
-  <si>
-    <t>"Giờ ta sẽ đến bên em."</t>
-  </si>
-  <si>
-    <t>"Thật đáng tiếc."
-"Hãy yên nghỉ."
-"Giờ thì ngươi không còn phải chịu đựng nữa."</t>
-  </si>
-  <si>
     <t>"Các quý cô! Xếp hàng từ đây nhé!"
 "Không một người phụ nữ nào có thể cưỡng lại sức quyến rũ của ta."
 *ero-ero-ero-ero*
 "Quả là ta sinh ra đã là món quà của các vị thần dành cho phụ nữ."</t>
   </si>
   <si>
-    <t>"Ta sẽ cho ngươi thấy thế nào mới là một người đàn ông đích thực!"</t>
-  </si>
-  <si>
-    <t>“Mẹ ơi!”</t>
-  </si>
-  <si>
-    <t>"Phì!"</t>
-  </si>
-  <si>
     <t>Bạn nghe thấy tiếng thở gấp gáp của những con chó săn.
 Bạn cảm thấy mình đang bị truy đuổi.</t>
   </si>
   <si>
-    <t>"Ta đã tìm thấy ngươi."
-"Ngươi nghĩ mình có thể thoát sao?"
-"Cái chết đã đuổi kịp ngươi rồi."</t>
-  </si>
-  <si>
-    <t>"Đây là ý chí của các vị thần sao?"
-"Một lời nguyền dành cho ngươi."</t>
-  </si>
-  <si>
-    <t>"Hãy chịu phán xét đi."
-"Đây là ý chí của các vị thần."</t>
-  </si>
-  <si>
-    <t>""Ngu ngốc…”</t>
-  </si>
-  <si>
-    <t>"Tiếp theo…"
-"Hừ…"</t>
-  </si>
-  <si>
-    <t>"Một phần cà tím nướng đây!"</t>
-  </si>
-  <si>
-    <t>"Hả? Tôi… á!?"</t>
-  </si>
-  <si>
-    <t>"Sốc hả ?"</t>
-  </si>
-  <si>
     <t>Bạn cảm giác như đang được ai đó bảo vệ.</t>
-  </si>
-  <si>
-    <t>"Xin thứ lỗi cho con, thưa chủ nhân…"</t>
-  </si>
-  <si>
-    <t>Người bảo vệ phủi bụi trên quần áo của #his.
-Người bảo vệ mỉm cười với bạn.</t>
   </si>
   <si>
     <t>"Rồi sẽ có ngày ta tìm ra kẻ đã tạo ra mình… và đấm hắn một cú."
 "Cậu đã gặp kẻ cuồng búp bê nào chưa? &amp;Ta cần phải trừng trị một tên như thế…"
 "…Ta không phải là đồ phế liệu."</t>
-  </si>
-  <si>
-    <t>"Ta… hình như đã trở nên… rỉ sét rồi…"</t>
   </si>
   <si>
     <t>"Đồ yếu kém."
@@ -4407,42 +3815,11 @@
 Gaki nở một nụ cười gian tà.</t>
   </si>
   <si>
-    <t>"Đồ yếu kém!!"
-"Yếu–yếu–yếu–yếu–yếu kém♪"
-"Đồ yếu kém! Đồ yếu kém!"
-"Yếu kém–yếu kém♥"
-"Yếeeu kémmmm."</t>
-  </si>
-  <si>
-    <t>"Đồ yếu kém…"
-"Đồ yếeeu kém!!"</t>
-  </si>
-  <si>
-    <t>"Đồ yếeeu kém♪"
-"Yếu kém–yếu kém♥"
-"Yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém."</t>
-  </si>
-  <si>
     <t>"Bóng tối là tấm gương của ta."
 "Ta không sợ bóng đêm. Còn ngươi thì sao?"
 "Muốn chạm vào đôi cánh này không?"
 "Khiến ta muốn đi đến một nơi thật xa."
 "Thế giới này thật kỳ lạ, phải không?"</t>
-  </si>
-  <si>
-    <t>"Bóng tối, hãy đến và cùng ta khiêu vũ."
-"Ta sẽ kết thúc chuyện này trong chớp mắt."
-"Thật đáng thương."
-"Bóng tối, hãy tụ lại."</t>
-  </si>
-  <si>
-    <t>"Thế giới này quá chói sáng đối với ta."</t>
-  </si>
-  <si>
-    <t>"Tạm biệt."
-"Kết thúc rồi."
-"Chào mừng đến với thế giới của ta."
-"Hãy để bóng tối nuốt chửng ngươi."</t>
   </si>
   <si>
     <t>“Tháng năm trôi qua, vượt muôn kiếp người và vô tận nẻo đường, nhưng tim ta vẫn còn ghi nhớ.”
@@ -4452,17 +3829,6 @@
 “Một lời thề trói buộc ta trên hành trình này.”
 “Gió vẫn thì thầm gọi tên em.”
 “Ánh nhìn của em tựa giấc mơ đã lãng quên…”</t>
-  </si>
-  <si>
-    <t>"Thật là vô lễ!"
-"Dám cản trở việc tìm kiếm của ta sao!"</t>
-  </si>
-  <si>
-    <t>"Ta sẽ tiếp tục tìm kiếm ngươi &amp;dù ở kiếp sau…"</t>
-  </si>
-  <si>
-    <t>"Ta… xin lỗi…"
-"Những xiềng xích từng là ước nguyện của ta &amp;giờ sẽ chẳng bao giờ buông tha."</t>
   </si>
   <si>
     <t>"#me vẫy vẫy chiếc đuôi bông mềm của mình.
@@ -4479,6 +3845,311 @@
 “Meowdy, dạo này thế nào?”</t>
   </si>
   <si>
+    <t>"Những kẻ lưu đày…"
+"Những kẻ lưu đày…♥"</t>
+  </si>
+  <si>
+    <t>"Chào mừng đến với cửa hàng của tôi!"
+"Hãy xem qua hàng hóa của tôi nhé!"
+"Rất vui khi có bạn ghé thăm."
+#self nhìn bạn và khẽ gật đầu.
+#self vẫy tay chào bạn.</t>
+  </si>
+  <si>
+    <t>"Hãy lại đây xem tôi có gì này, #brother!"
+"Chỉ có ở #festival thôi đấy!"
+"#brother, đang vui chứ?"</t>
+  </si>
+  <si>
+    <t>"Có một cuốn sách mà ta nghĩ ngươi sẽ thích."
+"Cần chút kiến thức mới không?"
+"Ta vừa nhập về sách mới."</t>
+  </si>
+  <si>
+    <t>"Ngươi cần giúp chữa trị chăng?"
+"Thân thể ổn chứ?"
+"Ồ, lại là một nhà thám hiểm nữa à."</t>
+  </si>
+  <si>
+    <t>"Ta có thông tin thú vị cho ngươi!"
+"Có muốn mua một câu chuyện không?"
+"Này, ta có tin tốt cho ngươi đây."</t>
+  </si>
+  <si>
+    <t>"Ngươi muốn gì?"
+"Nói ngắn gọn thôi."
+"Ồ, nhà thám hiểm, có việc gì?"</t>
+  </si>
+  <si>
+    <t>"Ta có thể giám định bất cứ thứ gì."
+"Có cần một người định giá không?"
+"Chuyện pháp khí cứ để ta lo."</t>
+  </si>
+  <si>
+    <t>"Chào mừng."
+"Mang theo nhiều tiền như vậy là không an toàn đâu."
+"Tiền là tất cả!"</t>
+  </si>
+  <si>
+    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Pháp Thuật."</t>
+  </si>
+  <si>
+    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Chiến Binh."</t>
+  </si>
+  <si>
+    <t>"Phía trước là khu vực thuộc quyền quản lý của Hội Đạo Tặc…"</t>
+  </si>
+  <si>
+    <t>"Muốn nghe vài khúc nhạc chứ?"</t>
+  </si>
+  <si>
+    <t>"Đồ khốn vô cảm!"
+"Mày thật hèn hạ!"</t>
+  </si>
+  <si>
+    <t>“Đ-Đừng… dừng lại đi!”  
+“Chẳng lẽ khúc nhạc của tôi dở đến thế sao?”</t>
+  </si>
+  <si>
+    <t>"Ê, dừng lại đi đồ say xỉn."
+"Anh uống nhiều quá rồi hả, thấy mệt chưa?"</t>
+  </si>
+  <si>
+    <t>"X-xin ngài, đừng mà..."
+"Áaaa!"
+"Giết tôi cũng chẳng được lợi gì đâu..."
+"Đừng có coi thường tôi!"
+"Tại sao lại làm thế này!"
+"Phản đối bạo lực!"
+"K-khoan đã...!"</t>
+  </si>
+  <si>
+    <t>"Muốn đánh nhau à?"
+"Tao sẽ lột sạch đồ của mày."</t>
+  </si>
+  <si>
+    <t>“Mình sắp bị gíết mất rùi…”  
+“Chết mất thuiiii!”</t>
+  </si>
+  <si>
+    <t>“Cứu với—!”  
+“Đ-Đừng mà!”  
+“Đồ tay sai của cái ác!”  
+“Đồ biến thái!”  
+"Đ-đ-đi đi!"
+“Sao lại chọc tôi?”  
+“Người lớn đúng là…”</t>
+  </si>
+  <si>
+    <t>"Ngươi đang làm gì vậy!"
+"Đồ man rợ!"
+"Cả tôi nữa sao?"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Tên khốn, tao sẽ lôi mày ra tòa án quân sự.”  </t>
+  </si>
+  <si>
+    <t>"Dừng lại đi, làm ơn."
+"Vô lý quá!"
+"Đồ hèn hạ!"
+"Đồ ngu!"
+"Lũ trẻ thời nay..."
+"Hãy tôn trọng người già!"
+"Ta chẳng có tiền đâu!"</t>
+  </si>
+  <si>
+    <t>"Ngươi làm gì vậy!"
+"Dừng lại!"</t>
+  </si>
+  <si>
+    <t>"Đứng lại đó, tội phạm!"
+"Đồ cặn bã! Đứng yên!"
+"Ngươi đã bị bắt!"
+"Ngươi sẽ phải trả giá cho tội ác của mình."</t>
+  </si>
+  <si>
+    <t>"Đồ sên chậm chạp!"
+"Ngươi gan to thật đấy khi dám chống lại ta."</t>
+  </si>
+  <si>
+    <t>"Kh…không… đừng lại gần… cứu… làm ơn…"</t>
+  </si>
+  <si>
+    <t>"Đồ biến thái!"</t>
+  </si>
+  <si>
+    <t>"Đó là một vấn đề đấy."
+"Chuyện này cũng là một phần trong quá trình rèn luyện của tôi."
+"Có ngăn cũng vô ích thôi."</t>
+  </si>
+  <si>
+    <t>"Cái quái gì thế!"
+"Ngươi sẽ hối hận vì chuyện này."
+"Được rồi, giờ thì không quay đầu lại được nữa."
+"Giờ thì ngươi chết chắc!"
+"Lại đây nào, đồ gà."
+"Hử."
+"Đụng vào ta là ngươi chết."</t>
+  </si>
+  <si>
+    <t>"Vệ binh! Vệ binh!"
+"Phục kích!"
+"Đồ trộm cắp!"</t>
+  </si>
+  <si>
+    <t>"Vô lễ!"
+"Vệ binh! Mau bắt tên ngốc này lại!"
+"Vệ binh! Lại đây mau!"</t>
+  </si>
+  <si>
+    <t>"Hãy chuộc lại tội lỗi của ngươi."
+"Ừ thì… ngươi cần phải bị trừng phạt."
+"Đồ khốn…!"
+"Chết tiệt!"</t>
+  </si>
+  <si>
+    <t>"Đồ hèn."
+"Lại đây nào, cưng."
+"Ồ!"
+"Nôn ra đi, đồ hèn!"
+"Giờ là lúc trừng phạt!"
+"Lại đây!"</t>
+  </si>
+  <si>
+    <t>"Tiền à? Ngươi muốn tiền đúng không?"
+"Tránh ngay cái bàn tay bẩn thỉu của ngươi ra!"
+"Vệ binh, cứu ta mau!"
+"Đồ nông dân tham tiền!"</t>
+  </si>
+  <si>
+    <t>"#brother2, tránh ra!"
+"Đừng có chạm vào #brother2!"
+"Nhìn em này, #brother2♪"</t>
+  </si>
+  <si>
+    <t>"Dừng lại ngay!"
+"Vệ binh! Bắt hắn lại!"</t>
+  </si>
+  <si>
+    <t>"Sao anh/cô có thể làm như vậy chứ?"</t>
+  </si>
+  <si>
+    <t>"Đừng có quấy rối tôi chỉ vì tôi là khách du lịch."
+"Ôi, đất nước này thật nguy hiểm."
+"Vùng đất này thật man rợ."
+"Tôi không có tiền đâu."</t>
+  </si>
+  <si>
+    <t>"Không được phép làm vậy!"
+"Dừng lại ngay!"
+"Tôi sẽ té nước nóng vào cậu đấy!"</t>
+  </si>
+  <si>
+    <t>"Ngươi điên rồi sao?"
+"Vệ binh! Bắt chúng lại!"
+"Ngươi mất trí rồi!"</t>
+  </si>
+  <si>
+    <t>"Đồ ngoại đạo!"
+"Xúc phạm thần linh!"
+"Sao ngươi dám!"
+"Giết! Giết!"</t>
+  </si>
+  <si>
+    <t>"Trời ạ."
+"Ngươi đang vội tìm cái chết à?"
+"Rắc rối thật."</t>
+  </si>
+  <si>
+    <t>"Ngươi cần được dạy dỗ."
+"Thật ngu ngốc."
+"Dừng lại ngay!"</t>
+  </si>
+  <si>
+    <t>"Đó là triết lý của ngươi sao?"
+"Hãy cho ta xem câu chuyện của ngươi."
+"Thế giới này thật nguy hiểm."
+"Này, đừng làm hỏng sách."</t>
+  </si>
+  <si>
+    <t>"Cục tác!"</t>
+  </si>
+  <si>
+    <t>"Be!"</t>
+  </si>
+  <si>
+    <t>"Auuuu!"</t>
+  </si>
+  <si>
+    <t>"Ngươi đã quá trớn rồi đấy!"
+"Giờ thì trừng phạt thôi!"</t>
+  </si>
+  <si>
+    <t>"Xin hãy dừng lại!"
+"Thì ra con người thật của cậu là như vậy…"</t>
+  </si>
+  <si>
+    <t>"Nào, hãy nhảy cho ta xem."</t>
+  </si>
+  <si>
+    <t>Bé gái: "Giết đi! Giết đi!"
+Bé gái: "Đập nó thành từng mảnh đi!"
+Bé gái: "Tiến lên #bigdaddy, tiến lên!!"</t>
+  </si>
+  <si>
+    <t>"Khà… khà…"
+"Ngươi khao khát diệt vong sao?"
+"Ngươi sẽ giương lưỡi kiếm chống lại ta ư?"
+"Hãy cho ta thấy sức mạnh của ngươi."</t>
+  </si>
+  <si>
+    <t>"Chuyện quái gì thế này!"
+"Ngươi đang làm gì vậy!"
+"Ý nghĩa của chuyện này là gì!"</t>
+  </si>
+  <si>
+    <t>"Ngốc nghếch."
+"Ngươi muốn chết sao?"
+"Dừng lại."
+"…"</t>
+  </si>
+  <si>
+    <t>"Ta không thích chuyện này, nhưng…"
+"Nếu không còn cách nào khác."
+"Nếu đó là điều ngươi mong muốn."</t>
+  </si>
+  <si>
+    <t>"Ta sẽ cho ngươi thấy thế nào mới là một người đàn ông đích thực!"</t>
+  </si>
+  <si>
+    <t>"Ta đã tìm thấy ngươi."
+"Ngươi nghĩ mình có thể thoát sao?"
+"Cái chết đã đuổi kịp ngươi rồi."</t>
+  </si>
+  <si>
+    <t>""Ngu ngốc…”</t>
+  </si>
+  <si>
+    <t>"Một phần cà tím nướng đây!"</t>
+  </si>
+  <si>
+    <t>"Đồ yếu kém!!"
+"Yếu–yếu–yếu–yếu–yếu kém♪"
+"Đồ yếu kém! Đồ yếu kém!"
+"Yếu kém–yếu kém♥"
+"Yếeeu kémmmm."</t>
+  </si>
+  <si>
+    <t>"Bóng tối, hãy đến và cùng ta khiêu vũ."
+"Ta sẽ kết thúc chuyện này trong chớp mắt."
+"Thật đáng thương."
+"Bóng tối, hãy tụ lại."</t>
+  </si>
+  <si>
+    <t>"Thật là vô lễ!"
+"Dám cản trở việc tìm kiếm của ta sao!"</t>
+  </si>
+  <si>
     <t>#me dựng đứng hết lông lên.
 Chiếc đuôi bông xù của #me giờ đã to gấp đôi.
 Đôi mắt #me đang sáng rực rỡ.
@@ -4489,6 +4160,247 @@
 “Ta muốn thấy máu… hiểu chứ?”</t>
   </si>
   <si>
+    <t>“Đây mới gọi là nghệ thuật!”  
+“Tôi vốn sống yên bình, xa lánh tranh chấp cơ mà…”  
+“Nghệ thuậttttt đó~!”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Không thể nào!"
+"Nó thực sự cay nghiệt."
+"Tôi tệ đến mức đó sao?" </t>
+  </si>
+  <si>
+    <t>"Tôi bị một tên say rượu giết..."
+"Số phận thật lố bịch."</t>
+  </si>
+  <si>
+    <t>"Đồ tàn nhẫn!"
+"Áaaa!"
+"Tôi đâu đáng phải chịu thế này..."
+"Thật bất công."
+"Chỉ vì tôi là kẻ ăn xin..."
+"Cuộc đời tôi rốt cuộc là gì chứ..."</t>
+  </si>
+  <si>
+    <t>"Đồ khốn!"
+"Chuyện này chưa kết thúc đâu!"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Về… nh…à… thôi…”  </t>
+  </si>
+  <si>
+    <t>“Cupo!”  
+“Cupaoo!”  
+“Cupa~~~!”</t>
+  </si>
+  <si>
+    <t>“Mẹ ơi…”  
+“Hu hu…”  
+“Xuống địa ngục đi!”  
+“Waaa~aa!”  
+“Ughhh!”  
+“Mình… còn muốn sống nữa…”  
+“Cha mẹ ơi… tha thứ cho đứa con bất hiếu này…”</t>
+  </si>
+  <si>
+    <t>“Tôi vốn là một công dân lương thiện mà…”  
+“Đồ khốn!”  
+“Bó tay rồi…”  
+“Guèh…!”  
+“Không thể nào…”  
+“Tại sao lại là tôi chứ—!”  
+“Đây… đây là trò đùa gì thế!?”</t>
+  </si>
+  <si>
+    <t>“Tôi vốn là thỏ lương thiện mà…”  
+“Đồ khốn!”  
+“Bó tay rồi…”  
+“Guèh…!”  
+“Không thể nào…”  
+“Tại sao lại là tôi chứ—!”  
+“Đây… đây là trò đùa gì thế!?”</t>
+  </si>
+  <si>
+    <t>“Đồ nhãi láo toét!”</t>
+  </si>
+  <si>
+    <t>"Chúa sẽ trừng phạt ngươi!"
+"Những năm tháng tuổi già của ta..."
+"Quỷ dữ!"
+"Ughhh!"
+"Ta sẽ hiện hồn về ám ngươi!"
+"Ta… chết rồi sao?"</t>
+  </si>
+  <si>
+    <t>"Tao… tao…!"
+"Chỉ vì tao là dân quê mà…!"
+"Đừng có phí phạm đồ ăn!"
+"Khụ…!"</t>
+  </si>
+  <si>
+    <t>"Cái gì?"</t>
+  </si>
+  <si>
+    <t>*Hííí… hííí…*</t>
+  </si>
+  <si>
+    <t>"Ôi không, xác của ta sẽ làm ô nhiễm cả thành phố mất!"</t>
+  </si>
+  <si>
+    <t>"Kh…không… tôi không muốn chết… khôngoooo!"</t>
+  </si>
+  <si>
+    <t>"B… ba…"</t>
+  </si>
+  <si>
+    <t>"Ugh…"
+"Thông điệp này… gửi tới Palmia…"</t>
+  </si>
+  <si>
+    <t>"Không phải ở đây…!"
+"Hngh…"</t>
+  </si>
+  <si>
+    <t>"Ngươi… rồi sẽ phải trả giá cho chuyện này…"
+"Khôngooo!"
+"Đồ sát nhân!"
+"Dừng lại!"
+"X-xin tha cho tôi…"
+"Arrr–rr…"
+"Đ-đừng!"</t>
+  </si>
+  <si>
+    <t>"Xin tha mạng cho tôi."
+"Aaaa…."</t>
+  </si>
+  <si>
+    <t>"Tôi sẽ mách với ba tôi."
+"Cái gì! Sao ngươi dám!"
+"Không… Dừng lại…"</t>
+  </si>
+  <si>
+    <t>"Lạy Chúa, xin hãy giúp con!"</t>
+  </si>
+  <si>
+    <t>"Chạy mau!"
+"Ngươi điên rồi!"
+"Khốn kiếp!"
+"Nhảm nhí!"
+"Dừng lại!"
+"Ta không thể thua!"</t>
+  </si>
+  <si>
+    <t>"Ta sẽ không cho ngươi dù chỉ một xu."
+"Ôi Chúa ơi…"
+"Đồ khốn!"
+"Ta không muốn chết…!"
+"Thật may là ta đã viết di chúc."</t>
+  </si>
+  <si>
+    <t>"Không… không…!"
+"Xin lỗi… tôi đã làm cậu thất vọng."</t>
+  </si>
+  <si>
+    <t>"K…không!"</t>
+  </si>
+  <si>
+    <t>"Em… không thể… #brother2!"</t>
+  </si>
+  <si>
+    <t>"Ta… xin lỗi…"</t>
+  </si>
+  <si>
+    <t>"Ngươi không có trái tim sao?"</t>
+  </si>
+  <si>
+    <t>"Đáng lẽ tôi không nên tới một đất nước như thế này!"
+"Đó là một vụ tấn công khủng bố!"
+"Không!"</t>
+  </si>
+  <si>
+    <t>"Đám lính vô dụng."</t>
+  </si>
+  <si>
+    <t>"Lạy Chúa…!"
+"Giờ con sẽ đến với Ngài, lạy Chúa của con!"
+"Nguyện Chúa nguyền rủa ngươi!"</t>
+  </si>
+  <si>
+    <t>"Fia… ta xin lỗi."</t>
+  </si>
+  <si>
+    <t>"Chắc ta sẽ khám phá thế giới bên kia tiếp vậy…"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"G.. ừ… ư…u" </t>
+  </si>
+  <si>
+    <t>"Ư ư…"</t>
+  </si>
+  <si>
+    <t>“Làm lại từ đầu vậy”</t>
+  </si>
+  <si>
+    <t>"Khônggg!"</t>
+  </si>
+  <si>
+    <t>"Thật quá đáng…"</t>
+  </si>
+  <si>
+    <t>"Tại sao lại làm vậy?"</t>
+  </si>
+  <si>
+    <t>"Á!"
+"Không thể!"</t>
+  </si>
+  <si>
+    <t>"Không thể nào…!"</t>
+  </si>
+  <si>
+    <t>"Đừng bỏ em lại một mình nữa…"</t>
+  </si>
+  <si>
+    <t>"Tha thứ cho ta, Telessia…"
+"Hãy cùng trở về với bóng tối."
+"Khà khà khà…"</t>
+  </si>
+  <si>
+    <t>"Đau đầu quá…"</t>
+  </si>
+  <si>
+    <t>"Á!"
+"Không đời nào!"</t>
+  </si>
+  <si>
+    <t>"Giờ ta sẽ đến bên em."</t>
+  </si>
+  <si>
+    <t>“Mẹ ơi!”</t>
+  </si>
+  <si>
+    <t>"Đây là ý chí của các vị thần sao?"
+"Một lời nguyền dành cho ngươi."</t>
+  </si>
+  <si>
+    <t>"Hả? Tôi… á!?"</t>
+  </si>
+  <si>
+    <t>"Xin thứ lỗi cho con, thưa chủ nhân…"</t>
+  </si>
+  <si>
+    <t>"Ta… hình như đã trở nên… rỉ sét rồi…"</t>
+  </si>
+  <si>
+    <t>"Đồ yếu kém…"
+"Đồ yếeeu kém!!"</t>
+  </si>
+  <si>
+    <t>"Thế giới này quá chói sáng đối với ta."</t>
+  </si>
+  <si>
+    <t>"Ta sẽ tiếp tục tìm kiếm ngươi &amp;dù ở kiếp sau…"</t>
+  </si>
+  <si>
     <t>"Không được!"
 "Cẩn thận…"
 "Kẻ này khó xơi đấy…"
@@ -4499,6 +4411,187 @@
 "Hơn nữa, đâu phải là vô ích… đúng không?"</t>
   </si>
   <si>
+    <t>"Tôi chẳng quan tâm đến con người nữa!"</t>
+  </si>
+  <si>
+    <t>"Đoán là giờ anh tỉnh rượu rồi nhỉ?"</t>
+  </si>
+  <si>
+    <t>"Yếu! Quá yếu!"
+"Hả?"
+"Ha ha ha!"</t>
+  </si>
+  <si>
+    <t>“Ngủ ngon nhé.”</t>
+  </si>
+  <si>
+    <t>*phì~*
+"Meoow!"
+"Meew!"
+"Meow meow."
+Bạn nghe thấy tiếng mèo mài móng vuốt.</t>
+  </si>
+  <si>
+    <t>“Á~ giật cả mềnh!”</t>
+  </si>
+  <si>
+    <t>Con mèo đen khẽ vẫy đuôi.</t>
+  </si>
+  <si>
+    <t>"Yếu xìu!"</t>
+  </si>
+  <si>
+    <t>"Sức mạnh nhân dân."</t>
+  </si>
+  <si>
+    <t>"Sức mạnh thỏ."</t>
+  </si>
+  <si>
+    <t>"Trời ạ… sao ngươi yếu thế hả?"
+"Thanh niên thời nay đúng là chẳng ra gì."</t>
+  </si>
+  <si>
+    <t>"Yếu xìu à."</t>
+  </si>
+  <si>
+    <t>"Hí hííí!"</t>
+  </si>
+  <si>
+    <t>"Quả mọng của ta sẽ được lấp đầy bằng máu của một thiên thần..."</t>
+  </si>
+  <si>
+    <t>"Đúng là một người lớn đáng khinh!"</t>
+  </si>
+  <si>
+    <t>"#self xù đuôi lên."
+"#self vẫy đuôi thật mạnh."</t>
+  </si>
+  <si>
+    <t>"Nhìn ngươi kìa."
+"Tạm biệt."</t>
+  </si>
+  <si>
+    <t>"Chết đi, đồ trộm cắp."
+"Ngươi đáng phải chịu điều này."</t>
+  </si>
+  <si>
+    <t>"Rác rưởi"</t>
+  </si>
+  <si>
+    <t>"Xuống địa ngục đi."</t>
+  </si>
+  <si>
+    <t>"Đừng bao giờ coi thường ta nữa."
+"Gyahaha!"
+"Xuống địa ngục đi."</t>
+  </si>
+  <si>
+    <t>Cô bé phủi bụi trên quần áo của mình.
+Cô bé mỉm cười với bạn.
+Bạn nhìn cô bé với ánh mắt ngưỡng mộ.</t>
+  </si>
+  <si>
+    <t>Bạn xoa đầu em gái mình.
+Bạn nheo mắt nhìn em gái.
+Em gái ngước mắt nhìn bạn.</t>
+  </si>
+  <si>
+    <t>"Đi nào, mau dọn cái xác khó coi này đi."</t>
+  </si>
+  <si>
+    <t>"Yếu xìu."</t>
+  </si>
+  <si>
+    <t>"Tự ngươi chuốc lấy thôi."
+"Đáng đời lắm, đồ sâu bọ♪"</t>
+  </si>
+  <si>
+    <t>"Kẻ ngu ngốc."</t>
+  </si>
+  <si>
+    <t>"Hãy sám hối!"
+"Ngươi nhận lấy điều mình tạo ra."
+"Một cái chết xứng đáng cho kẻ ngoại đạo."</t>
+  </si>
+  <si>
+    <t>"Đã kết thúc rồi sao?"
+"Thật đáng tiếc."</t>
+  </si>
+  <si>
+    <t>Fiama phủi bụi trên quần áo của mình.</t>
+  </si>
+  <si>
+    <t>"Vậy đó là câu chuyện của ngươi… Một kết thúc buồn."</t>
+  </si>
+  <si>
+    <t>"Đồ vô dụng này!"</t>
+  </si>
+  <si>
+    <t>"Mình không thích mấy thứ đáng sợ…"</t>
+  </si>
+  <si>
+    <t>Cô tiểu thư phủi bụi trên quần áo.
+Cô tiểu thư nhìn bạn và mỉm cười rạng rỡ.
+Bạn bị cuốn hút bởi cô tiểu thư.
+"Ufufu♪"</t>
+  </si>
+  <si>
+    <t>“Vô vị.”</t>
+  </si>
+  <si>
+    <t>Bé gái: "Hãy no bụng bằng máu của thiên thần."</t>
+  </si>
+  <si>
+    <t>"Khà khà khà…"
+"Đúng là ngu ngốc."
+"Hãy trở về với bóng tối đi."</t>
+  </si>
+  <si>
+    <t>"Hừ."
+"Đáng đời!"</t>
+  </si>
+  <si>
+    <t>"Chết đi!"</t>
+  </si>
+  <si>
+    <t>"Thật đáng tiếc."
+"Hãy yên nghỉ."
+"Giờ thì ngươi không còn phải chịu đựng nữa."</t>
+  </si>
+  <si>
+    <t>"Phì!"</t>
+  </si>
+  <si>
+    <t>"Hãy chịu phán xét đi."
+"Đây là ý chí của các vị thần."</t>
+  </si>
+  <si>
+    <t>"Tiếp theo…"
+"Hừ…"</t>
+  </si>
+  <si>
+    <t>"Sốc hả ?"</t>
+  </si>
+  <si>
+    <t>Người bảo vệ phủi bụi trên quần áo của #his.
+Người bảo vệ mỉm cười với bạn.</t>
+  </si>
+  <si>
+    <t>"Đồ yếeeu kém♪"
+"Yếu kém–yếu kém♥"
+"Yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém, yếu kém."</t>
+  </si>
+  <si>
+    <t>"Tạm biệt."
+"Kết thúc rồi."
+"Chào mừng đến với thế giới của ta."
+"Hãy để bóng tối nuốt chửng ngươi."</t>
+  </si>
+  <si>
+    <t>"Ta… xin lỗi…"
+"Những xiềng xích từng là ước nguyện của ta &amp;giờ sẽ chẳng bao giờ buông tha."</t>
+  </si>
+  <si>
     <t>#me vươn người thật dài.
 #me đang lau đi những vệt máu bắn ra.
 “Trông ổn đấy, #onii2.”
@@ -4509,45 +4602,65 @@
 “Hehe.”</t>
   </si>
   <si>
-    <t>"Những kẻ lưu đày…"
-"Những kẻ lưu đày…♥"</t>
-  </si>
-  <si>
-    <t>"Bạn nghe thấy tiếng cầu nguyện từ xa."
-"Hãy lại đây, những chú mèo con lạc lối, ta sẽ dẫn các con tới ánh sáng."
-"Hãy cầu nguyện thật thành tâm. Luôn luôn có cơ hội để được cứu rỗi."
-"Hãy đối xử với người khác như cách bạn muốn họ đối xử với mình."</t>
-  </si>
-  <si>
-    <t>"Duy nhất, 1 cái duy nhất!"
-"Mọi người mau lại xem!"
-"Hãy nhìn đây! Cuộn may mắn huyền thoại đã xuất hiện!"
-"Đợi đến khi thấy những gì tôi có ở đây nhé!"</t>
+    <t>*Thình* *thịch*</t>
+  </si>
+  <si>
+    <t>"Ngươi có biết câu chuyện cổ tích về một phù thủy độc ác biến hoàng tử khôi ngô thành quái thú không?"
+Gương mặt nghiêng tuyệt đẹp của Elea khiến bước chân ngươi khựng lại trong thoáng chốc.
+"Thế giới này giờ đang chuẩn bị rơi vào hỗn loạn. Chúng ta phải giữ vững bản thân giữa cơn biến động ấy."
+"Người đàn ông ta trông thấy ở Vernis... chẳng lẽ là hắn..."
+Ai đó thì thầm bằng một ngôn ngữ cổ xưa thần bí.
+"Ngươi kiêu ngạo quá đấy. Elea vốn đã bị coi là kẻ dị giáo rồi, sự ngạo mạn của ngươi chỉ làm mọi chuyện tệ hơn thôi."</t>
+  </si>
+  <si>
+    <t>"Đợi đến lúc bọn họ nghe tin chúng ta mang tới..."
+"Hah! Để rồi xem, lúc đó họ mới biết thế nào là rắc rối thật sự!"
+"Ồ... nơi này trông cũng đáng sống đấy chứ."
+"Hừ! Từ đây đến Vernis thì ngay cả một đứa trẻ cũng chỉ mất chưa tới một ngày đi bộ. Ta chẳng lo trễ đâu."
+"Mà... cái cô nàng ở quán rượu ấy..."
+Tiếng ai đó đang thử dây cung vang lên khe khẽ.</t>
+  </si>
+  <si>
+    <t>"Òooooooong!"</t>
+  </si>
+  <si>
+    <t>"Vò…ò…"</t>
+  </si>
+  <si>
+    <t>“Chúng ta thật sự phải chiến đấu sao?”
+“Xin lỗi, nhưng tôi không có thời gian để chơi đùa đâu.”
+Cô bé tộc Elea ném ánh nhìn giận dữ, đôi mắt xinh đẹp lạnh lùng như băng.</t>
+  </si>
+  <si>
+    <t>“Ngươi lại lấy ân trả oán sao?”</t>
+  </si>
+  <si>
+    <t>"GRUUUUÀOOOOOO!"</t>
+  </si>
+  <si>
+    <t>“U… ai đó… phải báo cho Quốc vương Jabi về dị biến của gió… nếu cứ thế này thì…”</t>
+  </si>
+  <si>
+    <t>“Chuyện quái gì thế này… đừng nói là thật chứ…”</t>
+  </si>
+  <si>
+    <t>“Ư…ư…”</t>
+  </si>
+  <si>
+    <t>"Xin lỗi…"</t>
+  </si>
+  <si>
+    <t>“Lúc nào cũng có một kẻ mà ta chẳng bao giờ hiểu nổi.”</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -4578,13 +4691,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4899,24 +5011,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q117"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D51" sqref="D51"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="17" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="75.109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="88.77734375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="59.109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="8" width="16" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26.5546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="11" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4969,33 +5083,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>675</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>708</v>
-      </c>
-      <c r="J3" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I3" t="s">
+        <v>830</v>
+      </c>
+      <c r="J3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" t="s">
         <v>20</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>709</v>
-      </c>
-      <c r="M3" s="2" t="s">
+      <c r="L3" t="s">
+        <v>881</v>
+      </c>
+      <c r="M3" t="s">
         <v>21</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" t="s">
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>710</v>
+        <v>939</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5004,12 +5118,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>676</v>
+        <v>712</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -5039,37 +5153,37 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>677</v>
-      </c>
-      <c r="C5" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" t="s">
         <v>35</v>
       </c>
       <c r="L6" t="s">
@@ -5091,77 +5205,77 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>675</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>705</v>
-      </c>
-      <c r="D7" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C7" t="s">
+        <v>742</v>
+      </c>
+      <c r="D7" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" t="s">
         <v>42</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>706</v>
-      </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" t="s">
+        <v>831</v>
+      </c>
+      <c r="J7" t="s">
         <v>43</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" t="s">
         <v>44</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>707</v>
-      </c>
-      <c r="M7" s="2" t="s">
+      <c r="L7" t="s">
+        <v>882</v>
+      </c>
+      <c r="M7" t="s">
         <v>45</v>
       </c>
-      <c r="N7" s="2" t="s">
+      <c r="N7" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>675</v>
-      </c>
-      <c r="C8" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="C8" t="s">
+        <v>743</v>
+      </c>
+      <c r="D8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" t="s">
         <v>49</v>
       </c>
-      <c r="I8" s="2" t="s">
-        <v>712</v>
-      </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" t="s">
+        <v>832</v>
+      </c>
+      <c r="J8" t="s">
         <v>50</v>
       </c>
-      <c r="K8" s="2" t="s">
+      <c r="K8" t="s">
         <v>51</v>
       </c>
-      <c r="L8" s="2" t="s">
-        <v>713</v>
-      </c>
-      <c r="M8" s="2" t="s">
+      <c r="L8" t="s">
+        <v>883</v>
+      </c>
+      <c r="M8" t="s">
         <v>52</v>
       </c>
-      <c r="N8" s="2" t="s">
+      <c r="N8" t="s">
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>714</v>
+        <v>940</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5170,108 +5284,108 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>675</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>715</v>
-      </c>
-      <c r="D9" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C9" t="s">
+        <v>744</v>
+      </c>
+      <c r="D9" t="s">
         <v>57</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="2" t="s">
-        <v>716</v>
-      </c>
-      <c r="J9" s="2" t="s">
+      <c r="I9" t="s">
+        <v>833</v>
+      </c>
+      <c r="J9" t="s">
         <v>59</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="K9" t="s">
         <v>60</v>
       </c>
-      <c r="L9" s="2" t="s">
-        <v>717</v>
-      </c>
-      <c r="M9" s="2" t="s">
+      <c r="L9" t="s">
+        <v>884</v>
+      </c>
+      <c r="M9" t="s">
         <v>61</v>
       </c>
-      <c r="N9" s="2" t="s">
+      <c r="N9" t="s">
         <v>62</v>
       </c>
-      <c r="O9" s="2" t="s">
-        <v>718</v>
-      </c>
-      <c r="P9" s="2" t="s">
+      <c r="O9" t="s">
+        <v>941</v>
+      </c>
+      <c r="P9" t="s">
         <v>63</v>
       </c>
-      <c r="Q9" s="2" t="s">
+      <c r="Q9" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>675</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>719</v>
-      </c>
-      <c r="D10" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C10" t="s">
+        <v>745</v>
+      </c>
+      <c r="D10" t="s">
         <v>66</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" t="s">
         <v>67</v>
       </c>
-      <c r="I10" s="2" t="s">
-        <v>720</v>
-      </c>
-      <c r="K10" s="2" t="s">
+      <c r="I10" t="s">
+        <v>834</v>
+      </c>
+      <c r="K10" t="s">
         <v>68</v>
       </c>
-      <c r="L10" s="2" t="s">
-        <v>721</v>
-      </c>
-      <c r="N10" s="2" t="s">
+      <c r="L10" t="s">
+        <v>885</v>
+      </c>
+      <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>722</v>
+        <v>942</v>
       </c>
       <c r="Q10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>678</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>730</v>
-      </c>
-      <c r="D11" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C11" t="s">
+        <v>746</v>
+      </c>
+      <c r="D11" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" t="s">
         <v>73</v>
       </c>
-      <c r="I11" s="2" t="s">
+      <c r="I11" t="s">
         <v>74</v>
       </c>
-      <c r="J11" s="2" t="s">
+      <c r="J11" t="s">
         <v>74</v>
       </c>
-      <c r="K11" s="2" t="s">
+      <c r="K11" t="s">
         <v>75</v>
       </c>
       <c r="L11" t="s">
@@ -5283,43 +5397,43 @@
       <c r="N11" t="s">
         <v>77</v>
       </c>
-      <c r="O11" s="2" t="s">
-        <v>723</v>
-      </c>
-      <c r="P11" s="2" t="s">
+      <c r="O11" t="s">
+        <v>943</v>
+      </c>
+      <c r="P11" t="s">
         <v>78</v>
       </c>
-      <c r="Q11" s="2" t="s">
+      <c r="Q11" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>679</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>724</v>
-      </c>
-      <c r="D12" s="2" t="s">
+        <v>716</v>
+      </c>
+      <c r="C12" t="s">
+        <v>747</v>
+      </c>
+      <c r="D12" t="s">
         <v>81</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>82</v>
       </c>
-      <c r="I12" s="2" t="s">
-        <v>725</v>
-      </c>
-      <c r="J12" s="2" t="s">
+      <c r="I12" t="s">
+        <v>835</v>
+      </c>
+      <c r="J12" t="s">
         <v>83</v>
       </c>
-      <c r="K12" s="2" t="s">
+      <c r="K12" t="s">
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>726</v>
+        <v>886</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5328,7 +5442,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>727</v>
+        <v>944</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5337,20 +5451,20 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>677</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>728</v>
-      </c>
-      <c r="D13" s="2" t="s">
+        <v>713</v>
+      </c>
+      <c r="C13" t="s">
+        <v>748</v>
+      </c>
+      <c r="D13" t="s">
         <v>90</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>91</v>
       </c>
       <c r="I13" t="s">
@@ -5359,39 +5473,39 @@
       <c r="K13" t="s">
         <v>92</v>
       </c>
-      <c r="L13" s="2" t="s">
-        <v>729</v>
+      <c r="L13" t="s">
+        <v>887</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
       </c>
-      <c r="N13" s="2" t="s">
+      <c r="N13" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D14" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C14" t="s">
+        <v>749</v>
+      </c>
+      <c r="D14" t="s">
         <v>96</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>98</v>
       </c>
       <c r="L14" t="s">
@@ -5403,35 +5517,34 @@
       <c r="N14" t="s">
         <v>99</v>
       </c>
-      <c r="O14" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="P14" s="2" t="s">
+      <c r="O14" t="s">
+        <v>945</v>
+      </c>
+      <c r="P14" t="s">
         <v>78</v>
       </c>
       <c r="Q14" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>680</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D15" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="C15" t="s">
+        <v>750</v>
+      </c>
+      <c r="D15" t="s">
         <v>102</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" t="s">
         <v>103</v>
       </c>
-      <c r="L15" t="str">
-        <f>N15</f>
-        <v>@cat</v>
+      <c r="L15" t="s">
+        <v>104</v>
       </c>
       <c r="M15" t="s">
         <v>104</v>
@@ -5449,33 +5562,33 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>681</v>
-      </c>
-      <c r="I16" s="2" t="s">
-        <v>734</v>
-      </c>
-      <c r="J16" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I16" t="s">
+        <v>836</v>
+      </c>
+      <c r="J16" t="s">
         <v>106</v>
       </c>
-      <c r="K16" s="2" t="s">
+      <c r="K16" t="s">
         <v>107</v>
       </c>
-      <c r="L16" s="2" t="s">
-        <v>735</v>
-      </c>
-      <c r="M16" s="2" t="s">
+      <c r="L16" t="s">
+        <v>888</v>
+      </c>
+      <c r="M16" t="s">
         <v>108</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" t="s">
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>736</v>
+        <v>946</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5484,32 +5597,32 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>682</v>
-      </c>
-      <c r="C17" s="2" t="s">
+        <v>719</v>
+      </c>
+      <c r="C17" t="s">
         <v>113</v>
       </c>
-      <c r="D17" s="2" t="s">
+      <c r="D17" t="s">
         <v>113</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" t="s">
         <v>114</v>
       </c>
       <c r="I17" t="s">
         <v>113</v>
       </c>
-      <c r="J17" s="2" t="s">
+      <c r="J17" t="s">
         <v>113</v>
       </c>
       <c r="K17" t="s">
         <v>114</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="L17" t="s">
         <v>113</v>
       </c>
       <c r="M17" t="s">
@@ -5518,7 +5631,7 @@
       <c r="N17" t="s">
         <v>114</v>
       </c>
-      <c r="O17" s="2" t="s">
+      <c r="O17" t="s">
         <v>113</v>
       </c>
       <c r="P17" t="s">
@@ -5528,33 +5641,33 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>675</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="J18" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I18" t="s">
+        <v>837</v>
+      </c>
+      <c r="J18" t="s">
         <v>116</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="K18" t="s">
         <v>117</v>
       </c>
-      <c r="L18" s="2" t="s">
-        <v>738</v>
-      </c>
-      <c r="M18" s="2" t="s">
+      <c r="L18" t="s">
+        <v>889</v>
+      </c>
+      <c r="M18" t="s">
         <v>118</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" t="s">
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>739</v>
+        <v>947</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5563,33 +5676,33 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>681</v>
-      </c>
-      <c r="I19" s="2" t="s">
-        <v>737</v>
-      </c>
-      <c r="J19" s="2" t="s">
+        <v>718</v>
+      </c>
+      <c r="I19" t="s">
+        <v>837</v>
+      </c>
+      <c r="J19" t="s">
         <v>116</v>
       </c>
-      <c r="K19" s="2" t="s">
+      <c r="K19" t="s">
         <v>117</v>
       </c>
-      <c r="L19" s="2" t="s">
-        <v>740</v>
-      </c>
-      <c r="M19" s="2" t="s">
+      <c r="L19" t="s">
+        <v>890</v>
+      </c>
+      <c r="M19" t="s">
         <v>123</v>
       </c>
-      <c r="N19" s="2" t="s">
+      <c r="N19" t="s">
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>741</v>
+        <v>948</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5598,24 +5711,24 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>675</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>742</v>
-      </c>
-      <c r="D20" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C20" t="s">
+        <v>751</v>
+      </c>
+      <c r="D20" t="s">
         <v>128</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" t="s">
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>743</v>
+        <v>838</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5624,7 +5737,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>744</v>
+        <v>891</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5636,56 +5749,56 @@
         <v>134</v>
       </c>
       <c r="P20" t="s">
-        <v>745</v>
+        <v>134</v>
       </c>
       <c r="Q20" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>675</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>746</v>
-      </c>
-      <c r="J21" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I21" t="s">
+        <v>839</v>
+      </c>
+      <c r="J21" t="s">
         <v>137</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="K21" t="s">
         <v>138</v>
       </c>
-      <c r="L21" s="2" t="s">
-        <v>747</v>
-      </c>
-      <c r="M21" s="2" t="s">
+      <c r="L21" t="s">
+        <v>892</v>
+      </c>
+      <c r="M21" t="s">
         <v>139</v>
       </c>
-      <c r="N21" s="2" t="s">
+      <c r="N21" t="s">
         <v>140</v>
       </c>
-      <c r="O21" s="2" t="s">
-        <v>748</v>
-      </c>
-      <c r="P21" s="2" t="s">
+      <c r="O21" t="s">
+        <v>949</v>
+      </c>
+      <c r="P21" t="s">
         <v>141</v>
       </c>
-      <c r="Q21" s="2" t="s">
+      <c r="Q21" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>675</v>
-      </c>
-      <c r="I22" s="2" t="s">
-        <v>749</v>
+        <v>711</v>
+      </c>
+      <c r="I22" t="s">
+        <v>840</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5693,17 +5806,17 @@
       <c r="K22" t="s">
         <v>145</v>
       </c>
-      <c r="L22" s="2" t="s">
-        <v>750</v>
-      </c>
-      <c r="M22" s="2" t="s">
+      <c r="L22" t="s">
+        <v>893</v>
+      </c>
+      <c r="M22" t="s">
         <v>146</v>
       </c>
-      <c r="N22" s="2" t="s">
+      <c r="N22" t="s">
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>751</v>
+        <v>950</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5712,50 +5825,50 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:17" ht="390" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>678</v>
-      </c>
-      <c r="C23" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C23" t="s">
         <v>752</v>
       </c>
-      <c r="D23" s="2" t="s">
+      <c r="D23" t="s">
         <v>151</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>675</v>
-      </c>
-      <c r="C24" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C24" t="s">
         <v>753</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" t="s">
         <v>154</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" t="s">
         <v>155</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="I24" t="s">
         <v>156</v>
       </c>
-      <c r="J24" s="2" t="s">
+      <c r="J24" t="s">
         <v>156</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="K24" t="s">
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>754</v>
+        <v>894</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5773,20 +5886,20 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>675</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>755</v>
-      </c>
-      <c r="J25" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="I25" t="s">
+        <v>841</v>
+      </c>
+      <c r="J25" t="s">
         <v>163</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="K25" t="s">
         <v>164</v>
       </c>
       <c r="L25" t="s">
@@ -5799,687 +5912,693 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>675</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>756</v>
-      </c>
-      <c r="D26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" t="s">
+        <v>988</v>
+      </c>
+      <c r="D26" t="s">
         <v>167</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" t="s">
         <v>168</v>
       </c>
-      <c r="L26" t="s">
-        <v>757</v>
-      </c>
-      <c r="M26" t="s">
+      <c r="I26" t="s">
+        <v>988</v>
+      </c>
+      <c r="J26" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
         <v>169</v>
       </c>
-      <c r="N26" t="s">
+      <c r="B27" t="s">
+        <v>711</v>
+      </c>
+      <c r="C27" t="s">
+        <v>754</v>
+      </c>
+      <c r="D27" t="s">
         <v>170</v>
       </c>
-      <c r="O26" t="s">
-        <v>758</v>
-      </c>
-      <c r="P26" t="s">
+      <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="Q26" t="s">
+      <c r="L27" t="s">
+        <v>895</v>
+      </c>
+      <c r="M27" t="s">
         <v>172</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="N27" t="s">
         <v>173</v>
       </c>
-      <c r="B27" t="s">
-        <v>675</v>
-      </c>
-      <c r="I27" s="2" t="s">
-        <v>759</v>
-      </c>
-      <c r="J27" s="2" t="s">
+      <c r="O27" t="s">
+        <v>951</v>
+      </c>
+      <c r="P27" t="s">
         <v>174</v>
       </c>
-      <c r="K27" s="2" t="s">
+      <c r="Q27" t="s">
         <v>175</v>
       </c>
-      <c r="L27" t="s">
-        <v>760</v>
-      </c>
-      <c r="M27" t="s">
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>176</v>
       </c>
-      <c r="N27" t="s">
+      <c r="B28" t="s">
+        <v>711</v>
+      </c>
+      <c r="I28" t="s">
+        <v>842</v>
+      </c>
+      <c r="J28" t="s">
         <v>177</v>
       </c>
-      <c r="O27" t="s">
+      <c r="K28" t="s">
         <v>178</v>
       </c>
-      <c r="P27" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q27" t="s">
+      <c r="L28" t="s">
+        <v>896</v>
+      </c>
+      <c r="M28" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
+      <c r="N28" t="s">
         <v>180</v>
       </c>
-      <c r="B28" t="s">
-        <v>683</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>761</v>
-      </c>
-      <c r="D28" s="2" t="s">
+      <c r="O28" t="s">
         <v>181</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="P28" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q28" t="s">
         <v>182</v>
       </c>
-      <c r="I28" t="s">
-        <v>762</v>
-      </c>
-      <c r="J28" t="s">
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>183</v>
       </c>
-      <c r="K28" t="s">
+      <c r="B29" t="s">
+        <v>720</v>
+      </c>
+      <c r="C29" t="s">
+        <v>755</v>
+      </c>
+      <c r="D29" t="s">
         <v>184</v>
       </c>
-      <c r="L28" t="s">
-        <v>763</v>
-      </c>
-      <c r="M28" t="s">
+      <c r="E29" t="s">
         <v>185</v>
       </c>
-      <c r="N28" t="s">
+      <c r="I29" t="s">
+        <v>843</v>
+      </c>
+      <c r="J29" t="s">
         <v>186</v>
       </c>
-      <c r="O28" t="s">
-        <v>764</v>
-      </c>
-      <c r="P28" t="s">
+      <c r="K29" t="s">
         <v>187</v>
       </c>
-      <c r="Q28" t="s">
+      <c r="L29" t="s">
+        <v>897</v>
+      </c>
+      <c r="M29" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" ht="285" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
+      <c r="N29" t="s">
         <v>189</v>
       </c>
-      <c r="B29" t="s">
-        <v>684</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>765</v>
-      </c>
-      <c r="D29" s="2" t="s">
+      <c r="O29" t="s">
+        <v>952</v>
+      </c>
+      <c r="P29" t="s">
         <v>190</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="Q29" t="s">
         <v>191</v>
       </c>
-      <c r="I29" t="s">
-        <v>762</v>
-      </c>
-      <c r="J29" t="s">
-        <v>183</v>
-      </c>
-      <c r="K29" t="s">
-        <v>184</v>
-      </c>
-      <c r="L29" t="s">
-        <v>763</v>
-      </c>
-      <c r="M29" t="s">
-        <v>185</v>
-      </c>
-      <c r="N29" t="s">
-        <v>186</v>
-      </c>
-      <c r="O29" t="s">
-        <v>764</v>
-      </c>
-      <c r="P29" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q29" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17" ht="255" hidden="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>192</v>
       </c>
       <c r="B30" t="s">
-        <v>684</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>766</v>
-      </c>
-      <c r="D30" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C30" t="s">
+        <v>756</v>
+      </c>
+      <c r="D30" t="s">
         <v>193</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" t="s">
         <v>194</v>
       </c>
       <c r="I30" t="s">
-        <v>762</v>
+        <v>843</v>
       </c>
       <c r="J30" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="K30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="L30" t="s">
-        <v>763</v>
+        <v>897</v>
       </c>
       <c r="M30" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="N30" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="O30" t="s">
-        <v>764</v>
+        <v>952</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q30" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>684</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>767</v>
-      </c>
-      <c r="D31" s="2" t="s">
+        <v>721</v>
+      </c>
+      <c r="C31" t="s">
+        <v>757</v>
+      </c>
+      <c r="D31" t="s">
         <v>196</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" t="s">
         <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>768</v>
+        <v>843</v>
       </c>
       <c r="J31" t="s">
+        <v>186</v>
+      </c>
+      <c r="K31" t="s">
+        <v>187</v>
+      </c>
+      <c r="L31" t="s">
+        <v>897</v>
+      </c>
+      <c r="M31" t="s">
+        <v>188</v>
+      </c>
+      <c r="N31" t="s">
+        <v>189</v>
+      </c>
+      <c r="O31" t="s">
+        <v>952</v>
+      </c>
+      <c r="P31" t="s">
+        <v>190</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
         <v>198</v>
       </c>
-      <c r="K31" t="s">
+      <c r="B32" t="s">
+        <v>721</v>
+      </c>
+      <c r="C32" t="s">
+        <v>758</v>
+      </c>
+      <c r="D32" t="s">
         <v>199</v>
       </c>
-      <c r="L31" t="s">
-        <v>769</v>
-      </c>
-      <c r="M31" t="s">
+      <c r="E32" t="s">
         <v>200</v>
       </c>
-      <c r="N31" t="s">
+      <c r="I32" t="s">
+        <v>844</v>
+      </c>
+      <c r="J32" t="s">
         <v>201</v>
       </c>
-      <c r="O31" t="s">
-        <v>770</v>
-      </c>
-      <c r="P31" t="s">
+      <c r="K32" t="s">
         <v>202</v>
       </c>
-      <c r="Q31" t="s">
+      <c r="L32" t="s">
+        <v>898</v>
+      </c>
+      <c r="M32" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
+      <c r="N32" t="s">
         <v>204</v>
       </c>
-      <c r="B32" t="s">
-        <v>675</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>771</v>
-      </c>
-      <c r="D32" s="2" t="s">
+      <c r="O32" t="s">
+        <v>953</v>
+      </c>
+      <c r="P32" t="s">
         <v>205</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="Q32" t="s">
         <v>206</v>
       </c>
-      <c r="I32" s="2" t="s">
-        <v>772</v>
-      </c>
-      <c r="J32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>207</v>
       </c>
-      <c r="K32" s="2" t="s">
+      <c r="B33" t="s">
+        <v>711</v>
+      </c>
+      <c r="C33" t="s">
+        <v>759</v>
+      </c>
+      <c r="D33" t="s">
         <v>208</v>
       </c>
-      <c r="L32" s="2" t="s">
-        <v>773</v>
-      </c>
-      <c r="M32" s="2" t="s">
+      <c r="E33" t="s">
         <v>209</v>
       </c>
-      <c r="N32" s="2" t="s">
+      <c r="I33" t="s">
+        <v>845</v>
+      </c>
+      <c r="J33" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
+      <c r="K33" t="s">
         <v>211</v>
       </c>
-      <c r="B33" t="s">
-        <v>676</v>
-      </c>
-      <c r="L33" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="M33" s="2" t="s">
+      <c r="L33" t="s">
+        <v>899</v>
+      </c>
+      <c r="M33" t="s">
         <v>212</v>
       </c>
       <c r="N33" t="s">
         <v>213</v>
       </c>
-      <c r="O33" s="2" t="s">
-        <v>775</v>
-      </c>
-      <c r="P33" s="2" t="s">
+      <c r="P33" t="s">
         <v>214</v>
       </c>
-      <c r="Q33" s="2" t="s">
+      <c r="Q33" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="34" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>216</v>
       </c>
       <c r="B34" t="s">
-        <v>675</v>
-      </c>
-      <c r="I34" s="2" t="s">
-        <v>776</v>
-      </c>
-      <c r="J34" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="L34" t="s">
+        <v>900</v>
+      </c>
+      <c r="M34" t="s">
         <v>217</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="N34" t="s">
         <v>218</v>
       </c>
-      <c r="L34" s="2" t="s">
-        <v>777</v>
-      </c>
-      <c r="M34" s="2" t="s">
+      <c r="O34" t="s">
+        <v>954</v>
+      </c>
+      <c r="P34" t="s">
         <v>219</v>
       </c>
-      <c r="N34" s="2" t="s">
+      <c r="Q34" t="s">
         <v>220</v>
       </c>
-      <c r="O34" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="P34" s="2" t="s">
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>221</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="B35" t="s">
+        <v>711</v>
+      </c>
+      <c r="I35" t="s">
+        <v>846</v>
+      </c>
+      <c r="J35" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
+      <c r="K35" t="s">
         <v>223</v>
       </c>
-      <c r="B35" t="s">
-        <v>675</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>779</v>
-      </c>
-      <c r="G35" s="2" t="s">
+      <c r="L35" t="s">
+        <v>901</v>
+      </c>
+      <c r="M35" t="s">
         <v>224</v>
       </c>
-      <c r="H35" s="2" t="s">
+      <c r="N35" t="s">
         <v>225</v>
       </c>
-      <c r="I35" s="2" t="s">
-        <v>780</v>
-      </c>
-      <c r="J35" s="2" t="s">
+      <c r="O35" t="s">
+        <v>955</v>
+      </c>
+      <c r="P35" t="s">
         <v>226</v>
       </c>
-      <c r="K35" s="2" t="s">
+      <c r="Q35" t="s">
         <v>227</v>
       </c>
-      <c r="L35" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="M35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>228</v>
       </c>
-      <c r="N35" s="2" t="s">
+      <c r="B36" t="s">
+        <v>711</v>
+      </c>
+      <c r="F36" t="s">
+        <v>818</v>
+      </c>
+      <c r="G36" t="s">
         <v>229</v>
       </c>
-      <c r="O35" s="2" t="s">
-        <v>782</v>
-      </c>
-      <c r="P35" s="2" t="s">
+      <c r="H36" t="s">
         <v>230</v>
       </c>
-      <c r="Q35" s="2" t="s">
+      <c r="I36" t="s">
+        <v>847</v>
+      </c>
+      <c r="J36" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
+      <c r="K36" t="s">
         <v>232</v>
       </c>
-      <c r="B36" t="s">
-        <v>685</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>783</v>
-      </c>
-      <c r="D36" s="2" t="s">
+      <c r="L36" t="s">
+        <v>902</v>
+      </c>
+      <c r="M36" t="s">
         <v>233</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="N36" t="s">
         <v>234</v>
       </c>
-      <c r="F36" t="s">
-        <v>235</v>
-      </c>
-      <c r="G36" t="s">
-        <v>235</v>
-      </c>
-      <c r="H36" t="s">
-        <v>235</v>
-      </c>
-      <c r="I36" t="s">
-        <v>235</v>
-      </c>
-      <c r="J36" t="s">
-        <v>235</v>
-      </c>
-      <c r="K36" t="s">
-        <v>235</v>
-      </c>
-      <c r="L36" t="s">
-        <v>235</v>
-      </c>
-      <c r="M36" t="s">
-        <v>235</v>
-      </c>
-      <c r="N36" t="s">
-        <v>235</v>
-      </c>
       <c r="O36" t="s">
-        <v>235</v>
+        <v>956</v>
       </c>
       <c r="P36" t="s">
         <v>235</v>
       </c>
       <c r="Q36" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" t="s">
-        <v>686</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="E37" s="2" t="s">
+        <v>722</v>
+      </c>
+      <c r="C37" t="s">
+        <v>760</v>
+      </c>
+      <c r="D37" t="s">
         <v>238</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>785</v>
+      <c r="E37" t="s">
+        <v>239</v>
+      </c>
+      <c r="F37" t="s">
+        <v>240</v>
       </c>
       <c r="G37" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H37" t="s">
         <v>240</v>
       </c>
-      <c r="I37" s="2" t="s">
-        <v>780</v>
+      <c r="I37" t="s">
+        <v>240</v>
       </c>
       <c r="J37" t="s">
-        <v>226</v>
+        <v>240</v>
       </c>
       <c r="K37" t="s">
-        <v>227</v>
-      </c>
-      <c r="L37" s="2" t="s">
-        <v>781</v>
-      </c>
-      <c r="M37" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="N37" s="2" t="s">
-        <v>229</v>
-      </c>
-      <c r="O37" s="2" t="s">
-        <v>782</v>
+        <v>240</v>
+      </c>
+      <c r="L37" t="s">
+        <v>240</v>
+      </c>
+      <c r="M37" t="s">
+        <v>240</v>
+      </c>
+      <c r="N37" t="s">
+        <v>240</v>
+      </c>
+      <c r="O37" t="s">
+        <v>240</v>
       </c>
       <c r="P37" t="s">
-        <v>230</v>
+        <v>240</v>
       </c>
       <c r="Q37" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>241</v>
       </c>
       <c r="B38" t="s">
-        <v>675</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>786</v>
-      </c>
-      <c r="D38" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C38" t="s">
+        <v>761</v>
+      </c>
+      <c r="D38" t="s">
         <v>242</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F38" t="s">
+        <v>819</v>
+      </c>
+      <c r="G38" t="s">
+        <v>244</v>
+      </c>
+      <c r="H38" t="s">
+        <v>245</v>
+      </c>
+      <c r="I38" t="s">
+        <v>847</v>
+      </c>
+      <c r="J38" t="s">
+        <v>231</v>
+      </c>
+      <c r="K38" t="s">
+        <v>232</v>
+      </c>
+      <c r="L38" t="s">
+        <v>902</v>
+      </c>
+      <c r="M38" t="s">
+        <v>233</v>
+      </c>
+      <c r="N38" t="s">
+        <v>234</v>
+      </c>
+      <c r="O38" t="s">
+        <v>956</v>
+      </c>
+      <c r="P38" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B39" t="s">
-        <v>675</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C39" t="s">
+        <v>762</v>
+      </c>
+      <c r="D39" t="s">
+        <v>247</v>
+      </c>
+      <c r="E39" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>678</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>787</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>247</v>
-      </c>
-      <c r="I40" s="2" t="s">
-        <v>788</v>
-      </c>
-      <c r="J40" t="s">
-        <v>248</v>
-      </c>
-      <c r="K40" t="s">
-        <v>249</v>
-      </c>
-      <c r="L40" s="2" t="s">
-        <v>789</v>
-      </c>
-      <c r="M40" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
         <v>250</v>
       </c>
-      <c r="N40" t="s">
+      <c r="B41" t="s">
+        <v>715</v>
+      </c>
+      <c r="C41" t="s">
+        <v>763</v>
+      </c>
+      <c r="D41" t="s">
         <v>251</v>
       </c>
-      <c r="O40" t="s">
-        <v>790</v>
-      </c>
-      <c r="P40" t="s">
+      <c r="E41" t="s">
         <v>252</v>
       </c>
-      <c r="Q40" t="s">
+      <c r="I41" t="s">
+        <v>848</v>
+      </c>
+      <c r="J41" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
+      <c r="K41" t="s">
         <v>254</v>
       </c>
-      <c r="B41" t="s">
-        <v>675</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>952</v>
-      </c>
-      <c r="D41" s="2" t="s">
+      <c r="L41" t="s">
+        <v>903</v>
+      </c>
+      <c r="M41" t="s">
         <v>255</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="N41" t="s">
         <v>256</v>
       </c>
-      <c r="I41" s="2" t="s">
-        <v>791</v>
-      </c>
-      <c r="J41" s="2" t="s">
+      <c r="O41" t="s">
+        <v>957</v>
+      </c>
+      <c r="P41" t="s">
         <v>257</v>
       </c>
-      <c r="K41" t="s">
+      <c r="Q41" t="s">
         <v>258</v>
       </c>
-      <c r="L41" t="s">
-        <v>792</v>
-      </c>
-      <c r="M41" t="s">
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>259</v>
       </c>
-      <c r="N41" t="s">
+      <c r="B42" t="s">
+        <v>711</v>
+      </c>
+      <c r="C42" t="s">
+        <v>764</v>
+      </c>
+      <c r="D42" t="s">
         <v>260</v>
       </c>
-      <c r="O41" t="s">
-        <v>793</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="E42" t="s">
         <v>261</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="I42" t="s">
+        <v>849</v>
+      </c>
+      <c r="J42" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
+      <c r="K42" t="s">
         <v>263</v>
       </c>
-      <c r="B42" t="s">
-        <v>687</v>
-      </c>
-      <c r="I42" s="2" t="s">
-        <v>794</v>
-      </c>
-      <c r="J42" s="2" t="s">
+      <c r="L42" t="s">
+        <v>904</v>
+      </c>
+      <c r="M42" t="s">
         <v>264</v>
       </c>
-      <c r="K42" t="s">
+      <c r="N42" t="s">
         <v>265</v>
       </c>
-      <c r="L42" s="2" t="s">
-        <v>795</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="O42" t="s">
+        <v>958</v>
+      </c>
+      <c r="P42" t="s">
         <v>266</v>
       </c>
-      <c r="N42" t="s">
+      <c r="Q42" t="s">
         <v>267</v>
       </c>
-      <c r="O42" s="2" t="s">
-        <v>796</v>
-      </c>
-      <c r="Q42" s="2" t="s">
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
+      <c r="B43" t="s">
+        <v>724</v>
+      </c>
+      <c r="I43" t="s">
+        <v>850</v>
+      </c>
+      <c r="J43" t="s">
         <v>269</v>
       </c>
-      <c r="B43" t="s">
-        <v>678</v>
-      </c>
-      <c r="I43" s="2" t="s">
-        <v>797</v>
-      </c>
-      <c r="J43" s="2" t="s">
+      <c r="K43" t="s">
         <v>270</v>
       </c>
-      <c r="K43" s="2" t="s">
+      <c r="L43" t="s">
+        <v>905</v>
+      </c>
+      <c r="M43" t="s">
         <v>271</v>
       </c>
-      <c r="L43" s="2" t="s">
-        <v>798</v>
-      </c>
-      <c r="M43" s="2" t="s">
+      <c r="N43" t="s">
         <v>272</v>
       </c>
-      <c r="N43" t="s">
+      <c r="O43" t="s">
+        <v>959</v>
+      </c>
+      <c r="Q43" t="s">
         <v>273</v>
       </c>
-      <c r="O43" t="s">
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>274</v>
       </c>
-      <c r="P43" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="B44" t="s">
+        <v>715</v>
+      </c>
+      <c r="I44" t="s">
+        <v>851</v>
+      </c>
+      <c r="J44" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="K44" t="s">
         <v>276</v>
       </c>
-      <c r="B44" t="s">
-        <v>675</v>
-      </c>
-      <c r="L44" s="2" t="s">
-        <v>799</v>
+      <c r="L44" t="s">
+        <v>906</v>
       </c>
       <c r="M44" t="s">
         <v>277</v>
@@ -6487,8 +6606,8 @@
       <c r="N44" t="s">
         <v>278</v>
       </c>
-      <c r="O44" s="2" t="s">
-        <v>800</v>
+      <c r="O44" t="s">
+        <v>279</v>
       </c>
       <c r="P44" t="s">
         <v>279</v>
@@ -6497,191 +6616,182 @@
         <v>280</v>
       </c>
     </row>
-    <row r="45" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>281</v>
       </c>
       <c r="B45" t="s">
-        <v>681</v>
-      </c>
-      <c r="C45" t="s">
+        <v>711</v>
+      </c>
+      <c r="L45" t="s">
+        <v>907</v>
+      </c>
+      <c r="M45" t="s">
         <v>282</v>
       </c>
-      <c r="D45" t="s">
-        <v>282</v>
-      </c>
-      <c r="E45" t="s">
+      <c r="N45" t="s">
         <v>283</v>
       </c>
-      <c r="L45" t="s">
-        <v>801</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
+        <v>960</v>
+      </c>
+      <c r="P45" t="s">
         <v>284</v>
       </c>
-      <c r="N45" t="s">
+      <c r="Q45" t="s">
         <v>285</v>
       </c>
-      <c r="O45" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="P45" s="2" t="s">
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>286</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="B46" t="s">
+        <v>718</v>
+      </c>
+      <c r="C46" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" ht="375" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
+      <c r="D46" t="s">
+        <v>287</v>
+      </c>
+      <c r="E46" t="s">
         <v>288</v>
       </c>
-      <c r="B46" t="s">
-        <v>678</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>803</v>
-      </c>
-      <c r="D46" s="2" t="s">
+      <c r="L46" t="s">
+        <v>908</v>
+      </c>
+      <c r="M46" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="N46" t="s">
         <v>290</v>
       </c>
-      <c r="I46" s="2" t="s">
-        <v>804</v>
-      </c>
-      <c r="J46" s="2" t="s">
+      <c r="O46" t="s">
+        <v>961</v>
+      </c>
+      <c r="P46" t="s">
         <v>291</v>
       </c>
-      <c r="K46" s="2" t="s">
+      <c r="Q46" t="s">
         <v>292</v>
       </c>
-      <c r="L46" t="s">
-        <v>805</v>
-      </c>
-      <c r="M46" t="s">
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>293</v>
       </c>
-      <c r="N46" t="s">
+      <c r="B47" t="s">
+        <v>715</v>
+      </c>
+      <c r="C47" t="s">
+        <v>765</v>
+      </c>
+      <c r="D47" t="s">
         <v>294</v>
       </c>
-      <c r="O46" s="2" t="s">
-        <v>802</v>
-      </c>
-      <c r="P46" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="Q46" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="47" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+      <c r="E47" t="s">
         <v>295</v>
       </c>
-      <c r="B47" t="s">
-        <v>675</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>806</v>
-      </c>
-      <c r="D47" s="2" t="s">
+      <c r="I47" t="s">
+        <v>852</v>
+      </c>
+      <c r="J47" t="s">
         <v>296</v>
       </c>
-      <c r="E47" s="2" t="s">
+      <c r="K47" t="s">
         <v>297</v>
       </c>
-      <c r="I47" s="2" t="s">
-        <v>807</v>
-      </c>
-      <c r="J47" t="s">
+      <c r="L47" t="s">
+        <v>909</v>
+      </c>
+      <c r="M47" t="s">
         <v>298</v>
       </c>
-      <c r="K47" t="s">
+      <c r="N47" t="s">
         <v>299</v>
       </c>
-      <c r="L47" t="s">
-        <v>808</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="O47" t="s">
+        <v>961</v>
+      </c>
+      <c r="P47" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q47" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>300</v>
       </c>
-      <c r="N47" t="s">
+      <c r="B48" t="s">
+        <v>711</v>
+      </c>
+      <c r="C48" t="s">
+        <v>766</v>
+      </c>
+      <c r="D48" t="s">
         <v>301</v>
       </c>
-      <c r="O47" t="s">
-        <v>809</v>
-      </c>
-      <c r="P47" t="s">
+      <c r="E48" t="s">
         <v>302</v>
       </c>
-      <c r="Q47" t="s">
+      <c r="I48" t="s">
+        <v>853</v>
+      </c>
+      <c r="J48" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
+      <c r="K48" t="s">
         <v>304</v>
       </c>
-      <c r="B48" t="s">
-        <v>678</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>810</v>
-      </c>
-      <c r="D48" s="2" t="s">
+      <c r="L48" t="s">
+        <v>910</v>
+      </c>
+      <c r="M48" t="s">
         <v>305</v>
       </c>
-      <c r="E48" s="2" t="s">
+      <c r="N48" t="s">
         <v>306</v>
       </c>
-      <c r="I48" t="s">
-        <v>811</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="O48" t="s">
+        <v>962</v>
+      </c>
+      <c r="P48" t="s">
         <v>307</v>
       </c>
-      <c r="K48" t="s">
+      <c r="Q48" t="s">
         <v>308</v>
       </c>
-      <c r="L48" t="s">
-        <v>812</v>
-      </c>
-      <c r="M48" t="s">
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>309</v>
       </c>
-      <c r="N48" t="s">
+      <c r="B49" t="s">
+        <v>715</v>
+      </c>
+      <c r="C49" t="s">
+        <v>767</v>
+      </c>
+      <c r="D49" t="s">
         <v>310</v>
       </c>
-      <c r="O48" t="s">
-        <v>812</v>
-      </c>
-      <c r="P48" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q48" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="49" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+      <c r="E49" t="s">
         <v>311</v>
       </c>
-      <c r="B49" t="s">
-        <v>675</v>
-      </c>
-      <c r="I49" s="2" t="s">
-        <v>813</v>
-      </c>
-      <c r="J49" s="2" t="s">
+      <c r="I49" t="s">
+        <v>854</v>
+      </c>
+      <c r="J49" t="s">
         <v>312</v>
       </c>
       <c r="K49" t="s">
         <v>313</v>
       </c>
-      <c r="L49" s="2" t="s">
-        <v>814</v>
+      <c r="L49" t="s">
+        <v>911</v>
       </c>
       <c r="M49" t="s">
         <v>314</v>
@@ -6690,337 +6800,319 @@
         <v>315</v>
       </c>
       <c r="O49" t="s">
-        <v>815</v>
+        <v>911</v>
       </c>
       <c r="P49" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q49" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>316</v>
       </c>
-      <c r="Q49" t="s">
+      <c r="B50" t="s">
+        <v>711</v>
+      </c>
+      <c r="I50" t="s">
+        <v>855</v>
+      </c>
+      <c r="J50" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" ht="105" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+      <c r="K50" t="s">
         <v>318</v>
       </c>
-      <c r="B50" t="s">
-        <v>688</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>953</v>
-      </c>
-      <c r="D50" s="2" t="s">
+      <c r="L50" t="s">
+        <v>912</v>
+      </c>
+      <c r="M50" t="s">
         <v>319</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="N50" t="s">
         <v>320</v>
       </c>
-      <c r="I50" t="s">
-        <v>321</v>
-      </c>
-      <c r="J50" t="s">
-        <v>321</v>
-      </c>
-      <c r="K50" t="s">
-        <v>321</v>
-      </c>
-      <c r="L50" t="s">
-        <v>321</v>
-      </c>
-      <c r="M50" t="s">
-        <v>321</v>
-      </c>
-      <c r="N50" t="s">
-        <v>321</v>
-      </c>
       <c r="O50" t="s">
-        <v>321</v>
+        <v>963</v>
       </c>
       <c r="P50" t="s">
         <v>321</v>
       </c>
       <c r="Q50" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="51" spans="1:17" ht="210" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B51" t="s">
-        <v>689</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>816</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>323</v>
-      </c>
-      <c r="E51" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C51" t="s">
+        <v>768</v>
+      </c>
+      <c r="D51" t="s">
         <v>324</v>
       </c>
+      <c r="E51" t="s">
+        <v>325</v>
+      </c>
       <c r="I51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P51" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q51" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B52" t="s">
-        <v>688</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>817</v>
-      </c>
-      <c r="D52" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="C52" t="s">
+        <v>769</v>
+      </c>
+      <c r="D52" t="s">
+        <v>328</v>
+      </c>
+      <c r="E52" t="s">
+        <v>329</v>
+      </c>
+      <c r="I52" t="s">
         <v>326</v>
       </c>
-      <c r="E52" s="2" t="s">
-        <v>327</v>
-      </c>
-      <c r="I52" t="s">
-        <v>321</v>
-      </c>
       <c r="J52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P52" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q52" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>688</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>818</v>
-      </c>
-      <c r="D53" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>330</v>
+        <v>725</v>
+      </c>
+      <c r="C53" t="s">
+        <v>770</v>
+      </c>
+      <c r="D53" t="s">
+        <v>331</v>
+      </c>
+      <c r="E53" t="s">
+        <v>332</v>
       </c>
       <c r="I53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="J53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="K53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="L53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="M53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="N53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="O53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P53" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="Q53" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>677</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>819</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>332</v>
-      </c>
-      <c r="E54" s="2" t="s">
-        <v>333</v>
-      </c>
-      <c r="I54" s="2" t="s">
-        <v>820</v>
-      </c>
-      <c r="J54" s="2" t="s">
+        <v>725</v>
+      </c>
+      <c r="C54" t="s">
+        <v>771</v>
+      </c>
+      <c r="D54" t="s">
         <v>334</v>
       </c>
-      <c r="K54" s="2" t="s">
+      <c r="E54" t="s">
         <v>335</v>
       </c>
+      <c r="I54" t="s">
+        <v>326</v>
+      </c>
+      <c r="J54" t="s">
+        <v>326</v>
+      </c>
+      <c r="K54" t="s">
+        <v>326</v>
+      </c>
       <c r="L54" t="s">
+        <v>326</v>
+      </c>
+      <c r="M54" t="s">
+        <v>326</v>
+      </c>
+      <c r="N54" t="s">
+        <v>326</v>
+      </c>
+      <c r="O54" t="s">
+        <v>326</v>
+      </c>
+      <c r="P54" t="s">
+        <v>326</v>
+      </c>
+      <c r="Q54" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
         <v>336</v>
       </c>
-      <c r="M54" t="s">
-        <v>336</v>
-      </c>
-      <c r="N54" t="s">
+      <c r="B55" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" t="s">
+        <v>772</v>
+      </c>
+      <c r="D55" t="s">
         <v>337</v>
       </c>
-      <c r="O54" s="2" t="s">
-        <v>821</v>
-      </c>
-      <c r="P54" s="2" t="s">
+      <c r="E55" t="s">
         <v>338</v>
       </c>
-      <c r="Q54" s="2" t="s">
+      <c r="I55" t="s">
+        <v>856</v>
+      </c>
+      <c r="J55" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+      <c r="K55" t="s">
         <v>340</v>
       </c>
-      <c r="B55" t="s">
-        <v>675</v>
-      </c>
-      <c r="I55" s="2" t="s">
-        <v>822</v>
-      </c>
-      <c r="J55" s="2" t="s">
+      <c r="L55" t="s">
         <v>341</v>
       </c>
-      <c r="K55" s="2" t="s">
+      <c r="M55" t="s">
+        <v>341</v>
+      </c>
+      <c r="N55" t="s">
         <v>342</v>
       </c>
-      <c r="L55" t="s">
-        <v>823</v>
-      </c>
-      <c r="M55" t="s">
+      <c r="O55" t="s">
+        <v>964</v>
+      </c>
+      <c r="P55" t="s">
         <v>343</v>
       </c>
-      <c r="N55" t="s">
+      <c r="Q55" t="s">
         <v>344</v>
       </c>
-      <c r="O55" t="s">
-        <v>824</v>
-      </c>
-      <c r="P55" t="s">
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>345</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="B56" t="s">
+        <v>711</v>
+      </c>
+      <c r="I56" t="s">
+        <v>857</v>
+      </c>
+      <c r="J56" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="K56" t="s">
         <v>347</v>
       </c>
-      <c r="B56" t="s">
-        <v>675</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>825</v>
-      </c>
-      <c r="D56" s="2" t="s">
+      <c r="L56" t="s">
+        <v>913</v>
+      </c>
+      <c r="M56" t="s">
         <v>348</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="N56" t="s">
         <v>349</v>
       </c>
-      <c r="I56" t="s">
-        <v>165</v>
-      </c>
-      <c r="J56" t="s">
-        <v>165</v>
-      </c>
-      <c r="K56" t="s">
-        <v>165</v>
-      </c>
-      <c r="L56" t="s">
-        <v>165</v>
-      </c>
-      <c r="M56" t="s">
-        <v>165</v>
-      </c>
-      <c r="N56" t="s">
-        <v>165</v>
-      </c>
       <c r="O56" t="s">
-        <v>165</v>
+        <v>965</v>
       </c>
       <c r="P56" t="s">
-        <v>165</v>
+        <v>350</v>
       </c>
       <c r="Q56" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="57" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="B57" t="s">
-        <v>675</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>826</v>
-      </c>
-      <c r="D57" s="2" t="s">
-        <v>351</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>827</v>
-      </c>
-      <c r="G57" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C57" t="s">
+        <v>773</v>
+      </c>
+      <c r="D57" t="s">
         <v>353</v>
       </c>
-      <c r="H57" s="2" t="s">
+      <c r="E57" t="s">
         <v>354</v>
       </c>
       <c r="I57" t="s">
@@ -7051,1729 +7143,1759 @@
         <v>165</v>
       </c>
     </row>
-    <row r="58" spans="1:17" ht="240" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>690</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>828</v>
-      </c>
-      <c r="D58" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C58" t="s">
+        <v>774</v>
+      </c>
+      <c r="D58" t="s">
         <v>356</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" t="s">
         <v>357</v>
+      </c>
+      <c r="F58" t="s">
+        <v>820</v>
+      </c>
+      <c r="G58" t="s">
+        <v>358</v>
+      </c>
+      <c r="H58" t="s">
+        <v>359</v>
+      </c>
+      <c r="I58" t="s">
+        <v>165</v>
+      </c>
+      <c r="J58" t="s">
+        <v>165</v>
       </c>
       <c r="K58" t="s">
         <v>165</v>
       </c>
+      <c r="L58" t="s">
+        <v>165</v>
+      </c>
+      <c r="M58" t="s">
+        <v>165</v>
+      </c>
       <c r="N58" t="s">
         <v>165</v>
       </c>
+      <c r="O58" t="s">
+        <v>165</v>
+      </c>
+      <c r="P58" t="s">
+        <v>165</v>
+      </c>
       <c r="Q58" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B59" t="s">
-        <v>675</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>829</v>
-      </c>
-      <c r="G59" s="2" t="s">
-        <v>359</v>
-      </c>
-      <c r="H59" s="2" t="s">
-        <v>360</v>
-      </c>
-      <c r="I59" t="s">
+        <v>727</v>
+      </c>
+      <c r="C59" t="s">
+        <v>775</v>
+      </c>
+      <c r="D59" t="s">
         <v>361</v>
       </c>
-      <c r="J59" t="s">
-        <v>361</v>
+      <c r="E59" t="s">
+        <v>362</v>
       </c>
       <c r="K59" t="s">
-        <v>361</v>
-      </c>
-      <c r="L59" t="s">
-        <v>361</v>
-      </c>
-      <c r="M59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="N59" t="s">
-        <v>361</v>
-      </c>
-      <c r="O59" t="s">
-        <v>361</v>
-      </c>
-      <c r="P59" t="s">
-        <v>361</v>
+        <v>165</v>
       </c>
       <c r="Q59" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="60" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>678</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>363</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>830</v>
-      </c>
-      <c r="E60" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F60" t="s">
+        <v>821</v>
+      </c>
+      <c r="G60" t="s">
         <v>364</v>
       </c>
-      <c r="F60" s="2" t="s">
-        <v>831</v>
-      </c>
-      <c r="G60" t="s">
+      <c r="H60" t="s">
         <v>365</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>366</v>
       </c>
-      <c r="I60" t="s">
-        <v>235</v>
-      </c>
       <c r="J60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="K60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="L60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="M60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="N60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="O60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="P60" t="s">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="Q60" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>367</v>
       </c>
       <c r="B61" t="s">
-        <v>675</v>
+        <v>715</v>
+      </c>
+      <c r="C61" t="s">
+        <v>368</v>
+      </c>
+      <c r="D61" t="s">
+        <v>368</v>
+      </c>
+      <c r="E61" t="s">
+        <v>369</v>
       </c>
       <c r="F61" t="s">
-        <v>368</v>
+        <v>822</v>
       </c>
       <c r="G61" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="H61" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="I61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="J61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="K61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="L61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="M61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="N61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="O61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="P61" t="s">
-        <v>370</v>
+        <v>240</v>
       </c>
       <c r="Q61" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B62" t="s">
-        <v>691</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>832</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>372</v>
-      </c>
-      <c r="E62" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F62" t="s">
         <v>373</v>
       </c>
-      <c r="I62" s="2" t="s">
-        <v>833</v>
+      <c r="G62" t="s">
+        <v>373</v>
+      </c>
+      <c r="H62" t="s">
+        <v>374</v>
+      </c>
+      <c r="I62" t="s">
+        <v>375</v>
       </c>
       <c r="J62" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="K62" t="s">
         <v>375</v>
       </c>
-      <c r="L62" s="2" t="s">
-        <v>834</v>
+      <c r="L62" t="s">
+        <v>375</v>
       </c>
       <c r="M62" t="s">
+        <v>375</v>
+      </c>
+      <c r="N62" t="s">
+        <v>375</v>
+      </c>
+      <c r="O62" t="s">
+        <v>375</v>
+      </c>
+      <c r="P62" t="s">
+        <v>375</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>376</v>
       </c>
-      <c r="N62" t="s">
+      <c r="B63" t="s">
+        <v>728</v>
+      </c>
+      <c r="C63" t="s">
+        <v>776</v>
+      </c>
+      <c r="D63" t="s">
         <v>377</v>
       </c>
-      <c r="O62" s="2" t="s">
-        <v>835</v>
-      </c>
-      <c r="P62" s="2" t="s">
+      <c r="E63" t="s">
         <v>378</v>
       </c>
-      <c r="Q62" t="s">
+      <c r="I63" t="s">
+        <v>858</v>
+      </c>
+      <c r="J63" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+      <c r="K63" t="s">
         <v>380</v>
       </c>
-      <c r="B63" t="s">
-        <v>678</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>836</v>
-      </c>
-      <c r="D63" s="2" t="s">
+      <c r="L63" t="s">
+        <v>914</v>
+      </c>
+      <c r="M63" t="s">
         <v>381</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="N63" t="s">
         <v>382</v>
       </c>
-      <c r="I63" s="2" t="s">
-        <v>837</v>
-      </c>
-      <c r="J63" t="s">
+      <c r="O63" t="s">
+        <v>966</v>
+      </c>
+      <c r="P63" t="s">
         <v>383</v>
       </c>
-      <c r="K63" t="s">
+      <c r="Q63" t="s">
         <v>384</v>
       </c>
-      <c r="L63" t="s">
-        <v>838</v>
-      </c>
-      <c r="M63" t="s">
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>385</v>
       </c>
-      <c r="N63" t="s">
+      <c r="B64" t="s">
+        <v>715</v>
+      </c>
+      <c r="C64" t="s">
+        <v>777</v>
+      </c>
+      <c r="D64" t="s">
         <v>386</v>
       </c>
-      <c r="O63" s="2" t="s">
-        <v>839</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="E64" t="s">
         <v>387</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="I64" t="s">
+        <v>859</v>
+      </c>
+      <c r="J64" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+      <c r="K64" t="s">
         <v>389</v>
       </c>
-      <c r="B64" t="s">
-        <v>678</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>840</v>
-      </c>
-      <c r="D64" s="2" t="s">
+      <c r="L64" t="s">
+        <v>915</v>
+      </c>
+      <c r="M64" t="s">
         <v>390</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="N64" t="s">
         <v>391</v>
       </c>
-      <c r="I64" s="2" t="s">
-        <v>841</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="O64" t="s">
+        <v>967</v>
+      </c>
+      <c r="P64" t="s">
         <v>392</v>
       </c>
-      <c r="K64" t="s">
+      <c r="Q64" t="s">
         <v>393</v>
       </c>
-      <c r="L64" t="s">
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>394</v>
       </c>
-      <c r="M64" t="s">
-        <v>394</v>
-      </c>
-      <c r="N64" t="s">
+      <c r="B65" t="s">
+        <v>715</v>
+      </c>
+      <c r="C65" t="s">
+        <v>778</v>
+      </c>
+      <c r="D65" t="s">
         <v>395</v>
       </c>
-      <c r="O64" t="s">
-        <v>842</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="E65" t="s">
         <v>396</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="I65" t="s">
+        <v>860</v>
+      </c>
+      <c r="J65" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
+      <c r="K65" t="s">
         <v>398</v>
       </c>
-      <c r="B65" t="s">
-        <v>675</v>
-      </c>
-      <c r="F65" s="2" t="s">
-        <v>843</v>
-      </c>
-      <c r="G65" s="2" t="s">
+      <c r="L65" t="s">
         <v>399</v>
       </c>
-      <c r="H65" s="2" t="s">
+      <c r="M65" t="s">
+        <v>399</v>
+      </c>
+      <c r="N65" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O65" t="s">
+        <v>968</v>
+      </c>
+      <c r="P65" t="s">
+        <v>401</v>
+      </c>
+      <c r="Q65" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B66" t="s">
-        <v>675</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>844</v>
-      </c>
-      <c r="G66" s="2" t="s">
-        <v>402</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>403</v>
-      </c>
-      <c r="I66" t="s">
-        <v>235</v>
-      </c>
-      <c r="J66" t="s">
-        <v>235</v>
-      </c>
-      <c r="K66" t="s">
-        <v>235</v>
-      </c>
-      <c r="L66" t="s">
-        <v>235</v>
-      </c>
-      <c r="M66" t="s">
-        <v>235</v>
-      </c>
-      <c r="N66" t="s">
-        <v>235</v>
-      </c>
-      <c r="O66" t="s">
-        <v>235</v>
-      </c>
-      <c r="P66" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q66" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="67" spans="1:17" ht="180" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="F66" t="s">
+        <v>823</v>
+      </c>
+      <c r="G66" t="s">
+        <v>404</v>
+      </c>
+      <c r="H66" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>692</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>845</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>405</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>406</v>
-      </c>
-      <c r="I67" s="2" t="s">
-        <v>846</v>
-      </c>
-      <c r="J67" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="F67" t="s">
+        <v>824</v>
+      </c>
+      <c r="G67" t="s">
         <v>407</v>
       </c>
-      <c r="K67" s="2" t="s">
+      <c r="H67" t="s">
         <v>408</v>
       </c>
+      <c r="I67" t="s">
+        <v>240</v>
+      </c>
+      <c r="J67" t="s">
+        <v>240</v>
+      </c>
+      <c r="K67" t="s">
+        <v>240</v>
+      </c>
       <c r="L67" t="s">
-        <v>847</v>
+        <v>240</v>
       </c>
       <c r="M67" t="s">
+        <v>240</v>
+      </c>
+      <c r="N67" t="s">
+        <v>240</v>
+      </c>
+      <c r="O67" t="s">
+        <v>240</v>
+      </c>
+      <c r="P67" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q67" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
         <v>409</v>
       </c>
-      <c r="N67" t="s">
+      <c r="B68" t="s">
+        <v>729</v>
+      </c>
+      <c r="C68" t="s">
+        <v>779</v>
+      </c>
+      <c r="D68" t="s">
         <v>410</v>
       </c>
-      <c r="O67" t="s">
-        <v>848</v>
-      </c>
-      <c r="P67" t="s">
+      <c r="E68" t="s">
         <v>411</v>
       </c>
-      <c r="Q67" t="s">
+      <c r="I68" t="s">
+        <v>861</v>
+      </c>
+      <c r="J68" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
+      <c r="K68" t="s">
         <v>413</v>
       </c>
-      <c r="B68" t="s">
-        <v>675</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>849</v>
-      </c>
-      <c r="D68" s="2" t="s">
+      <c r="L68" t="s">
+        <v>916</v>
+      </c>
+      <c r="M68" t="s">
         <v>414</v>
       </c>
-      <c r="E68" s="2" t="s">
+      <c r="N68" t="s">
         <v>415</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O68" t="s">
+        <v>969</v>
+      </c>
+      <c r="P68" t="s">
+        <v>416</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="B69" t="s">
-        <v>678</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>850</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>417</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="70" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C69" t="s">
+        <v>780</v>
+      </c>
+      <c r="D69" t="s">
+        <v>419</v>
+      </c>
+      <c r="E69" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>675</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>851</v>
-      </c>
-      <c r="D70" s="2" t="s">
-        <v>420</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="71" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>715</v>
+      </c>
+      <c r="C70" t="s">
+        <v>781</v>
+      </c>
+      <c r="D70" t="s">
+        <v>422</v>
+      </c>
+      <c r="E70" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>675</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>852</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>423</v>
-      </c>
-      <c r="E71" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="72" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C71" t="s">
+        <v>782</v>
+      </c>
+      <c r="D71" t="s">
+        <v>425</v>
+      </c>
+      <c r="E71" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>675</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>853</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="I72" t="s">
-        <v>854</v>
-      </c>
-      <c r="K72" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="73" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C72" t="s">
+        <v>783</v>
+      </c>
+      <c r="D72" t="s">
+        <v>428</v>
+      </c>
+      <c r="E72" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>693</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="D73" s="2" t="s">
-        <v>429</v>
-      </c>
-      <c r="E73" s="2" t="s">
-        <v>430</v>
+        <v>711</v>
+      </c>
+      <c r="C73" t="s">
+        <v>784</v>
+      </c>
+      <c r="E73" t="s">
+        <v>431</v>
       </c>
       <c r="I73" t="s">
-        <v>431</v>
-      </c>
-      <c r="J73" t="s">
-        <v>431</v>
+        <v>862</v>
       </c>
       <c r="K73" t="s">
         <v>432</v>
       </c>
-      <c r="L73" t="s">
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
         <v>433</v>
       </c>
-      <c r="M73" t="s">
-        <v>433</v>
-      </c>
-      <c r="N73" t="s">
+      <c r="B74" t="s">
+        <v>730</v>
+      </c>
+      <c r="C74" t="s">
         <v>434</v>
       </c>
-      <c r="O73" t="s">
+      <c r="D74" t="s">
+        <v>434</v>
+      </c>
+      <c r="E74" t="s">
         <v>435</v>
       </c>
-      <c r="P73" t="s">
-        <v>435</v>
-      </c>
-      <c r="Q73" t="s">
+      <c r="I74" t="s">
         <v>436</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" ht="60" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" t="s">
+      <c r="J74" t="s">
+        <v>436</v>
+      </c>
+      <c r="K74" t="s">
         <v>437</v>
       </c>
-      <c r="B74" t="s">
-        <v>675</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>855</v>
-      </c>
-      <c r="E74" s="2" t="s">
+      <c r="L74" t="s">
         <v>438</v>
       </c>
-      <c r="I74" t="s">
-        <v>857</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
+        <v>438</v>
+      </c>
+      <c r="N74" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="O74" t="s">
+        <v>440</v>
+      </c>
+      <c r="P74" t="s">
+        <v>440</v>
+      </c>
+      <c r="Q74" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="B75" t="s">
-        <v>675</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>856</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>441</v>
+        <v>711</v>
+      </c>
+      <c r="C75" t="s">
+        <v>785</v>
+      </c>
+      <c r="E75" t="s">
+        <v>443</v>
       </c>
       <c r="I75" t="s">
-        <v>858</v>
+        <v>863</v>
       </c>
       <c r="K75" t="s">
-        <v>442</v>
-      </c>
-      <c r="L75" s="3" t="s">
-        <v>859</v>
-      </c>
-      <c r="M75" t="s">
         <v>444</v>
       </c>
-      <c r="N75" t="s">
-        <v>443</v>
-      </c>
-      <c r="O75" t="s">
-        <v>444</v>
-      </c>
-      <c r="P75" t="s">
-        <v>444</v>
-      </c>
-      <c r="Q75" t="s">
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A76" t="s">
+      <c r="B76" t="s">
+        <v>711</v>
+      </c>
+      <c r="C76" t="s">
+        <v>786</v>
+      </c>
+      <c r="E76" t="s">
         <v>446</v>
       </c>
-      <c r="B76" t="s">
-        <v>694</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>860</v>
-      </c>
-      <c r="D76" s="2" t="s">
+      <c r="I76" t="s">
+        <v>864</v>
+      </c>
+      <c r="K76" t="s">
         <v>447</v>
       </c>
-      <c r="E76" s="2" t="s">
+      <c r="L76" t="s">
+        <v>917</v>
+      </c>
+      <c r="N76" t="s">
         <v>448</v>
       </c>
-      <c r="I76" t="s">
-        <v>858</v>
-      </c>
-      <c r="K76" t="s">
-        <v>442</v>
-      </c>
-      <c r="L76" t="s">
-        <v>861</v>
-      </c>
-      <c r="N76" t="s">
+      <c r="O76" t="s">
         <v>449</v>
       </c>
-      <c r="O76" t="s">
-        <v>444</v>
-      </c>
       <c r="P76" t="s">
-        <v>444</v>
+        <v>449</v>
       </c>
       <c r="Q76" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>451</v>
       </c>
       <c r="B77" t="s">
-        <v>675</v>
+        <v>731</v>
+      </c>
+      <c r="C77" t="s">
+        <v>787</v>
+      </c>
+      <c r="D77" t="s">
+        <v>452</v>
+      </c>
+      <c r="E77" t="s">
+        <v>453</v>
+      </c>
+      <c r="I77" t="s">
+        <v>864</v>
+      </c>
+      <c r="K77" t="s">
+        <v>447</v>
       </c>
       <c r="L77" t="s">
-        <v>452</v>
-      </c>
-      <c r="M77" t="s">
-        <v>452</v>
+        <v>918</v>
       </c>
       <c r="N77" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>454</v>
+      </c>
+      <c r="O77" t="s">
+        <v>449</v>
+      </c>
+      <c r="P77" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q77" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="B78" t="s">
-        <v>675</v>
-      </c>
-      <c r="C78" t="s">
-        <v>455</v>
-      </c>
-      <c r="D78" t="s">
-        <v>455</v>
-      </c>
-      <c r="E78" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="79" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="L78" t="s">
+        <v>457</v>
+      </c>
+      <c r="M78" t="s">
+        <v>457</v>
+      </c>
+      <c r="N78" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>675</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>862</v>
-      </c>
-      <c r="D79" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E79" s="2" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="80" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>18</v>
+      </c>
+      <c r="C79" t="s">
+        <v>988</v>
+      </c>
+      <c r="D79" t="s">
+        <v>167</v>
+      </c>
+      <c r="E79" t="s">
+        <v>168</v>
+      </c>
+      <c r="I79" t="s">
+        <v>991</v>
+      </c>
+      <c r="J79" t="s">
+        <v>460</v>
+      </c>
+      <c r="K79" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="L79" t="s">
+        <v>992</v>
+      </c>
+      <c r="M79" t="s">
+        <v>462</v>
+      </c>
+      <c r="N79" t="s">
+        <v>463</v>
+      </c>
+      <c r="O79" t="s">
+        <v>991</v>
+      </c>
+      <c r="P79" t="s">
+        <v>464</v>
+      </c>
+      <c r="Q79" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>460</v>
+        <v>466</v>
       </c>
       <c r="B80" t="s">
-        <v>680</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>863</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="E80" s="2" t="s">
-        <v>462</v>
-      </c>
-      <c r="K80" t="s">
-        <v>864</v>
-      </c>
-      <c r="L80" t="s">
-        <v>463</v>
-      </c>
-      <c r="M80" t="s">
-        <v>463</v>
-      </c>
-      <c r="N80" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C80" t="s">
+        <v>467</v>
+      </c>
+      <c r="D80" t="s">
+        <v>467</v>
+      </c>
+      <c r="E80" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>680</v>
+        <v>711</v>
       </c>
       <c r="C81" t="s">
+        <v>788</v>
+      </c>
+      <c r="D81" t="s">
+        <v>470</v>
+      </c>
+      <c r="E81" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>472</v>
+      </c>
+      <c r="B82" t="s">
+        <v>717</v>
+      </c>
+      <c r="C82" t="s">
+        <v>789</v>
+      </c>
+      <c r="D82" t="s">
+        <v>473</v>
+      </c>
+      <c r="E82" t="s">
+        <v>474</v>
+      </c>
+      <c r="L82" t="s">
+        <v>475</v>
+      </c>
+      <c r="M82" t="s">
+        <v>475</v>
+      </c>
+      <c r="N82" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>477</v>
+      </c>
+      <c r="B83" t="s">
+        <v>717</v>
+      </c>
+      <c r="C83" t="s">
+        <v>790</v>
+      </c>
+      <c r="D83" t="s">
+        <v>478</v>
+      </c>
+      <c r="E83" t="s">
+        <v>479</v>
+      </c>
+      <c r="L83" t="s">
+        <v>919</v>
+      </c>
+      <c r="M83" t="s">
+        <v>480</v>
+      </c>
+      <c r="N83" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>482</v>
+      </c>
+      <c r="B84" t="s">
+        <v>711</v>
+      </c>
+      <c r="C84" t="s">
+        <v>791</v>
+      </c>
+      <c r="E84" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>484</v>
+      </c>
+      <c r="B85" t="s">
+        <v>711</v>
+      </c>
+      <c r="C85" t="s">
+        <v>792</v>
+      </c>
+      <c r="D85" t="s">
+        <v>485</v>
+      </c>
+      <c r="E85" t="s">
+        <v>486</v>
+      </c>
+      <c r="I85" t="s">
         <v>865</v>
       </c>
-      <c r="D81" t="s">
-        <v>466</v>
-      </c>
-      <c r="E81" t="s">
-        <v>467</v>
-      </c>
-      <c r="L81" t="s">
-        <v>866</v>
-      </c>
-      <c r="M81" t="s">
-        <v>468</v>
-      </c>
-      <c r="N81" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="82" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A82" t="s">
-        <v>470</v>
-      </c>
-      <c r="B82" t="s">
-        <v>675</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>867</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="83" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A83" t="s">
-        <v>472</v>
-      </c>
-      <c r="B83" t="s">
-        <v>675</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="D83" s="2" t="s">
-        <v>473</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>474</v>
-      </c>
-      <c r="I83" s="2" t="s">
-        <v>869</v>
-      </c>
-      <c r="K83" s="2" t="s">
-        <v>475</v>
-      </c>
-      <c r="L83" t="s">
-        <v>870</v>
-      </c>
-      <c r="N83" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="84" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
-        <v>476</v>
-      </c>
-      <c r="B84" t="s">
-        <v>675</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>871</v>
-      </c>
-      <c r="D84" s="2" t="s">
-        <v>477</v>
-      </c>
-      <c r="E84" s="2" t="s">
-        <v>478</v>
-      </c>
-      <c r="I84" s="2" t="s">
-        <v>872</v>
-      </c>
-      <c r="J84" t="s">
-        <v>479</v>
-      </c>
-      <c r="K84" t="s">
-        <v>480</v>
-      </c>
-      <c r="L84" t="s">
-        <v>873</v>
-      </c>
-      <c r="M84" t="s">
-        <v>481</v>
-      </c>
-      <c r="N84" t="s">
-        <v>482</v>
-      </c>
-      <c r="O84" t="s">
-        <v>874</v>
-      </c>
-      <c r="P84" t="s">
-        <v>483</v>
-      </c>
-      <c r="Q84" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="85" spans="1:17" ht="225" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A85" t="s">
-        <v>485</v>
-      </c>
-      <c r="B85" t="s">
-        <v>678</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>875</v>
-      </c>
-      <c r="D85" s="2" t="s">
-        <v>486</v>
-      </c>
-      <c r="E85" s="2" t="s">
+      <c r="K85" t="s">
         <v>487</v>
       </c>
-    </row>
-    <row r="86" spans="1:17" ht="195" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L85" t="s">
+        <v>920</v>
+      </c>
+      <c r="N85" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>488</v>
       </c>
       <c r="B86" t="s">
-        <v>686</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="D86" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C86" t="s">
+        <v>793</v>
+      </c>
+      <c r="D86" t="s">
         <v>489</v>
       </c>
-      <c r="E86" s="2" t="s">
+      <c r="E86" t="s">
         <v>490</v>
       </c>
+      <c r="I86" t="s">
+        <v>866</v>
+      </c>
+      <c r="J86" t="s">
+        <v>491</v>
+      </c>
+      <c r="K86" t="s">
+        <v>492</v>
+      </c>
       <c r="L86" t="s">
-        <v>877</v>
+        <v>921</v>
       </c>
       <c r="M86" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="N86" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="O86" t="s">
-        <v>878</v>
+        <v>970</v>
       </c>
       <c r="P86" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="Q86" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="87" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="B87" t="s">
-        <v>675</v>
-      </c>
-      <c r="L87" s="2" t="s">
-        <v>879</v>
-      </c>
-      <c r="M87" t="s">
-        <v>496</v>
-      </c>
-      <c r="N87" t="s">
-        <v>278</v>
-      </c>
-      <c r="O87" s="2" t="s">
-        <v>880</v>
-      </c>
-      <c r="P87" s="2" t="s">
-        <v>497</v>
-      </c>
-      <c r="Q87" s="2" t="s">
+        <v>715</v>
+      </c>
+      <c r="C87" t="s">
+        <v>794</v>
+      </c>
+      <c r="D87" t="s">
         <v>498</v>
       </c>
-    </row>
-    <row r="88" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E87" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>675</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="G88" s="2" t="s">
-        <v>500</v>
-      </c>
-      <c r="H88" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="C88" t="s">
+        <v>795</v>
+      </c>
+      <c r="D88" t="s">
         <v>501</v>
       </c>
-      <c r="I88" t="s">
-        <v>235</v>
-      </c>
-      <c r="J88" t="s">
-        <v>235</v>
-      </c>
-      <c r="K88" t="s">
-        <v>235</v>
+      <c r="E88" t="s">
+        <v>502</v>
       </c>
       <c r="L88" t="s">
-        <v>235</v>
+        <v>922</v>
       </c>
       <c r="M88" t="s">
-        <v>235</v>
+        <v>503</v>
       </c>
       <c r="N88" t="s">
-        <v>235</v>
+        <v>504</v>
       </c>
       <c r="O88" t="s">
-        <v>235</v>
+        <v>971</v>
       </c>
       <c r="P88" t="s">
-        <v>235</v>
+        <v>505</v>
       </c>
       <c r="Q88" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="B89" t="s">
-        <v>675</v>
-      </c>
-      <c r="C89" t="s">
-        <v>882</v>
-      </c>
-      <c r="D89" t="s">
-        <v>503</v>
-      </c>
-      <c r="E89" t="s">
-        <v>504</v>
-      </c>
-      <c r="F89" t="s">
-        <v>885</v>
-      </c>
-      <c r="G89" t="s">
-        <v>505</v>
-      </c>
-      <c r="H89" t="s">
-        <v>506</v>
-      </c>
-    </row>
-    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="L89" t="s">
+        <v>923</v>
+      </c>
+      <c r="M89" t="s">
+        <v>508</v>
+      </c>
+      <c r="N89" t="s">
+        <v>283</v>
+      </c>
+      <c r="O89" t="s">
+        <v>972</v>
+      </c>
+      <c r="P89" t="s">
+        <v>509</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B90" t="s">
-        <v>675</v>
-      </c>
-      <c r="C90" t="s">
-        <v>883</v>
-      </c>
-      <c r="D90" t="s">
-        <v>508</v>
-      </c>
-      <c r="E90" t="s">
-        <v>504</v>
+        <v>711</v>
       </c>
       <c r="F90" t="s">
-        <v>886</v>
+        <v>825</v>
       </c>
       <c r="G90" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="H90" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>513</v>
+      </c>
+      <c r="I90" t="s">
+        <v>240</v>
+      </c>
+      <c r="J90" t="s">
+        <v>240</v>
+      </c>
+      <c r="K90" t="s">
+        <v>240</v>
+      </c>
+      <c r="L90" t="s">
+        <v>240</v>
+      </c>
+      <c r="M90" t="s">
+        <v>240</v>
+      </c>
+      <c r="N90" t="s">
+        <v>240</v>
+      </c>
+      <c r="O90" t="s">
+        <v>240</v>
+      </c>
+      <c r="P90" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q90" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>675</v>
+        <v>711</v>
       </c>
       <c r="C91" t="s">
-        <v>884</v>
+        <v>796</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F91" t="s">
-        <v>887</v>
+        <v>826</v>
       </c>
       <c r="G91" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="H91" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
+        <v>519</v>
+      </c>
+      <c r="B92" t="s">
+        <v>711</v>
+      </c>
+      <c r="C92" t="s">
+        <v>797</v>
+      </c>
+      <c r="D92" t="s">
+        <v>520</v>
+      </c>
+      <c r="E92" t="s">
         <v>516</v>
       </c>
-      <c r="B92" t="s">
-        <v>695</v>
-      </c>
-      <c r="I92" t="s">
-        <v>888</v>
-      </c>
-      <c r="J92" t="s">
-        <v>517</v>
-      </c>
-      <c r="K92" t="s">
-        <v>518</v>
-      </c>
-      <c r="L92" t="s">
-        <v>889</v>
-      </c>
-      <c r="M92" t="s">
-        <v>519</v>
-      </c>
-      <c r="N92" t="s">
-        <v>520</v>
-      </c>
-      <c r="O92" t="s">
-        <v>890</v>
-      </c>
-      <c r="P92" t="s">
+      <c r="F92" t="s">
+        <v>827</v>
+      </c>
+      <c r="G92" t="s">
         <v>521</v>
       </c>
-      <c r="Q92" t="s">
+      <c r="H92" t="s">
         <v>522</v>
       </c>
     </row>
-    <row r="93" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>523</v>
       </c>
       <c r="B93" t="s">
-        <v>675</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>891</v>
-      </c>
-      <c r="D93" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C93" t="s">
+        <v>798</v>
+      </c>
+      <c r="D93" t="s">
         <v>524</v>
       </c>
-      <c r="E93" s="2" t="s">
+      <c r="E93" t="s">
         <v>525</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F93" t="s">
+        <v>828</v>
+      </c>
+      <c r="G93" t="s">
+        <v>526</v>
+      </c>
+      <c r="H93" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="B94" t="s">
-        <v>675</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>892</v>
-      </c>
-      <c r="D94" s="2" t="s">
-        <v>527</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="95" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>732</v>
+      </c>
+      <c r="I94" t="s">
+        <v>867</v>
+      </c>
+      <c r="J94" t="s">
+        <v>529</v>
+      </c>
+      <c r="K94" t="s">
+        <v>530</v>
+      </c>
+      <c r="L94" t="s">
+        <v>924</v>
+      </c>
+      <c r="M94" t="s">
+        <v>531</v>
+      </c>
+      <c r="N94" t="s">
+        <v>532</v>
+      </c>
+      <c r="O94" t="s">
+        <v>973</v>
+      </c>
+      <c r="P94" t="s">
+        <v>533</v>
+      </c>
+      <c r="Q94" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>535</v>
       </c>
       <c r="B95" t="s">
-        <v>675</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>893</v>
-      </c>
-      <c r="D95" s="2" t="s">
-        <v>530</v>
-      </c>
-      <c r="E95" s="2" t="s">
-        <v>531</v>
-      </c>
-      <c r="F95" t="s">
-        <v>894</v>
-      </c>
-      <c r="G95" t="s">
-        <v>532</v>
-      </c>
-      <c r="H95" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="96" spans="1:17" ht="210" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C95" t="s">
+        <v>799</v>
+      </c>
+      <c r="D95" t="s">
+        <v>536</v>
+      </c>
+      <c r="E95" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>895</v>
-      </c>
-      <c r="D96" s="2" t="s">
-        <v>535</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>536</v>
-      </c>
-      <c r="I96" s="2" t="s">
-        <v>896</v>
-      </c>
-      <c r="J96" t="s">
-        <v>537</v>
-      </c>
-      <c r="K96" t="s">
-        <v>538</v>
-      </c>
-      <c r="L96" t="s">
+        <v>711</v>
+      </c>
+      <c r="C96" t="s">
+        <v>800</v>
+      </c>
+      <c r="D96" t="s">
         <v>539</v>
       </c>
-      <c r="M96" t="s">
-        <v>539</v>
-      </c>
-      <c r="N96" t="s">
+      <c r="E96" t="s">
         <v>540</v>
       </c>
-      <c r="O96" t="s">
-        <v>897</v>
-      </c>
-      <c r="P96" t="s">
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
         <v>541</v>
       </c>
-      <c r="Q96" t="s">
+      <c r="B97" t="s">
+        <v>711</v>
+      </c>
+      <c r="C97" t="s">
+        <v>801</v>
+      </c>
+      <c r="D97" t="s">
         <v>542</v>
       </c>
-    </row>
-    <row r="97" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A97" t="s">
+      <c r="E97" t="s">
         <v>543</v>
       </c>
-      <c r="B97" t="s">
-        <v>675</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>898</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="F97" t="s">
+        <v>829</v>
+      </c>
+      <c r="G97" t="s">
         <v>544</v>
       </c>
-      <c r="E97" s="2" t="s">
+      <c r="H97" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:17" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>696</v>
-      </c>
-      <c r="C98" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="C98" t="s">
+        <v>802</v>
+      </c>
+      <c r="D98" t="s">
         <v>547</v>
       </c>
-      <c r="D98" s="2" t="s">
-        <v>547</v>
-      </c>
-      <c r="E98" s="2" t="s">
+      <c r="E98" t="s">
         <v>548</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" ht="75" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>868</v>
+      </c>
+      <c r="J98" t="s">
+        <v>549</v>
+      </c>
+      <c r="K98" t="s">
+        <v>550</v>
+      </c>
+      <c r="L98" t="s">
+        <v>551</v>
+      </c>
+      <c r="M98" t="s">
+        <v>551</v>
+      </c>
+      <c r="N98" t="s">
+        <v>552</v>
+      </c>
+      <c r="O98" t="s">
+        <v>974</v>
+      </c>
+      <c r="P98" t="s">
+        <v>553</v>
+      </c>
+      <c r="Q98" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>549</v>
+        <v>555</v>
       </c>
       <c r="B99" t="s">
-        <v>697</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>899</v>
-      </c>
-      <c r="D99" s="2" t="s">
-        <v>550</v>
-      </c>
-      <c r="E99" s="2" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>711</v>
+      </c>
+      <c r="C99" t="s">
+        <v>803</v>
+      </c>
+      <c r="D99" t="s">
+        <v>556</v>
+      </c>
+      <c r="E99" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>552</v>
+        <v>558</v>
       </c>
       <c r="B100" t="s">
-        <v>698</v>
-      </c>
-    </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>733</v>
+      </c>
+      <c r="C100" t="s">
+        <v>559</v>
+      </c>
+      <c r="D100" t="s">
+        <v>559</v>
+      </c>
+      <c r="E100" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>553</v>
+        <v>561</v>
       </c>
       <c r="B101" t="s">
-        <v>694</v>
-      </c>
-      <c r="L101" t="s">
-        <v>900</v>
-      </c>
-      <c r="M101" t="s">
-        <v>554</v>
-      </c>
-      <c r="N101" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="102" spans="1:17" ht="165" hidden="1" x14ac:dyDescent="0.25">
+        <v>734</v>
+      </c>
+      <c r="C101" t="s">
+        <v>804</v>
+      </c>
+      <c r="D101" t="s">
+        <v>562</v>
+      </c>
+      <c r="E101" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>556</v>
+        <v>564</v>
       </c>
       <c r="B102" t="s">
-        <v>699</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>901</v>
-      </c>
-      <c r="D102" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>558</v>
-      </c>
-      <c r="I102" s="2" t="s">
-        <v>902</v>
-      </c>
-      <c r="J102" s="2" t="s">
-        <v>559</v>
-      </c>
-      <c r="K102" t="s">
-        <v>560</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>903</v>
-      </c>
-      <c r="M102" t="s">
-        <v>561</v>
-      </c>
-      <c r="N102" t="s">
-        <v>562</v>
-      </c>
-      <c r="O102" s="2" t="s">
-        <v>904</v>
-      </c>
-      <c r="P102" t="s">
-        <v>563</v>
-      </c>
-      <c r="Q102" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>565</v>
       </c>
       <c r="B103" t="s">
-        <v>700</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>905</v>
-      </c>
-      <c r="D103" s="2" t="s">
+        <v>731</v>
+      </c>
+      <c r="L103" t="s">
+        <v>925</v>
+      </c>
+      <c r="M103" t="s">
         <v>566</v>
       </c>
-      <c r="E103" s="2" t="s">
+      <c r="N103" t="s">
         <v>567</v>
       </c>
-      <c r="I103" s="2" t="s">
-        <v>906</v>
-      </c>
-      <c r="J103" s="2" t="s">
+    </row>
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
         <v>568</v>
       </c>
-      <c r="K103" t="s">
+      <c r="B104" t="s">
+        <v>736</v>
+      </c>
+      <c r="C104" t="s">
+        <v>805</v>
+      </c>
+      <c r="D104" t="s">
         <v>569</v>
       </c>
-      <c r="L103" t="s">
-        <v>907</v>
-      </c>
-      <c r="M103" t="s">
+      <c r="E104" t="s">
         <v>570</v>
       </c>
-      <c r="N103" t="s">
+      <c r="I104" t="s">
+        <v>869</v>
+      </c>
+      <c r="J104" t="s">
         <v>571</v>
       </c>
-      <c r="O103" s="2" t="s">
-        <v>908</v>
-      </c>
-      <c r="P103" s="2" t="s">
+      <c r="K104" t="s">
         <v>572</v>
       </c>
-      <c r="Q103" t="s">
+      <c r="L104" t="s">
+        <v>926</v>
+      </c>
+      <c r="M104" t="s">
         <v>573</v>
       </c>
-    </row>
-    <row r="104" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A104" t="s">
+      <c r="N104" t="s">
         <v>574</v>
       </c>
-      <c r="B104" t="s">
-        <v>677</v>
-      </c>
-      <c r="C104" s="2" t="s">
-        <v>909</v>
-      </c>
-      <c r="D104" s="2" t="s">
+      <c r="O104" t="s">
+        <v>975</v>
+      </c>
+      <c r="P104" t="s">
         <v>575</v>
       </c>
-      <c r="E104" s="2" t="s">
+      <c r="Q104" t="s">
         <v>576</v>
       </c>
-      <c r="I104" s="2" t="s">
-        <v>910</v>
-      </c>
-      <c r="J104" s="2" t="s">
+    </row>
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>577</v>
       </c>
-      <c r="K104" t="s">
+      <c r="B105" t="s">
+        <v>737</v>
+      </c>
+      <c r="C105" t="s">
+        <v>806</v>
+      </c>
+      <c r="D105" t="s">
         <v>578</v>
       </c>
-      <c r="L104" s="2" t="s">
-        <v>911</v>
-      </c>
-      <c r="M104" t="s">
-        <v>496</v>
-      </c>
-      <c r="N104" t="s">
-        <v>278</v>
-      </c>
-      <c r="O104" t="s">
-        <v>912</v>
-      </c>
-      <c r="P104" t="s">
+      <c r="E105" t="s">
         <v>579</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="I105" t="s">
+        <v>870</v>
+      </c>
+      <c r="J105" t="s">
         <v>580</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A105" t="s">
+      <c r="K105" t="s">
         <v>581</v>
       </c>
-      <c r="B105" t="s">
-        <v>699</v>
-      </c>
-      <c r="C105" s="2" t="s">
-        <v>913</v>
-      </c>
-      <c r="D105" s="2" t="s">
+      <c r="L105" t="s">
+        <v>927</v>
+      </c>
+      <c r="M105" t="s">
         <v>582</v>
       </c>
-      <c r="E105" s="2" t="s">
+      <c r="N105" t="s">
         <v>583</v>
       </c>
-      <c r="I105" s="2" t="s">
-        <v>914</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="O105" t="s">
+        <v>976</v>
+      </c>
+      <c r="P105" t="s">
         <v>584</v>
       </c>
-      <c r="K105" t="s">
+      <c r="Q105" t="s">
         <v>585</v>
       </c>
-      <c r="L105" t="s">
-        <v>915</v>
-      </c>
-      <c r="M105" t="s">
+    </row>
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>586</v>
       </c>
-      <c r="N105" t="s">
+      <c r="B106" t="s">
+        <v>713</v>
+      </c>
+      <c r="C106" t="s">
+        <v>807</v>
+      </c>
+      <c r="D106" t="s">
         <v>587</v>
       </c>
-      <c r="O105" s="2" t="s">
-        <v>916</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="E106" t="s">
         <v>588</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="I106" t="s">
+        <v>871</v>
+      </c>
+      <c r="J106" t="s">
         <v>589</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" ht="135" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+      <c r="K106" t="s">
         <v>590</v>
       </c>
-      <c r="B106" t="s">
-        <v>18</v>
-      </c>
-      <c r="C106" s="2" t="s">
-        <v>917</v>
-      </c>
-      <c r="D106" s="2" t="s">
+      <c r="L106" t="s">
+        <v>928</v>
+      </c>
+      <c r="M106" t="s">
+        <v>508</v>
+      </c>
+      <c r="N106" t="s">
+        <v>283</v>
+      </c>
+      <c r="O106" t="s">
+        <v>977</v>
+      </c>
+      <c r="P106" t="s">
         <v>591</v>
       </c>
-      <c r="E106" s="2" t="s">
+      <c r="Q106" t="s">
         <v>592</v>
       </c>
-      <c r="I106" t="s">
-        <v>918</v>
-      </c>
-      <c r="J106" t="s">
+    </row>
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>593</v>
       </c>
-      <c r="K106" t="s">
+      <c r="B107" t="s">
+        <v>736</v>
+      </c>
+      <c r="C107" t="s">
+        <v>808</v>
+      </c>
+      <c r="D107" t="s">
         <v>594</v>
       </c>
-      <c r="L106" t="s">
-        <v>919</v>
-      </c>
-      <c r="M106" t="s">
+      <c r="E107" t="s">
         <v>595</v>
       </c>
-      <c r="N106" t="s">
+      <c r="I107" t="s">
+        <v>872</v>
+      </c>
+      <c r="J107" t="s">
         <v>596</v>
       </c>
-      <c r="O106" t="s">
-        <v>920</v>
-      </c>
-      <c r="P106" t="s">
+      <c r="K107" t="s">
         <v>597</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="L107" t="s">
+        <v>929</v>
+      </c>
+      <c r="M107" t="s">
         <v>598</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+      <c r="N107" t="s">
         <v>599</v>
       </c>
-      <c r="B107" t="s">
-        <v>18</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>921</v>
-      </c>
-      <c r="D107" s="2" t="s">
+      <c r="O107" t="s">
+        <v>978</v>
+      </c>
+      <c r="P107" t="s">
         <v>600</v>
       </c>
-      <c r="E107" s="2" t="s">
+      <c r="Q107" t="s">
         <v>601</v>
       </c>
-      <c r="I107" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="J107" s="2" t="s">
+    </row>
+    <row r="108" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>602</v>
-      </c>
-      <c r="K107" t="s">
-        <v>603</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>923</v>
-      </c>
-      <c r="M107" t="s">
-        <v>604</v>
-      </c>
-      <c r="N107" t="s">
-        <v>605</v>
-      </c>
-      <c r="O107" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="P107" t="s">
-        <v>606</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
-        <v>608</v>
       </c>
       <c r="B108" t="s">
         <v>18</v>
       </c>
-      <c r="D108" t="s">
+      <c r="C108" s="2" t="s">
+        <v>989</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>603</v>
+      </c>
+      <c r="E108" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>993</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>605</v>
+      </c>
+      <c r="K108" t="s">
+        <v>606</v>
+      </c>
+      <c r="L108" t="s">
+        <v>996</v>
+      </c>
+      <c r="M108" t="s">
+        <v>607</v>
+      </c>
+      <c r="N108" t="s">
+        <v>608</v>
+      </c>
+      <c r="O108" t="s">
+        <v>999</v>
+      </c>
+      <c r="P108" t="s">
         <v>609</v>
       </c>
-      <c r="E108" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="Q108" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="B109" t="s">
         <v>18</v>
       </c>
-      <c r="D109" t="s">
-        <v>609</v>
+      <c r="C109" s="2" t="s">
+        <v>990</v>
+      </c>
+      <c r="D109" s="2" t="s">
+        <v>612</v>
       </c>
       <c r="E109" t="s">
-        <v>609</v>
-      </c>
-      <c r="I109" s="2" t="s">
-        <v>925</v>
+        <v>613</v>
+      </c>
+      <c r="I109" t="s">
+        <v>994</v>
       </c>
       <c r="J109" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
       <c r="K109" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
       <c r="L109" t="s">
-        <v>613</v>
+        <v>997</v>
       </c>
       <c r="M109" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
       <c r="N109" t="s">
-        <v>614</v>
-      </c>
-      <c r="O109" s="2" t="s">
-        <v>926</v>
+        <v>617</v>
+      </c>
+      <c r="O109" t="s">
+        <v>1000</v>
       </c>
       <c r="P109" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
       <c r="Q109" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
       <c r="B110" t="s">
         <v>18</v>
       </c>
+      <c r="C110" t="s">
+        <v>809</v>
+      </c>
       <c r="D110" t="s">
-        <v>609</v>
+        <v>621</v>
       </c>
       <c r="E110" t="s">
-        <v>609</v>
+        <v>622</v>
       </c>
       <c r="I110" t="s">
-        <v>927</v>
+        <v>873</v>
       </c>
       <c r="J110" t="s">
-        <v>618</v>
+        <v>623</v>
       </c>
       <c r="K110" t="s">
-        <v>619</v>
+        <v>624</v>
       </c>
       <c r="L110" t="s">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M110" t="s">
-        <v>620</v>
+        <v>625</v>
       </c>
       <c r="N110" t="s">
-        <v>621</v>
+        <v>626</v>
       </c>
       <c r="O110" t="s">
-        <v>929</v>
+        <v>979</v>
       </c>
       <c r="P110" t="s">
-        <v>622</v>
+        <v>627</v>
       </c>
       <c r="Q110" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="111" spans="1:17" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>624</v>
+        <v>629</v>
       </c>
       <c r="B111" t="s">
-        <v>677</v>
+        <v>714</v>
       </c>
       <c r="C111" t="s">
-        <v>930</v>
+        <v>810</v>
       </c>
       <c r="D111" t="s">
-        <v>625</v>
+        <v>630</v>
       </c>
       <c r="E111" t="s">
-        <v>626</v>
+        <v>631</v>
+      </c>
+      <c r="I111" t="s">
+        <v>874</v>
+      </c>
+      <c r="J111" t="s">
+        <v>632</v>
+      </c>
+      <c r="K111" t="s">
+        <v>633</v>
       </c>
       <c r="L111" t="s">
         <v>931</v>
       </c>
       <c r="M111" t="s">
-        <v>627</v>
+        <v>634</v>
       </c>
       <c r="N111" t="s">
-        <v>628</v>
-      </c>
-      <c r="O111" s="2" t="s">
-        <v>932</v>
-      </c>
-      <c r="P111" s="2" t="s">
-        <v>629</v>
+        <v>635</v>
+      </c>
+      <c r="O111" t="s">
+        <v>980</v>
+      </c>
+      <c r="P111" t="s">
+        <v>636</v>
       </c>
       <c r="Q111" t="s">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" ht="120" hidden="1" x14ac:dyDescent="0.25">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>631</v>
+        <v>638</v>
       </c>
       <c r="B112" t="s">
-        <v>677</v>
-      </c>
-      <c r="C112" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="D112" s="2" t="s">
-        <v>632</v>
-      </c>
-      <c r="E112" s="2" t="s">
-        <v>633</v>
-      </c>
-      <c r="L112" t="s">
-        <v>934</v>
-      </c>
-      <c r="M112" t="s">
-        <v>634</v>
-      </c>
-      <c r="N112" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
+        <v>714</v>
+      </c>
+      <c r="D112" t="s">
+        <v>639</v>
+      </c>
+      <c r="E112" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="B113" t="s">
-        <v>701</v>
-      </c>
-      <c r="C113" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D113" s="2" t="s">
-        <v>637</v>
-      </c>
-      <c r="E113" s="2" t="s">
-        <v>638</v>
-      </c>
-      <c r="I113" s="2" t="s">
-        <v>936</v>
+        <v>714</v>
+      </c>
+      <c r="D113" t="s">
+        <v>639</v>
+      </c>
+      <c r="E113" t="s">
+        <v>639</v>
+      </c>
+      <c r="I113" t="s">
+        <v>875</v>
       </c>
       <c r="J113" t="s">
+        <v>641</v>
+      </c>
+      <c r="K113" t="s">
+        <v>642</v>
+      </c>
+      <c r="L113" t="s">
+        <v>643</v>
+      </c>
+      <c r="M113" t="s">
+        <v>643</v>
+      </c>
+      <c r="N113" t="s">
+        <v>644</v>
+      </c>
+      <c r="O113" t="s">
+        <v>981</v>
+      </c>
+      <c r="P113" t="s">
+        <v>645</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>647</v>
+      </c>
+      <c r="B114" t="s">
+        <v>714</v>
+      </c>
+      <c r="D114" t="s">
         <v>639</v>
       </c>
-      <c r="K113" t="s">
-        <v>640</v>
-      </c>
-      <c r="L113" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="M113" t="s">
-        <v>641</v>
-      </c>
-      <c r="N113" t="s">
-        <v>642</v>
-      </c>
-      <c r="O113" s="2" t="s">
-        <v>938</v>
-      </c>
-      <c r="P113" s="2" t="s">
-        <v>643</v>
-      </c>
-      <c r="Q113" s="2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" ht="150" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
-        <v>645</v>
-      </c>
-      <c r="B114" t="s">
-        <v>677</v>
-      </c>
-      <c r="C114" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="D114" s="2" t="s">
-        <v>646</v>
-      </c>
-      <c r="E114" s="2" t="s">
-        <v>647</v>
-      </c>
-      <c r="I114" s="2" t="s">
-        <v>940</v>
+      <c r="E114" t="s">
+        <v>639</v>
+      </c>
+      <c r="I114" t="s">
+        <v>876</v>
       </c>
       <c r="J114" t="s">
         <v>648</v>
@@ -8782,7 +8904,7 @@
         <v>649</v>
       </c>
       <c r="L114" t="s">
-        <v>941</v>
+        <v>932</v>
       </c>
       <c r="M114" t="s">
         <v>650</v>
@@ -8790,8 +8912,8 @@
       <c r="N114" t="s">
         <v>651</v>
       </c>
-      <c r="O114" s="2" t="s">
-        <v>942</v>
+      <c r="O114" t="s">
+        <v>982</v>
       </c>
       <c r="P114" t="s">
         <v>652</v>
@@ -8800,128 +8922,297 @@
         <v>653</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="270" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>654</v>
       </c>
       <c r="B115" t="s">
+        <v>713</v>
+      </c>
+      <c r="C115" t="s">
+        <v>811</v>
+      </c>
+      <c r="D115" t="s">
+        <v>655</v>
+      </c>
+      <c r="E115" t="s">
+        <v>656</v>
+      </c>
+      <c r="L115" t="s">
+        <v>933</v>
+      </c>
+      <c r="M115" t="s">
+        <v>657</v>
+      </c>
+      <c r="N115" t="s">
+        <v>658</v>
+      </c>
+      <c r="O115" t="s">
+        <v>983</v>
+      </c>
+      <c r="P115" t="s">
+        <v>659</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>661</v>
+      </c>
+      <c r="B116" t="s">
+        <v>713</v>
+      </c>
+      <c r="C116" t="s">
+        <v>812</v>
+      </c>
+      <c r="D116" t="s">
+        <v>662</v>
+      </c>
+      <c r="E116" t="s">
+        <v>663</v>
+      </c>
+      <c r="L116" t="s">
+        <v>934</v>
+      </c>
+      <c r="M116" t="s">
+        <v>664</v>
+      </c>
+      <c r="N116" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>666</v>
+      </c>
+      <c r="B117" t="s">
+        <v>738</v>
+      </c>
+      <c r="C117" t="s">
+        <v>813</v>
+      </c>
+      <c r="D117" t="s">
+        <v>667</v>
+      </c>
+      <c r="E117" t="s">
+        <v>668</v>
+      </c>
+      <c r="I117" t="s">
+        <v>877</v>
+      </c>
+      <c r="J117" t="s">
+        <v>669</v>
+      </c>
+      <c r="K117" t="s">
+        <v>670</v>
+      </c>
+      <c r="L117" t="s">
+        <v>935</v>
+      </c>
+      <c r="M117" t="s">
+        <v>671</v>
+      </c>
+      <c r="N117" t="s">
+        <v>672</v>
+      </c>
+      <c r="O117" t="s">
+        <v>984</v>
+      </c>
+      <c r="P117" t="s">
+        <v>673</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>675</v>
+      </c>
+      <c r="B118" t="s">
+        <v>713</v>
+      </c>
+      <c r="C118" t="s">
+        <v>814</v>
+      </c>
+      <c r="D118" t="s">
+        <v>676</v>
+      </c>
+      <c r="E118" t="s">
+        <v>677</v>
+      </c>
+      <c r="I118" t="s">
+        <v>878</v>
+      </c>
+      <c r="J118" t="s">
+        <v>678</v>
+      </c>
+      <c r="K118" t="s">
+        <v>679</v>
+      </c>
+      <c r="L118" t="s">
+        <v>936</v>
+      </c>
+      <c r="M118" t="s">
+        <v>680</v>
+      </c>
+      <c r="N118" t="s">
+        <v>681</v>
+      </c>
+      <c r="O118" t="s">
+        <v>985</v>
+      </c>
+      <c r="P118" t="s">
+        <v>682</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>684</v>
+      </c>
+      <c r="B119" t="s">
+        <v>739</v>
+      </c>
+      <c r="C119" t="s">
+        <v>815</v>
+      </c>
+      <c r="D119" t="s">
+        <v>685</v>
+      </c>
+      <c r="E119" t="s">
+        <v>686</v>
+      </c>
+      <c r="I119" t="s">
+        <v>879</v>
+      </c>
+      <c r="J119" t="s">
+        <v>687</v>
+      </c>
+      <c r="K119" t="s">
+        <v>688</v>
+      </c>
+      <c r="L119" t="s">
+        <v>937</v>
+      </c>
+      <c r="M119" t="s">
+        <v>689</v>
+      </c>
+      <c r="N119" t="s">
+        <v>690</v>
+      </c>
+      <c r="O119" t="s">
+        <v>986</v>
+      </c>
+      <c r="P119" t="s">
+        <v>691</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>693</v>
+      </c>
+      <c r="B120" t="s">
+        <v>740</v>
+      </c>
+      <c r="C120" t="s">
+        <v>816</v>
+      </c>
+      <c r="D120" t="s">
+        <v>694</v>
+      </c>
+      <c r="E120" t="s">
+        <v>695</v>
+      </c>
+      <c r="I120" t="s">
+        <v>880</v>
+      </c>
+      <c r="J120" t="s">
+        <v>696</v>
+      </c>
+      <c r="K120" t="s">
+        <v>697</v>
+      </c>
+      <c r="L120" t="s">
+        <v>938</v>
+      </c>
+      <c r="M120" t="s">
+        <v>698</v>
+      </c>
+      <c r="N120" t="s">
+        <v>699</v>
+      </c>
+      <c r="O120" t="s">
+        <v>987</v>
+      </c>
+      <c r="P120" t="s">
+        <v>700</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
         <v>702</v>
       </c>
-      <c r="C115" s="2" t="s">
-        <v>943</v>
-      </c>
-      <c r="D115" s="2" t="s">
-        <v>655</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>656</v>
-      </c>
-      <c r="I115" s="2" t="s">
-        <v>944</v>
-      </c>
-      <c r="J115" t="s">
-        <v>657</v>
-      </c>
-      <c r="K115" t="s">
-        <v>658</v>
-      </c>
-      <c r="L115" t="s">
-        <v>945</v>
-      </c>
-      <c r="M115" t="s">
-        <v>659</v>
-      </c>
-      <c r="N115" t="s">
-        <v>660</v>
-      </c>
-      <c r="O115" s="2" t="s">
-        <v>946</v>
-      </c>
-      <c r="P115" t="s">
-        <v>661</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" ht="360" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>663</v>
-      </c>
-      <c r="B116" t="s">
+      <c r="B121" t="s">
+        <v>741</v>
+      </c>
+      <c r="C121" t="s">
+        <v>817</v>
+      </c>
+      <c r="D121" t="s">
         <v>703</v>
       </c>
-      <c r="C116" s="2" t="s">
-        <v>947</v>
-      </c>
-      <c r="D116" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="E116" s="2" t="s">
-        <v>665</v>
-      </c>
-      <c r="I116" s="2" t="s">
-        <v>948</v>
-      </c>
-      <c r="J116" s="2" t="s">
-        <v>666</v>
-      </c>
-      <c r="K116" t="s">
-        <v>667</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>949</v>
-      </c>
-      <c r="M116" s="2" t="s">
-        <v>668</v>
-      </c>
-      <c r="N116" t="s">
-        <v>669</v>
-      </c>
-      <c r="O116" s="2" t="s">
-        <v>950</v>
-      </c>
-      <c r="P116" s="2" t="s">
-        <v>670</v>
-      </c>
-      <c r="Q116" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" t="s">
-        <v>672</v>
-      </c>
-      <c r="B117" t="s">
+      <c r="E121" t="s">
         <v>704</v>
       </c>
-      <c r="C117" s="2" t="s">
-        <v>951</v>
-      </c>
-      <c r="D117" s="2" t="s">
-        <v>673</v>
-      </c>
-      <c r="E117" s="2" t="s">
-        <v>674</v>
+    </row>
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>705</v>
+      </c>
+      <c r="B122" t="s">
+        <v>18</v>
+      </c>
+      <c r="I122" t="s">
+        <v>995</v>
+      </c>
+      <c r="J122" t="s">
+        <v>706</v>
+      </c>
+      <c r="K122" t="s">
+        <v>707</v>
+      </c>
+      <c r="L122" t="s">
+        <v>998</v>
+      </c>
+      <c r="M122" t="s">
+        <v>708</v>
+      </c>
+      <c r="N122" t="s">
+        <v>454</v>
+      </c>
+      <c r="O122" t="s">
+        <v>995</v>
+      </c>
+      <c r="P122" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>710</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" ref="A2:Q117" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <x14:filter val="&quot;Miễn phí gối ôm St. Jure ngay bây giờ!&quot;_x000a_&quot;Xin mời, xin mời ghé lại xem!&quot;_x000a_&quot;Này, người may mắn kia! Một nữ thần xinh đẹp và dịu dàng đang chờ bạn.&quot;_x000a_&quot;Một đóa hoa nở giữa sa mạc khô cằn, mong manh nhưng cao quý. Một thiếu nữ trong trắng với trái tim đầy lòng trắc ẩn. Jure của Sự Chữa Lành, nữ thần duy nhất của chúng ta!&quot;"/>
-            <x14:filter val="&quot;Xin mời, xin mời ghé lại xem!&quot;_x000a_&quot;Mọi người mau tụ tập lại nào!&quot;_x000a_&quot;Hãy nhìn đây! Cuộn may mắn huyền thoại đã xuất hiện!&quot;_x000a_&quot;Đợi đến khi thấy những gì tôi có ở đây nhé!&quot;"/>
-          </mc:Choice>
-          <mc:Fallback>
-            <filter val="&quot;Xin mời, xin mời ghé lại xem!&quot;_x000a_&quot;Mọi người mau tụ tập lại nào!&quot;_x000a_&quot;Hãy nhìn đây! Cuộn may mắn huyền thoại đã xuất hiện!&quot;_x000a_&quot;Đợi đến khi thấy những gì tôi có ở đây nhé!&quot;"/>
-          </mc:Fallback>
-        </mc:AlternateContent>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A2:Q122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/data/Game/CharaText.xlsx
+++ b/data/Game/CharaText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F405479-7B98-47C0-B12B-530C31A8D849}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720D48D-D5CC-41D8-84C0-AAC285E28555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$122</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$125</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1001">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1017">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>artist</t>
   </si>
   <si>
-    <t>EA 23.200 Patch 2</t>
+    <t>EA 23.209 Patch 2</t>
   </si>
   <si>
     <t>"You senseless bastard!"
@@ -785,6 +785,17 @@
   <si>
     <t>*ドスン*
 *ズシン*</t>
+  </si>
+  <si>
+    <t>spider</t>
+  </si>
+  <si>
+    <t>*skitter skitter*
+*scurry...*</t>
+  </si>
+  <si>
+    <t>*カサカサ*
+*カサ…*</t>
   </si>
   <si>
     <t>horse</t>
@@ -2430,6 +2441,30 @@
   </si>
   <si>
     <t>「つまらぬな」</t>
+  </si>
+  <si>
+    <t>mech_golem_a</t>
+  </si>
+  <si>
+    <t>“Here we go!”</t>
+  </si>
+  <si>
+    <t>「行くぞ！」</t>
+  </si>
+  <si>
+    <t>“I’ll leave the rest to you, Widge!”</t>
+  </si>
+  <si>
+    <t>「あとは任せたぜ、ウィッジ！」</t>
+  </si>
+  <si>
+    <t>mech_golem_b</t>
+  </si>
+  <si>
+    <t>“I’ll leave the rest to you, Higgs!”</t>
+  </si>
+  <si>
+    <t>「あとは任せたぜ、ヒッグス！」</t>
   </si>
   <si>
     <t>eluminaire</t>
@@ -3278,6 +3313,9 @@
     <t>Alpha 20.45</t>
   </si>
   <si>
+    <t>EA 23.200 Patch 2</t>
+  </si>
+  <si>
     <t>EA 23.61 fix 2</t>
   </si>
   <si>
@@ -3423,6 +3461,9 @@
 "Hắn rồi sẽ hói thôi."
 "Mwahahaha!"
 "Mwaha!"</t>
+  </si>
+  <si>
+    <t>*Thình* *thịch*</t>
   </si>
   <si>
     <t>"Bạn nghe thấy tiếng vó ngựa."
@@ -3787,6 +3828,22 @@
 "Một chuyến đi lạc cũng là &amp;một cuộc phiêu lưu theo cách riêng của nó."
 "Bạn có biết tên của ngọn gió không?"
 "Âm thanh của nước là người kể chuyện cổ xưa nhất."</t>
+  </si>
+  <si>
+    <t>"Ngươi có biết câu chuyện cổ tích về một phù thủy độc ác biến hoàng tử khôi ngô thành quái thú không?"
+Gương mặt nghiêng tuyệt đẹp của Elea khiến bước chân ngươi khựng lại trong thoáng chốc.
+"Thế giới này giờ đang chuẩn bị rơi vào hỗn loạn. Chúng ta phải giữ vững bản thân giữa cơn biến động ấy."
+"Người đàn ông ta trông thấy ở Vernis... chẳng lẽ là hắn..."
+Ai đó thì thầm bằng một ngôn ngữ cổ xưa thần bí.
+"Ngươi kiêu ngạo quá đấy. Elea vốn đã bị coi là kẻ dị giáo rồi, sự ngạo mạn của ngươi chỉ làm mọi chuyện tệ hơn thôi."</t>
+  </si>
+  <si>
+    <t>"Đợi đến lúc bọn họ nghe tin chúng ta mang tới..."
+"Hah! Để rồi xem, lúc đó họ mới biết thế nào là rắc rối thật sự!"
+"Ồ... nơi này trông cũng đáng sống đấy chứ."
+"Hừ! Từ đây đến Vernis thì ngay cả một đứa trẻ cũng chỉ mất chưa tới một ngày đi bộ. Ta chẳng lo trễ đâu."
+"Mà... cái cô nàng ở quán rượu ấy..."
+Tiếng ai đó đang thử dây cung vang lên khe khẽ.</t>
   </si>
   <si>
     <t>"Các quý cô! Xếp hàng từ đây nhé!"
@@ -4081,6 +4138,9 @@
     <t>"Auuuu!"</t>
   </si>
   <si>
+    <t>"Òooooooong!"</t>
+  </si>
+  <si>
     <t>"Ngươi đã quá trớn rồi đấy!"
 "Giờ thì trừng phạt thôi!"</t>
   </si>
@@ -4117,6 +4177,14 @@
     <t>"Ta không thích chuyện này, nhưng…"
 "Nếu không còn cách nào khác."
 "Nếu đó là điều ngươi mong muốn."</t>
+  </si>
+  <si>
+    <t>“Chúng ta thật sự phải chiến đấu sao?”
+“Xin lỗi, nhưng tôi không có thời gian để chơi đùa đâu.”
+Cô bé tộc Elea ném ánh nhìn giận dữ, đôi mắt xinh đẹp lạnh lùng như băng.</t>
+  </si>
+  <si>
+    <t>“Ngươi lại lấy ân trả oán sao?”</t>
   </si>
   <si>
     <t>"Ta sẽ cho ngươi thấy thế nào mới là một người đàn ông đích thực!"</t>
@@ -4160,6 +4228,9 @@
 “Ta muốn thấy máu… hiểu chứ?”</t>
   </si>
   <si>
+    <t>"GRUUUUÀOOOOOO!"</t>
+  </si>
+  <si>
     <t>“Đây mới gọi là nghệ thuật!”  
 “Tôi vốn sống yên bình, xa lánh tranh chấp cơ mà…”  
 “Nghệ thuậttttt đó~!”</t>
@@ -4338,6 +4409,9 @@
     <t>"Ư ư…"</t>
   </si>
   <si>
+    <t>"Vò…ò…"</t>
+  </si>
+  <si>
     <t>“Làm lại từ đầu vậy”</t>
   </si>
   <si>
@@ -4373,6 +4447,12 @@
   </si>
   <si>
     <t>"Giờ ta sẽ đến bên em."</t>
+  </si>
+  <si>
+    <t>“U… ai đó… phải báo cho Quốc vương Jabi về dị biến của gió… nếu cứ thế này thì…”</t>
+  </si>
+  <si>
+    <t>“Chuyện quái gì thế này… đừng nói là thật chứ…”</t>
   </si>
   <si>
     <t>“Mẹ ơi!”</t>
@@ -4411,6 +4491,9 @@
 "Hơn nữa, đâu phải là vô ích… đúng không?"</t>
   </si>
   <si>
+    <t>“Ư…ư…”</t>
+  </si>
+  <si>
     <t>"Tôi chẳng quan tâm đến con người nữa!"</t>
   </si>
   <si>
@@ -4557,6 +4640,12 @@
     <t>"Thật đáng tiếc."
 "Hãy yên nghỉ."
 "Giờ thì ngươi không còn phải chịu đựng nữa."</t>
+  </si>
+  <si>
+    <t>"Xin lỗi…"</t>
+  </si>
+  <si>
+    <t>“Lúc nào cũng có một kẻ mà ta chẳng bao giờ hiểu nổi.”</t>
   </si>
   <si>
     <t>"Phì!"</t>
@@ -4602,55 +4691,17 @@
 “Hehe.”</t>
   </si>
   <si>
-    <t>*Thình* *thịch*</t>
-  </si>
-  <si>
-    <t>"Ngươi có biết câu chuyện cổ tích về một phù thủy độc ác biến hoàng tử khôi ngô thành quái thú không?"
-Gương mặt nghiêng tuyệt đẹp của Elea khiến bước chân ngươi khựng lại trong thoáng chốc.
-"Thế giới này giờ đang chuẩn bị rơi vào hỗn loạn. Chúng ta phải giữ vững bản thân giữa cơn biến động ấy."
-"Người đàn ông ta trông thấy ở Vernis... chẳng lẽ là hắn..."
-Ai đó thì thầm bằng một ngôn ngữ cổ xưa thần bí.
-"Ngươi kiêu ngạo quá đấy. Elea vốn đã bị coi là kẻ dị giáo rồi, sự ngạo mạn của ngươi chỉ làm mọi chuyện tệ hơn thôi."</t>
-  </si>
-  <si>
-    <t>"Đợi đến lúc bọn họ nghe tin chúng ta mang tới..."
-"Hah! Để rồi xem, lúc đó họ mới biết thế nào là rắc rối thật sự!"
-"Ồ... nơi này trông cũng đáng sống đấy chứ."
-"Hừ! Từ đây đến Vernis thì ngay cả một đứa trẻ cũng chỉ mất chưa tới một ngày đi bộ. Ta chẳng lo trễ đâu."
-"Mà... cái cô nàng ở quán rượu ấy..."
-Tiếng ai đó đang thử dây cung vang lên khe khẽ.</t>
-  </si>
-  <si>
-    <t>"Òooooooong!"</t>
-  </si>
-  <si>
-    <t>"Vò…ò…"</t>
-  </si>
-  <si>
-    <t>“Chúng ta thật sự phải chiến đấu sao?”
-“Xin lỗi, nhưng tôi không có thời gian để chơi đùa đâu.”
-Cô bé tộc Elea ném ánh nhìn giận dữ, đôi mắt xinh đẹp lạnh lùng như băng.</t>
-  </si>
-  <si>
-    <t>“Ngươi lại lấy ân trả oán sao?”</t>
-  </si>
-  <si>
-    <t>"GRUUUUÀOOOOOO!"</t>
-  </si>
-  <si>
-    <t>“U… ai đó… phải báo cho Quốc vương Jabi về dị biến của gió… nếu cứ thế này thì…”</t>
-  </si>
-  <si>
-    <t>“Chuyện quái gì thế này… đừng nói là thật chứ…”</t>
-  </si>
-  <si>
-    <t>“Ư…ư…”</t>
-  </si>
-  <si>
-    <t>"Xin lỗi…"</t>
-  </si>
-  <si>
-    <t>“Lúc nào cũng có một kẻ mà ta chẳng bao giờ hiểu nổi.”</t>
+    <t>*loạt xoạt loạt xoạt*
+*loạt xoạt…*</t>
+  </si>
+  <si>
+    <t>"Xuất phát nào!"</t>
+  </si>
+  <si>
+    <t>"Phần còn lại nhờ cậu lo nhé, Higgs!"</t>
+  </si>
+  <si>
+    <t>"Phần còn lại nhờ cậu lo nhé, Widge!"</t>
   </si>
 </sst>
 </file>
@@ -5011,23 +5062,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q122"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:Q125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N110" sqref="N110"/>
+      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="75.109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="88.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="59.109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="8" width="16" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26.5546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="11" max="17" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,15 +5128,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I3" t="s">
-        <v>830</v>
+        <v>845</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5100,7 +5145,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>881</v>
+        <v>900</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5109,7 +5154,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>939</v>
+        <v>962</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5118,12 +5163,12 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>712</v>
+        <v>723</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -5153,12 +5198,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -5170,12 +5215,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C6" t="s">
         <v>34</v>
@@ -5205,15 +5250,15 @@
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C7" t="s">
-        <v>742</v>
+        <v>754</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5222,7 +5267,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>831</v>
+        <v>846</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5231,7 +5276,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>882</v>
+        <v>901</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5240,15 +5285,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>743</v>
+        <v>755</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5257,7 +5302,7 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>832</v>
+        <v>847</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5266,7 +5311,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>883</v>
+        <v>902</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5275,7 +5320,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>940</v>
+        <v>963</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5284,15 +5329,15 @@
         <v>55</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C9" t="s">
-        <v>744</v>
+        <v>756</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5301,7 +5346,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>833</v>
+        <v>848</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5310,7 +5355,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>884</v>
+        <v>903</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5319,7 +5364,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>941</v>
+        <v>964</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5328,15 +5373,15 @@
         <v>64</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C10" t="s">
-        <v>745</v>
+        <v>757</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5345,33 +5390,33 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>834</v>
+        <v>849</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>885</v>
+        <v>904</v>
       </c>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>942</v>
+        <v>965</v>
       </c>
       <c r="Q10" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C11" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5398,7 +5443,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>943</v>
+        <v>966</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5407,15 +5452,15 @@
         <v>79</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>716</v>
+        <v>727</v>
       </c>
       <c r="C12" t="s">
-        <v>747</v>
+        <v>759</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5424,7 +5469,7 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>835</v>
+        <v>850</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5433,7 +5478,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>886</v>
+        <v>905</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5442,7 +5487,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>944</v>
+        <v>967</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5451,15 +5496,15 @@
         <v>88</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>713</v>
+        <v>724</v>
       </c>
       <c r="C13" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5474,7 +5519,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>887</v>
+        <v>906</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5483,15 +5528,15 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>714</v>
+        <v>725</v>
       </c>
       <c r="C14" t="s">
-        <v>749</v>
+        <v>761</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5518,7 +5563,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>945</v>
+        <v>968</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5527,15 +5572,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>717</v>
+        <v>728</v>
       </c>
       <c r="C15" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5562,15 +5607,15 @@
         <v>104</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="I16" t="s">
-        <v>836</v>
+        <v>851</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5579,7 +5624,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>888</v>
+        <v>907</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5588,7 +5633,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>946</v>
+        <v>969</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5597,12 +5642,12 @@
         <v>111</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>719</v>
+        <v>730</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
@@ -5641,15 +5686,15 @@
         <v>114</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I18" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5658,7 +5703,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>889</v>
+        <v>908</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5667,7 +5712,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>947</v>
+        <v>970</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5676,15 +5721,15 @@
         <v>121</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>718</v>
+        <v>729</v>
       </c>
       <c r="I19" t="s">
-        <v>837</v>
+        <v>852</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5693,7 +5738,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>890</v>
+        <v>909</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5702,7 +5747,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>948</v>
+        <v>971</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5711,15 +5756,15 @@
         <v>126</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C20" t="s">
-        <v>751</v>
+        <v>763</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5728,7 +5773,7 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>838</v>
+        <v>853</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5737,7 +5782,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>891</v>
+        <v>910</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5755,15 +5800,15 @@
         <v>135</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I21" t="s">
-        <v>839</v>
+        <v>854</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5772,7 +5817,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>892</v>
+        <v>911</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5781,7 +5826,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>949</v>
+        <v>972</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5790,15 +5835,15 @@
         <v>142</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I22" t="s">
-        <v>840</v>
+        <v>855</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5807,7 +5852,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>893</v>
+        <v>912</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5816,7 +5861,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>950</v>
+        <v>973</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5825,15 +5870,15 @@
         <v>149</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>715</v>
+        <v>726</v>
       </c>
       <c r="C23" t="s">
-        <v>752</v>
+        <v>764</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5842,15 +5887,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>753</v>
+        <v>765</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5868,7 +5913,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>894</v>
+        <v>913</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5886,15 +5931,15 @@
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="I25" t="s">
-        <v>841</v>
+        <v>856</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5912,15 +5957,15 @@
         <v>165</v>
       </c>
     </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>731</v>
       </c>
       <c r="C26" t="s">
-        <v>988</v>
+        <v>766</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5929,7 +5974,7 @@
         <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>988</v>
+        <v>766</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -5938,173 +5983,155 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>711</v>
-      </c>
-      <c r="C27" t="s">
-        <v>754</v>
-      </c>
-      <c r="D27" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="D27" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="L27" t="s">
-        <v>895</v>
-      </c>
-      <c r="M27" t="s">
+      <c r="F27" s="2" t="s">
+        <v>1013</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
         <v>172</v>
       </c>
-      <c r="N27" t="s">
+      <c r="B28" t="s">
+        <v>722</v>
+      </c>
+      <c r="C28" t="s">
+        <v>767</v>
+      </c>
+      <c r="D28" t="s">
         <v>173</v>
       </c>
-      <c r="O27" t="s">
-        <v>951</v>
-      </c>
-      <c r="P27" t="s">
+      <c r="E28" t="s">
         <v>174</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="L28" t="s">
+        <v>914</v>
+      </c>
+      <c r="M28" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
+      <c r="N28" t="s">
         <v>176</v>
       </c>
-      <c r="B28" t="s">
-        <v>711</v>
-      </c>
-      <c r="I28" t="s">
-        <v>842</v>
-      </c>
-      <c r="J28" t="s">
+      <c r="O28" t="s">
+        <v>974</v>
+      </c>
+      <c r="P28" t="s">
         <v>177</v>
       </c>
-      <c r="K28" t="s">
+      <c r="Q28" t="s">
         <v>178</v>
       </c>
-      <c r="L28" t="s">
-        <v>896</v>
-      </c>
-      <c r="M28" t="s">
+    </row>
+    <row r="29" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>179</v>
       </c>
-      <c r="N28" t="s">
+      <c r="B29" t="s">
+        <v>722</v>
+      </c>
+      <c r="I29" t="s">
+        <v>857</v>
+      </c>
+      <c r="J29" t="s">
         <v>180</v>
       </c>
-      <c r="O28" t="s">
+      <c r="K29" t="s">
         <v>181</v>
       </c>
-      <c r="P28" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q28" t="s">
+      <c r="L29" t="s">
+        <v>915</v>
+      </c>
+      <c r="M29" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
+      <c r="N29" t="s">
         <v>183</v>
       </c>
-      <c r="B29" t="s">
-        <v>720</v>
-      </c>
-      <c r="C29" t="s">
-        <v>755</v>
-      </c>
-      <c r="D29" t="s">
+      <c r="O29" t="s">
         <v>184</v>
       </c>
-      <c r="E29" t="s">
+      <c r="P29" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q29" t="s">
         <v>185</v>
       </c>
-      <c r="I29" t="s">
-        <v>843</v>
-      </c>
-      <c r="J29" t="s">
+    </row>
+    <row r="30" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
         <v>186</v>
       </c>
-      <c r="K29" t="s">
+      <c r="B30" t="s">
+        <v>732</v>
+      </c>
+      <c r="C30" t="s">
+        <v>768</v>
+      </c>
+      <c r="D30" t="s">
         <v>187</v>
       </c>
-      <c r="L29" t="s">
-        <v>897</v>
-      </c>
-      <c r="M29" t="s">
+      <c r="E30" t="s">
         <v>188</v>
       </c>
-      <c r="N29" t="s">
+      <c r="I30" t="s">
+        <v>858</v>
+      </c>
+      <c r="J30" t="s">
         <v>189</v>
       </c>
-      <c r="O29" t="s">
-        <v>952</v>
-      </c>
-      <c r="P29" t="s">
+      <c r="K30" t="s">
         <v>190</v>
       </c>
-      <c r="Q29" t="s">
+      <c r="L30" t="s">
+        <v>916</v>
+      </c>
+      <c r="M30" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
+      <c r="N30" t="s">
         <v>192</v>
       </c>
-      <c r="B30" t="s">
-        <v>721</v>
-      </c>
-      <c r="C30" t="s">
-        <v>756</v>
-      </c>
-      <c r="D30" t="s">
+      <c r="O30" t="s">
+        <v>975</v>
+      </c>
+      <c r="P30" t="s">
         <v>193</v>
       </c>
-      <c r="E30" t="s">
+      <c r="Q30" t="s">
         <v>194</v>
       </c>
-      <c r="I30" t="s">
-        <v>843</v>
-      </c>
-      <c r="J30" t="s">
-        <v>186</v>
-      </c>
-      <c r="K30" t="s">
-        <v>187</v>
-      </c>
-      <c r="L30" t="s">
-        <v>897</v>
-      </c>
-      <c r="M30" t="s">
-        <v>188</v>
-      </c>
-      <c r="N30" t="s">
-        <v>189</v>
-      </c>
-      <c r="O30" t="s">
-        <v>952</v>
-      </c>
-      <c r="P30" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q30" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="31" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C31" t="s">
-        <v>757</v>
+        <v>769</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6113,42 +6140,42 @@
         <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>843</v>
+        <v>858</v>
       </c>
       <c r="J31" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K31" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>897</v>
+        <v>916</v>
       </c>
       <c r="M31" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N31" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>952</v>
+        <v>975</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q31" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>721</v>
+        <v>733</v>
       </c>
       <c r="C32" t="s">
-        <v>758</v>
+        <v>770</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6157,790 +6184,790 @@
         <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>844</v>
+        <v>858</v>
       </c>
       <c r="J32" t="s">
+        <v>189</v>
+      </c>
+      <c r="K32" t="s">
+        <v>190</v>
+      </c>
+      <c r="L32" t="s">
+        <v>916</v>
+      </c>
+      <c r="M32" t="s">
+        <v>191</v>
+      </c>
+      <c r="N32" t="s">
+        <v>192</v>
+      </c>
+      <c r="O32" t="s">
+        <v>975</v>
+      </c>
+      <c r="P32" t="s">
+        <v>193</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
         <v>201</v>
       </c>
-      <c r="K32" t="s">
+      <c r="B33" t="s">
+        <v>733</v>
+      </c>
+      <c r="C33" t="s">
+        <v>771</v>
+      </c>
+      <c r="D33" t="s">
         <v>202</v>
       </c>
-      <c r="L32" t="s">
-        <v>898</v>
-      </c>
-      <c r="M32" t="s">
+      <c r="E33" t="s">
         <v>203</v>
       </c>
-      <c r="N32" t="s">
+      <c r="I33" t="s">
+        <v>859</v>
+      </c>
+      <c r="J33" t="s">
         <v>204</v>
       </c>
-      <c r="O32" t="s">
-        <v>953</v>
-      </c>
-      <c r="P32" t="s">
+      <c r="K33" t="s">
         <v>205</v>
       </c>
-      <c r="Q32" t="s">
+      <c r="L33" t="s">
+        <v>917</v>
+      </c>
+      <c r="M33" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
+      <c r="N33" t="s">
         <v>207</v>
       </c>
-      <c r="B33" t="s">
-        <v>711</v>
-      </c>
-      <c r="C33" t="s">
-        <v>759</v>
-      </c>
-      <c r="D33" t="s">
+      <c r="O33" t="s">
+        <v>976</v>
+      </c>
+      <c r="P33" t="s">
         <v>208</v>
       </c>
-      <c r="E33" t="s">
+      <c r="Q33" t="s">
         <v>209</v>
       </c>
-      <c r="I33" t="s">
-        <v>845</v>
-      </c>
-      <c r="J33" t="s">
+    </row>
+    <row r="34" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>210</v>
       </c>
-      <c r="K33" t="s">
+      <c r="B34" t="s">
+        <v>722</v>
+      </c>
+      <c r="C34" t="s">
+        <v>772</v>
+      </c>
+      <c r="D34" t="s">
         <v>211</v>
       </c>
-      <c r="L33" t="s">
-        <v>899</v>
-      </c>
-      <c r="M33" t="s">
+      <c r="E34" t="s">
         <v>212</v>
       </c>
-      <c r="N33" t="s">
+      <c r="I34" t="s">
+        <v>860</v>
+      </c>
+      <c r="J34" t="s">
         <v>213</v>
       </c>
-      <c r="P33" t="s">
+      <c r="K34" t="s">
         <v>214</v>
       </c>
-      <c r="Q33" t="s">
+      <c r="L34" t="s">
+        <v>918</v>
+      </c>
+      <c r="M34" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
+      <c r="N34" t="s">
         <v>216</v>
       </c>
-      <c r="B34" t="s">
-        <v>712</v>
-      </c>
-      <c r="L34" t="s">
-        <v>900</v>
-      </c>
-      <c r="M34" t="s">
+      <c r="P34" t="s">
         <v>217</v>
       </c>
-      <c r="N34" t="s">
+      <c r="Q34" t="s">
         <v>218</v>
       </c>
-      <c r="O34" t="s">
-        <v>954</v>
-      </c>
-      <c r="P34" t="s">
+    </row>
+    <row r="35" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
         <v>219</v>
       </c>
-      <c r="Q34" t="s">
+      <c r="B35" t="s">
+        <v>723</v>
+      </c>
+      <c r="L35" t="s">
+        <v>919</v>
+      </c>
+      <c r="M35" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="N35" t="s">
         <v>221</v>
       </c>
-      <c r="B35" t="s">
-        <v>711</v>
-      </c>
-      <c r="I35" t="s">
-        <v>846</v>
-      </c>
-      <c r="J35" t="s">
+      <c r="O35" t="s">
+        <v>977</v>
+      </c>
+      <c r="P35" t="s">
         <v>222</v>
       </c>
-      <c r="K35" t="s">
+      <c r="Q35" t="s">
         <v>223</v>
       </c>
-      <c r="L35" t="s">
-        <v>901</v>
-      </c>
-      <c r="M35" t="s">
+    </row>
+    <row r="36" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
         <v>224</v>
       </c>
-      <c r="N35" t="s">
+      <c r="B36" t="s">
+        <v>722</v>
+      </c>
+      <c r="I36" t="s">
+        <v>861</v>
+      </c>
+      <c r="J36" t="s">
         <v>225</v>
       </c>
-      <c r="O35" t="s">
-        <v>955</v>
-      </c>
-      <c r="P35" t="s">
+      <c r="K36" t="s">
         <v>226</v>
       </c>
-      <c r="Q35" t="s">
+      <c r="L36" t="s">
+        <v>920</v>
+      </c>
+      <c r="M36" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="N36" t="s">
         <v>228</v>
       </c>
-      <c r="B36" t="s">
-        <v>711</v>
-      </c>
-      <c r="F36" t="s">
-        <v>818</v>
-      </c>
-      <c r="G36" t="s">
+      <c r="O36" t="s">
+        <v>978</v>
+      </c>
+      <c r="P36" t="s">
         <v>229</v>
       </c>
-      <c r="H36" t="s">
+      <c r="Q36" t="s">
         <v>230</v>
       </c>
-      <c r="I36" t="s">
-        <v>847</v>
-      </c>
-      <c r="J36" t="s">
+    </row>
+    <row r="37" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
         <v>231</v>
-      </c>
-      <c r="K36" t="s">
-        <v>232</v>
-      </c>
-      <c r="L36" t="s">
-        <v>902</v>
-      </c>
-      <c r="M36" t="s">
-        <v>233</v>
-      </c>
-      <c r="N36" t="s">
-        <v>234</v>
-      </c>
-      <c r="O36" t="s">
-        <v>956</v>
-      </c>
-      <c r="P36" t="s">
-        <v>235</v>
-      </c>
-      <c r="Q36" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>237</v>
       </c>
       <c r="B37" t="s">
         <v>722</v>
       </c>
-      <c r="C37" t="s">
-        <v>760</v>
-      </c>
-      <c r="D37" t="s">
+      <c r="F37" t="s">
+        <v>833</v>
+      </c>
+      <c r="G37" t="s">
+        <v>232</v>
+      </c>
+      <c r="H37" t="s">
+        <v>233</v>
+      </c>
+      <c r="I37" t="s">
+        <v>862</v>
+      </c>
+      <c r="J37" t="s">
+        <v>234</v>
+      </c>
+      <c r="K37" t="s">
+        <v>235</v>
+      </c>
+      <c r="L37" t="s">
+        <v>921</v>
+      </c>
+      <c r="M37" t="s">
+        <v>236</v>
+      </c>
+      <c r="N37" t="s">
+        <v>237</v>
+      </c>
+      <c r="O37" t="s">
+        <v>979</v>
+      </c>
+      <c r="P37" t="s">
         <v>238</v>
       </c>
-      <c r="E37" t="s">
+      <c r="Q37" t="s">
         <v>239</v>
       </c>
-      <c r="F37" t="s">
+    </row>
+    <row r="38" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
         <v>240</v>
       </c>
-      <c r="G37" t="s">
-        <v>240</v>
-      </c>
-      <c r="H37" t="s">
-        <v>240</v>
-      </c>
-      <c r="I37" t="s">
-        <v>240</v>
-      </c>
-      <c r="J37" t="s">
-        <v>240</v>
-      </c>
-      <c r="K37" t="s">
-        <v>240</v>
-      </c>
-      <c r="L37" t="s">
-        <v>240</v>
-      </c>
-      <c r="M37" t="s">
-        <v>240</v>
-      </c>
-      <c r="N37" t="s">
-        <v>240</v>
-      </c>
-      <c r="O37" t="s">
-        <v>240</v>
-      </c>
-      <c r="P37" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q37" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
+      <c r="B38" t="s">
+        <v>734</v>
+      </c>
+      <c r="C38" t="s">
+        <v>773</v>
+      </c>
+      <c r="D38" t="s">
         <v>241</v>
       </c>
-      <c r="B38" t="s">
-        <v>723</v>
-      </c>
-      <c r="C38" t="s">
-        <v>761</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>242</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>243</v>
       </c>
-      <c r="F38" t="s">
-        <v>819</v>
-      </c>
       <c r="G38" t="s">
+        <v>243</v>
+      </c>
+      <c r="H38" t="s">
+        <v>243</v>
+      </c>
+      <c r="I38" t="s">
+        <v>243</v>
+      </c>
+      <c r="J38" t="s">
+        <v>243</v>
+      </c>
+      <c r="K38" t="s">
+        <v>243</v>
+      </c>
+      <c r="L38" t="s">
+        <v>243</v>
+      </c>
+      <c r="M38" t="s">
+        <v>243</v>
+      </c>
+      <c r="N38" t="s">
+        <v>243</v>
+      </c>
+      <c r="O38" t="s">
+        <v>243</v>
+      </c>
+      <c r="P38" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
         <v>244</v>
       </c>
-      <c r="H38" t="s">
+      <c r="B39" t="s">
+        <v>735</v>
+      </c>
+      <c r="C39" t="s">
+        <v>774</v>
+      </c>
+      <c r="D39" t="s">
         <v>245</v>
       </c>
-      <c r="I38" t="s">
-        <v>847</v>
-      </c>
-      <c r="J38" t="s">
-        <v>231</v>
-      </c>
-      <c r="K38" t="s">
-        <v>232</v>
-      </c>
-      <c r="L38" t="s">
-        <v>902</v>
-      </c>
-      <c r="M38" t="s">
-        <v>233</v>
-      </c>
-      <c r="N38" t="s">
+      <c r="E39" t="s">
+        <v>246</v>
+      </c>
+      <c r="F39" t="s">
+        <v>834</v>
+      </c>
+      <c r="G39" t="s">
+        <v>247</v>
+      </c>
+      <c r="H39" t="s">
+        <v>248</v>
+      </c>
+      <c r="I39" t="s">
+        <v>862</v>
+      </c>
+      <c r="J39" t="s">
         <v>234</v>
       </c>
-      <c r="O38" t="s">
-        <v>956</v>
-      </c>
-      <c r="P38" t="s">
+      <c r="K39" t="s">
         <v>235</v>
       </c>
-      <c r="Q38" t="s">
+      <c r="L39" t="s">
+        <v>921</v>
+      </c>
+      <c r="M39" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>246</v>
-      </c>
-      <c r="B39" t="s">
-        <v>711</v>
-      </c>
-      <c r="C39" t="s">
-        <v>762</v>
-      </c>
-      <c r="D39" t="s">
-        <v>247</v>
-      </c>
-      <c r="E39" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N39" t="s">
+        <v>237</v>
+      </c>
+      <c r="O39" t="s">
+        <v>979</v>
+      </c>
+      <c r="P39" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="C40" t="s">
+        <v>775</v>
+      </c>
+      <c r="D40" t="s">
+        <v>250</v>
+      </c>
+      <c r="E40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>715</v>
-      </c>
-      <c r="C41" t="s">
-        <v>763</v>
-      </c>
-      <c r="D41" t="s">
-        <v>251</v>
-      </c>
-      <c r="E41" t="s">
-        <v>252</v>
-      </c>
-      <c r="I41" t="s">
-        <v>848</v>
-      </c>
-      <c r="J41" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
         <v>253</v>
       </c>
-      <c r="K41" t="s">
+      <c r="B42" t="s">
+        <v>726</v>
+      </c>
+      <c r="C42" t="s">
+        <v>776</v>
+      </c>
+      <c r="D42" t="s">
         <v>254</v>
       </c>
-      <c r="L41" t="s">
-        <v>903</v>
-      </c>
-      <c r="M41" t="s">
+      <c r="E42" t="s">
         <v>255</v>
       </c>
-      <c r="N41" t="s">
+      <c r="I42" t="s">
+        <v>863</v>
+      </c>
+      <c r="J42" t="s">
         <v>256</v>
       </c>
-      <c r="O41" t="s">
-        <v>957</v>
-      </c>
-      <c r="P41" t="s">
+      <c r="K42" t="s">
         <v>257</v>
       </c>
-      <c r="Q41" t="s">
+      <c r="L42" t="s">
+        <v>922</v>
+      </c>
+      <c r="M42" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
+      <c r="N42" t="s">
         <v>259</v>
       </c>
-      <c r="B42" t="s">
-        <v>711</v>
-      </c>
-      <c r="C42" t="s">
-        <v>764</v>
-      </c>
-      <c r="D42" t="s">
+      <c r="O42" t="s">
+        <v>980</v>
+      </c>
+      <c r="P42" t="s">
         <v>260</v>
       </c>
-      <c r="E42" t="s">
+      <c r="Q42" t="s">
         <v>261</v>
       </c>
-      <c r="I42" t="s">
-        <v>849</v>
-      </c>
-      <c r="J42" t="s">
+    </row>
+    <row r="43" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
         <v>262</v>
       </c>
-      <c r="K42" t="s">
+      <c r="B43" t="s">
+        <v>722</v>
+      </c>
+      <c r="C43" t="s">
+        <v>777</v>
+      </c>
+      <c r="D43" t="s">
         <v>263</v>
       </c>
-      <c r="L42" t="s">
-        <v>904</v>
-      </c>
-      <c r="M42" t="s">
+      <c r="E43" t="s">
         <v>264</v>
       </c>
-      <c r="N42" t="s">
+      <c r="I43" t="s">
+        <v>864</v>
+      </c>
+      <c r="J43" t="s">
         <v>265</v>
       </c>
-      <c r="O42" t="s">
-        <v>958</v>
-      </c>
-      <c r="P42" t="s">
+      <c r="K43" t="s">
         <v>266</v>
       </c>
-      <c r="Q42" t="s">
+      <c r="L43" t="s">
+        <v>923</v>
+      </c>
+      <c r="M43" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
+      <c r="N43" t="s">
         <v>268</v>
       </c>
-      <c r="B43" t="s">
-        <v>724</v>
-      </c>
-      <c r="I43" t="s">
-        <v>850</v>
-      </c>
-      <c r="J43" t="s">
+      <c r="O43" t="s">
+        <v>981</v>
+      </c>
+      <c r="P43" t="s">
         <v>269</v>
       </c>
-      <c r="K43" t="s">
+      <c r="Q43" t="s">
         <v>270</v>
       </c>
-      <c r="L43" t="s">
-        <v>905</v>
-      </c>
-      <c r="M43" t="s">
+    </row>
+    <row r="44" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
         <v>271</v>
       </c>
-      <c r="N43" t="s">
+      <c r="B44" t="s">
+        <v>736</v>
+      </c>
+      <c r="I44" t="s">
+        <v>865</v>
+      </c>
+      <c r="J44" t="s">
         <v>272</v>
       </c>
-      <c r="O43" t="s">
-        <v>959</v>
-      </c>
-      <c r="Q43" t="s">
+      <c r="K44" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
+      <c r="L44" t="s">
+        <v>924</v>
+      </c>
+      <c r="M44" t="s">
         <v>274</v>
       </c>
-      <c r="B44" t="s">
-        <v>715</v>
-      </c>
-      <c r="I44" t="s">
-        <v>851</v>
-      </c>
-      <c r="J44" t="s">
+      <c r="N44" t="s">
         <v>275</v>
       </c>
-      <c r="K44" t="s">
+      <c r="O44" t="s">
+        <v>982</v>
+      </c>
+      <c r="Q44" t="s">
         <v>276</v>
       </c>
-      <c r="L44" t="s">
-        <v>906</v>
-      </c>
-      <c r="M44" t="s">
+    </row>
+    <row r="45" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
         <v>277</v>
       </c>
-      <c r="N44" t="s">
+      <c r="B45" t="s">
+        <v>726</v>
+      </c>
+      <c r="I45" t="s">
+        <v>866</v>
+      </c>
+      <c r="J45" t="s">
         <v>278</v>
       </c>
-      <c r="O44" t="s">
+      <c r="K45" t="s">
         <v>279</v>
       </c>
-      <c r="P44" t="s">
-        <v>279</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="L45" t="s">
+        <v>925</v>
+      </c>
+      <c r="M45" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
+      <c r="N45" t="s">
         <v>281</v>
       </c>
-      <c r="B45" t="s">
-        <v>711</v>
-      </c>
-      <c r="L45" t="s">
-        <v>907</v>
-      </c>
-      <c r="M45" t="s">
+      <c r="O45" t="s">
         <v>282</v>
       </c>
-      <c r="N45" t="s">
+      <c r="P45" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q45" t="s">
         <v>283</v>
       </c>
-      <c r="O45" t="s">
-        <v>960</v>
-      </c>
-      <c r="P45" t="s">
+    </row>
+    <row r="46" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
         <v>284</v>
       </c>
-      <c r="Q45" t="s">
+      <c r="B46" t="s">
+        <v>722</v>
+      </c>
+      <c r="L46" t="s">
+        <v>926</v>
+      </c>
+      <c r="M46" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
+      <c r="N46" t="s">
         <v>286</v>
       </c>
-      <c r="B46" t="s">
-        <v>718</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="O46" t="s">
+        <v>983</v>
+      </c>
+      <c r="P46" t="s">
         <v>287</v>
       </c>
-      <c r="D46" t="s">
-        <v>287</v>
-      </c>
-      <c r="E46" t="s">
+      <c r="Q46" t="s">
         <v>288</v>
       </c>
-      <c r="L46" t="s">
-        <v>908</v>
-      </c>
-      <c r="M46" t="s">
+    </row>
+    <row r="47" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
         <v>289</v>
       </c>
-      <c r="N46" t="s">
+      <c r="B47" t="s">
+        <v>729</v>
+      </c>
+      <c r="C47" t="s">
         <v>290</v>
       </c>
-      <c r="O46" t="s">
-        <v>961</v>
-      </c>
-      <c r="P46" t="s">
+      <c r="D47" t="s">
+        <v>290</v>
+      </c>
+      <c r="E47" t="s">
         <v>291</v>
       </c>
-      <c r="Q46" t="s">
+      <c r="L47" t="s">
+        <v>927</v>
+      </c>
+      <c r="M47" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
+      <c r="N47" t="s">
         <v>293</v>
       </c>
-      <c r="B47" t="s">
-        <v>715</v>
-      </c>
-      <c r="C47" t="s">
-        <v>765</v>
-      </c>
-      <c r="D47" t="s">
+      <c r="O47" t="s">
+        <v>984</v>
+      </c>
+      <c r="P47" t="s">
         <v>294</v>
       </c>
-      <c r="E47" t="s">
+      <c r="Q47" t="s">
         <v>295</v>
       </c>
-      <c r="I47" t="s">
-        <v>852</v>
-      </c>
-      <c r="J47" t="s">
+    </row>
+    <row r="48" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
         <v>296</v>
       </c>
-      <c r="K47" t="s">
+      <c r="B48" t="s">
+        <v>726</v>
+      </c>
+      <c r="C48" t="s">
+        <v>778</v>
+      </c>
+      <c r="D48" t="s">
         <v>297</v>
       </c>
-      <c r="L47" t="s">
-        <v>909</v>
-      </c>
-      <c r="M47" t="s">
+      <c r="E48" t="s">
         <v>298</v>
       </c>
-      <c r="N47" t="s">
+      <c r="I48" t="s">
+        <v>867</v>
+      </c>
+      <c r="J48" t="s">
         <v>299</v>
       </c>
-      <c r="O47" t="s">
-        <v>961</v>
-      </c>
-      <c r="P47" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q47" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
+      <c r="K48" t="s">
         <v>300</v>
       </c>
-      <c r="B48" t="s">
-        <v>711</v>
-      </c>
-      <c r="C48" t="s">
-        <v>766</v>
-      </c>
-      <c r="D48" t="s">
+      <c r="L48" t="s">
+        <v>928</v>
+      </c>
+      <c r="M48" t="s">
         <v>301</v>
       </c>
-      <c r="E48" t="s">
+      <c r="N48" t="s">
         <v>302</v>
       </c>
-      <c r="I48" t="s">
-        <v>853</v>
-      </c>
-      <c r="J48" t="s">
+      <c r="O48" t="s">
+        <v>984</v>
+      </c>
+      <c r="P48" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q48" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
         <v>303</v>
       </c>
-      <c r="K48" t="s">
+      <c r="B49" t="s">
+        <v>722</v>
+      </c>
+      <c r="C49" t="s">
+        <v>779</v>
+      </c>
+      <c r="D49" t="s">
         <v>304</v>
       </c>
-      <c r="L48" t="s">
-        <v>910</v>
-      </c>
-      <c r="M48" t="s">
+      <c r="E49" t="s">
         <v>305</v>
       </c>
-      <c r="N48" t="s">
+      <c r="I49" t="s">
+        <v>868</v>
+      </c>
+      <c r="J49" t="s">
         <v>306</v>
       </c>
-      <c r="O48" t="s">
-        <v>962</v>
-      </c>
-      <c r="P48" t="s">
+      <c r="K49" t="s">
         <v>307</v>
       </c>
-      <c r="Q48" t="s">
+      <c r="L49" t="s">
+        <v>929</v>
+      </c>
+      <c r="M49" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
+      <c r="N49" t="s">
         <v>309</v>
       </c>
-      <c r="B49" t="s">
-        <v>715</v>
-      </c>
-      <c r="C49" t="s">
-        <v>767</v>
-      </c>
-      <c r="D49" t="s">
+      <c r="O49" t="s">
+        <v>985</v>
+      </c>
+      <c r="P49" t="s">
         <v>310</v>
       </c>
-      <c r="E49" t="s">
+      <c r="Q49" t="s">
         <v>311</v>
       </c>
-      <c r="I49" t="s">
-        <v>854</v>
-      </c>
-      <c r="J49" t="s">
+    </row>
+    <row r="50" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
         <v>312</v>
       </c>
-      <c r="K49" t="s">
+      <c r="B50" t="s">
+        <v>726</v>
+      </c>
+      <c r="C50" t="s">
+        <v>780</v>
+      </c>
+      <c r="D50" t="s">
         <v>313</v>
       </c>
-      <c r="L49" t="s">
-        <v>911</v>
-      </c>
-      <c r="M49" t="s">
+      <c r="E50" t="s">
         <v>314</v>
       </c>
-      <c r="N49" t="s">
+      <c r="I50" t="s">
+        <v>869</v>
+      </c>
+      <c r="J50" t="s">
         <v>315</v>
       </c>
-      <c r="O49" t="s">
-        <v>911</v>
-      </c>
-      <c r="P49" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q49" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
+      <c r="K50" t="s">
         <v>316</v>
       </c>
-      <c r="B50" t="s">
-        <v>711</v>
-      </c>
-      <c r="I50" t="s">
-        <v>855</v>
-      </c>
-      <c r="J50" t="s">
+      <c r="L50" t="s">
+        <v>930</v>
+      </c>
+      <c r="M50" t="s">
         <v>317</v>
       </c>
-      <c r="K50" t="s">
+      <c r="N50" t="s">
         <v>318</v>
       </c>
-      <c r="L50" t="s">
-        <v>912</v>
-      </c>
-      <c r="M50" t="s">
+      <c r="O50" t="s">
+        <v>930</v>
+      </c>
+      <c r="P50" t="s">
+        <v>317</v>
+      </c>
+      <c r="Q50" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
         <v>319</v>
       </c>
-      <c r="N50" t="s">
+      <c r="B51" t="s">
+        <v>722</v>
+      </c>
+      <c r="I51" t="s">
+        <v>870</v>
+      </c>
+      <c r="J51" t="s">
         <v>320</v>
       </c>
-      <c r="O50" t="s">
-        <v>963</v>
-      </c>
-      <c r="P50" t="s">
+      <c r="K51" t="s">
         <v>321</v>
       </c>
-      <c r="Q50" t="s">
+      <c r="L51" t="s">
+        <v>931</v>
+      </c>
+      <c r="M51" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
+      <c r="N51" t="s">
         <v>323</v>
       </c>
-      <c r="B51" t="s">
-        <v>725</v>
-      </c>
-      <c r="C51" t="s">
-        <v>768</v>
-      </c>
-      <c r="D51" t="s">
+      <c r="O51" t="s">
+        <v>986</v>
+      </c>
+      <c r="P51" t="s">
         <v>324</v>
       </c>
-      <c r="E51" t="s">
+      <c r="Q51" t="s">
         <v>325</v>
       </c>
-      <c r="I51" t="s">
+    </row>
+    <row r="52" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
         <v>326</v>
       </c>
-      <c r="J51" t="s">
-        <v>326</v>
-      </c>
-      <c r="K51" t="s">
-        <v>326</v>
-      </c>
-      <c r="L51" t="s">
-        <v>326</v>
-      </c>
-      <c r="M51" t="s">
-        <v>326</v>
-      </c>
-      <c r="N51" t="s">
-        <v>326</v>
-      </c>
-      <c r="O51" t="s">
-        <v>326</v>
-      </c>
-      <c r="P51" t="s">
-        <v>326</v>
-      </c>
-      <c r="Q51" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
+      <c r="B52" t="s">
+        <v>737</v>
+      </c>
+      <c r="C52" t="s">
+        <v>781</v>
+      </c>
+      <c r="D52" t="s">
         <v>327</v>
       </c>
-      <c r="B52" t="s">
-        <v>726</v>
-      </c>
-      <c r="C52" t="s">
-        <v>769</v>
-      </c>
-      <c r="D52" t="s">
+      <c r="E52" t="s">
         <v>328</v>
       </c>
-      <c r="E52" t="s">
+      <c r="I52" t="s">
         <v>329</v>
       </c>
-      <c r="I52" t="s">
-        <v>326</v>
-      </c>
       <c r="J52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P52" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q52" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>725</v>
+        <v>738</v>
       </c>
       <c r="C53" t="s">
-        <v>770</v>
+        <v>782</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -6949,42 +6976,42 @@
         <v>332</v>
       </c>
       <c r="I53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P53" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q53" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>725</v>
+        <v>737</v>
       </c>
       <c r="C54" t="s">
-        <v>771</v>
+        <v>783</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -6993,42 +7020,42 @@
         <v>335</v>
       </c>
       <c r="I54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="J54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="K54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="L54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="M54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="N54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="O54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="P54" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="Q54" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>713</v>
+        <v>737</v>
       </c>
       <c r="C55" t="s">
-        <v>772</v>
+        <v>784</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7037,121 +7064,121 @@
         <v>338</v>
       </c>
       <c r="I55" t="s">
-        <v>856</v>
+        <v>329</v>
       </c>
       <c r="J55" t="s">
+        <v>329</v>
+      </c>
+      <c r="K55" t="s">
+        <v>329</v>
+      </c>
+      <c r="L55" t="s">
+        <v>329</v>
+      </c>
+      <c r="M55" t="s">
+        <v>329</v>
+      </c>
+      <c r="N55" t="s">
+        <v>329</v>
+      </c>
+      <c r="O55" t="s">
+        <v>329</v>
+      </c>
+      <c r="P55" t="s">
+        <v>329</v>
+      </c>
+      <c r="Q55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
         <v>339</v>
       </c>
-      <c r="K55" t="s">
+      <c r="B56" t="s">
+        <v>724</v>
+      </c>
+      <c r="C56" t="s">
+        <v>785</v>
+      </c>
+      <c r="D56" t="s">
         <v>340</v>
       </c>
-      <c r="L55" t="s">
+      <c r="E56" t="s">
         <v>341</v>
       </c>
-      <c r="M55" t="s">
-        <v>341</v>
-      </c>
-      <c r="N55" t="s">
+      <c r="I56" t="s">
+        <v>871</v>
+      </c>
+      <c r="J56" t="s">
         <v>342</v>
       </c>
-      <c r="O55" t="s">
-        <v>964</v>
-      </c>
-      <c r="P55" t="s">
+      <c r="K56" t="s">
         <v>343</v>
       </c>
-      <c r="Q55" t="s">
+      <c r="L56" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
+      <c r="M56" t="s">
+        <v>344</v>
+      </c>
+      <c r="N56" t="s">
         <v>345</v>
       </c>
-      <c r="B56" t="s">
-        <v>711</v>
-      </c>
-      <c r="I56" t="s">
-        <v>857</v>
-      </c>
-      <c r="J56" t="s">
+      <c r="O56" t="s">
+        <v>987</v>
+      </c>
+      <c r="P56" t="s">
         <v>346</v>
       </c>
-      <c r="K56" t="s">
+      <c r="Q56" t="s">
         <v>347</v>
       </c>
-      <c r="L56" t="s">
-        <v>913</v>
-      </c>
-      <c r="M56" t="s">
+    </row>
+    <row r="57" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
         <v>348</v>
       </c>
-      <c r="N56" t="s">
+      <c r="B57" t="s">
+        <v>722</v>
+      </c>
+      <c r="I57" t="s">
+        <v>872</v>
+      </c>
+      <c r="J57" t="s">
         <v>349</v>
       </c>
-      <c r="O56" t="s">
-        <v>965</v>
-      </c>
-      <c r="P56" t="s">
+      <c r="K57" t="s">
         <v>350</v>
       </c>
-      <c r="Q56" t="s">
+      <c r="L57" t="s">
+        <v>932</v>
+      </c>
+      <c r="M57" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+      <c r="N57" t="s">
         <v>352</v>
       </c>
-      <c r="B57" t="s">
-        <v>711</v>
-      </c>
-      <c r="C57" t="s">
-        <v>773</v>
-      </c>
-      <c r="D57" t="s">
+      <c r="O57" t="s">
+        <v>988</v>
+      </c>
+      <c r="P57" t="s">
         <v>353</v>
       </c>
-      <c r="E57" t="s">
+      <c r="Q57" t="s">
         <v>354</v>
       </c>
-      <c r="I57" t="s">
-        <v>165</v>
-      </c>
-      <c r="J57" t="s">
-        <v>165</v>
-      </c>
-      <c r="K57" t="s">
-        <v>165</v>
-      </c>
-      <c r="L57" t="s">
-        <v>165</v>
-      </c>
-      <c r="M57" t="s">
-        <v>165</v>
-      </c>
-      <c r="N57" t="s">
-        <v>165</v>
-      </c>
-      <c r="O57" t="s">
-        <v>165</v>
-      </c>
-      <c r="P57" t="s">
-        <v>165</v>
-      </c>
-      <c r="Q57" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C58" t="s">
-        <v>774</v>
+        <v>786</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7159,15 +7186,6 @@
       <c r="E58" t="s">
         <v>357</v>
       </c>
-      <c r="F58" t="s">
-        <v>820</v>
-      </c>
-      <c r="G58" t="s">
-        <v>358</v>
-      </c>
-      <c r="H58" t="s">
-        <v>359</v>
-      </c>
       <c r="I58" t="s">
         <v>165</v>
       </c>
@@ -7196,138 +7214,147 @@
         <v>165</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
+        <v>358</v>
+      </c>
+      <c r="B59" t="s">
+        <v>722</v>
+      </c>
+      <c r="C59" t="s">
+        <v>787</v>
+      </c>
+      <c r="D59" t="s">
+        <v>359</v>
+      </c>
+      <c r="E59" t="s">
         <v>360</v>
       </c>
-      <c r="B59" t="s">
-        <v>727</v>
-      </c>
-      <c r="C59" t="s">
-        <v>775</v>
-      </c>
-      <c r="D59" t="s">
+      <c r="F59" t="s">
+        <v>835</v>
+      </c>
+      <c r="G59" t="s">
         <v>361</v>
       </c>
-      <c r="E59" t="s">
+      <c r="H59" t="s">
         <v>362</v>
+      </c>
+      <c r="I59" t="s">
+        <v>165</v>
+      </c>
+      <c r="J59" t="s">
+        <v>165</v>
       </c>
       <c r="K59" t="s">
         <v>165</v>
       </c>
+      <c r="L59" t="s">
+        <v>165</v>
+      </c>
+      <c r="M59" t="s">
+        <v>165</v>
+      </c>
       <c r="N59" t="s">
         <v>165</v>
       </c>
+      <c r="O59" t="s">
+        <v>165</v>
+      </c>
+      <c r="P59" t="s">
+        <v>165</v>
+      </c>
       <c r="Q59" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>711</v>
-      </c>
-      <c r="F60" t="s">
-        <v>821</v>
-      </c>
-      <c r="G60" t="s">
+        <v>739</v>
+      </c>
+      <c r="C60" t="s">
+        <v>788</v>
+      </c>
+      <c r="D60" t="s">
         <v>364</v>
       </c>
-      <c r="H60" t="s">
+      <c r="E60" t="s">
         <v>365</v>
       </c>
-      <c r="I60" t="s">
+      <c r="K60" t="s">
+        <v>165</v>
+      </c>
+      <c r="N60" t="s">
+        <v>165</v>
+      </c>
+      <c r="Q60" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
         <v>366</v>
       </c>
-      <c r="J60" t="s">
-        <v>366</v>
-      </c>
-      <c r="K60" t="s">
-        <v>366</v>
-      </c>
-      <c r="L60" t="s">
-        <v>366</v>
-      </c>
-      <c r="M60" t="s">
-        <v>366</v>
-      </c>
-      <c r="N60" t="s">
-        <v>366</v>
-      </c>
-      <c r="O60" t="s">
-        <v>366</v>
-      </c>
-      <c r="P60" t="s">
-        <v>366</v>
-      </c>
-      <c r="Q60" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="B61" t="s">
+        <v>722</v>
+      </c>
+      <c r="F61" t="s">
+        <v>836</v>
+      </c>
+      <c r="G61" t="s">
         <v>367</v>
       </c>
-      <c r="B61" t="s">
-        <v>715</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="H61" t="s">
         <v>368</v>
       </c>
-      <c r="D61" t="s">
-        <v>368</v>
-      </c>
-      <c r="E61" t="s">
+      <c r="I61" t="s">
         <v>369</v>
       </c>
-      <c r="F61" t="s">
-        <v>822</v>
-      </c>
-      <c r="G61" t="s">
+      <c r="J61" t="s">
+        <v>369</v>
+      </c>
+      <c r="K61" t="s">
+        <v>369</v>
+      </c>
+      <c r="L61" t="s">
+        <v>369</v>
+      </c>
+      <c r="M61" t="s">
+        <v>369</v>
+      </c>
+      <c r="N61" t="s">
+        <v>369</v>
+      </c>
+      <c r="O61" t="s">
+        <v>369</v>
+      </c>
+      <c r="P61" t="s">
+        <v>369</v>
+      </c>
+      <c r="Q61" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
         <v>370</v>
       </c>
-      <c r="H61" t="s">
+      <c r="B62" t="s">
+        <v>726</v>
+      </c>
+      <c r="C62" t="s">
         <v>371</v>
       </c>
-      <c r="I61" t="s">
-        <v>240</v>
-      </c>
-      <c r="J61" t="s">
-        <v>240</v>
-      </c>
-      <c r="K61" t="s">
-        <v>240</v>
-      </c>
-      <c r="L61" t="s">
-        <v>240</v>
-      </c>
-      <c r="M61" t="s">
-        <v>240</v>
-      </c>
-      <c r="N61" t="s">
-        <v>240</v>
-      </c>
-      <c r="O61" t="s">
-        <v>240</v>
-      </c>
-      <c r="P61" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q61" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" t="s">
         <v>372</v>
       </c>
-      <c r="B62" t="s">
-        <v>711</v>
-      </c>
       <c r="F62" t="s">
-        <v>373</v>
+        <v>837</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7336,191 +7363,218 @@
         <v>374</v>
       </c>
       <c r="I62" t="s">
+        <v>243</v>
+      </c>
+      <c r="J62" t="s">
+        <v>243</v>
+      </c>
+      <c r="K62" t="s">
+        <v>243</v>
+      </c>
+      <c r="L62" t="s">
+        <v>243</v>
+      </c>
+      <c r="M62" t="s">
+        <v>243</v>
+      </c>
+      <c r="N62" t="s">
+        <v>243</v>
+      </c>
+      <c r="O62" t="s">
+        <v>243</v>
+      </c>
+      <c r="P62" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q62" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
         <v>375</v>
       </c>
-      <c r="J62" t="s">
-        <v>375</v>
-      </c>
-      <c r="K62" t="s">
-        <v>375</v>
-      </c>
-      <c r="L62" t="s">
-        <v>375</v>
-      </c>
-      <c r="M62" t="s">
-        <v>375</v>
-      </c>
-      <c r="N62" t="s">
-        <v>375</v>
-      </c>
-      <c r="O62" t="s">
-        <v>375</v>
-      </c>
-      <c r="P62" t="s">
-        <v>375</v>
-      </c>
-      <c r="Q62" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="B63" t="s">
+        <v>722</v>
+      </c>
+      <c r="F63" t="s">
         <v>376</v>
       </c>
-      <c r="B63" t="s">
-        <v>728</v>
-      </c>
-      <c r="C63" t="s">
-        <v>776</v>
-      </c>
-      <c r="D63" t="s">
+      <c r="G63" t="s">
+        <v>376</v>
+      </c>
+      <c r="H63" t="s">
         <v>377</v>
       </c>
-      <c r="E63" t="s">
+      <c r="I63" t="s">
         <v>378</v>
       </c>
-      <c r="I63" t="s">
-        <v>858</v>
-      </c>
       <c r="J63" t="s">
+        <v>378</v>
+      </c>
+      <c r="K63" t="s">
+        <v>378</v>
+      </c>
+      <c r="L63" t="s">
+        <v>378</v>
+      </c>
+      <c r="M63" t="s">
+        <v>378</v>
+      </c>
+      <c r="N63" t="s">
+        <v>378</v>
+      </c>
+      <c r="O63" t="s">
+        <v>378</v>
+      </c>
+      <c r="P63" t="s">
+        <v>378</v>
+      </c>
+      <c r="Q63" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
         <v>379</v>
       </c>
-      <c r="K63" t="s">
+      <c r="B64" t="s">
+        <v>740</v>
+      </c>
+      <c r="C64" t="s">
+        <v>789</v>
+      </c>
+      <c r="D64" t="s">
         <v>380</v>
       </c>
-      <c r="L63" t="s">
-        <v>914</v>
-      </c>
-      <c r="M63" t="s">
+      <c r="E64" t="s">
         <v>381</v>
       </c>
-      <c r="N63" t="s">
+      <c r="I64" t="s">
+        <v>873</v>
+      </c>
+      <c r="J64" t="s">
         <v>382</v>
       </c>
-      <c r="O63" t="s">
-        <v>966</v>
-      </c>
-      <c r="P63" t="s">
+      <c r="K64" t="s">
         <v>383</v>
       </c>
-      <c r="Q63" t="s">
+      <c r="L64" t="s">
+        <v>933</v>
+      </c>
+      <c r="M64" t="s">
         <v>384</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="N64" t="s">
         <v>385</v>
       </c>
-      <c r="B64" t="s">
-        <v>715</v>
-      </c>
-      <c r="C64" t="s">
-        <v>777</v>
-      </c>
-      <c r="D64" t="s">
+      <c r="O64" t="s">
+        <v>989</v>
+      </c>
+      <c r="P64" t="s">
         <v>386</v>
       </c>
-      <c r="E64" t="s">
+      <c r="Q64" t="s">
         <v>387</v>
       </c>
-      <c r="I64" t="s">
-        <v>859</v>
-      </c>
-      <c r="J64" t="s">
+    </row>
+    <row r="65" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
         <v>388</v>
       </c>
-      <c r="K64" t="s">
+      <c r="B65" t="s">
+        <v>726</v>
+      </c>
+      <c r="C65" t="s">
+        <v>790</v>
+      </c>
+      <c r="D65" t="s">
         <v>389</v>
       </c>
-      <c r="L64" t="s">
-        <v>915</v>
-      </c>
-      <c r="M64" t="s">
+      <c r="E65" t="s">
         <v>390</v>
       </c>
-      <c r="N64" t="s">
+      <c r="I65" t="s">
+        <v>874</v>
+      </c>
+      <c r="J65" t="s">
         <v>391</v>
       </c>
-      <c r="O64" t="s">
-        <v>967</v>
-      </c>
-      <c r="P64" t="s">
+      <c r="K65" t="s">
         <v>392</v>
       </c>
-      <c r="Q64" t="s">
+      <c r="L65" t="s">
+        <v>934</v>
+      </c>
+      <c r="M65" t="s">
         <v>393</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="N65" t="s">
         <v>394</v>
       </c>
-      <c r="B65" t="s">
-        <v>715</v>
-      </c>
-      <c r="C65" t="s">
-        <v>778</v>
-      </c>
-      <c r="D65" t="s">
+      <c r="O65" t="s">
+        <v>990</v>
+      </c>
+      <c r="P65" t="s">
         <v>395</v>
       </c>
-      <c r="E65" t="s">
+      <c r="Q65" t="s">
         <v>396</v>
       </c>
-      <c r="I65" t="s">
-        <v>860</v>
-      </c>
-      <c r="J65" t="s">
+    </row>
+    <row r="66" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>397</v>
       </c>
-      <c r="K65" t="s">
+      <c r="B66" t="s">
+        <v>726</v>
+      </c>
+      <c r="C66" t="s">
+        <v>791</v>
+      </c>
+      <c r="D66" t="s">
         <v>398</v>
       </c>
-      <c r="L65" t="s">
+      <c r="E66" t="s">
         <v>399</v>
       </c>
-      <c r="M65" t="s">
-        <v>399</v>
-      </c>
-      <c r="N65" t="s">
+      <c r="I66" t="s">
+        <v>875</v>
+      </c>
+      <c r="J66" t="s">
         <v>400</v>
       </c>
-      <c r="O65" t="s">
-        <v>968</v>
-      </c>
-      <c r="P65" t="s">
+      <c r="K66" t="s">
         <v>401</v>
       </c>
-      <c r="Q65" t="s">
+      <c r="L66" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="M66" t="s">
+        <v>402</v>
+      </c>
+      <c r="N66" t="s">
         <v>403</v>
       </c>
-      <c r="B66" t="s">
-        <v>711</v>
-      </c>
-      <c r="F66" t="s">
-        <v>823</v>
-      </c>
-      <c r="G66" t="s">
+      <c r="O66" t="s">
+        <v>991</v>
+      </c>
+      <c r="P66" t="s">
         <v>404</v>
       </c>
-      <c r="H66" t="s">
+      <c r="Q66" t="s">
         <v>405</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="F67" t="s">
-        <v>824</v>
+        <v>838</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7528,104 +7582,104 @@
       <c r="H67" t="s">
         <v>408</v>
       </c>
-      <c r="I67" t="s">
-        <v>240</v>
-      </c>
-      <c r="J67" t="s">
-        <v>240</v>
-      </c>
-      <c r="K67" t="s">
-        <v>240</v>
-      </c>
-      <c r="L67" t="s">
-        <v>240</v>
-      </c>
-      <c r="M67" t="s">
-        <v>240</v>
-      </c>
-      <c r="N67" t="s">
-        <v>240</v>
-      </c>
-      <c r="O67" t="s">
-        <v>240</v>
-      </c>
-      <c r="P67" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q67" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>729</v>
-      </c>
-      <c r="C68" t="s">
-        <v>779</v>
-      </c>
-      <c r="D68" t="s">
+        <v>722</v>
+      </c>
+      <c r="F68" t="s">
+        <v>839</v>
+      </c>
+      <c r="G68" t="s">
         <v>410</v>
       </c>
-      <c r="E68" t="s">
+      <c r="H68" t="s">
         <v>411</v>
       </c>
       <c r="I68" t="s">
-        <v>861</v>
+        <v>243</v>
       </c>
       <c r="J68" t="s">
+        <v>243</v>
+      </c>
+      <c r="K68" t="s">
+        <v>243</v>
+      </c>
+      <c r="L68" t="s">
+        <v>243</v>
+      </c>
+      <c r="M68" t="s">
+        <v>243</v>
+      </c>
+      <c r="N68" t="s">
+        <v>243</v>
+      </c>
+      <c r="O68" t="s">
+        <v>243</v>
+      </c>
+      <c r="P68" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q68" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
         <v>412</v>
       </c>
-      <c r="K68" t="s">
+      <c r="B69" t="s">
+        <v>741</v>
+      </c>
+      <c r="C69" t="s">
+        <v>792</v>
+      </c>
+      <c r="D69" t="s">
         <v>413</v>
       </c>
-      <c r="L68" t="s">
-        <v>916</v>
-      </c>
-      <c r="M68" t="s">
+      <c r="E69" t="s">
         <v>414</v>
       </c>
-      <c r="N68" t="s">
+      <c r="I69" t="s">
+        <v>876</v>
+      </c>
+      <c r="J69" t="s">
         <v>415</v>
       </c>
-      <c r="O68" t="s">
-        <v>969</v>
-      </c>
-      <c r="P68" t="s">
+      <c r="K69" t="s">
         <v>416</v>
       </c>
-      <c r="Q68" t="s">
+      <c r="L69" t="s">
+        <v>935</v>
+      </c>
+      <c r="M69" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
+      <c r="N69" t="s">
         <v>418</v>
       </c>
-      <c r="B69" t="s">
-        <v>711</v>
-      </c>
-      <c r="C69" t="s">
-        <v>780</v>
-      </c>
-      <c r="D69" t="s">
+      <c r="O69" t="s">
+        <v>992</v>
+      </c>
+      <c r="P69" t="s">
         <v>419</v>
       </c>
-      <c r="E69" t="s">
+      <c r="Q69" t="s">
         <v>420</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="C70" t="s">
-        <v>781</v>
+        <v>793</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7634,15 +7688,15 @@
         <v>423</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>711</v>
+        <v>726</v>
       </c>
       <c r="C71" t="s">
-        <v>782</v>
+        <v>794</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7651,15 +7705,15 @@
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C72" t="s">
-        <v>783</v>
+        <v>795</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -7668,250 +7722,250 @@
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C73" t="s">
-        <v>784</v>
+        <v>796</v>
+      </c>
+      <c r="D73" t="s">
+        <v>431</v>
       </c>
       <c r="E73" t="s">
-        <v>431</v>
-      </c>
-      <c r="I73" t="s">
-        <v>862</v>
-      </c>
-      <c r="K73" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>730</v>
+        <v>722</v>
       </c>
       <c r="C74" t="s">
+        <v>797</v>
+      </c>
+      <c r="E74" t="s">
         <v>434</v>
       </c>
-      <c r="D74" t="s">
-        <v>434</v>
-      </c>
-      <c r="E74" t="s">
+      <c r="I74" t="s">
+        <v>877</v>
+      </c>
+      <c r="K74" t="s">
         <v>435</v>
       </c>
-      <c r="I74" t="s">
+    </row>
+    <row r="75" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
         <v>436</v>
       </c>
-      <c r="J74" t="s">
-        <v>436</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="B75" t="s">
+        <v>742</v>
+      </c>
+      <c r="C75" t="s">
         <v>437</v>
       </c>
-      <c r="L74" t="s">
+      <c r="D75" t="s">
+        <v>437</v>
+      </c>
+      <c r="E75" t="s">
         <v>438</v>
       </c>
-      <c r="M74" t="s">
-        <v>438</v>
-      </c>
-      <c r="N74" t="s">
+      <c r="I75" t="s">
         <v>439</v>
       </c>
-      <c r="O74" t="s">
+      <c r="J75" t="s">
+        <v>439</v>
+      </c>
+      <c r="K75" t="s">
         <v>440</v>
       </c>
-      <c r="P74" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q74" t="s">
+      <c r="L75" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="M75" t="s">
+        <v>441</v>
+      </c>
+      <c r="N75" t="s">
         <v>442</v>
       </c>
-      <c r="B75" t="s">
-        <v>711</v>
-      </c>
-      <c r="C75" t="s">
-        <v>785</v>
-      </c>
-      <c r="E75" t="s">
+      <c r="O75" t="s">
         <v>443</v>
       </c>
-      <c r="I75" t="s">
-        <v>863</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="P75" t="s">
+        <v>443</v>
+      </c>
+      <c r="Q75" t="s">
         <v>444</v>
       </c>
     </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C76" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
       <c r="E76" t="s">
         <v>446</v>
       </c>
       <c r="I76" t="s">
-        <v>864</v>
+        <v>878</v>
       </c>
       <c r="K76" t="s">
         <v>447</v>
       </c>
-      <c r="L76" t="s">
-        <v>917</v>
-      </c>
-      <c r="N76" t="s">
+    </row>
+    <row r="77" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
         <v>448</v>
       </c>
-      <c r="O76" t="s">
+      <c r="B77" t="s">
+        <v>722</v>
+      </c>
+      <c r="C77" t="s">
+        <v>799</v>
+      </c>
+      <c r="E77" t="s">
         <v>449</v>
       </c>
-      <c r="P76" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q76" t="s">
+      <c r="I77" t="s">
+        <v>879</v>
+      </c>
+      <c r="K77" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
+      <c r="L77" t="s">
+        <v>936</v>
+      </c>
+      <c r="N77" t="s">
         <v>451</v>
       </c>
-      <c r="B77" t="s">
-        <v>731</v>
-      </c>
-      <c r="C77" t="s">
-        <v>787</v>
-      </c>
-      <c r="D77" t="s">
+      <c r="O77" t="s">
         <v>452</v>
       </c>
-      <c r="E77" t="s">
+      <c r="P77" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q77" t="s">
         <v>453</v>
       </c>
-      <c r="I77" t="s">
-        <v>864</v>
-      </c>
-      <c r="K77" t="s">
-        <v>447</v>
-      </c>
-      <c r="L77" t="s">
-        <v>918</v>
-      </c>
-      <c r="N77" t="s">
+    </row>
+    <row r="78" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
         <v>454</v>
       </c>
-      <c r="O77" t="s">
-        <v>449</v>
-      </c>
-      <c r="P77" t="s">
-        <v>449</v>
-      </c>
-      <c r="Q77" t="s">
+      <c r="B78" t="s">
+        <v>743</v>
+      </c>
+      <c r="C78" t="s">
+        <v>800</v>
+      </c>
+      <c r="D78" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
+      <c r="E78" t="s">
         <v>456</v>
       </c>
-      <c r="B78" t="s">
-        <v>711</v>
+      <c r="I78" t="s">
+        <v>879</v>
+      </c>
+      <c r="K78" t="s">
+        <v>450</v>
       </c>
       <c r="L78" t="s">
+        <v>937</v>
+      </c>
+      <c r="N78" t="s">
         <v>457</v>
       </c>
-      <c r="M78" t="s">
-        <v>457</v>
-      </c>
-      <c r="N78" t="s">
+      <c r="O78" t="s">
+        <v>452</v>
+      </c>
+      <c r="P78" t="s">
+        <v>452</v>
+      </c>
+      <c r="Q78" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="79" spans="1:17" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
-      </c>
-      <c r="C79" t="s">
-        <v>988</v>
-      </c>
-      <c r="D79" t="s">
+        <v>722</v>
+      </c>
+      <c r="L79" t="s">
+        <v>460</v>
+      </c>
+      <c r="M79" t="s">
+        <v>460</v>
+      </c>
+      <c r="N79" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>462</v>
+      </c>
+      <c r="B80" t="s">
+        <v>731</v>
+      </c>
+      <c r="C80" t="s">
+        <v>766</v>
+      </c>
+      <c r="D80" t="s">
         <v>167</v>
       </c>
-      <c r="E79" t="s">
+      <c r="E80" t="s">
         <v>168</v>
       </c>
-      <c r="I79" t="s">
-        <v>991</v>
-      </c>
-      <c r="J79" t="s">
-        <v>460</v>
-      </c>
-      <c r="K79" s="2" t="s">
-        <v>461</v>
-      </c>
-      <c r="L79" t="s">
-        <v>992</v>
-      </c>
-      <c r="M79" t="s">
-        <v>462</v>
-      </c>
-      <c r="N79" t="s">
+      <c r="I80" t="s">
+        <v>880</v>
+      </c>
+      <c r="J80" t="s">
         <v>463</v>
       </c>
-      <c r="O79" t="s">
-        <v>991</v>
-      </c>
-      <c r="P79" t="s">
+      <c r="K80" t="s">
         <v>464</v>
       </c>
-      <c r="Q79" t="s">
+      <c r="L80" t="s">
+        <v>938</v>
+      </c>
+      <c r="M80" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
+      <c r="N80" t="s">
         <v>466</v>
       </c>
-      <c r="B80" t="s">
-        <v>711</v>
-      </c>
-      <c r="C80" t="s">
+      <c r="O80" t="s">
+        <v>880</v>
+      </c>
+      <c r="P80" t="s">
         <v>467</v>
       </c>
-      <c r="D80" t="s">
-        <v>467</v>
-      </c>
-      <c r="E80" t="s">
+      <c r="Q80" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C81" t="s">
-        <v>788</v>
+        <v>470</v>
       </c>
       <c r="D81" t="s">
         <v>470</v>
@@ -7920,15 +7974,15 @@
         <v>471</v>
       </c>
     </row>
-    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>717</v>
+        <v>722</v>
       </c>
       <c r="C82" t="s">
-        <v>789</v>
+        <v>801</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -7936,155 +7990,155 @@
       <c r="E82" t="s">
         <v>474</v>
       </c>
-      <c r="L82" t="s">
+    </row>
+    <row r="83" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
         <v>475</v>
       </c>
-      <c r="M82" t="s">
-        <v>475</v>
-      </c>
-      <c r="N82" t="s">
+      <c r="B83" t="s">
+        <v>728</v>
+      </c>
+      <c r="C83" t="s">
+        <v>802</v>
+      </c>
+      <c r="D83" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
+      <c r="E83" t="s">
         <v>477</v>
       </c>
-      <c r="B83" t="s">
-        <v>717</v>
-      </c>
-      <c r="C83" t="s">
-        <v>790</v>
-      </c>
-      <c r="D83" t="s">
+      <c r="L83" t="s">
         <v>478</v>
       </c>
-      <c r="E83" t="s">
+      <c r="M83" t="s">
+        <v>478</v>
+      </c>
+      <c r="N83" t="s">
         <v>479</v>
       </c>
-      <c r="L83" t="s">
-        <v>919</v>
-      </c>
-      <c r="M83" t="s">
+    </row>
+    <row r="84" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
         <v>480</v>
       </c>
-      <c r="N83" t="s">
+      <c r="B84" t="s">
+        <v>728</v>
+      </c>
+      <c r="C84" t="s">
+        <v>803</v>
+      </c>
+      <c r="D84" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
+      <c r="E84" t="s">
         <v>482</v>
       </c>
-      <c r="B84" t="s">
-        <v>711</v>
-      </c>
-      <c r="C84" t="s">
-        <v>791</v>
-      </c>
-      <c r="E84" t="s">
+      <c r="L84" t="s">
+        <v>939</v>
+      </c>
+      <c r="M84" t="s">
         <v>483</v>
       </c>
-    </row>
-    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="N84" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>711</v>
+        <v>722</v>
       </c>
       <c r="C85" t="s">
-        <v>792</v>
-      </c>
-      <c r="D85" t="s">
-        <v>485</v>
+        <v>804</v>
       </c>
       <c r="E85" t="s">
         <v>486</v>
       </c>
-      <c r="I85" t="s">
-        <v>865</v>
-      </c>
-      <c r="K85" t="s">
+    </row>
+    <row r="86" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
         <v>487</v>
       </c>
-      <c r="L85" t="s">
-        <v>920</v>
-      </c>
-      <c r="N85" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
+      <c r="B86" t="s">
+        <v>722</v>
+      </c>
+      <c r="C86" t="s">
+        <v>805</v>
+      </c>
+      <c r="D86" t="s">
         <v>488</v>
       </c>
-      <c r="B86" t="s">
-        <v>711</v>
-      </c>
-      <c r="C86" t="s">
-        <v>793</v>
-      </c>
-      <c r="D86" t="s">
+      <c r="E86" t="s">
         <v>489</v>
       </c>
-      <c r="E86" t="s">
+      <c r="I86" t="s">
+        <v>881</v>
+      </c>
+      <c r="K86" t="s">
         <v>490</v>
       </c>
-      <c r="I86" t="s">
-        <v>866</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="L86" t="s">
+        <v>940</v>
+      </c>
+      <c r="N86" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
         <v>491</v>
       </c>
-      <c r="K86" t="s">
+      <c r="B87" t="s">
+        <v>722</v>
+      </c>
+      <c r="C87" t="s">
+        <v>806</v>
+      </c>
+      <c r="D87" t="s">
         <v>492</v>
       </c>
-      <c r="L86" t="s">
-        <v>921</v>
-      </c>
-      <c r="M86" t="s">
+      <c r="E87" t="s">
         <v>493</v>
       </c>
-      <c r="N86" t="s">
+      <c r="I87" t="s">
+        <v>882</v>
+      </c>
+      <c r="J87" t="s">
         <v>494</v>
       </c>
-      <c r="O86" t="s">
-        <v>970</v>
-      </c>
-      <c r="P86" t="s">
+      <c r="K87" t="s">
         <v>495</v>
       </c>
-      <c r="Q86" t="s">
+      <c r="L87" t="s">
+        <v>941</v>
+      </c>
+      <c r="M87" t="s">
         <v>496</v>
       </c>
-    </row>
-    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
+      <c r="N87" t="s">
         <v>497</v>
       </c>
-      <c r="B87" t="s">
-        <v>715</v>
-      </c>
-      <c r="C87" t="s">
-        <v>794</v>
-      </c>
-      <c r="D87" t="s">
+      <c r="O87" t="s">
+        <v>993</v>
+      </c>
+      <c r="P87" t="s">
         <v>498</v>
       </c>
-      <c r="E87" t="s">
+      <c r="Q87" t="s">
         <v>499</v>
       </c>
     </row>
-    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>723</v>
+        <v>726</v>
       </c>
       <c r="C88" t="s">
-        <v>795</v>
+        <v>807</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8092,222 +8146,222 @@
       <c r="E88" t="s">
         <v>502</v>
       </c>
-      <c r="L88" t="s">
-        <v>922</v>
-      </c>
-      <c r="M88" t="s">
+    </row>
+    <row r="89" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
         <v>503</v>
       </c>
-      <c r="N88" t="s">
+      <c r="B89" t="s">
+        <v>735</v>
+      </c>
+      <c r="C89" t="s">
+        <v>808</v>
+      </c>
+      <c r="D89" t="s">
         <v>504</v>
       </c>
-      <c r="O88" t="s">
-        <v>971</v>
-      </c>
-      <c r="P88" t="s">
+      <c r="E89" t="s">
         <v>505</v>
       </c>
-      <c r="Q88" t="s">
+      <c r="L89" t="s">
+        <v>942</v>
+      </c>
+      <c r="M89" t="s">
         <v>506</v>
       </c>
-    </row>
-    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
+      <c r="N89" t="s">
         <v>507</v>
       </c>
-      <c r="B89" t="s">
-        <v>711</v>
-      </c>
-      <c r="L89" t="s">
-        <v>923</v>
-      </c>
-      <c r="M89" t="s">
+      <c r="O89" t="s">
+        <v>994</v>
+      </c>
+      <c r="P89" t="s">
         <v>508</v>
       </c>
-      <c r="N89" t="s">
-        <v>283</v>
-      </c>
-      <c r="O89" t="s">
-        <v>972</v>
-      </c>
-      <c r="P89" t="s">
+      <c r="Q89" t="s">
         <v>509</v>
       </c>
-      <c r="Q89" t="s">
+    </row>
+    <row r="90" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
         <v>510</v>
       </c>
-    </row>
-    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
+      <c r="B90" t="s">
+        <v>722</v>
+      </c>
+      <c r="L90" t="s">
+        <v>943</v>
+      </c>
+      <c r="M90" t="s">
         <v>511</v>
       </c>
-      <c r="B90" t="s">
-        <v>711</v>
-      </c>
-      <c r="F90" t="s">
-        <v>825</v>
-      </c>
-      <c r="G90" t="s">
+      <c r="N90" t="s">
+        <v>286</v>
+      </c>
+      <c r="O90" t="s">
+        <v>995</v>
+      </c>
+      <c r="P90" t="s">
         <v>512</v>
       </c>
-      <c r="H90" t="s">
+      <c r="Q90" t="s">
         <v>513</v>
       </c>
-      <c r="I90" t="s">
-        <v>240</v>
-      </c>
-      <c r="J90" t="s">
-        <v>240</v>
-      </c>
-      <c r="K90" t="s">
-        <v>240</v>
-      </c>
-      <c r="L90" t="s">
-        <v>240</v>
-      </c>
-      <c r="M90" t="s">
-        <v>240</v>
-      </c>
-      <c r="N90" t="s">
-        <v>240</v>
-      </c>
-      <c r="O90" t="s">
-        <v>240</v>
-      </c>
-      <c r="P90" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q90" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>711</v>
-      </c>
-      <c r="C91" t="s">
-        <v>796</v>
-      </c>
-      <c r="D91" t="s">
+        <v>722</v>
+      </c>
+      <c r="F91" t="s">
+        <v>840</v>
+      </c>
+      <c r="G91" t="s">
         <v>515</v>
       </c>
-      <c r="E91" t="s">
+      <c r="H91" t="s">
         <v>516</v>
       </c>
-      <c r="F91" t="s">
-        <v>826</v>
-      </c>
-      <c r="G91" t="s">
+      <c r="I91" t="s">
+        <v>243</v>
+      </c>
+      <c r="J91" t="s">
+        <v>243</v>
+      </c>
+      <c r="K91" t="s">
+        <v>243</v>
+      </c>
+      <c r="L91" t="s">
+        <v>243</v>
+      </c>
+      <c r="M91" t="s">
+        <v>243</v>
+      </c>
+      <c r="N91" t="s">
+        <v>243</v>
+      </c>
+      <c r="O91" t="s">
+        <v>243</v>
+      </c>
+      <c r="P91" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q91" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
         <v>517</v>
       </c>
-      <c r="H91" t="s">
+      <c r="B92" t="s">
+        <v>722</v>
+      </c>
+      <c r="C92" t="s">
+        <v>809</v>
+      </c>
+      <c r="D92" t="s">
         <v>518</v>
       </c>
-    </row>
-    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
+      <c r="E92" t="s">
         <v>519</v>
       </c>
-      <c r="B92" t="s">
-        <v>711</v>
-      </c>
-      <c r="C92" t="s">
-        <v>797</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="F92" t="s">
+        <v>841</v>
+      </c>
+      <c r="G92" t="s">
         <v>520</v>
       </c>
-      <c r="E92" t="s">
-        <v>516</v>
-      </c>
-      <c r="F92" t="s">
-        <v>827</v>
-      </c>
-      <c r="G92" t="s">
+      <c r="H92" t="s">
         <v>521</v>
       </c>
-      <c r="H92" t="s">
+    </row>
+    <row r="93" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
         <v>522</v>
       </c>
-    </row>
-    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
+      <c r="B93" t="s">
+        <v>722</v>
+      </c>
+      <c r="C93" t="s">
+        <v>810</v>
+      </c>
+      <c r="D93" t="s">
         <v>523</v>
       </c>
-      <c r="B93" t="s">
-        <v>711</v>
-      </c>
-      <c r="C93" t="s">
-        <v>798</v>
-      </c>
-      <c r="D93" t="s">
+      <c r="E93" t="s">
+        <v>519</v>
+      </c>
+      <c r="F93" t="s">
+        <v>842</v>
+      </c>
+      <c r="G93" t="s">
         <v>524</v>
       </c>
-      <c r="E93" t="s">
+      <c r="H93" t="s">
         <v>525</v>
       </c>
-      <c r="F93" t="s">
-        <v>828</v>
-      </c>
-      <c r="G93" t="s">
+    </row>
+    <row r="94" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
         <v>526</v>
       </c>
-      <c r="H93" t="s">
+      <c r="B94" t="s">
+        <v>722</v>
+      </c>
+      <c r="C94" t="s">
+        <v>811</v>
+      </c>
+      <c r="D94" t="s">
         <v>527</v>
       </c>
-    </row>
-    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
+      <c r="E94" t="s">
         <v>528</v>
       </c>
-      <c r="B94" t="s">
-        <v>732</v>
-      </c>
-      <c r="I94" t="s">
-        <v>867</v>
-      </c>
-      <c r="J94" t="s">
+      <c r="F94" t="s">
+        <v>843</v>
+      </c>
+      <c r="G94" t="s">
         <v>529</v>
       </c>
-      <c r="K94" t="s">
+      <c r="H94" t="s">
         <v>530</v>
       </c>
-      <c r="L94" t="s">
-        <v>924</v>
-      </c>
-      <c r="M94" t="s">
+    </row>
+    <row r="95" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
         <v>531</v>
       </c>
-      <c r="N94" t="s">
+      <c r="B95" t="s">
+        <v>744</v>
+      </c>
+      <c r="I95" t="s">
+        <v>883</v>
+      </c>
+      <c r="J95" t="s">
         <v>532</v>
       </c>
-      <c r="O94" t="s">
-        <v>973</v>
-      </c>
-      <c r="P94" t="s">
+      <c r="K95" t="s">
         <v>533</v>
       </c>
-      <c r="Q94" t="s">
+      <c r="L95" t="s">
+        <v>944</v>
+      </c>
+      <c r="M95" t="s">
         <v>534</v>
       </c>
-    </row>
-    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
+      <c r="N95" t="s">
         <v>535</v>
       </c>
-      <c r="B95" t="s">
-        <v>711</v>
-      </c>
-      <c r="C95" t="s">
-        <v>799</v>
-      </c>
-      <c r="D95" t="s">
+      <c r="O95" t="s">
+        <v>996</v>
+      </c>
+      <c r="P95" t="s">
         <v>536</v>
       </c>
-      <c r="E95" t="s">
+      <c r="Q95" t="s">
         <v>537</v>
       </c>
     </row>
@@ -8316,53 +8370,62 @@
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>711</v>
-      </c>
-      <c r="C96" t="s">
-        <v>800</v>
-      </c>
-      <c r="D96" t="s">
+        <v>18</v>
+      </c>
+      <c r="I96" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J96" t="s">
         <v>539</v>
       </c>
-      <c r="E96" t="s">
+      <c r="K96" t="s">
         <v>540</v>
+      </c>
+      <c r="L96" t="s">
+        <v>1016</v>
+      </c>
+      <c r="M96" t="s">
+        <v>541</v>
+      </c>
+      <c r="N96" t="s">
+        <v>542</v>
       </c>
     </row>
     <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>711</v>
-      </c>
-      <c r="C97" t="s">
-        <v>801</v>
-      </c>
-      <c r="D97" t="s">
-        <v>542</v>
-      </c>
-      <c r="E97" t="s">
-        <v>543</v>
-      </c>
-      <c r="F97" t="s">
-        <v>829</v>
-      </c>
-      <c r="G97" t="s">
+        <v>18</v>
+      </c>
+      <c r="I97" t="s">
+        <v>1014</v>
+      </c>
+      <c r="J97" t="s">
+        <v>539</v>
+      </c>
+      <c r="K97" t="s">
+        <v>540</v>
+      </c>
+      <c r="L97" t="s">
+        <v>1015</v>
+      </c>
+      <c r="M97" t="s">
         <v>544</v>
       </c>
-      <c r="H97" t="s">
+      <c r="N97" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>714</v>
+        <v>722</v>
       </c>
       <c r="C98" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8370,849 +8433,915 @@
       <c r="E98" t="s">
         <v>548</v>
       </c>
-      <c r="I98" t="s">
-        <v>868</v>
-      </c>
-      <c r="J98" t="s">
+    </row>
+    <row r="99" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
         <v>549</v>
       </c>
-      <c r="K98" t="s">
+      <c r="B99" t="s">
+        <v>722</v>
+      </c>
+      <c r="C99" t="s">
+        <v>813</v>
+      </c>
+      <c r="D99" t="s">
         <v>550</v>
       </c>
-      <c r="L98" t="s">
+      <c r="E99" t="s">
         <v>551</v>
       </c>
-      <c r="M98" t="s">
-        <v>551</v>
-      </c>
-      <c r="N98" t="s">
+    </row>
+    <row r="100" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
         <v>552</v>
       </c>
-      <c r="O98" t="s">
-        <v>974</v>
-      </c>
-      <c r="P98" t="s">
+      <c r="B100" t="s">
+        <v>722</v>
+      </c>
+      <c r="C100" t="s">
+        <v>814</v>
+      </c>
+      <c r="D100" t="s">
         <v>553</v>
       </c>
-      <c r="Q98" t="s">
+      <c r="E100" t="s">
         <v>554</v>
       </c>
-    </row>
-    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A99" t="s">
+      <c r="F100" t="s">
+        <v>844</v>
+      </c>
+      <c r="G100" t="s">
         <v>555</v>
       </c>
-      <c r="B99" t="s">
-        <v>711</v>
-      </c>
-      <c r="C99" t="s">
-        <v>803</v>
-      </c>
-      <c r="D99" t="s">
+      <c r="H100" t="s">
         <v>556</v>
       </c>
-      <c r="E99" t="s">
+    </row>
+    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>557</v>
       </c>
-    </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
+      <c r="B101" t="s">
+        <v>725</v>
+      </c>
+      <c r="C101" t="s">
+        <v>815</v>
+      </c>
+      <c r="D101" t="s">
         <v>558</v>
       </c>
-      <c r="B100" t="s">
-        <v>733</v>
-      </c>
-      <c r="C100" t="s">
+      <c r="E101" t="s">
         <v>559</v>
       </c>
-      <c r="D100" t="s">
-        <v>559</v>
-      </c>
-      <c r="E100" t="s">
+      <c r="I101" t="s">
+        <v>884</v>
+      </c>
+      <c r="J101" t="s">
         <v>560</v>
       </c>
-    </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A101" t="s">
+      <c r="K101" t="s">
         <v>561</v>
       </c>
-      <c r="B101" t="s">
-        <v>734</v>
-      </c>
-      <c r="C101" t="s">
-        <v>804</v>
-      </c>
-      <c r="D101" t="s">
+      <c r="L101" t="s">
         <v>562</v>
       </c>
-      <c r="E101" t="s">
+      <c r="M101" t="s">
+        <v>562</v>
+      </c>
+      <c r="N101" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="O101" t="s">
+        <v>997</v>
+      </c>
+      <c r="P101" t="s">
+        <v>564</v>
+      </c>
+      <c r="Q101" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+        <v>722</v>
+      </c>
+      <c r="C102" t="s">
+        <v>816</v>
+      </c>
+      <c r="D102" t="s">
+        <v>567</v>
+      </c>
+      <c r="E102" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="103" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>731</v>
-      </c>
-      <c r="L103" t="s">
-        <v>925</v>
-      </c>
-      <c r="M103" t="s">
-        <v>566</v>
-      </c>
-      <c r="N103" t="s">
-        <v>567</v>
-      </c>
-    </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+        <v>745</v>
+      </c>
+      <c r="C103" t="s">
+        <v>570</v>
+      </c>
+      <c r="D103" t="s">
+        <v>570</v>
+      </c>
+      <c r="E103" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="104" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>736</v>
+        <v>746</v>
       </c>
       <c r="C104" t="s">
-        <v>805</v>
+        <v>817</v>
       </c>
       <c r="D104" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="E104" t="s">
-        <v>570</v>
-      </c>
-      <c r="I104" t="s">
-        <v>869</v>
-      </c>
-      <c r="J104" t="s">
-        <v>571</v>
-      </c>
-      <c r="K104" t="s">
-        <v>572</v>
-      </c>
-      <c r="L104" t="s">
-        <v>926</v>
-      </c>
-      <c r="M104" t="s">
-        <v>573</v>
-      </c>
-      <c r="N104" t="s">
         <v>574</v>
       </c>
-      <c r="O104" t="s">
-        <v>975</v>
-      </c>
-      <c r="P104" t="s">
+    </row>
+    <row r="105" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
         <v>575</v>
       </c>
-      <c r="Q104" t="s">
+      <c r="B105" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
         <v>576</v>
       </c>
-    </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A105" t="s">
+      <c r="B106" t="s">
+        <v>743</v>
+      </c>
+      <c r="L106" t="s">
+        <v>945</v>
+      </c>
+      <c r="M106" t="s">
         <v>577</v>
       </c>
-      <c r="B105" t="s">
-        <v>737</v>
-      </c>
-      <c r="C105" t="s">
-        <v>806</v>
-      </c>
-      <c r="D105" t="s">
+      <c r="N106" t="s">
         <v>578</v>
       </c>
-      <c r="E105" t="s">
+    </row>
+    <row r="107" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
         <v>579</v>
       </c>
-      <c r="I105" t="s">
-        <v>870</v>
-      </c>
-      <c r="J105" t="s">
+      <c r="B107" t="s">
+        <v>748</v>
+      </c>
+      <c r="C107" t="s">
+        <v>818</v>
+      </c>
+      <c r="D107" t="s">
         <v>580</v>
       </c>
-      <c r="K105" t="s">
+      <c r="E107" t="s">
         <v>581</v>
       </c>
-      <c r="L105" t="s">
-        <v>927</v>
-      </c>
-      <c r="M105" t="s">
+      <c r="I107" t="s">
+        <v>885</v>
+      </c>
+      <c r="J107" t="s">
         <v>582</v>
       </c>
-      <c r="N105" t="s">
+      <c r="K107" t="s">
         <v>583</v>
       </c>
-      <c r="O105" t="s">
-        <v>976</v>
-      </c>
-      <c r="P105" t="s">
+      <c r="L107" t="s">
+        <v>946</v>
+      </c>
+      <c r="M107" t="s">
         <v>584</v>
       </c>
-      <c r="Q105" t="s">
+      <c r="N107" t="s">
         <v>585</v>
       </c>
-    </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A106" t="s">
+      <c r="O107" t="s">
+        <v>998</v>
+      </c>
+      <c r="P107" t="s">
         <v>586</v>
       </c>
-      <c r="B106" t="s">
-        <v>713</v>
-      </c>
-      <c r="C106" t="s">
-        <v>807</v>
-      </c>
-      <c r="D106" t="s">
+      <c r="Q107" t="s">
         <v>587</v>
       </c>
-      <c r="E106" t="s">
+    </row>
+    <row r="108" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>588</v>
       </c>
-      <c r="I106" t="s">
-        <v>871</v>
-      </c>
-      <c r="J106" t="s">
+      <c r="B108" t="s">
+        <v>749</v>
+      </c>
+      <c r="C108" t="s">
+        <v>819</v>
+      </c>
+      <c r="D108" t="s">
         <v>589</v>
       </c>
-      <c r="K106" t="s">
+      <c r="E108" t="s">
         <v>590</v>
       </c>
-      <c r="L106" t="s">
-        <v>928</v>
-      </c>
-      <c r="M106" t="s">
-        <v>508</v>
-      </c>
-      <c r="N106" t="s">
-        <v>283</v>
-      </c>
-      <c r="O106" t="s">
-        <v>977</v>
-      </c>
-      <c r="P106" t="s">
+      <c r="I108" t="s">
+        <v>886</v>
+      </c>
+      <c r="J108" t="s">
         <v>591</v>
       </c>
-      <c r="Q106" t="s">
+      <c r="K108" t="s">
         <v>592</v>
       </c>
-    </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+      <c r="L108" t="s">
+        <v>947</v>
+      </c>
+      <c r="M108" t="s">
         <v>593</v>
       </c>
-      <c r="B107" t="s">
-        <v>736</v>
-      </c>
-      <c r="C107" t="s">
-        <v>808</v>
-      </c>
-      <c r="D107" t="s">
+      <c r="N108" t="s">
         <v>594</v>
-      </c>
-      <c r="E107" t="s">
-        <v>595</v>
-      </c>
-      <c r="I107" t="s">
-        <v>872</v>
-      </c>
-      <c r="J107" t="s">
-        <v>596</v>
-      </c>
-      <c r="K107" t="s">
-        <v>597</v>
-      </c>
-      <c r="L107" t="s">
-        <v>929</v>
-      </c>
-      <c r="M107" t="s">
-        <v>598</v>
-      </c>
-      <c r="N107" t="s">
-        <v>599</v>
-      </c>
-      <c r="O107" t="s">
-        <v>978</v>
-      </c>
-      <c r="P107" t="s">
-        <v>600</v>
-      </c>
-      <c r="Q107" t="s">
-        <v>601</v>
-      </c>
-    </row>
-    <row r="108" spans="1:17" ht="105" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>602</v>
-      </c>
-      <c r="B108" t="s">
-        <v>18</v>
-      </c>
-      <c r="C108" s="2" t="s">
-        <v>989</v>
-      </c>
-      <c r="D108" s="2" t="s">
-        <v>603</v>
-      </c>
-      <c r="E108" s="2" t="s">
-        <v>604</v>
-      </c>
-      <c r="I108" s="2" t="s">
-        <v>993</v>
-      </c>
-      <c r="J108" s="2" t="s">
-        <v>605</v>
-      </c>
-      <c r="K108" t="s">
-        <v>606</v>
-      </c>
-      <c r="L108" t="s">
-        <v>996</v>
-      </c>
-      <c r="M108" t="s">
-        <v>607</v>
-      </c>
-      <c r="N108" t="s">
-        <v>608</v>
       </c>
       <c r="O108" t="s">
         <v>999</v>
       </c>
       <c r="P108" t="s">
-        <v>609</v>
+        <v>595</v>
       </c>
       <c r="Q108" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="109" spans="1:17" ht="100.8" x14ac:dyDescent="0.3">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="109" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>611</v>
+        <v>597</v>
       </c>
       <c r="B109" t="s">
-        <v>18</v>
-      </c>
-      <c r="C109" s="2" t="s">
-        <v>990</v>
-      </c>
-      <c r="D109" s="2" t="s">
-        <v>612</v>
+        <v>724</v>
+      </c>
+      <c r="C109" t="s">
+        <v>820</v>
+      </c>
+      <c r="D109" t="s">
+        <v>598</v>
       </c>
       <c r="E109" t="s">
-        <v>613</v>
+        <v>599</v>
       </c>
       <c r="I109" t="s">
-        <v>994</v>
+        <v>887</v>
       </c>
       <c r="J109" t="s">
-        <v>614</v>
+        <v>600</v>
       </c>
       <c r="K109" t="s">
-        <v>615</v>
+        <v>601</v>
       </c>
       <c r="L109" t="s">
-        <v>997</v>
+        <v>948</v>
       </c>
       <c r="M109" t="s">
-        <v>616</v>
+        <v>511</v>
       </c>
       <c r="N109" t="s">
-        <v>617</v>
+        <v>286</v>
       </c>
       <c r="O109" t="s">
         <v>1000</v>
       </c>
       <c r="P109" t="s">
+        <v>602</v>
+      </c>
+      <c r="Q109" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="110" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>604</v>
+      </c>
+      <c r="B110" t="s">
+        <v>748</v>
+      </c>
+      <c r="C110" t="s">
+        <v>821</v>
+      </c>
+      <c r="D110" t="s">
+        <v>605</v>
+      </c>
+      <c r="E110" t="s">
+        <v>606</v>
+      </c>
+      <c r="I110" t="s">
+        <v>888</v>
+      </c>
+      <c r="J110" t="s">
+        <v>607</v>
+      </c>
+      <c r="K110" t="s">
+        <v>608</v>
+      </c>
+      <c r="L110" t="s">
+        <v>949</v>
+      </c>
+      <c r="M110" t="s">
+        <v>609</v>
+      </c>
+      <c r="N110" t="s">
+        <v>610</v>
+      </c>
+      <c r="O110" t="s">
+        <v>1001</v>
+      </c>
+      <c r="P110" t="s">
+        <v>611</v>
+      </c>
+      <c r="Q110" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>613</v>
+      </c>
+      <c r="B111" t="s">
+        <v>731</v>
+      </c>
+      <c r="C111" t="s">
+        <v>822</v>
+      </c>
+      <c r="D111" t="s">
+        <v>614</v>
+      </c>
+      <c r="E111" t="s">
+        <v>615</v>
+      </c>
+      <c r="I111" t="s">
+        <v>889</v>
+      </c>
+      <c r="J111" t="s">
+        <v>616</v>
+      </c>
+      <c r="K111" t="s">
+        <v>617</v>
+      </c>
+      <c r="L111" t="s">
+        <v>950</v>
+      </c>
+      <c r="M111" t="s">
         <v>618</v>
       </c>
-      <c r="Q109" t="s">
+      <c r="N111" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
+      <c r="O111" t="s">
+        <v>1002</v>
+      </c>
+      <c r="P111" t="s">
         <v>620</v>
       </c>
-      <c r="B110" t="s">
-        <v>18</v>
-      </c>
-      <c r="C110" t="s">
-        <v>809</v>
-      </c>
-      <c r="D110" t="s">
+      <c r="Q111" t="s">
         <v>621</v>
       </c>
-      <c r="E110" t="s">
+    </row>
+    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>622</v>
       </c>
-      <c r="I110" t="s">
-        <v>873</v>
-      </c>
-      <c r="J110" t="s">
+      <c r="B112" t="s">
+        <v>731</v>
+      </c>
+      <c r="C112" t="s">
+        <v>823</v>
+      </c>
+      <c r="D112" t="s">
         <v>623</v>
       </c>
-      <c r="K110" t="s">
+      <c r="E112" t="s">
         <v>624</v>
       </c>
-      <c r="L110" t="s">
-        <v>930</v>
-      </c>
-      <c r="M110" t="s">
+      <c r="I112" t="s">
+        <v>890</v>
+      </c>
+      <c r="J112" t="s">
         <v>625</v>
       </c>
-      <c r="N110" t="s">
+      <c r="K112" t="s">
         <v>626</v>
       </c>
-      <c r="O110" t="s">
-        <v>979</v>
-      </c>
-      <c r="P110" t="s">
+      <c r="L112" t="s">
+        <v>951</v>
+      </c>
+      <c r="M112" t="s">
         <v>627</v>
       </c>
-      <c r="Q110" t="s">
+      <c r="N112" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+      <c r="O112" t="s">
+        <v>1003</v>
+      </c>
+      <c r="P112" t="s">
         <v>629</v>
       </c>
-      <c r="B111" t="s">
+      <c r="Q112" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A113" t="s">
+        <v>631</v>
+      </c>
+      <c r="B113" t="s">
+        <v>731</v>
+      </c>
+      <c r="C113" t="s">
+        <v>824</v>
+      </c>
+      <c r="D113" t="s">
+        <v>632</v>
+      </c>
+      <c r="E113" t="s">
+        <v>633</v>
+      </c>
+      <c r="I113" t="s">
+        <v>891</v>
+      </c>
+      <c r="J113" t="s">
+        <v>634</v>
+      </c>
+      <c r="K113" t="s">
+        <v>635</v>
+      </c>
+      <c r="L113" t="s">
+        <v>952</v>
+      </c>
+      <c r="M113" t="s">
+        <v>636</v>
+      </c>
+      <c r="N113" t="s">
+        <v>637</v>
+      </c>
+      <c r="O113" t="s">
+        <v>1004</v>
+      </c>
+      <c r="P113" t="s">
+        <v>638</v>
+      </c>
+      <c r="Q113" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>640</v>
+      </c>
+      <c r="B114" t="s">
+        <v>725</v>
+      </c>
+      <c r="C114" t="s">
+        <v>825</v>
+      </c>
+      <c r="D114" t="s">
+        <v>641</v>
+      </c>
+      <c r="E114" t="s">
+        <v>642</v>
+      </c>
+      <c r="I114" t="s">
+        <v>892</v>
+      </c>
+      <c r="J114" t="s">
+        <v>643</v>
+      </c>
+      <c r="K114" t="s">
+        <v>644</v>
+      </c>
+      <c r="L114" t="s">
+        <v>953</v>
+      </c>
+      <c r="M114" t="s">
+        <v>645</v>
+      </c>
+      <c r="N114" t="s">
+        <v>646</v>
+      </c>
+      <c r="O114" t="s">
+        <v>1005</v>
+      </c>
+      <c r="P114" t="s">
+        <v>647</v>
+      </c>
+      <c r="Q114" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>649</v>
+      </c>
+      <c r="B115" t="s">
+        <v>725</v>
+      </c>
+      <c r="D115" t="s">
+        <v>650</v>
+      </c>
+      <c r="E115" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>651</v>
+      </c>
+      <c r="B116" t="s">
+        <v>725</v>
+      </c>
+      <c r="D116" t="s">
+        <v>650</v>
+      </c>
+      <c r="E116" t="s">
+        <v>650</v>
+      </c>
+      <c r="I116" t="s">
+        <v>893</v>
+      </c>
+      <c r="J116" t="s">
+        <v>652</v>
+      </c>
+      <c r="K116" t="s">
+        <v>653</v>
+      </c>
+      <c r="L116" t="s">
+        <v>654</v>
+      </c>
+      <c r="M116" t="s">
+        <v>654</v>
+      </c>
+      <c r="N116" t="s">
+        <v>655</v>
+      </c>
+      <c r="O116" t="s">
+        <v>1006</v>
+      </c>
+      <c r="P116" t="s">
+        <v>656</v>
+      </c>
+      <c r="Q116" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A117" t="s">
+        <v>658</v>
+      </c>
+      <c r="B117" t="s">
+        <v>725</v>
+      </c>
+      <c r="D117" t="s">
+        <v>650</v>
+      </c>
+      <c r="E117" t="s">
+        <v>650</v>
+      </c>
+      <c r="I117" t="s">
+        <v>894</v>
+      </c>
+      <c r="J117" t="s">
+        <v>659</v>
+      </c>
+      <c r="K117" t="s">
+        <v>660</v>
+      </c>
+      <c r="L117" t="s">
+        <v>954</v>
+      </c>
+      <c r="M117" t="s">
+        <v>661</v>
+      </c>
+      <c r="N117" t="s">
+        <v>662</v>
+      </c>
+      <c r="O117" t="s">
+        <v>1007</v>
+      </c>
+      <c r="P117" t="s">
+        <v>663</v>
+      </c>
+      <c r="Q117" t="s">
+        <v>664</v>
+      </c>
+    </row>
+    <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A118" t="s">
+        <v>665</v>
+      </c>
+      <c r="B118" t="s">
+        <v>724</v>
+      </c>
+      <c r="C118" t="s">
+        <v>826</v>
+      </c>
+      <c r="D118" t="s">
+        <v>666</v>
+      </c>
+      <c r="E118" t="s">
+        <v>667</v>
+      </c>
+      <c r="L118" t="s">
+        <v>955</v>
+      </c>
+      <c r="M118" t="s">
+        <v>668</v>
+      </c>
+      <c r="N118" t="s">
+        <v>669</v>
+      </c>
+      <c r="O118" t="s">
+        <v>1008</v>
+      </c>
+      <c r="P118" t="s">
+        <v>670</v>
+      </c>
+      <c r="Q118" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A119" t="s">
+        <v>672</v>
+      </c>
+      <c r="B119" t="s">
+        <v>724</v>
+      </c>
+      <c r="C119" t="s">
+        <v>827</v>
+      </c>
+      <c r="D119" t="s">
+        <v>673</v>
+      </c>
+      <c r="E119" t="s">
+        <v>674</v>
+      </c>
+      <c r="L119" t="s">
+        <v>956</v>
+      </c>
+      <c r="M119" t="s">
+        <v>675</v>
+      </c>
+      <c r="N119" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A120" t="s">
+        <v>677</v>
+      </c>
+      <c r="B120" t="s">
+        <v>750</v>
+      </c>
+      <c r="C120" t="s">
+        <v>828</v>
+      </c>
+      <c r="D120" t="s">
+        <v>678</v>
+      </c>
+      <c r="E120" t="s">
+        <v>679</v>
+      </c>
+      <c r="I120" t="s">
+        <v>895</v>
+      </c>
+      <c r="J120" t="s">
+        <v>680</v>
+      </c>
+      <c r="K120" t="s">
+        <v>681</v>
+      </c>
+      <c r="L120" t="s">
+        <v>957</v>
+      </c>
+      <c r="M120" t="s">
+        <v>682</v>
+      </c>
+      <c r="N120" t="s">
+        <v>683</v>
+      </c>
+      <c r="O120" t="s">
+        <v>1009</v>
+      </c>
+      <c r="P120" t="s">
+        <v>684</v>
+      </c>
+      <c r="Q120" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A121" t="s">
+        <v>686</v>
+      </c>
+      <c r="B121" t="s">
+        <v>724</v>
+      </c>
+      <c r="C121" t="s">
+        <v>829</v>
+      </c>
+      <c r="D121" t="s">
+        <v>687</v>
+      </c>
+      <c r="E121" t="s">
+        <v>688</v>
+      </c>
+      <c r="I121" t="s">
+        <v>896</v>
+      </c>
+      <c r="J121" t="s">
+        <v>689</v>
+      </c>
+      <c r="K121" t="s">
+        <v>690</v>
+      </c>
+      <c r="L121" t="s">
+        <v>958</v>
+      </c>
+      <c r="M121" t="s">
+        <v>691</v>
+      </c>
+      <c r="N121" t="s">
+        <v>692</v>
+      </c>
+      <c r="O121" t="s">
+        <v>1010</v>
+      </c>
+      <c r="P121" t="s">
+        <v>693</v>
+      </c>
+      <c r="Q121" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A122" t="s">
+        <v>695</v>
+      </c>
+      <c r="B122" t="s">
+        <v>751</v>
+      </c>
+      <c r="C122" t="s">
+        <v>830</v>
+      </c>
+      <c r="D122" t="s">
+        <v>696</v>
+      </c>
+      <c r="E122" t="s">
+        <v>697</v>
+      </c>
+      <c r="I122" t="s">
+        <v>897</v>
+      </c>
+      <c r="J122" t="s">
+        <v>698</v>
+      </c>
+      <c r="K122" t="s">
+        <v>699</v>
+      </c>
+      <c r="L122" t="s">
+        <v>959</v>
+      </c>
+      <c r="M122" t="s">
+        <v>700</v>
+      </c>
+      <c r="N122" t="s">
+        <v>701</v>
+      </c>
+      <c r="O122" t="s">
+        <v>1011</v>
+      </c>
+      <c r="P122" t="s">
+        <v>702</v>
+      </c>
+      <c r="Q122" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A123" t="s">
+        <v>704</v>
+      </c>
+      <c r="B123" t="s">
+        <v>752</v>
+      </c>
+      <c r="C123" t="s">
+        <v>831</v>
+      </c>
+      <c r="D123" t="s">
+        <v>705</v>
+      </c>
+      <c r="E123" t="s">
+        <v>706</v>
+      </c>
+      <c r="I123" t="s">
+        <v>898</v>
+      </c>
+      <c r="J123" t="s">
+        <v>707</v>
+      </c>
+      <c r="K123" t="s">
+        <v>708</v>
+      </c>
+      <c r="L123" t="s">
+        <v>960</v>
+      </c>
+      <c r="M123" t="s">
+        <v>709</v>
+      </c>
+      <c r="N123" t="s">
+        <v>710</v>
+      </c>
+      <c r="O123" t="s">
+        <v>1012</v>
+      </c>
+      <c r="P123" t="s">
+        <v>711</v>
+      </c>
+      <c r="Q123" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>713</v>
+      </c>
+      <c r="B124" t="s">
+        <v>753</v>
+      </c>
+      <c r="C124" t="s">
+        <v>832</v>
+      </c>
+      <c r="D124" t="s">
         <v>714</v>
       </c>
-      <c r="C111" t="s">
-        <v>810</v>
-      </c>
-      <c r="D111" t="s">
-        <v>630</v>
-      </c>
-      <c r="E111" t="s">
-        <v>631</v>
-      </c>
-      <c r="I111" t="s">
-        <v>874</v>
-      </c>
-      <c r="J111" t="s">
-        <v>632</v>
-      </c>
-      <c r="K111" t="s">
-        <v>633</v>
-      </c>
-      <c r="L111" t="s">
-        <v>931</v>
-      </c>
-      <c r="M111" t="s">
-        <v>634</v>
-      </c>
-      <c r="N111" t="s">
-        <v>635</v>
-      </c>
-      <c r="O111" t="s">
-        <v>980</v>
-      </c>
-      <c r="P111" t="s">
-        <v>636</v>
-      </c>
-      <c r="Q111" t="s">
-        <v>637</v>
-      </c>
-    </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>638</v>
-      </c>
-      <c r="B112" t="s">
-        <v>714</v>
-      </c>
-      <c r="D112" t="s">
-        <v>639</v>
-      </c>
-      <c r="E112" t="s">
-        <v>639</v>
-      </c>
-    </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A113" t="s">
-        <v>640</v>
-      </c>
-      <c r="B113" t="s">
-        <v>714</v>
-      </c>
-      <c r="D113" t="s">
-        <v>639</v>
-      </c>
-      <c r="E113" t="s">
-        <v>639</v>
-      </c>
-      <c r="I113" t="s">
-        <v>875</v>
-      </c>
-      <c r="J113" t="s">
-        <v>641</v>
-      </c>
-      <c r="K113" t="s">
-        <v>642</v>
-      </c>
-      <c r="L113" t="s">
-        <v>643</v>
-      </c>
-      <c r="M113" t="s">
-        <v>643</v>
-      </c>
-      <c r="N113" t="s">
-        <v>644</v>
-      </c>
-      <c r="O113" t="s">
-        <v>981</v>
-      </c>
-      <c r="P113" t="s">
-        <v>645</v>
-      </c>
-      <c r="Q113" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A114" t="s">
-        <v>647</v>
-      </c>
-      <c r="B114" t="s">
-        <v>714</v>
-      </c>
-      <c r="D114" t="s">
-        <v>639</v>
-      </c>
-      <c r="E114" t="s">
-        <v>639</v>
-      </c>
-      <c r="I114" t="s">
-        <v>876</v>
-      </c>
-      <c r="J114" t="s">
-        <v>648</v>
-      </c>
-      <c r="K114" t="s">
-        <v>649</v>
-      </c>
-      <c r="L114" t="s">
-        <v>932</v>
-      </c>
-      <c r="M114" t="s">
-        <v>650</v>
-      </c>
-      <c r="N114" t="s">
-        <v>651</v>
-      </c>
-      <c r="O114" t="s">
-        <v>982</v>
-      </c>
-      <c r="P114" t="s">
-        <v>652</v>
-      </c>
-      <c r="Q114" t="s">
-        <v>653</v>
-      </c>
-    </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
-        <v>654</v>
-      </c>
-      <c r="B115" t="s">
-        <v>713</v>
-      </c>
-      <c r="C115" t="s">
-        <v>811</v>
-      </c>
-      <c r="D115" t="s">
-        <v>655</v>
-      </c>
-      <c r="E115" t="s">
-        <v>656</v>
-      </c>
-      <c r="L115" t="s">
-        <v>933</v>
-      </c>
-      <c r="M115" t="s">
-        <v>657</v>
-      </c>
-      <c r="N115" t="s">
-        <v>658</v>
-      </c>
-      <c r="O115" t="s">
-        <v>983</v>
-      </c>
-      <c r="P115" t="s">
-        <v>659</v>
-      </c>
-      <c r="Q115" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>661</v>
-      </c>
-      <c r="B116" t="s">
-        <v>713</v>
-      </c>
-      <c r="C116" t="s">
-        <v>812</v>
-      </c>
-      <c r="D116" t="s">
-        <v>662</v>
-      </c>
-      <c r="E116" t="s">
-        <v>663</v>
-      </c>
-      <c r="L116" t="s">
-        <v>934</v>
-      </c>
-      <c r="M116" t="s">
-        <v>664</v>
-      </c>
-      <c r="N116" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A117" t="s">
-        <v>666</v>
-      </c>
-      <c r="B117" t="s">
-        <v>738</v>
-      </c>
-      <c r="C117" t="s">
-        <v>813</v>
-      </c>
-      <c r="D117" t="s">
-        <v>667</v>
-      </c>
-      <c r="E117" t="s">
-        <v>668</v>
-      </c>
-      <c r="I117" t="s">
-        <v>877</v>
-      </c>
-      <c r="J117" t="s">
-        <v>669</v>
-      </c>
-      <c r="K117" t="s">
-        <v>670</v>
-      </c>
-      <c r="L117" t="s">
-        <v>935</v>
-      </c>
-      <c r="M117" t="s">
-        <v>671</v>
-      </c>
-      <c r="N117" t="s">
-        <v>672</v>
-      </c>
-      <c r="O117" t="s">
-        <v>984</v>
-      </c>
-      <c r="P117" t="s">
-        <v>673</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A118" t="s">
-        <v>675</v>
-      </c>
-      <c r="B118" t="s">
-        <v>713</v>
-      </c>
-      <c r="C118" t="s">
-        <v>814</v>
-      </c>
-      <c r="D118" t="s">
-        <v>676</v>
-      </c>
-      <c r="E118" t="s">
-        <v>677</v>
-      </c>
-      <c r="I118" t="s">
-        <v>878</v>
-      </c>
-      <c r="J118" t="s">
-        <v>678</v>
-      </c>
-      <c r="K118" t="s">
-        <v>679</v>
-      </c>
-      <c r="L118" t="s">
-        <v>936</v>
-      </c>
-      <c r="M118" t="s">
-        <v>680</v>
-      </c>
-      <c r="N118" t="s">
-        <v>681</v>
-      </c>
-      <c r="O118" t="s">
-        <v>985</v>
-      </c>
-      <c r="P118" t="s">
-        <v>682</v>
-      </c>
-      <c r="Q118" t="s">
-        <v>683</v>
-      </c>
-    </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A119" t="s">
-        <v>684</v>
-      </c>
-      <c r="B119" t="s">
-        <v>739</v>
-      </c>
-      <c r="C119" t="s">
-        <v>815</v>
-      </c>
-      <c r="D119" t="s">
-        <v>685</v>
-      </c>
-      <c r="E119" t="s">
-        <v>686</v>
-      </c>
-      <c r="I119" t="s">
-        <v>879</v>
-      </c>
-      <c r="J119" t="s">
-        <v>687</v>
-      </c>
-      <c r="K119" t="s">
-        <v>688</v>
-      </c>
-      <c r="L119" t="s">
-        <v>937</v>
-      </c>
-      <c r="M119" t="s">
-        <v>689</v>
-      </c>
-      <c r="N119" t="s">
-        <v>690</v>
-      </c>
-      <c r="O119" t="s">
-        <v>986</v>
-      </c>
-      <c r="P119" t="s">
-        <v>691</v>
-      </c>
-      <c r="Q119" t="s">
-        <v>692</v>
-      </c>
-    </row>
-    <row r="120" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A120" t="s">
-        <v>693</v>
-      </c>
-      <c r="B120" t="s">
-        <v>740</v>
-      </c>
-      <c r="C120" t="s">
-        <v>816</v>
-      </c>
-      <c r="D120" t="s">
-        <v>694</v>
-      </c>
-      <c r="E120" t="s">
-        <v>695</v>
-      </c>
-      <c r="I120" t="s">
-        <v>880</v>
-      </c>
-      <c r="J120" t="s">
-        <v>696</v>
-      </c>
-      <c r="K120" t="s">
-        <v>697</v>
-      </c>
-      <c r="L120" t="s">
-        <v>938</v>
-      </c>
-      <c r="M120" t="s">
-        <v>698</v>
-      </c>
-      <c r="N120" t="s">
-        <v>699</v>
-      </c>
-      <c r="O120" t="s">
-        <v>987</v>
-      </c>
-      <c r="P120" t="s">
-        <v>700</v>
-      </c>
-      <c r="Q120" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A121" t="s">
-        <v>702</v>
-      </c>
-      <c r="B121" t="s">
-        <v>741</v>
-      </c>
-      <c r="C121" t="s">
-        <v>817</v>
-      </c>
-      <c r="D121" t="s">
-        <v>703</v>
-      </c>
-      <c r="E121" t="s">
-        <v>704</v>
-      </c>
-    </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A122" t="s">
-        <v>705</v>
-      </c>
-      <c r="B122" t="s">
-        <v>18</v>
-      </c>
-      <c r="I122" t="s">
-        <v>995</v>
-      </c>
-      <c r="J122" t="s">
-        <v>706</v>
-      </c>
-      <c r="K122" t="s">
-        <v>707</v>
-      </c>
-      <c r="L122" t="s">
-        <v>998</v>
-      </c>
-      <c r="M122" t="s">
-        <v>708</v>
-      </c>
-      <c r="N122" t="s">
-        <v>454</v>
-      </c>
-      <c r="O122" t="s">
-        <v>995</v>
-      </c>
-      <c r="P122" t="s">
-        <v>709</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>710</v>
+      <c r="E124" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A125" t="s">
+        <v>716</v>
+      </c>
+      <c r="B125" t="s">
+        <v>731</v>
+      </c>
+      <c r="I125" t="s">
+        <v>899</v>
+      </c>
+      <c r="J125" t="s">
+        <v>717</v>
+      </c>
+      <c r="K125" t="s">
+        <v>718</v>
+      </c>
+      <c r="L125" t="s">
+        <v>961</v>
+      </c>
+      <c r="M125" t="s">
+        <v>719</v>
+      </c>
+      <c r="N125" t="s">
+        <v>457</v>
+      </c>
+      <c r="O125" t="s">
+        <v>899</v>
+      </c>
+      <c r="P125" t="s">
+        <v>720</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>721</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q122" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A2:Q125" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="EA 23.209 Patch 2"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data/Game/CharaText.xlsx
+++ b/data/Game/CharaText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720D48D-D5CC-41D8-84C0-AAC285E28555}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBAB20C-48C0-41A9-ABDD-5C92D0E0E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1018">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>artist</t>
   </si>
   <si>
-    <t>EA 23.209 Patch 2</t>
+    <t>EA 23.213</t>
   </si>
   <si>
     <t>"You senseless bastard!"
@@ -145,7 +145,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t>"Aaah!"</t>
@@ -438,7 +438,7 @@
     <t>「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t>「フシューッ」
@@ -2527,7 +2527,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t>Little Sister: "Kill! Kill!"
@@ -2871,7 +2871,7 @@
   <si>
     <t>「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
- *レロレロレロ*
+*レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -3316,6 +3316,9 @@
     <t>EA 23.200 Patch 2</t>
   </si>
   <si>
+    <t>EA 23.209 Patch 2</t>
+  </si>
+  <si>
     <t>EA 23.61 fix 2</t>
   </si>
   <si>
@@ -3464,6 +3467,10 @@
   </si>
   <si>
     <t>*Thình* *thịch*</t>
+  </si>
+  <si>
+    <t>*loạt xoạt loạt xoạt*
+*loạt xoạt…*</t>
   </si>
   <si>
     <t>"Bạn nghe thấy tiếng vó ngựa."
@@ -4152,6 +4159,9 @@
     <t>"Nào, hãy nhảy cho ta xem."</t>
   </si>
   <si>
+    <t>"Xuất phát nào!"</t>
+  </si>
+  <si>
     <t>Bé gái: "Giết đi! Giết đi!"
 Bé gái: "Đập nó thành từng mảnh đi!"
 Bé gái: "Tiến lên #bigdaddy, tiến lên!!"</t>
@@ -4431,6 +4441,12 @@
     <t>"Không thể nào…!"</t>
   </si>
   <si>
+    <t>"Phần còn lại nhờ cậu lo nhé, Widge!"</t>
+  </si>
+  <si>
+    <t>"Phần còn lại nhờ cậu lo nhé, Higgs!"</t>
+  </si>
+  <si>
     <t>"Đừng bỏ em lại một mình nữa…"</t>
   </si>
   <si>
@@ -4689,19 +4705,6 @@
 “Nào nào, chơi với mình thêm chút nữa đi.”
 “Fufun.”
 “Hehe.”</t>
-  </si>
-  <si>
-    <t>*loạt xoạt loạt xoạt*
-*loạt xoạt…*</t>
-  </si>
-  <si>
-    <t>"Xuất phát nào!"</t>
-  </si>
-  <si>
-    <t>"Phần còn lại nhờ cậu lo nhé, Higgs!"</t>
-  </si>
-  <si>
-    <t>"Phần còn lại nhờ cậu lo nhé, Widge!"</t>
   </si>
 </sst>
 </file>
@@ -5067,12 +5070,15 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L97" sqref="L97"/>
+      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="17" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="50.77734375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="47.21875" customWidth="1" collapsed="1"/>
+    <col min="5" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5136,7 +5142,7 @@
         <v>722</v>
       </c>
       <c r="I3" t="s">
-        <v>845</v>
+        <v>847</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5145,7 +5151,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>900</v>
+        <v>903</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5154,7 +5160,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>962</v>
+        <v>967</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5215,17 +5221,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
       <c r="B6" t="s">
-        <v>725</v>
-      </c>
-      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
@@ -5240,13 +5246,13 @@
       <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" t="s">
+      <c r="O6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="P6" t="s">
+      <c r="P6" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="Q6" t="s">
+      <c r="Q6" s="2" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5258,7 +5264,7 @@
         <v>722</v>
       </c>
       <c r="C7" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5267,7 +5273,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>846</v>
+        <v>848</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5276,7 +5282,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>901</v>
+        <v>904</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5293,7 +5299,7 @@
         <v>722</v>
       </c>
       <c r="C8" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5302,7 +5308,7 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>847</v>
+        <v>849</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5311,7 +5317,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>902</v>
+        <v>905</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5320,7 +5326,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>963</v>
+        <v>968</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5337,7 +5343,7 @@
         <v>722</v>
       </c>
       <c r="C9" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5346,7 +5352,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>848</v>
+        <v>850</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5355,7 +5361,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>903</v>
+        <v>906</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5364,7 +5370,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>964</v>
+        <v>969</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5381,7 +5387,7 @@
         <v>722</v>
       </c>
       <c r="C10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5390,19 +5396,19 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>849</v>
+        <v>851</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>904</v>
+        <v>907</v>
       </c>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>965</v>
+        <v>970</v>
       </c>
       <c r="Q10" t="s">
         <v>70</v>
@@ -5416,7 +5422,7 @@
         <v>726</v>
       </c>
       <c r="C11" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5443,7 +5449,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>966</v>
+        <v>971</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5460,7 +5466,7 @@
         <v>727</v>
       </c>
       <c r="C12" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5469,7 +5475,7 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>850</v>
+        <v>852</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5478,7 +5484,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>905</v>
+        <v>908</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5487,7 +5493,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>967</v>
+        <v>972</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5504,7 +5510,7 @@
         <v>724</v>
       </c>
       <c r="C13" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5519,7 +5525,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>906</v>
+        <v>909</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5528,29 +5534,29 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
-        <v>725</v>
-      </c>
-      <c r="C14" t="s">
-        <v>761</v>
-      </c>
-      <c r="D14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>96</v>
       </c>
       <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="J14" t="s">
+      <c r="J14" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K14" t="s">
+      <c r="K14" s="2" t="s">
         <v>98</v>
       </c>
       <c r="L14" t="s">
@@ -5563,9 +5569,9 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>968</v>
-      </c>
-      <c r="P14" t="s">
+        <v>973</v>
+      </c>
+      <c r="P14" s="2" t="s">
         <v>78</v>
       </c>
       <c r="Q14" t="s">
@@ -5580,7 +5586,7 @@
         <v>728</v>
       </c>
       <c r="C15" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5615,7 +5621,7 @@
         <v>729</v>
       </c>
       <c r="I16" t="s">
-        <v>851</v>
+        <v>853</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5624,7 +5630,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>907</v>
+        <v>910</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5633,7 +5639,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>969</v>
+        <v>974</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5694,7 +5700,7 @@
         <v>722</v>
       </c>
       <c r="I18" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5703,7 +5709,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>908</v>
+        <v>911</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5712,7 +5718,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>970</v>
+        <v>975</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5729,7 +5735,7 @@
         <v>729</v>
       </c>
       <c r="I19" t="s">
-        <v>852</v>
+        <v>854</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5738,7 +5744,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>909</v>
+        <v>912</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5747,7 +5753,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>971</v>
+        <v>976</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5764,7 +5770,7 @@
         <v>722</v>
       </c>
       <c r="C20" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5773,7 +5779,7 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>853</v>
+        <v>855</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5782,7 +5788,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>910</v>
+        <v>913</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5808,7 +5814,7 @@
         <v>722</v>
       </c>
       <c r="I21" t="s">
-        <v>854</v>
+        <v>856</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5817,7 +5823,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>911</v>
+        <v>914</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5826,7 +5832,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>972</v>
+        <v>977</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5843,7 +5849,7 @@
         <v>722</v>
       </c>
       <c r="I22" t="s">
-        <v>855</v>
+        <v>857</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5852,7 +5858,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>912</v>
+        <v>915</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5861,7 +5867,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>973</v>
+        <v>978</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5878,7 +5884,7 @@
         <v>726</v>
       </c>
       <c r="C23" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5895,7 +5901,7 @@
         <v>722</v>
       </c>
       <c r="C24" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5913,7 +5919,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>913</v>
+        <v>916</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5939,7 +5945,7 @@
         <v>722</v>
       </c>
       <c r="I25" t="s">
-        <v>856</v>
+        <v>858</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5965,7 +5971,7 @@
         <v>731</v>
       </c>
       <c r="C26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5974,7 +5980,7 @@
         <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -5983,29 +5989,29 @@
         <v>168</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="D27" s="2" t="s">
+        <v>732</v>
+      </c>
+      <c r="C27" t="s">
+        <v>768</v>
+      </c>
+      <c r="D27" t="s">
         <v>170</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" t="s">
         <v>171</v>
       </c>
-      <c r="F27" s="2" t="s">
-        <v>1013</v>
-      </c>
-      <c r="G27" s="2" t="s">
+      <c r="F27" t="s">
+        <v>768</v>
+      </c>
+      <c r="G27" t="s">
         <v>170</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="H27" t="s">
         <v>171</v>
       </c>
     </row>
@@ -6017,7 +6023,7 @@
         <v>722</v>
       </c>
       <c r="C28" t="s">
-        <v>767</v>
+        <v>769</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -6026,7 +6032,7 @@
         <v>174</v>
       </c>
       <c r="L28" t="s">
-        <v>914</v>
+        <v>917</v>
       </c>
       <c r="M28" t="s">
         <v>175</v>
@@ -6035,7 +6041,7 @@
         <v>176</v>
       </c>
       <c r="O28" t="s">
-        <v>974</v>
+        <v>979</v>
       </c>
       <c r="P28" t="s">
         <v>177</v>
@@ -6052,7 +6058,7 @@
         <v>722</v>
       </c>
       <c r="I29" t="s">
-        <v>857</v>
+        <v>859</v>
       </c>
       <c r="J29" t="s">
         <v>180</v>
@@ -6061,7 +6067,7 @@
         <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>915</v>
+        <v>918</v>
       </c>
       <c r="M29" t="s">
         <v>182</v>
@@ -6084,10 +6090,10 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C30" t="s">
-        <v>768</v>
+        <v>770</v>
       </c>
       <c r="D30" t="s">
         <v>187</v>
@@ -6096,7 +6102,7 @@
         <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -6105,7 +6111,7 @@
         <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -6114,7 +6120,7 @@
         <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="P30" t="s">
         <v>193</v>
@@ -6128,10 +6134,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C31" t="s">
-        <v>769</v>
+        <v>771</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6140,7 +6146,7 @@
         <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -6149,7 +6155,7 @@
         <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -6158,7 +6164,7 @@
         <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="P31" t="s">
         <v>193</v>
@@ -6172,10 +6178,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C32" t="s">
-        <v>770</v>
+        <v>772</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6184,7 +6190,7 @@
         <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>858</v>
+        <v>860</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -6193,7 +6199,7 @@
         <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>916</v>
+        <v>919</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -6202,7 +6208,7 @@
         <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>975</v>
+        <v>980</v>
       </c>
       <c r="P32" t="s">
         <v>193</v>
@@ -6216,10 +6222,10 @@
         <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C33" t="s">
-        <v>771</v>
+        <v>773</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -6228,7 +6234,7 @@
         <v>203</v>
       </c>
       <c r="I33" t="s">
-        <v>859</v>
+        <v>861</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -6237,7 +6243,7 @@
         <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="M33" t="s">
         <v>206</v>
@@ -6246,7 +6252,7 @@
         <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>976</v>
+        <v>981</v>
       </c>
       <c r="P33" t="s">
         <v>208</v>
@@ -6263,7 +6269,7 @@
         <v>722</v>
       </c>
       <c r="C34" t="s">
-        <v>772</v>
+        <v>774</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6272,7 +6278,7 @@
         <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>860</v>
+        <v>862</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -6281,7 +6287,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -6304,7 +6310,7 @@
         <v>723</v>
       </c>
       <c r="L35" t="s">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -6313,7 +6319,7 @@
         <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>977</v>
+        <v>982</v>
       </c>
       <c r="P35" t="s">
         <v>222</v>
@@ -6330,7 +6336,7 @@
         <v>722</v>
       </c>
       <c r="I36" t="s">
-        <v>861</v>
+        <v>863</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -6339,7 +6345,7 @@
         <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="M36" t="s">
         <v>227</v>
@@ -6348,7 +6354,7 @@
         <v>228</v>
       </c>
       <c r="O36" t="s">
-        <v>978</v>
+        <v>983</v>
       </c>
       <c r="P36" t="s">
         <v>229</v>
@@ -6365,7 +6371,7 @@
         <v>722</v>
       </c>
       <c r="F37" t="s">
-        <v>833</v>
+        <v>835</v>
       </c>
       <c r="G37" t="s">
         <v>232</v>
@@ -6374,7 +6380,7 @@
         <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="J37" t="s">
         <v>234</v>
@@ -6383,7 +6389,7 @@
         <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="M37" t="s">
         <v>236</v>
@@ -6392,7 +6398,7 @@
         <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="P37" t="s">
         <v>238</v>
@@ -6406,10 +6412,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C38" t="s">
-        <v>773</v>
+        <v>775</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
@@ -6459,10 +6465,10 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C39" t="s">
-        <v>774</v>
+        <v>776</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
@@ -6471,7 +6477,7 @@
         <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>834</v>
+        <v>836</v>
       </c>
       <c r="G39" t="s">
         <v>247</v>
@@ -6480,7 +6486,7 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>862</v>
+        <v>864</v>
       </c>
       <c r="J39" t="s">
         <v>234</v>
@@ -6489,7 +6495,7 @@
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="M39" t="s">
         <v>236</v>
@@ -6498,7 +6504,7 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>979</v>
+        <v>984</v>
       </c>
       <c r="P39" t="s">
         <v>238</v>
@@ -6515,7 +6521,7 @@
         <v>722</v>
       </c>
       <c r="C40" t="s">
-        <v>775</v>
+        <v>777</v>
       </c>
       <c r="D40" t="s">
         <v>250</v>
@@ -6540,7 +6546,7 @@
         <v>726</v>
       </c>
       <c r="C42" t="s">
-        <v>776</v>
+        <v>778</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -6549,7 +6555,7 @@
         <v>255</v>
       </c>
       <c r="I42" t="s">
-        <v>863</v>
+        <v>865</v>
       </c>
       <c r="J42" t="s">
         <v>256</v>
@@ -6558,7 +6564,7 @@
         <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="M42" t="s">
         <v>258</v>
@@ -6567,7 +6573,7 @@
         <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>980</v>
+        <v>985</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -6584,7 +6590,7 @@
         <v>722</v>
       </c>
       <c r="C43" t="s">
-        <v>777</v>
+        <v>779</v>
       </c>
       <c r="D43" t="s">
         <v>263</v>
@@ -6593,7 +6599,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="s">
-        <v>864</v>
+        <v>866</v>
       </c>
       <c r="J43" t="s">
         <v>265</v>
@@ -6602,7 +6608,7 @@
         <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>923</v>
+        <v>926</v>
       </c>
       <c r="M43" t="s">
         <v>267</v>
@@ -6611,7 +6617,7 @@
         <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>981</v>
+        <v>986</v>
       </c>
       <c r="P43" t="s">
         <v>269</v>
@@ -6625,10 +6631,10 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="I44" t="s">
-        <v>865</v>
+        <v>867</v>
       </c>
       <c r="J44" t="s">
         <v>272</v>
@@ -6637,7 +6643,7 @@
         <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>924</v>
+        <v>927</v>
       </c>
       <c r="M44" t="s">
         <v>274</v>
@@ -6646,7 +6652,7 @@
         <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>982</v>
+        <v>987</v>
       </c>
       <c r="Q44" t="s">
         <v>276</v>
@@ -6660,7 +6666,7 @@
         <v>726</v>
       </c>
       <c r="I45" t="s">
-        <v>866</v>
+        <v>868</v>
       </c>
       <c r="J45" t="s">
         <v>278</v>
@@ -6669,7 +6675,7 @@
         <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>925</v>
+        <v>928</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6695,7 +6701,7 @@
         <v>722</v>
       </c>
       <c r="L46" t="s">
-        <v>926</v>
+        <v>929</v>
       </c>
       <c r="M46" t="s">
         <v>285</v>
@@ -6704,7 +6710,7 @@
         <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>983</v>
+        <v>988</v>
       </c>
       <c r="P46" t="s">
         <v>287</v>
@@ -6730,7 +6736,7 @@
         <v>291</v>
       </c>
       <c r="L47" t="s">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="M47" t="s">
         <v>292</v>
@@ -6739,7 +6745,7 @@
         <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="P47" t="s">
         <v>294</v>
@@ -6756,7 +6762,7 @@
         <v>726</v>
       </c>
       <c r="C48" t="s">
-        <v>778</v>
+        <v>780</v>
       </c>
       <c r="D48" t="s">
         <v>297</v>
@@ -6765,7 +6771,7 @@
         <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>867</v>
+        <v>869</v>
       </c>
       <c r="J48" t="s">
         <v>299</v>
@@ -6774,7 +6780,7 @@
         <v>300</v>
       </c>
       <c r="L48" t="s">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="M48" t="s">
         <v>301</v>
@@ -6783,7 +6789,7 @@
         <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>984</v>
+        <v>989</v>
       </c>
       <c r="P48" t="s">
         <v>294</v>
@@ -6800,7 +6806,7 @@
         <v>722</v>
       </c>
       <c r="C49" t="s">
-        <v>779</v>
+        <v>781</v>
       </c>
       <c r="D49" t="s">
         <v>304</v>
@@ -6809,7 +6815,7 @@
         <v>305</v>
       </c>
       <c r="I49" t="s">
-        <v>868</v>
+        <v>870</v>
       </c>
       <c r="J49" t="s">
         <v>306</v>
@@ -6818,7 +6824,7 @@
         <v>307</v>
       </c>
       <c r="L49" t="s">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="M49" t="s">
         <v>308</v>
@@ -6827,7 +6833,7 @@
         <v>309</v>
       </c>
       <c r="O49" t="s">
-        <v>985</v>
+        <v>990</v>
       </c>
       <c r="P49" t="s">
         <v>310</v>
@@ -6844,7 +6850,7 @@
         <v>726</v>
       </c>
       <c r="C50" t="s">
-        <v>780</v>
+        <v>782</v>
       </c>
       <c r="D50" t="s">
         <v>313</v>
@@ -6853,7 +6859,7 @@
         <v>314</v>
       </c>
       <c r="I50" t="s">
-        <v>869</v>
+        <v>871</v>
       </c>
       <c r="J50" t="s">
         <v>315</v>
@@ -6862,7 +6868,7 @@
         <v>316</v>
       </c>
       <c r="L50" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="M50" t="s">
         <v>317</v>
@@ -6871,7 +6877,7 @@
         <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="P50" t="s">
         <v>317</v>
@@ -6888,7 +6894,7 @@
         <v>722</v>
       </c>
       <c r="I51" t="s">
-        <v>870</v>
+        <v>872</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6897,7 +6903,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6906,7 +6912,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6920,10 +6926,10 @@
         <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C52" t="s">
-        <v>781</v>
+        <v>783</v>
       </c>
       <c r="D52" t="s">
         <v>327</v>
@@ -6964,10 +6970,10 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C53" t="s">
-        <v>782</v>
+        <v>784</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -7008,10 +7014,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C54" t="s">
-        <v>783</v>
+        <v>785</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7052,10 +7058,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C55" t="s">
-        <v>784</v>
+        <v>786</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7099,7 +7105,7 @@
         <v>724</v>
       </c>
       <c r="C56" t="s">
-        <v>785</v>
+        <v>787</v>
       </c>
       <c r="D56" t="s">
         <v>340</v>
@@ -7108,7 +7114,7 @@
         <v>341</v>
       </c>
       <c r="I56" t="s">
-        <v>871</v>
+        <v>873</v>
       </c>
       <c r="J56" t="s">
         <v>342</v>
@@ -7126,7 +7132,7 @@
         <v>345</v>
       </c>
       <c r="O56" t="s">
-        <v>987</v>
+        <v>992</v>
       </c>
       <c r="P56" t="s">
         <v>346</v>
@@ -7143,7 +7149,7 @@
         <v>722</v>
       </c>
       <c r="I57" t="s">
-        <v>872</v>
+        <v>874</v>
       </c>
       <c r="J57" t="s">
         <v>349</v>
@@ -7152,7 +7158,7 @@
         <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="M57" t="s">
         <v>351</v>
@@ -7161,7 +7167,7 @@
         <v>352</v>
       </c>
       <c r="O57" t="s">
-        <v>988</v>
+        <v>993</v>
       </c>
       <c r="P57" t="s">
         <v>353</v>
@@ -7178,7 +7184,7 @@
         <v>722</v>
       </c>
       <c r="C58" t="s">
-        <v>786</v>
+        <v>788</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7222,7 +7228,7 @@
         <v>722</v>
       </c>
       <c r="C59" t="s">
-        <v>787</v>
+        <v>789</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -7231,7 +7237,7 @@
         <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>835</v>
+        <v>837</v>
       </c>
       <c r="G59" t="s">
         <v>361</v>
@@ -7272,10 +7278,10 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C60" t="s">
-        <v>788</v>
+        <v>790</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -7301,7 +7307,7 @@
         <v>722</v>
       </c>
       <c r="F61" t="s">
-        <v>836</v>
+        <v>838</v>
       </c>
       <c r="G61" t="s">
         <v>367</v>
@@ -7354,7 +7360,7 @@
         <v>372</v>
       </c>
       <c r="F62" t="s">
-        <v>837</v>
+        <v>839</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7439,10 +7445,10 @@
         <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C64" t="s">
-        <v>789</v>
+        <v>791</v>
       </c>
       <c r="D64" t="s">
         <v>380</v>
@@ -7451,7 +7457,7 @@
         <v>381</v>
       </c>
       <c r="I64" t="s">
-        <v>873</v>
+        <v>875</v>
       </c>
       <c r="J64" t="s">
         <v>382</v>
@@ -7460,7 +7466,7 @@
         <v>383</v>
       </c>
       <c r="L64" t="s">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="M64" t="s">
         <v>384</v>
@@ -7469,7 +7475,7 @@
         <v>385</v>
       </c>
       <c r="O64" t="s">
-        <v>989</v>
+        <v>994</v>
       </c>
       <c r="P64" t="s">
         <v>386</v>
@@ -7486,7 +7492,7 @@
         <v>726</v>
       </c>
       <c r="C65" t="s">
-        <v>790</v>
+        <v>792</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -7495,7 +7501,7 @@
         <v>390</v>
       </c>
       <c r="I65" t="s">
-        <v>874</v>
+        <v>876</v>
       </c>
       <c r="J65" t="s">
         <v>391</v>
@@ -7504,7 +7510,7 @@
         <v>392</v>
       </c>
       <c r="L65" t="s">
-        <v>934</v>
+        <v>937</v>
       </c>
       <c r="M65" t="s">
         <v>393</v>
@@ -7513,7 +7519,7 @@
         <v>394</v>
       </c>
       <c r="O65" t="s">
-        <v>990</v>
+        <v>995</v>
       </c>
       <c r="P65" t="s">
         <v>395</v>
@@ -7530,7 +7536,7 @@
         <v>726</v>
       </c>
       <c r="C66" t="s">
-        <v>791</v>
+        <v>793</v>
       </c>
       <c r="D66" t="s">
         <v>398</v>
@@ -7539,7 +7545,7 @@
         <v>399</v>
       </c>
       <c r="I66" t="s">
-        <v>875</v>
+        <v>877</v>
       </c>
       <c r="J66" t="s">
         <v>400</v>
@@ -7557,7 +7563,7 @@
         <v>403</v>
       </c>
       <c r="O66" t="s">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="P66" t="s">
         <v>404</v>
@@ -7574,7 +7580,7 @@
         <v>722</v>
       </c>
       <c r="F67" t="s">
-        <v>838</v>
+        <v>840</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7591,7 +7597,7 @@
         <v>722</v>
       </c>
       <c r="F68" t="s">
-        <v>839</v>
+        <v>841</v>
       </c>
       <c r="G68" t="s">
         <v>410</v>
@@ -7632,10 +7638,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C69" t="s">
-        <v>792</v>
+        <v>794</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -7644,7 +7650,7 @@
         <v>414</v>
       </c>
       <c r="I69" t="s">
-        <v>876</v>
+        <v>878</v>
       </c>
       <c r="J69" t="s">
         <v>415</v>
@@ -7653,7 +7659,7 @@
         <v>416</v>
       </c>
       <c r="L69" t="s">
-        <v>935</v>
+        <v>938</v>
       </c>
       <c r="M69" t="s">
         <v>417</v>
@@ -7662,7 +7668,7 @@
         <v>418</v>
       </c>
       <c r="O69" t="s">
-        <v>992</v>
+        <v>997</v>
       </c>
       <c r="P69" t="s">
         <v>419</v>
@@ -7679,7 +7685,7 @@
         <v>722</v>
       </c>
       <c r="C70" t="s">
-        <v>793</v>
+        <v>795</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7696,7 +7702,7 @@
         <v>726</v>
       </c>
       <c r="C71" t="s">
-        <v>794</v>
+        <v>796</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7713,7 +7719,7 @@
         <v>722</v>
       </c>
       <c r="C72" t="s">
-        <v>795</v>
+        <v>797</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -7730,7 +7736,7 @@
         <v>722</v>
       </c>
       <c r="C73" t="s">
-        <v>796</v>
+        <v>798</v>
       </c>
       <c r="D73" t="s">
         <v>431</v>
@@ -7747,13 +7753,13 @@
         <v>722</v>
       </c>
       <c r="C74" t="s">
-        <v>797</v>
+        <v>799</v>
       </c>
       <c r="E74" t="s">
         <v>434</v>
       </c>
       <c r="I74" t="s">
-        <v>877</v>
+        <v>879</v>
       </c>
       <c r="K74" t="s">
         <v>435</v>
@@ -7764,7 +7770,7 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C75" t="s">
         <v>437</v>
@@ -7811,13 +7817,13 @@
         <v>722</v>
       </c>
       <c r="C76" t="s">
-        <v>798</v>
+        <v>800</v>
       </c>
       <c r="E76" t="s">
         <v>446</v>
       </c>
       <c r="I76" t="s">
-        <v>878</v>
+        <v>880</v>
       </c>
       <c r="K76" t="s">
         <v>447</v>
@@ -7831,19 +7837,19 @@
         <v>722</v>
       </c>
       <c r="C77" t="s">
-        <v>799</v>
+        <v>801</v>
       </c>
       <c r="E77" t="s">
         <v>449</v>
       </c>
       <c r="I77" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="K77" t="s">
         <v>450</v>
       </c>
       <c r="L77" t="s">
-        <v>936</v>
+        <v>939</v>
       </c>
       <c r="N77" t="s">
         <v>451</v>
@@ -7863,10 +7869,10 @@
         <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C78" t="s">
-        <v>800</v>
+        <v>802</v>
       </c>
       <c r="D78" t="s">
         <v>455</v>
@@ -7875,13 +7881,13 @@
         <v>456</v>
       </c>
       <c r="I78" t="s">
-        <v>879</v>
+        <v>881</v>
       </c>
       <c r="K78" t="s">
         <v>450</v>
       </c>
       <c r="L78" t="s">
-        <v>937</v>
+        <v>940</v>
       </c>
       <c r="N78" t="s">
         <v>457</v>
@@ -7921,7 +7927,7 @@
         <v>731</v>
       </c>
       <c r="C80" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D80" t="s">
         <v>167</v>
@@ -7930,7 +7936,7 @@
         <v>168</v>
       </c>
       <c r="I80" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="J80" t="s">
         <v>463</v>
@@ -7939,7 +7945,7 @@
         <v>464</v>
       </c>
       <c r="L80" t="s">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="M80" t="s">
         <v>465</v>
@@ -7948,7 +7954,7 @@
         <v>466</v>
       </c>
       <c r="O80" t="s">
-        <v>880</v>
+        <v>882</v>
       </c>
       <c r="P80" t="s">
         <v>467</v>
@@ -7982,7 +7988,7 @@
         <v>722</v>
       </c>
       <c r="C82" t="s">
-        <v>801</v>
+        <v>803</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -7999,7 +8005,7 @@
         <v>728</v>
       </c>
       <c r="C83" t="s">
-        <v>802</v>
+        <v>804</v>
       </c>
       <c r="D83" t="s">
         <v>476</v>
@@ -8025,7 +8031,7 @@
         <v>728</v>
       </c>
       <c r="C84" t="s">
-        <v>803</v>
+        <v>805</v>
       </c>
       <c r="D84" t="s">
         <v>481</v>
@@ -8034,7 +8040,7 @@
         <v>482</v>
       </c>
       <c r="L84" t="s">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="M84" t="s">
         <v>483</v>
@@ -8051,7 +8057,7 @@
         <v>722</v>
       </c>
       <c r="C85" t="s">
-        <v>804</v>
+        <v>806</v>
       </c>
       <c r="E85" t="s">
         <v>486</v>
@@ -8065,7 +8071,7 @@
         <v>722</v>
       </c>
       <c r="C86" t="s">
-        <v>805</v>
+        <v>807</v>
       </c>
       <c r="D86" t="s">
         <v>488</v>
@@ -8074,13 +8080,13 @@
         <v>489</v>
       </c>
       <c r="I86" t="s">
-        <v>881</v>
+        <v>883</v>
       </c>
       <c r="K86" t="s">
         <v>490</v>
       </c>
       <c r="L86" t="s">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="N86" t="s">
         <v>293</v>
@@ -8094,7 +8100,7 @@
         <v>722</v>
       </c>
       <c r="C87" t="s">
-        <v>806</v>
+        <v>808</v>
       </c>
       <c r="D87" t="s">
         <v>492</v>
@@ -8103,7 +8109,7 @@
         <v>493</v>
       </c>
       <c r="I87" t="s">
-        <v>882</v>
+        <v>884</v>
       </c>
       <c r="J87" t="s">
         <v>494</v>
@@ -8112,7 +8118,7 @@
         <v>495</v>
       </c>
       <c r="L87" t="s">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="M87" t="s">
         <v>496</v>
@@ -8121,7 +8127,7 @@
         <v>497</v>
       </c>
       <c r="O87" t="s">
-        <v>993</v>
+        <v>998</v>
       </c>
       <c r="P87" t="s">
         <v>498</v>
@@ -8138,7 +8144,7 @@
         <v>726</v>
       </c>
       <c r="C88" t="s">
-        <v>807</v>
+        <v>809</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8152,10 +8158,10 @@
         <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C89" t="s">
-        <v>808</v>
+        <v>810</v>
       </c>
       <c r="D89" t="s">
         <v>504</v>
@@ -8164,7 +8170,7 @@
         <v>505</v>
       </c>
       <c r="L89" t="s">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="M89" t="s">
         <v>506</v>
@@ -8173,7 +8179,7 @@
         <v>507</v>
       </c>
       <c r="O89" t="s">
-        <v>994</v>
+        <v>999</v>
       </c>
       <c r="P89" t="s">
         <v>508</v>
@@ -8190,7 +8196,7 @@
         <v>722</v>
       </c>
       <c r="L90" t="s">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="M90" t="s">
         <v>511</v>
@@ -8199,7 +8205,7 @@
         <v>286</v>
       </c>
       <c r="O90" t="s">
-        <v>995</v>
+        <v>1000</v>
       </c>
       <c r="P90" t="s">
         <v>512</v>
@@ -8216,7 +8222,7 @@
         <v>722</v>
       </c>
       <c r="F91" t="s">
-        <v>840</v>
+        <v>842</v>
       </c>
       <c r="G91" t="s">
         <v>515</v>
@@ -8260,7 +8266,7 @@
         <v>722</v>
       </c>
       <c r="C92" t="s">
-        <v>809</v>
+        <v>811</v>
       </c>
       <c r="D92" t="s">
         <v>518</v>
@@ -8269,7 +8275,7 @@
         <v>519</v>
       </c>
       <c r="F92" t="s">
-        <v>841</v>
+        <v>843</v>
       </c>
       <c r="G92" t="s">
         <v>520</v>
@@ -8286,7 +8292,7 @@
         <v>722</v>
       </c>
       <c r="C93" t="s">
-        <v>810</v>
+        <v>812</v>
       </c>
       <c r="D93" t="s">
         <v>523</v>
@@ -8295,7 +8301,7 @@
         <v>519</v>
       </c>
       <c r="F93" t="s">
-        <v>842</v>
+        <v>844</v>
       </c>
       <c r="G93" t="s">
         <v>524</v>
@@ -8312,7 +8318,7 @@
         <v>722</v>
       </c>
       <c r="C94" t="s">
-        <v>811</v>
+        <v>813</v>
       </c>
       <c r="D94" t="s">
         <v>527</v>
@@ -8321,7 +8327,7 @@
         <v>528</v>
       </c>
       <c r="F94" t="s">
-        <v>843</v>
+        <v>845</v>
       </c>
       <c r="G94" t="s">
         <v>529</v>
@@ -8335,10 +8341,10 @@
         <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="I95" t="s">
-        <v>883</v>
+        <v>885</v>
       </c>
       <c r="J95" t="s">
         <v>532</v>
@@ -8347,7 +8353,7 @@
         <v>533</v>
       </c>
       <c r="L95" t="s">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="M95" t="s">
         <v>534</v>
@@ -8356,7 +8362,7 @@
         <v>535</v>
       </c>
       <c r="O95" t="s">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="P95" t="s">
         <v>536</v>
@@ -8365,15 +8371,15 @@
         <v>537</v>
       </c>
     </row>
-    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>732</v>
       </c>
       <c r="I96" t="s">
-        <v>1014</v>
+        <v>886</v>
       </c>
       <c r="J96" t="s">
         <v>539</v>
@@ -8382,7 +8388,7 @@
         <v>540</v>
       </c>
       <c r="L96" t="s">
-        <v>1016</v>
+        <v>948</v>
       </c>
       <c r="M96" t="s">
         <v>541</v>
@@ -8391,15 +8397,15 @@
         <v>542</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>18</v>
+        <v>732</v>
       </c>
       <c r="I97" t="s">
-        <v>1014</v>
+        <v>886</v>
       </c>
       <c r="J97" t="s">
         <v>539</v>
@@ -8408,7 +8414,7 @@
         <v>540</v>
       </c>
       <c r="L97" t="s">
-        <v>1015</v>
+        <v>949</v>
       </c>
       <c r="M97" t="s">
         <v>544</v>
@@ -8425,7 +8431,7 @@
         <v>722</v>
       </c>
       <c r="C98" t="s">
-        <v>812</v>
+        <v>814</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8442,7 +8448,7 @@
         <v>722</v>
       </c>
       <c r="C99" t="s">
-        <v>813</v>
+        <v>815</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8459,7 +8465,7 @@
         <v>722</v>
       </c>
       <c r="C100" t="s">
-        <v>814</v>
+        <v>816</v>
       </c>
       <c r="D100" t="s">
         <v>553</v>
@@ -8468,7 +8474,7 @@
         <v>554</v>
       </c>
       <c r="F100" t="s">
-        <v>844</v>
+        <v>846</v>
       </c>
       <c r="G100" t="s">
         <v>555</v>
@@ -8477,29 +8483,29 @@
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>557</v>
       </c>
       <c r="B101" t="s">
-        <v>725</v>
-      </c>
-      <c r="C101" t="s">
-        <v>815</v>
-      </c>
-      <c r="D101" t="s">
+        <v>18</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="D101" s="2" t="s">
         <v>558</v>
       </c>
       <c r="E101" t="s">
         <v>559</v>
       </c>
-      <c r="I101" t="s">
-        <v>884</v>
-      </c>
-      <c r="J101" t="s">
+      <c r="I101" s="2" t="s">
+        <v>887</v>
+      </c>
+      <c r="J101" s="2" t="s">
         <v>560</v>
       </c>
-      <c r="K101" t="s">
+      <c r="K101" s="2" t="s">
         <v>561</v>
       </c>
       <c r="L101" t="s">
@@ -8512,7 +8518,7 @@
         <v>563</v>
       </c>
       <c r="O101" t="s">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="P101" t="s">
         <v>564</v>
@@ -8529,7 +8535,7 @@
         <v>722</v>
       </c>
       <c r="C102" t="s">
-        <v>816</v>
+        <v>818</v>
       </c>
       <c r="D102" t="s">
         <v>567</v>
@@ -8543,7 +8549,7 @@
         <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C103" t="s">
         <v>570</v>
@@ -8560,10 +8566,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C104" t="s">
-        <v>817</v>
+        <v>819</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -8577,7 +8583,7 @@
         <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
     </row>
     <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -8585,10 +8591,10 @@
         <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="L106" t="s">
-        <v>945</v>
+        <v>950</v>
       </c>
       <c r="M106" t="s">
         <v>577</v>
@@ -8602,10 +8608,10 @@
         <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C107" t="s">
-        <v>818</v>
+        <v>820</v>
       </c>
       <c r="D107" t="s">
         <v>580</v>
@@ -8614,7 +8620,7 @@
         <v>581</v>
       </c>
       <c r="I107" t="s">
-        <v>885</v>
+        <v>888</v>
       </c>
       <c r="J107" t="s">
         <v>582</v>
@@ -8623,7 +8629,7 @@
         <v>583</v>
       </c>
       <c r="L107" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
       <c r="M107" t="s">
         <v>584</v>
@@ -8632,7 +8638,7 @@
         <v>585</v>
       </c>
       <c r="O107" t="s">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="P107" t="s">
         <v>586</v>
@@ -8646,10 +8652,10 @@
         <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="C108" t="s">
-        <v>819</v>
+        <v>821</v>
       </c>
       <c r="D108" t="s">
         <v>589</v>
@@ -8658,7 +8664,7 @@
         <v>590</v>
       </c>
       <c r="I108" t="s">
-        <v>886</v>
+        <v>889</v>
       </c>
       <c r="J108" t="s">
         <v>591</v>
@@ -8667,7 +8673,7 @@
         <v>592</v>
       </c>
       <c r="L108" t="s">
-        <v>947</v>
+        <v>952</v>
       </c>
       <c r="M108" t="s">
         <v>593</v>
@@ -8676,7 +8682,7 @@
         <v>594</v>
       </c>
       <c r="O108" t="s">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="P108" t="s">
         <v>595</v>
@@ -8693,7 +8699,7 @@
         <v>724</v>
       </c>
       <c r="C109" t="s">
-        <v>820</v>
+        <v>822</v>
       </c>
       <c r="D109" t="s">
         <v>598</v>
@@ -8702,7 +8708,7 @@
         <v>599</v>
       </c>
       <c r="I109" t="s">
-        <v>887</v>
+        <v>890</v>
       </c>
       <c r="J109" t="s">
         <v>600</v>
@@ -8711,7 +8717,7 @@
         <v>601</v>
       </c>
       <c r="L109" t="s">
-        <v>948</v>
+        <v>953</v>
       </c>
       <c r="M109" t="s">
         <v>511</v>
@@ -8720,7 +8726,7 @@
         <v>286</v>
       </c>
       <c r="O109" t="s">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="P109" t="s">
         <v>602</v>
@@ -8734,10 +8740,10 @@
         <v>604</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C110" t="s">
-        <v>821</v>
+        <v>823</v>
       </c>
       <c r="D110" t="s">
         <v>605</v>
@@ -8746,7 +8752,7 @@
         <v>606</v>
       </c>
       <c r="I110" t="s">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="J110" t="s">
         <v>607</v>
@@ -8755,7 +8761,7 @@
         <v>608</v>
       </c>
       <c r="L110" t="s">
-        <v>949</v>
+        <v>954</v>
       </c>
       <c r="M110" t="s">
         <v>609</v>
@@ -8764,7 +8770,7 @@
         <v>610</v>
       </c>
       <c r="O110" t="s">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="P110" t="s">
         <v>611</v>
@@ -8781,7 +8787,7 @@
         <v>731</v>
       </c>
       <c r="C111" t="s">
-        <v>822</v>
+        <v>824</v>
       </c>
       <c r="D111" t="s">
         <v>614</v>
@@ -8790,7 +8796,7 @@
         <v>615</v>
       </c>
       <c r="I111" t="s">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="J111" t="s">
         <v>616</v>
@@ -8799,7 +8805,7 @@
         <v>617</v>
       </c>
       <c r="L111" t="s">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="M111" t="s">
         <v>618</v>
@@ -8808,7 +8814,7 @@
         <v>619</v>
       </c>
       <c r="O111" t="s">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="P111" t="s">
         <v>620</v>
@@ -8825,7 +8831,7 @@
         <v>731</v>
       </c>
       <c r="C112" t="s">
-        <v>823</v>
+        <v>825</v>
       </c>
       <c r="D112" t="s">
         <v>623</v>
@@ -8834,7 +8840,7 @@
         <v>624</v>
       </c>
       <c r="I112" t="s">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="J112" t="s">
         <v>625</v>
@@ -8843,7 +8849,7 @@
         <v>626</v>
       </c>
       <c r="L112" t="s">
-        <v>951</v>
+        <v>956</v>
       </c>
       <c r="M112" t="s">
         <v>627</v>
@@ -8852,7 +8858,7 @@
         <v>628</v>
       </c>
       <c r="O112" t="s">
-        <v>1003</v>
+        <v>1008</v>
       </c>
       <c r="P112" t="s">
         <v>629</v>
@@ -8861,24 +8867,24 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>631</v>
       </c>
       <c r="B113" t="s">
-        <v>731</v>
-      </c>
-      <c r="C113" t="s">
-        <v>824</v>
-      </c>
-      <c r="D113" t="s">
+        <v>18</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>826</v>
+      </c>
+      <c r="D113" s="2" t="s">
         <v>632</v>
       </c>
       <c r="E113" t="s">
         <v>633</v>
       </c>
       <c r="I113" t="s">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="J113" t="s">
         <v>634</v>
@@ -8887,7 +8893,7 @@
         <v>635</v>
       </c>
       <c r="L113" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="M113" t="s">
         <v>636</v>
@@ -8896,7 +8902,7 @@
         <v>637</v>
       </c>
       <c r="O113" t="s">
-        <v>1004</v>
+        <v>1009</v>
       </c>
       <c r="P113" t="s">
         <v>638</v>
@@ -8913,7 +8919,7 @@
         <v>725</v>
       </c>
       <c r="C114" t="s">
-        <v>825</v>
+        <v>827</v>
       </c>
       <c r="D114" t="s">
         <v>641</v>
@@ -8922,7 +8928,7 @@
         <v>642</v>
       </c>
       <c r="I114" t="s">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="J114" t="s">
         <v>643</v>
@@ -8931,7 +8937,7 @@
         <v>644</v>
       </c>
       <c r="L114" t="s">
-        <v>953</v>
+        <v>958</v>
       </c>
       <c r="M114" t="s">
         <v>645</v>
@@ -8940,7 +8946,7 @@
         <v>646</v>
       </c>
       <c r="O114" t="s">
-        <v>1005</v>
+        <v>1010</v>
       </c>
       <c r="P114" t="s">
         <v>647</v>
@@ -8977,7 +8983,7 @@
         <v>650</v>
       </c>
       <c r="I116" t="s">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="J116" t="s">
         <v>652</v>
@@ -8995,7 +9001,7 @@
         <v>655</v>
       </c>
       <c r="O116" t="s">
-        <v>1006</v>
+        <v>1011</v>
       </c>
       <c r="P116" t="s">
         <v>656</v>
@@ -9018,7 +9024,7 @@
         <v>650</v>
       </c>
       <c r="I117" t="s">
-        <v>894</v>
+        <v>897</v>
       </c>
       <c r="J117" t="s">
         <v>659</v>
@@ -9027,7 +9033,7 @@
         <v>660</v>
       </c>
       <c r="L117" t="s">
-        <v>954</v>
+        <v>959</v>
       </c>
       <c r="M117" t="s">
         <v>661</v>
@@ -9036,7 +9042,7 @@
         <v>662</v>
       </c>
       <c r="O117" t="s">
-        <v>1007</v>
+        <v>1012</v>
       </c>
       <c r="P117" t="s">
         <v>663</v>
@@ -9053,7 +9059,7 @@
         <v>724</v>
       </c>
       <c r="C118" t="s">
-        <v>826</v>
+        <v>828</v>
       </c>
       <c r="D118" t="s">
         <v>666</v>
@@ -9062,7 +9068,7 @@
         <v>667</v>
       </c>
       <c r="L118" t="s">
-        <v>955</v>
+        <v>960</v>
       </c>
       <c r="M118" t="s">
         <v>668</v>
@@ -9071,7 +9077,7 @@
         <v>669</v>
       </c>
       <c r="O118" t="s">
-        <v>1008</v>
+        <v>1013</v>
       </c>
       <c r="P118" t="s">
         <v>670</v>
@@ -9088,7 +9094,7 @@
         <v>724</v>
       </c>
       <c r="C119" t="s">
-        <v>827</v>
+        <v>829</v>
       </c>
       <c r="D119" t="s">
         <v>673</v>
@@ -9097,7 +9103,7 @@
         <v>674</v>
       </c>
       <c r="L119" t="s">
-        <v>956</v>
+        <v>961</v>
       </c>
       <c r="M119" t="s">
         <v>675</v>
@@ -9111,10 +9117,10 @@
         <v>677</v>
       </c>
       <c r="B120" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C120" t="s">
-        <v>828</v>
+        <v>830</v>
       </c>
       <c r="D120" t="s">
         <v>678</v>
@@ -9123,7 +9129,7 @@
         <v>679</v>
       </c>
       <c r="I120" t="s">
-        <v>895</v>
+        <v>898</v>
       </c>
       <c r="J120" t="s">
         <v>680</v>
@@ -9132,7 +9138,7 @@
         <v>681</v>
       </c>
       <c r="L120" t="s">
-        <v>957</v>
+        <v>962</v>
       </c>
       <c r="M120" t="s">
         <v>682</v>
@@ -9141,7 +9147,7 @@
         <v>683</v>
       </c>
       <c r="O120" t="s">
-        <v>1009</v>
+        <v>1014</v>
       </c>
       <c r="P120" t="s">
         <v>684</v>
@@ -9158,7 +9164,7 @@
         <v>724</v>
       </c>
       <c r="C121" t="s">
-        <v>829</v>
+        <v>831</v>
       </c>
       <c r="D121" t="s">
         <v>687</v>
@@ -9167,7 +9173,7 @@
         <v>688</v>
       </c>
       <c r="I121" t="s">
-        <v>896</v>
+        <v>899</v>
       </c>
       <c r="J121" t="s">
         <v>689</v>
@@ -9176,7 +9182,7 @@
         <v>690</v>
       </c>
       <c r="L121" t="s">
-        <v>958</v>
+        <v>963</v>
       </c>
       <c r="M121" t="s">
         <v>691</v>
@@ -9185,7 +9191,7 @@
         <v>692</v>
       </c>
       <c r="O121" t="s">
-        <v>1010</v>
+        <v>1015</v>
       </c>
       <c r="P121" t="s">
         <v>693</v>
@@ -9199,10 +9205,10 @@
         <v>695</v>
       </c>
       <c r="B122" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C122" t="s">
-        <v>830</v>
+        <v>832</v>
       </c>
       <c r="D122" t="s">
         <v>696</v>
@@ -9211,7 +9217,7 @@
         <v>697</v>
       </c>
       <c r="I122" t="s">
-        <v>897</v>
+        <v>900</v>
       </c>
       <c r="J122" t="s">
         <v>698</v>
@@ -9220,7 +9226,7 @@
         <v>699</v>
       </c>
       <c r="L122" t="s">
-        <v>959</v>
+        <v>964</v>
       </c>
       <c r="M122" t="s">
         <v>700</v>
@@ -9229,7 +9235,7 @@
         <v>701</v>
       </c>
       <c r="O122" t="s">
-        <v>1011</v>
+        <v>1016</v>
       </c>
       <c r="P122" t="s">
         <v>702</v>
@@ -9243,10 +9249,10 @@
         <v>704</v>
       </c>
       <c r="B123" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="C123" t="s">
-        <v>831</v>
+        <v>833</v>
       </c>
       <c r="D123" t="s">
         <v>705</v>
@@ -9255,7 +9261,7 @@
         <v>706</v>
       </c>
       <c r="I123" t="s">
-        <v>898</v>
+        <v>901</v>
       </c>
       <c r="J123" t="s">
         <v>707</v>
@@ -9264,7 +9270,7 @@
         <v>708</v>
       </c>
       <c r="L123" t="s">
-        <v>960</v>
+        <v>965</v>
       </c>
       <c r="M123" t="s">
         <v>709</v>
@@ -9273,7 +9279,7 @@
         <v>710</v>
       </c>
       <c r="O123" t="s">
-        <v>1012</v>
+        <v>1017</v>
       </c>
       <c r="P123" t="s">
         <v>711</v>
@@ -9287,10 +9293,10 @@
         <v>713</v>
       </c>
       <c r="B124" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C124" t="s">
-        <v>832</v>
+        <v>834</v>
       </c>
       <c r="D124" t="s">
         <v>714</v>
@@ -9307,7 +9313,7 @@
         <v>731</v>
       </c>
       <c r="I125" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="J125" t="s">
         <v>717</v>
@@ -9316,7 +9322,7 @@
         <v>718</v>
       </c>
       <c r="L125" t="s">
-        <v>961</v>
+        <v>966</v>
       </c>
       <c r="M125" t="s">
         <v>719</v>
@@ -9325,7 +9331,7 @@
         <v>457</v>
       </c>
       <c r="O125" t="s">
-        <v>899</v>
+        <v>902</v>
       </c>
       <c r="P125" t="s">
         <v>720</v>
@@ -9338,7 +9344,7 @@
   <autoFilter ref="A2:Q125" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="EA 23.209 Patch 2"/>
+        <filter val="EA 23.213"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Game/CharaText.xlsx
+++ b/data/Game/CharaText.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBAB20C-48C0-41A9-ABDD-5C92D0E0E6F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CCB30-37EF-476F-897F-84C9FA451EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1018">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1019">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +79,7 @@
     <t>artist</t>
   </si>
   <si>
-    <t>EA 23.213</t>
+    <t>EA 23.222 Patch 1</t>
   </si>
   <si>
     <t>"You senseless bastard!"
@@ -145,7 +145,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
-*ハタハタ*</t>
+ *ハタハタ*</t>
   </si>
   <si>
     <t>"Aaah!"</t>
@@ -438,7 +438,7 @@
     <t>「うみみゃ」
 「みゅー」
 「みゃ」
-*ごろごろ*</t>
+ *ごろごろ*</t>
   </si>
   <si>
     <t>「フシューッ」
@@ -2527,7 +2527,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
-*ドン*</t>
+ *ドン*</t>
   </si>
   <si>
     <t>Little Sister: "Kill! Kill!"
@@ -2871,7 +2871,7 @@
   <si>
     <t>「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
-*レロレロレロ*
+ *レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -3295,82 +3295,82 @@
     <t>Alpha 20.64</t>
   </si>
   <si>
+    <t>Beta 22.86</t>
+  </si>
+  <si>
+    <t>Beta 22.23</t>
+  </si>
+  <si>
+    <t>Alpha 20.49</t>
+  </si>
+  <si>
+    <t>Alpha 20.40</t>
+  </si>
+  <si>
+    <t>Alpha 20.45</t>
+  </si>
+  <si>
+    <t>EA 23.200 Patch 2</t>
+  </si>
+  <si>
+    <t>EA 23.209 Patch 2</t>
+  </si>
+  <si>
+    <t>EA 23.61 fix 2</t>
+  </si>
+  <si>
+    <t>Alpha 20.66</t>
+  </si>
+  <si>
+    <t>EA 23.50</t>
+  </si>
+  <si>
+    <t>EA 23.107</t>
+  </si>
+  <si>
+    <t>EA 23.100</t>
+  </si>
+  <si>
+    <t>EA 23.60</t>
+  </si>
+  <si>
+    <t>EA 23.62</t>
+  </si>
+  <si>
+    <t>Alpha 20.69</t>
+  </si>
+  <si>
+    <t>Alpha 14.1</t>
+  </si>
+  <si>
+    <t>Alpha 21.0</t>
+  </si>
+  <si>
+    <t>EA 23.112</t>
+  </si>
+  <si>
+    <t>Alpha 20.7</t>
+  </si>
+  <si>
+    <t>EA 23.90</t>
+  </si>
+  <si>
+    <t>EA 23.117</t>
+  </si>
+  <si>
+    <t>Alpha 12.1</t>
+  </si>
+  <si>
+    <t>Alpha 15.1</t>
+  </si>
+  <si>
+    <t>EA 23.135</t>
+  </si>
+  <si>
+    <t>Alpha 20.27</t>
+  </si>
+  <si>
     <t>EA 23.188 Patch 2</t>
-  </si>
-  <si>
-    <t>Beta 22.86</t>
-  </si>
-  <si>
-    <t>Beta 22.23</t>
-  </si>
-  <si>
-    <t>Alpha 20.49</t>
-  </si>
-  <si>
-    <t>Alpha 20.40</t>
-  </si>
-  <si>
-    <t>Alpha 20.45</t>
-  </si>
-  <si>
-    <t>EA 23.200 Patch 2</t>
-  </si>
-  <si>
-    <t>EA 23.209 Patch 2</t>
-  </si>
-  <si>
-    <t>EA 23.61 fix 2</t>
-  </si>
-  <si>
-    <t>Alpha 20.66</t>
-  </si>
-  <si>
-    <t>EA 23.50</t>
-  </si>
-  <si>
-    <t>EA 23.107</t>
-  </si>
-  <si>
-    <t>EA 23.100</t>
-  </si>
-  <si>
-    <t>EA 23.60</t>
-  </si>
-  <si>
-    <t>EA 23.62</t>
-  </si>
-  <si>
-    <t>Alpha 20.69</t>
-  </si>
-  <si>
-    <t>Alpha 14.1</t>
-  </si>
-  <si>
-    <t>Alpha 21.0</t>
-  </si>
-  <si>
-    <t>EA 23.112</t>
-  </si>
-  <si>
-    <t>Alpha 20.7</t>
-  </si>
-  <si>
-    <t>EA 23.90</t>
-  </si>
-  <si>
-    <t>EA 23.117</t>
-  </si>
-  <si>
-    <t>Alpha 12.1</t>
-  </si>
-  <si>
-    <t>Alpha 15.1</t>
-  </si>
-  <si>
-    <t>EA 23.135</t>
-  </si>
-  <si>
-    <t>Alpha 20.27</t>
   </si>
   <si>
     <t>EA 23.66</t>
@@ -4705,6 +4705,10 @@
 “Nào nào, chơi với mình thêm chút nữa đi.”
 “Fufun.”
 “Hehe.”</t>
+  </si>
+  <si>
+    <t>"Địa ngục đang chờ ngươi."
+"Nhìn ngươi kìa."</t>
   </si>
 </sst>
 </file>
@@ -5068,17 +5072,14 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:Q125"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K113" sqref="K113"/>
+      <selection pane="bottomLeft" activeCell="O126" sqref="O126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="16" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="50.77734375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="47.21875" customWidth="1" collapsed="1"/>
-    <col min="5" max="17" width="16" customWidth="1" collapsed="1"/>
+    <col min="1" max="17" width="16" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
@@ -5228,10 +5229,10 @@
       <c r="B6" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>34</v>
       </c>
       <c r="E6" t="s">
@@ -5247,12 +5248,12 @@
         <v>37</v>
       </c>
       <c r="O6" s="2" t="s">
+        <v>1018</v>
+      </c>
+      <c r="P6" t="s">
         <v>38</v>
       </c>
-      <c r="P6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q6" s="2" t="s">
+      <c r="Q6" t="s">
         <v>39</v>
       </c>
     </row>
@@ -5419,7 +5420,7 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C11" t="s">
         <v>759</v>
@@ -5463,7 +5464,7 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C12" t="s">
         <v>760</v>
@@ -5534,29 +5535,29 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:17" ht="72" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>95</v>
       </c>
       <c r="B14" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="2" t="s">
+      <c r="C14" t="s">
         <v>762</v>
       </c>
-      <c r="D14" s="2" t="s">
+      <c r="D14" t="s">
         <v>96</v>
       </c>
       <c r="E14" t="s">
         <v>97</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="I14" t="s">
         <v>74</v>
       </c>
-      <c r="J14" s="2" t="s">
+      <c r="J14" t="s">
         <v>74</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="K14" t="s">
         <v>98</v>
       </c>
       <c r="L14" t="s">
@@ -5571,7 +5572,7 @@
       <c r="O14" t="s">
         <v>973</v>
       </c>
-      <c r="P14" s="2" t="s">
+      <c r="P14" t="s">
         <v>78</v>
       </c>
       <c r="Q14" t="s">
@@ -5583,7 +5584,7 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C15" t="s">
         <v>763</v>
@@ -5618,7 +5619,7 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I16" t="s">
         <v>853</v>
@@ -5653,7 +5654,7 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
@@ -5732,7 +5733,7 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="I19" t="s">
         <v>854</v>
@@ -5881,7 +5882,7 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C23" t="s">
         <v>765</v>
@@ -5968,7 +5969,7 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C26" t="s">
         <v>767</v>
@@ -5994,7 +5995,7 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="C27" t="s">
         <v>768</v>
@@ -6090,7 +6091,7 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C30" t="s">
         <v>770</v>
@@ -6134,7 +6135,7 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C31" t="s">
         <v>771</v>
@@ -6178,7 +6179,7 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C32" t="s">
         <v>772</v>
@@ -6222,7 +6223,7 @@
         <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C33" t="s">
         <v>773</v>
@@ -6412,7 +6413,7 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C38" t="s">
         <v>775</v>
@@ -6465,7 +6466,7 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C39" t="s">
         <v>776</v>
@@ -6543,7 +6544,7 @@
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C42" t="s">
         <v>778</v>
@@ -6631,7 +6632,7 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I44" t="s">
         <v>867</v>
@@ -6663,7 +6664,7 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="I45" t="s">
         <v>868</v>
@@ -6724,7 +6725,7 @@
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>
@@ -6759,7 +6760,7 @@
         <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C48" t="s">
         <v>780</v>
@@ -6847,7 +6848,7 @@
         <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C50" t="s">
         <v>782</v>
@@ -6926,7 +6927,7 @@
         <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C52" t="s">
         <v>783</v>
@@ -6970,7 +6971,7 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C53" t="s">
         <v>784</v>
@@ -7014,7 +7015,7 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C54" t="s">
         <v>785</v>
@@ -7058,7 +7059,7 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C55" t="s">
         <v>786</v>
@@ -7278,7 +7279,7 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C60" t="s">
         <v>790</v>
@@ -7348,7 +7349,7 @@
         <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C62" t="s">
         <v>371</v>
@@ -7445,7 +7446,7 @@
         <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C64" t="s">
         <v>791</v>
@@ -7489,7 +7490,7 @@
         <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C65" t="s">
         <v>792</v>
@@ -7533,7 +7534,7 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C66" t="s">
         <v>793</v>
@@ -7638,7 +7639,7 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="C69" t="s">
         <v>794</v>
@@ -7699,7 +7700,7 @@
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C71" t="s">
         <v>796</v>
@@ -7770,7 +7771,7 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C75" t="s">
         <v>437</v>
@@ -7869,7 +7870,7 @@
         <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C78" t="s">
         <v>802</v>
@@ -7924,7 +7925,7 @@
         <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C80" t="s">
         <v>767</v>
@@ -8002,7 +8003,7 @@
         <v>475</v>
       </c>
       <c r="B83" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C83" t="s">
         <v>804</v>
@@ -8028,7 +8029,7 @@
         <v>480</v>
       </c>
       <c r="B84" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C84" t="s">
         <v>805</v>
@@ -8141,7 +8142,7 @@
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C88" t="s">
         <v>809</v>
@@ -8158,7 +8159,7 @@
         <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C89" t="s">
         <v>810</v>
@@ -8341,7 +8342,7 @@
         <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="I95" t="s">
         <v>885</v>
@@ -8376,7 +8377,7 @@
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I96" t="s">
         <v>886</v>
@@ -8402,7 +8403,7 @@
         <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I97" t="s">
         <v>886</v>
@@ -8483,29 +8484,29 @@
         <v>556</v>
       </c>
     </row>
-    <row r="101" spans="1:17" ht="129.6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>557</v>
       </c>
       <c r="B101" t="s">
         <v>18</v>
       </c>
-      <c r="C101" s="2" t="s">
+      <c r="C101" t="s">
         <v>817</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" t="s">
         <v>558</v>
       </c>
       <c r="E101" t="s">
         <v>559</v>
       </c>
-      <c r="I101" s="2" t="s">
+      <c r="I101" t="s">
         <v>887</v>
       </c>
-      <c r="J101" s="2" t="s">
+      <c r="J101" t="s">
         <v>560</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="K101" t="s">
         <v>561</v>
       </c>
       <c r="L101" t="s">
@@ -8549,7 +8550,7 @@
         <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C103" t="s">
         <v>570</v>
@@ -8566,7 +8567,7 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C104" t="s">
         <v>819</v>
@@ -8583,7 +8584,7 @@
         <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -8591,7 +8592,7 @@
         <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="L106" t="s">
         <v>950</v>
@@ -8608,7 +8609,7 @@
         <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C107" t="s">
         <v>820</v>
@@ -8652,7 +8653,7 @@
         <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C108" t="s">
         <v>821</v>
@@ -8740,7 +8741,7 @@
         <v>604</v>
       </c>
       <c r="B110" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="C110" t="s">
         <v>823</v>
@@ -8784,7 +8785,7 @@
         <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C111" t="s">
         <v>824</v>
@@ -8828,7 +8829,7 @@
         <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="C112" t="s">
         <v>825</v>
@@ -8867,17 +8868,17 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>631</v>
       </c>
       <c r="B113" t="s">
         <v>18</v>
       </c>
-      <c r="C113" s="2" t="s">
+      <c r="C113" t="s">
         <v>826</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" t="s">
         <v>632</v>
       </c>
       <c r="E113" t="s">
@@ -8916,7 +8917,7 @@
         <v>640</v>
       </c>
       <c r="B114" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="C114" t="s">
         <v>827</v>
@@ -8960,7 +8961,7 @@
         <v>649</v>
       </c>
       <c r="B115" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="D115" t="s">
         <v>650</v>
@@ -8974,7 +8975,7 @@
         <v>651</v>
       </c>
       <c r="B116" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="D116" t="s">
         <v>650</v>
@@ -9015,7 +9016,7 @@
         <v>658</v>
       </c>
       <c r="B117" t="s">
-        <v>725</v>
+        <v>750</v>
       </c>
       <c r="D117" t="s">
         <v>650</v>
@@ -9310,7 +9311,7 @@
         <v>716</v>
       </c>
       <c r="B125" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I125" t="s">
         <v>902</v>
@@ -9344,7 +9345,7 @@
   <autoFilter ref="A2:Q125" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="EA 23.213"/>
+        <filter val="EA 23.222 Patch 1"/>
       </filters>
     </filterColumn>
   </autoFilter>

--- a/data/Game/CharaText.xlsx
+++ b/data/Game/CharaText.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Program Files (x86)\Steam\steamapps\common\Elin\Package\_Lang_Vietnamese\Lang\VN\Game\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6CCB30-37EF-476F-897F-84C9FA451EF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4421F06C-C113-46E5-84DA-3A7E7A3D04E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,15 @@
     <sheet name="CharaText" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$125</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CharaText!$A$2:$Q$127</definedName>
   </definedNames>
   <calcPr calcId="0"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1337" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="1042">
   <si>
     <t>id</t>
   </si>
@@ -79,7 +80,7 @@
     <t>artist</t>
   </si>
   <si>
-    <t>EA 23.222 Patch 1</t>
+    <t>EA 23.229 Patch 4</t>
   </si>
   <si>
     <t>"You senseless bastard!"
@@ -145,7 +146,7 @@
   <si>
     <t xml:space="preserve"> *パタパタ*
  * ばさっばさっ*
- *ハタハタ*</t>
+*ハタハタ*</t>
   </si>
   <si>
     <t>"Aaah!"</t>
@@ -438,7 +439,7 @@
     <t>「うみみゃ」
 「みゅー」
 「みゃ」
- *ごろごろ*</t>
+*ごろごろ*</t>
   </si>
   <si>
     <t>「フシューッ」
@@ -2527,7 +2528,7 @@
     <t xml:space="preserve"> *ドスン*
 リトルシスター「見て#bigdaddy、天使がいるわ」
 リトルシスター「急いで#bigdaddy、空で天使が踊っているの！」
- *ドン*</t>
+*ドン*</t>
   </si>
   <si>
     <t>Little Sister: "Kill! Kill!"
@@ -2782,6 +2783,72 @@
 「もう苦しまなくていい」</t>
   </si>
   <si>
+    <t>keeper_garden</t>
+  </si>
+  <si>
+    <t>"How adorable."
+"Muwohoho."</t>
+  </si>
+  <si>
+    <t>「かわいいのう」
+「フホホホ」</t>
+  </si>
+  <si>
+    <t>"Muwohohoho! You dare challenge me!?"</t>
+  </si>
+  <si>
+    <t>「フホホホ！わっちに刃を向けるか！」</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+"Muwohohoho! Splendid!</t>
+  </si>
+  <si>
+    <t>「フホォホホホォ！天晴じゃ！」</t>
+  </si>
+  <si>
+    <t>"Muwohohoho, how weak you are!"</t>
+  </si>
+  <si>
+    <t>「フホホホホ、弱いのう！」</t>
+  </si>
+  <si>
+    <t>erishe</t>
+  </si>
+  <si>
+    <t>"I wonder where he went?"
+You feel a warmth as if being wrapped in gentle sunlight. "Come here, Vesel."
+"It feels like I could forget the passage of time."
+"We should hurry back."
+"We'll be late for the play."</t>
+  </si>
+  <si>
+    <t>「どこに行ってしまったのかしらね？」
+柔らかな陽だまりの中にいるような温かさをあなたは感じた。 
+「ふふ、おいで、ヴェセル」
+「時が経つのを忘れてしまいそうです」
+「早く帰らなきゃ」
+「お芝居に遅れてしまいます」</t>
+  </si>
+  <si>
+    <t>"P-please... stop."</t>
+  </si>
+  <si>
+    <t>「や…やめてください」</t>
+  </si>
+  <si>
+    <t>"B-brother..."</t>
+  </si>
+  <si>
+    <t>「にい…さん…」</t>
+  </si>
+  <si>
+    <t>"Sorry..."</t>
+  </si>
+  <si>
+    <t>「ごめんなさい…」</t>
+  </si>
+  <si>
     <t>larnneire</t>
   </si>
   <si>
@@ -2817,12 +2884,6 @@
     <t>「うぅ…誰かが…ジャビ王に風の異変を伝えなければ…このままでは…」</t>
   </si>
   <si>
-    <t>"Sorry..."</t>
-  </si>
-  <si>
-    <t>「ごめんなさい…」</t>
-  </si>
-  <si>
     <t>lomias</t>
   </si>
   <si>
@@ -2871,7 +2932,7 @@
   <si>
     <t>「あんな極上の女はそうはいねえ」
 「俺の手に掛かれば、どんな女もイチコロよ」
- *レロレロレロ*
+*レロレロレロ*
 「まったく罪な男に生まれちまったもんだ」</t>
   </si>
   <si>
@@ -4513,6 +4574,10 @@
     <t>"Tôi chẳng quan tâm đến con người nữa!"</t>
   </si>
   <si>
+    <t>"Địa ngục đang chờ ngươi."
+"Nhìn ngươi kìa."</t>
+  </si>
+  <si>
     <t>"Đoán là giờ anh tỉnh rượu rồi nhỉ?"</t>
   </si>
   <si>
@@ -4662,9 +4727,6 @@
   </si>
   <si>
     <t>“Lúc nào cũng có một kẻ mà ta chẳng bao giờ hiểu nổi.”</t>
-  </si>
-  <si>
-    <t>"Phì!"</t>
   </si>
   <si>
     <t>"Hãy chịu phán xét đi."
@@ -4707,8 +4769,34 @@
 “Hehe.”</t>
   </si>
   <si>
-    <t>"Địa ngục đang chờ ngươi."
-"Nhìn ngươi kìa."</t>
+    <t>"Dễ thương ghê."
+"Muwohoho."</t>
+  </si>
+  <si>
+    <t>"Muwohohoho! Ngươi dám chĩa lưỡi đao về phía ta sao!?"</t>
+  </si>
+  <si>
+    <t>"Muwohohoho! Tuyệt hảo!"</t>
+  </si>
+  <si>
+    <t>"Muwohohoho, ngươi quá yếu!"</t>
+  </si>
+  <si>
+    <t>"Tôi tự hỏi cậu ấy đã đi đâu mất rồi nhỉ?" 
+Bạn cảm thấy một hơi ấm, như thể đang được bao bọc trong ánh nắng dịu dàng. 
+"Fufu, lại đây nào, Vesel." 
+"Cứ như là tôi có thể quên mất cả thời gian đang trôi vậy." 
+"Chúng ta phải nhanh về thôi." 
+"Chúng ta sẽ bị trễ vở kịch mất."</t>
+  </si>
+  <si>
+    <t>"L-làm ơn… dừng"</t>
+  </si>
+  <si>
+    <t>"Xin lỗi..."</t>
+  </si>
+  <si>
+    <t>"A-anh..."</t>
   </si>
 </sst>
 </file>
@@ -5070,11 +5158,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:Q125"/>
+  <dimension ref="A1:Q127"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O126" sqref="O126"/>
+      <selection pane="bottomLeft" activeCell="O115" sqref="O115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5140,10 +5228,10 @@
         <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I3" t="s">
-        <v>847</v>
+        <v>863</v>
       </c>
       <c r="J3" t="s">
         <v>19</v>
@@ -5152,7 +5240,7 @@
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>903</v>
+        <v>919</v>
       </c>
       <c r="M3" t="s">
         <v>21</v>
@@ -5161,7 +5249,7 @@
         <v>22</v>
       </c>
       <c r="O3" t="s">
-        <v>967</v>
+        <v>983</v>
       </c>
       <c r="P3" t="s">
         <v>23</v>
@@ -5175,7 +5263,7 @@
         <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="C4" t="s">
         <v>26</v>
@@ -5210,7 +5298,7 @@
         <v>30</v>
       </c>
       <c r="B5" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C5" t="s">
         <v>31</v>
@@ -5222,7 +5310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>33</v>
       </c>
@@ -5247,8 +5335,8 @@
       <c r="N6" t="s">
         <v>37</v>
       </c>
-      <c r="O6" s="2" t="s">
-        <v>1018</v>
+      <c r="O6" t="s">
+        <v>984</v>
       </c>
       <c r="P6" t="s">
         <v>38</v>
@@ -5262,10 +5350,10 @@
         <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C7" t="s">
-        <v>755</v>
+        <v>771</v>
       </c>
       <c r="D7" t="s">
         <v>41</v>
@@ -5274,7 +5362,7 @@
         <v>42</v>
       </c>
       <c r="I7" t="s">
-        <v>848</v>
+        <v>864</v>
       </c>
       <c r="J7" t="s">
         <v>43</v>
@@ -5283,7 +5371,7 @@
         <v>44</v>
       </c>
       <c r="L7" t="s">
-        <v>904</v>
+        <v>920</v>
       </c>
       <c r="M7" t="s">
         <v>45</v>
@@ -5297,10 +5385,10 @@
         <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C8" t="s">
-        <v>756</v>
+        <v>772</v>
       </c>
       <c r="D8" t="s">
         <v>48</v>
@@ -5309,7 +5397,7 @@
         <v>49</v>
       </c>
       <c r="I8" t="s">
-        <v>849</v>
+        <v>865</v>
       </c>
       <c r="J8" t="s">
         <v>50</v>
@@ -5318,7 +5406,7 @@
         <v>51</v>
       </c>
       <c r="L8" t="s">
-        <v>905</v>
+        <v>921</v>
       </c>
       <c r="M8" t="s">
         <v>52</v>
@@ -5327,7 +5415,7 @@
         <v>53</v>
       </c>
       <c r="O8" t="s">
-        <v>968</v>
+        <v>985</v>
       </c>
       <c r="P8" t="s">
         <v>54</v>
@@ -5341,10 +5429,10 @@
         <v>56</v>
       </c>
       <c r="B9" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C9" t="s">
-        <v>757</v>
+        <v>773</v>
       </c>
       <c r="D9" t="s">
         <v>57</v>
@@ -5353,7 +5441,7 @@
         <v>58</v>
       </c>
       <c r="I9" t="s">
-        <v>850</v>
+        <v>866</v>
       </c>
       <c r="J9" t="s">
         <v>59</v>
@@ -5362,7 +5450,7 @@
         <v>60</v>
       </c>
       <c r="L9" t="s">
-        <v>906</v>
+        <v>922</v>
       </c>
       <c r="M9" t="s">
         <v>61</v>
@@ -5371,7 +5459,7 @@
         <v>62</v>
       </c>
       <c r="O9" t="s">
-        <v>969</v>
+        <v>986</v>
       </c>
       <c r="P9" t="s">
         <v>63</v>
@@ -5385,10 +5473,10 @@
         <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C10" t="s">
-        <v>758</v>
+        <v>774</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
@@ -5397,19 +5485,19 @@
         <v>67</v>
       </c>
       <c r="I10" t="s">
-        <v>851</v>
+        <v>867</v>
       </c>
       <c r="K10" t="s">
         <v>68</v>
       </c>
       <c r="L10" t="s">
-        <v>907</v>
+        <v>923</v>
       </c>
       <c r="N10" t="s">
         <v>69</v>
       </c>
       <c r="O10" t="s">
-        <v>970</v>
+        <v>987</v>
       </c>
       <c r="Q10" t="s">
         <v>70</v>
@@ -5420,10 +5508,10 @@
         <v>71</v>
       </c>
       <c r="B11" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C11" t="s">
-        <v>759</v>
+        <v>775</v>
       </c>
       <c r="D11" t="s">
         <v>72</v>
@@ -5450,7 +5538,7 @@
         <v>77</v>
       </c>
       <c r="O11" t="s">
-        <v>971</v>
+        <v>988</v>
       </c>
       <c r="P11" t="s">
         <v>78</v>
@@ -5464,10 +5552,10 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>726</v>
+        <v>742</v>
       </c>
       <c r="C12" t="s">
-        <v>760</v>
+        <v>776</v>
       </c>
       <c r="D12" t="s">
         <v>81</v>
@@ -5476,7 +5564,7 @@
         <v>82</v>
       </c>
       <c r="I12" t="s">
-        <v>852</v>
+        <v>868</v>
       </c>
       <c r="J12" t="s">
         <v>83</v>
@@ -5485,7 +5573,7 @@
         <v>84</v>
       </c>
       <c r="L12" t="s">
-        <v>908</v>
+        <v>924</v>
       </c>
       <c r="M12" t="s">
         <v>85</v>
@@ -5494,7 +5582,7 @@
         <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>972</v>
+        <v>989</v>
       </c>
       <c r="P12" t="s">
         <v>87</v>
@@ -5508,10 +5596,10 @@
         <v>89</v>
       </c>
       <c r="B13" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C13" t="s">
-        <v>761</v>
+        <v>777</v>
       </c>
       <c r="D13" t="s">
         <v>90</v>
@@ -5526,7 +5614,7 @@
         <v>92</v>
       </c>
       <c r="L13" t="s">
-        <v>909</v>
+        <v>925</v>
       </c>
       <c r="M13" t="s">
         <v>93</v>
@@ -5543,7 +5631,7 @@
         <v>18</v>
       </c>
       <c r="C14" t="s">
-        <v>762</v>
+        <v>778</v>
       </c>
       <c r="D14" t="s">
         <v>96</v>
@@ -5570,7 +5658,7 @@
         <v>99</v>
       </c>
       <c r="O14" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="P14" t="s">
         <v>78</v>
@@ -5584,10 +5672,10 @@
         <v>101</v>
       </c>
       <c r="B15" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C15" t="s">
-        <v>763</v>
+        <v>779</v>
       </c>
       <c r="D15" t="s">
         <v>102</v>
@@ -5619,10 +5707,10 @@
         <v>105</v>
       </c>
       <c r="B16" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="I16" t="s">
-        <v>853</v>
+        <v>869</v>
       </c>
       <c r="J16" t="s">
         <v>106</v>
@@ -5631,7 +5719,7 @@
         <v>107</v>
       </c>
       <c r="L16" t="s">
-        <v>910</v>
+        <v>926</v>
       </c>
       <c r="M16" t="s">
         <v>108</v>
@@ -5640,7 +5728,7 @@
         <v>109</v>
       </c>
       <c r="O16" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="P16" t="s">
         <v>110</v>
@@ -5654,7 +5742,7 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>729</v>
+        <v>745</v>
       </c>
       <c r="C17" t="s">
         <v>113</v>
@@ -5698,10 +5786,10 @@
         <v>115</v>
       </c>
       <c r="B18" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I18" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="J18" t="s">
         <v>116</v>
@@ -5710,7 +5798,7 @@
         <v>117</v>
       </c>
       <c r="L18" t="s">
-        <v>911</v>
+        <v>927</v>
       </c>
       <c r="M18" t="s">
         <v>118</v>
@@ -5719,7 +5807,7 @@
         <v>119</v>
       </c>
       <c r="O18" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
       <c r="P18" t="s">
         <v>120</v>
@@ -5733,10 +5821,10 @@
         <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="I19" t="s">
-        <v>854</v>
+        <v>870</v>
       </c>
       <c r="J19" t="s">
         <v>116</v>
@@ -5745,7 +5833,7 @@
         <v>117</v>
       </c>
       <c r="L19" t="s">
-        <v>912</v>
+        <v>928</v>
       </c>
       <c r="M19" t="s">
         <v>123</v>
@@ -5754,7 +5842,7 @@
         <v>124</v>
       </c>
       <c r="O19" t="s">
-        <v>976</v>
+        <v>993</v>
       </c>
       <c r="P19" t="s">
         <v>125</v>
@@ -5768,10 +5856,10 @@
         <v>127</v>
       </c>
       <c r="B20" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C20" t="s">
-        <v>764</v>
+        <v>780</v>
       </c>
       <c r="D20" t="s">
         <v>128</v>
@@ -5780,7 +5868,7 @@
         <v>129</v>
       </c>
       <c r="I20" t="s">
-        <v>855</v>
+        <v>871</v>
       </c>
       <c r="J20" t="s">
         <v>130</v>
@@ -5789,7 +5877,7 @@
         <v>131</v>
       </c>
       <c r="L20" t="s">
-        <v>913</v>
+        <v>929</v>
       </c>
       <c r="M20" t="s">
         <v>132</v>
@@ -5812,10 +5900,10 @@
         <v>136</v>
       </c>
       <c r="B21" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I21" t="s">
-        <v>856</v>
+        <v>872</v>
       </c>
       <c r="J21" t="s">
         <v>137</v>
@@ -5824,7 +5912,7 @@
         <v>138</v>
       </c>
       <c r="L21" t="s">
-        <v>914</v>
+        <v>930</v>
       </c>
       <c r="M21" t="s">
         <v>139</v>
@@ -5833,7 +5921,7 @@
         <v>140</v>
       </c>
       <c r="O21" t="s">
-        <v>977</v>
+        <v>994</v>
       </c>
       <c r="P21" t="s">
         <v>141</v>
@@ -5847,10 +5935,10 @@
         <v>143</v>
       </c>
       <c r="B22" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I22" t="s">
-        <v>857</v>
+        <v>873</v>
       </c>
       <c r="J22" t="s">
         <v>144</v>
@@ -5859,7 +5947,7 @@
         <v>145</v>
       </c>
       <c r="L22" t="s">
-        <v>915</v>
+        <v>931</v>
       </c>
       <c r="M22" t="s">
         <v>146</v>
@@ -5868,7 +5956,7 @@
         <v>147</v>
       </c>
       <c r="O22" t="s">
-        <v>978</v>
+        <v>995</v>
       </c>
       <c r="P22" t="s">
         <v>148</v>
@@ -5882,10 +5970,10 @@
         <v>150</v>
       </c>
       <c r="B23" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C23" t="s">
-        <v>765</v>
+        <v>781</v>
       </c>
       <c r="D23" t="s">
         <v>151</v>
@@ -5899,10 +5987,10 @@
         <v>153</v>
       </c>
       <c r="B24" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C24" t="s">
-        <v>766</v>
+        <v>782</v>
       </c>
       <c r="D24" t="s">
         <v>154</v>
@@ -5920,7 +6008,7 @@
         <v>157</v>
       </c>
       <c r="L24" t="s">
-        <v>916</v>
+        <v>932</v>
       </c>
       <c r="M24" t="s">
         <v>158</v>
@@ -5943,10 +6031,10 @@
         <v>162</v>
       </c>
       <c r="B25" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I25" t="s">
-        <v>858</v>
+        <v>874</v>
       </c>
       <c r="J25" t="s">
         <v>163</v>
@@ -5969,10 +6057,10 @@
         <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C26" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="D26" t="s">
         <v>167</v>
@@ -5981,7 +6069,7 @@
         <v>168</v>
       </c>
       <c r="I26" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="J26" t="s">
         <v>167</v>
@@ -5995,10 +6083,10 @@
         <v>169</v>
       </c>
       <c r="B27" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="C27" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="D27" t="s">
         <v>170</v>
@@ -6007,7 +6095,7 @@
         <v>171</v>
       </c>
       <c r="F27" t="s">
-        <v>768</v>
+        <v>784</v>
       </c>
       <c r="G27" t="s">
         <v>170</v>
@@ -6021,10 +6109,10 @@
         <v>172</v>
       </c>
       <c r="B28" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C28" t="s">
-        <v>769</v>
+        <v>785</v>
       </c>
       <c r="D28" t="s">
         <v>173</v>
@@ -6033,7 +6121,7 @@
         <v>174</v>
       </c>
       <c r="L28" t="s">
-        <v>917</v>
+        <v>933</v>
       </c>
       <c r="M28" t="s">
         <v>175</v>
@@ -6042,7 +6130,7 @@
         <v>176</v>
       </c>
       <c r="O28" t="s">
-        <v>979</v>
+        <v>996</v>
       </c>
       <c r="P28" t="s">
         <v>177</v>
@@ -6056,10 +6144,10 @@
         <v>179</v>
       </c>
       <c r="B29" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I29" t="s">
-        <v>859</v>
+        <v>875</v>
       </c>
       <c r="J29" t="s">
         <v>180</v>
@@ -6068,7 +6156,7 @@
         <v>181</v>
       </c>
       <c r="L29" t="s">
-        <v>918</v>
+        <v>934</v>
       </c>
       <c r="M29" t="s">
         <v>182</v>
@@ -6091,10 +6179,10 @@
         <v>186</v>
       </c>
       <c r="B30" t="s">
-        <v>732</v>
+        <v>748</v>
       </c>
       <c r="C30" t="s">
-        <v>770</v>
+        <v>786</v>
       </c>
       <c r="D30" t="s">
         <v>187</v>
@@ -6103,7 +6191,7 @@
         <v>188</v>
       </c>
       <c r="I30" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="J30" t="s">
         <v>189</v>
@@ -6112,7 +6200,7 @@
         <v>190</v>
       </c>
       <c r="L30" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="M30" t="s">
         <v>191</v>
@@ -6121,7 +6209,7 @@
         <v>192</v>
       </c>
       <c r="O30" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="P30" t="s">
         <v>193</v>
@@ -6135,10 +6223,10 @@
         <v>195</v>
       </c>
       <c r="B31" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C31" t="s">
-        <v>771</v>
+        <v>787</v>
       </c>
       <c r="D31" t="s">
         <v>196</v>
@@ -6147,7 +6235,7 @@
         <v>197</v>
       </c>
       <c r="I31" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="J31" t="s">
         <v>189</v>
@@ -6156,7 +6244,7 @@
         <v>190</v>
       </c>
       <c r="L31" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="M31" t="s">
         <v>191</v>
@@ -6165,7 +6253,7 @@
         <v>192</v>
       </c>
       <c r="O31" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="P31" t="s">
         <v>193</v>
@@ -6179,10 +6267,10 @@
         <v>198</v>
       </c>
       <c r="B32" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C32" t="s">
-        <v>772</v>
+        <v>788</v>
       </c>
       <c r="D32" t="s">
         <v>199</v>
@@ -6191,7 +6279,7 @@
         <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>860</v>
+        <v>876</v>
       </c>
       <c r="J32" t="s">
         <v>189</v>
@@ -6200,7 +6288,7 @@
         <v>190</v>
       </c>
       <c r="L32" t="s">
-        <v>919</v>
+        <v>935</v>
       </c>
       <c r="M32" t="s">
         <v>191</v>
@@ -6209,7 +6297,7 @@
         <v>192</v>
       </c>
       <c r="O32" t="s">
-        <v>980</v>
+        <v>997</v>
       </c>
       <c r="P32" t="s">
         <v>193</v>
@@ -6223,10 +6311,10 @@
         <v>201</v>
       </c>
       <c r="B33" t="s">
-        <v>733</v>
+        <v>749</v>
       </c>
       <c r="C33" t="s">
-        <v>773</v>
+        <v>789</v>
       </c>
       <c r="D33" t="s">
         <v>202</v>
@@ -6235,7 +6323,7 @@
         <v>203</v>
       </c>
       <c r="I33" t="s">
-        <v>861</v>
+        <v>877</v>
       </c>
       <c r="J33" t="s">
         <v>204</v>
@@ -6244,7 +6332,7 @@
         <v>205</v>
       </c>
       <c r="L33" t="s">
-        <v>920</v>
+        <v>936</v>
       </c>
       <c r="M33" t="s">
         <v>206</v>
@@ -6253,7 +6341,7 @@
         <v>207</v>
       </c>
       <c r="O33" t="s">
-        <v>981</v>
+        <v>998</v>
       </c>
       <c r="P33" t="s">
         <v>208</v>
@@ -6267,10 +6355,10 @@
         <v>210</v>
       </c>
       <c r="B34" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C34" t="s">
-        <v>774</v>
+        <v>790</v>
       </c>
       <c r="D34" t="s">
         <v>211</v>
@@ -6279,7 +6367,7 @@
         <v>212</v>
       </c>
       <c r="I34" t="s">
-        <v>862</v>
+        <v>878</v>
       </c>
       <c r="J34" t="s">
         <v>213</v>
@@ -6288,7 +6376,7 @@
         <v>214</v>
       </c>
       <c r="L34" t="s">
-        <v>921</v>
+        <v>937</v>
       </c>
       <c r="M34" t="s">
         <v>215</v>
@@ -6308,10 +6396,10 @@
         <v>219</v>
       </c>
       <c r="B35" t="s">
-        <v>723</v>
+        <v>739</v>
       </c>
       <c r="L35" t="s">
-        <v>922</v>
+        <v>938</v>
       </c>
       <c r="M35" t="s">
         <v>220</v>
@@ -6320,7 +6408,7 @@
         <v>221</v>
       </c>
       <c r="O35" t="s">
-        <v>982</v>
+        <v>999</v>
       </c>
       <c r="P35" t="s">
         <v>222</v>
@@ -6334,10 +6422,10 @@
         <v>224</v>
       </c>
       <c r="B36" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I36" t="s">
-        <v>863</v>
+        <v>879</v>
       </c>
       <c r="J36" t="s">
         <v>225</v>
@@ -6346,7 +6434,7 @@
         <v>226</v>
       </c>
       <c r="L36" t="s">
-        <v>923</v>
+        <v>939</v>
       </c>
       <c r="M36" t="s">
         <v>227</v>
@@ -6355,7 +6443,7 @@
         <v>228</v>
       </c>
       <c r="O36" t="s">
-        <v>983</v>
+        <v>1000</v>
       </c>
       <c r="P36" t="s">
         <v>229</v>
@@ -6369,10 +6457,10 @@
         <v>231</v>
       </c>
       <c r="B37" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F37" t="s">
-        <v>835</v>
+        <v>851</v>
       </c>
       <c r="G37" t="s">
         <v>232</v>
@@ -6381,7 +6469,7 @@
         <v>233</v>
       </c>
       <c r="I37" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="J37" t="s">
         <v>234</v>
@@ -6390,7 +6478,7 @@
         <v>235</v>
       </c>
       <c r="L37" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="M37" t="s">
         <v>236</v>
@@ -6399,7 +6487,7 @@
         <v>237</v>
       </c>
       <c r="O37" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
       <c r="P37" t="s">
         <v>238</v>
@@ -6413,10 +6501,10 @@
         <v>240</v>
       </c>
       <c r="B38" t="s">
-        <v>734</v>
+        <v>750</v>
       </c>
       <c r="C38" t="s">
-        <v>775</v>
+        <v>791</v>
       </c>
       <c r="D38" t="s">
         <v>241</v>
@@ -6466,10 +6554,10 @@
         <v>244</v>
       </c>
       <c r="B39" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="C39" t="s">
-        <v>776</v>
+        <v>792</v>
       </c>
       <c r="D39" t="s">
         <v>245</v>
@@ -6478,7 +6566,7 @@
         <v>246</v>
       </c>
       <c r="F39" t="s">
-        <v>836</v>
+        <v>852</v>
       </c>
       <c r="G39" t="s">
         <v>247</v>
@@ -6487,7 +6575,7 @@
         <v>248</v>
       </c>
       <c r="I39" t="s">
-        <v>864</v>
+        <v>880</v>
       </c>
       <c r="J39" t="s">
         <v>234</v>
@@ -6496,7 +6584,7 @@
         <v>235</v>
       </c>
       <c r="L39" t="s">
-        <v>924</v>
+        <v>940</v>
       </c>
       <c r="M39" t="s">
         <v>236</v>
@@ -6505,7 +6593,7 @@
         <v>237</v>
       </c>
       <c r="O39" t="s">
-        <v>984</v>
+        <v>1001</v>
       </c>
       <c r="P39" t="s">
         <v>238</v>
@@ -6519,10 +6607,10 @@
         <v>249</v>
       </c>
       <c r="B40" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C40" t="s">
-        <v>777</v>
+        <v>793</v>
       </c>
       <c r="D40" t="s">
         <v>250</v>
@@ -6536,7 +6624,7 @@
         <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
     </row>
     <row r="42" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -6544,10 +6632,10 @@
         <v>253</v>
       </c>
       <c r="B42" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C42" t="s">
-        <v>778</v>
+        <v>794</v>
       </c>
       <c r="D42" t="s">
         <v>254</v>
@@ -6556,7 +6644,7 @@
         <v>255</v>
       </c>
       <c r="I42" t="s">
-        <v>865</v>
+        <v>881</v>
       </c>
       <c r="J42" t="s">
         <v>256</v>
@@ -6565,7 +6653,7 @@
         <v>257</v>
       </c>
       <c r="L42" t="s">
-        <v>925</v>
+        <v>941</v>
       </c>
       <c r="M42" t="s">
         <v>258</v>
@@ -6574,7 +6662,7 @@
         <v>259</v>
       </c>
       <c r="O42" t="s">
-        <v>985</v>
+        <v>1002</v>
       </c>
       <c r="P42" t="s">
         <v>260</v>
@@ -6588,10 +6676,10 @@
         <v>262</v>
       </c>
       <c r="B43" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C43" t="s">
-        <v>779</v>
+        <v>795</v>
       </c>
       <c r="D43" t="s">
         <v>263</v>
@@ -6600,7 +6688,7 @@
         <v>264</v>
       </c>
       <c r="I43" t="s">
-        <v>866</v>
+        <v>882</v>
       </c>
       <c r="J43" t="s">
         <v>265</v>
@@ -6609,7 +6697,7 @@
         <v>266</v>
       </c>
       <c r="L43" t="s">
-        <v>926</v>
+        <v>942</v>
       </c>
       <c r="M43" t="s">
         <v>267</v>
@@ -6618,7 +6706,7 @@
         <v>268</v>
       </c>
       <c r="O43" t="s">
-        <v>986</v>
+        <v>1003</v>
       </c>
       <c r="P43" t="s">
         <v>269</v>
@@ -6632,10 +6720,10 @@
         <v>271</v>
       </c>
       <c r="B44" t="s">
-        <v>736</v>
+        <v>752</v>
       </c>
       <c r="I44" t="s">
-        <v>867</v>
+        <v>883</v>
       </c>
       <c r="J44" t="s">
         <v>272</v>
@@ -6644,7 +6732,7 @@
         <v>273</v>
       </c>
       <c r="L44" t="s">
-        <v>927</v>
+        <v>943</v>
       </c>
       <c r="M44" t="s">
         <v>274</v>
@@ -6653,7 +6741,7 @@
         <v>275</v>
       </c>
       <c r="O44" t="s">
-        <v>987</v>
+        <v>1004</v>
       </c>
       <c r="Q44" t="s">
         <v>276</v>
@@ -6664,10 +6752,10 @@
         <v>277</v>
       </c>
       <c r="B45" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="I45" t="s">
-        <v>868</v>
+        <v>884</v>
       </c>
       <c r="J45" t="s">
         <v>278</v>
@@ -6676,7 +6764,7 @@
         <v>279</v>
       </c>
       <c r="L45" t="s">
-        <v>928</v>
+        <v>944</v>
       </c>
       <c r="M45" t="s">
         <v>280</v>
@@ -6699,10 +6787,10 @@
         <v>284</v>
       </c>
       <c r="B46" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="L46" t="s">
-        <v>929</v>
+        <v>945</v>
       </c>
       <c r="M46" t="s">
         <v>285</v>
@@ -6711,7 +6799,7 @@
         <v>286</v>
       </c>
       <c r="O46" t="s">
-        <v>988</v>
+        <v>1005</v>
       </c>
       <c r="P46" t="s">
         <v>287</v>
@@ -6725,7 +6813,7 @@
         <v>289</v>
       </c>
       <c r="B47" t="s">
-        <v>728</v>
+        <v>744</v>
       </c>
       <c r="C47" t="s">
         <v>290</v>
@@ -6737,7 +6825,7 @@
         <v>291</v>
       </c>
       <c r="L47" t="s">
-        <v>930</v>
+        <v>946</v>
       </c>
       <c r="M47" t="s">
         <v>292</v>
@@ -6746,7 +6834,7 @@
         <v>293</v>
       </c>
       <c r="O47" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="P47" t="s">
         <v>294</v>
@@ -6760,10 +6848,10 @@
         <v>296</v>
       </c>
       <c r="B48" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C48" t="s">
-        <v>780</v>
+        <v>796</v>
       </c>
       <c r="D48" t="s">
         <v>297</v>
@@ -6772,7 +6860,7 @@
         <v>298</v>
       </c>
       <c r="I48" t="s">
-        <v>869</v>
+        <v>885</v>
       </c>
       <c r="J48" t="s">
         <v>299</v>
@@ -6781,7 +6869,7 @@
         <v>300</v>
       </c>
       <c r="L48" t="s">
-        <v>931</v>
+        <v>947</v>
       </c>
       <c r="M48" t="s">
         <v>301</v>
@@ -6790,7 +6878,7 @@
         <v>302</v>
       </c>
       <c r="O48" t="s">
-        <v>989</v>
+        <v>1006</v>
       </c>
       <c r="P48" t="s">
         <v>294</v>
@@ -6804,10 +6892,10 @@
         <v>303</v>
       </c>
       <c r="B49" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C49" t="s">
-        <v>781</v>
+        <v>797</v>
       </c>
       <c r="D49" t="s">
         <v>304</v>
@@ -6816,7 +6904,7 @@
         <v>305</v>
       </c>
       <c r="I49" t="s">
-        <v>870</v>
+        <v>886</v>
       </c>
       <c r="J49" t="s">
         <v>306</v>
@@ -6825,7 +6913,7 @@
         <v>307</v>
       </c>
       <c r="L49" t="s">
-        <v>932</v>
+        <v>948</v>
       </c>
       <c r="M49" t="s">
         <v>308</v>
@@ -6834,7 +6922,7 @@
         <v>309</v>
       </c>
       <c r="O49" t="s">
-        <v>990</v>
+        <v>1007</v>
       </c>
       <c r="P49" t="s">
         <v>310</v>
@@ -6848,10 +6936,10 @@
         <v>312</v>
       </c>
       <c r="B50" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C50" t="s">
-        <v>782</v>
+        <v>798</v>
       </c>
       <c r="D50" t="s">
         <v>313</v>
@@ -6860,7 +6948,7 @@
         <v>314</v>
       </c>
       <c r="I50" t="s">
-        <v>871</v>
+        <v>887</v>
       </c>
       <c r="J50" t="s">
         <v>315</v>
@@ -6869,7 +6957,7 @@
         <v>316</v>
       </c>
       <c r="L50" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="M50" t="s">
         <v>317</v>
@@ -6878,7 +6966,7 @@
         <v>318</v>
       </c>
       <c r="O50" t="s">
-        <v>933</v>
+        <v>949</v>
       </c>
       <c r="P50" t="s">
         <v>317</v>
@@ -6892,10 +6980,10 @@
         <v>319</v>
       </c>
       <c r="B51" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I51" t="s">
-        <v>872</v>
+        <v>888</v>
       </c>
       <c r="J51" t="s">
         <v>320</v>
@@ -6904,7 +6992,7 @@
         <v>321</v>
       </c>
       <c r="L51" t="s">
-        <v>934</v>
+        <v>950</v>
       </c>
       <c r="M51" t="s">
         <v>322</v>
@@ -6913,7 +7001,7 @@
         <v>323</v>
       </c>
       <c r="O51" t="s">
-        <v>991</v>
+        <v>1008</v>
       </c>
       <c r="P51" t="s">
         <v>324</v>
@@ -6927,10 +7015,10 @@
         <v>326</v>
       </c>
       <c r="B52" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C52" t="s">
-        <v>783</v>
+        <v>799</v>
       </c>
       <c r="D52" t="s">
         <v>327</v>
@@ -6971,10 +7059,10 @@
         <v>330</v>
       </c>
       <c r="B53" t="s">
-        <v>738</v>
+        <v>754</v>
       </c>
       <c r="C53" t="s">
-        <v>784</v>
+        <v>800</v>
       </c>
       <c r="D53" t="s">
         <v>331</v>
@@ -7015,10 +7103,10 @@
         <v>333</v>
       </c>
       <c r="B54" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C54" t="s">
-        <v>785</v>
+        <v>801</v>
       </c>
       <c r="D54" t="s">
         <v>334</v>
@@ -7059,10 +7147,10 @@
         <v>336</v>
       </c>
       <c r="B55" t="s">
-        <v>737</v>
+        <v>753</v>
       </c>
       <c r="C55" t="s">
-        <v>786</v>
+        <v>802</v>
       </c>
       <c r="D55" t="s">
         <v>337</v>
@@ -7103,10 +7191,10 @@
         <v>339</v>
       </c>
       <c r="B56" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C56" t="s">
-        <v>787</v>
+        <v>803</v>
       </c>
       <c r="D56" t="s">
         <v>340</v>
@@ -7115,7 +7203,7 @@
         <v>341</v>
       </c>
       <c r="I56" t="s">
-        <v>873</v>
+        <v>889</v>
       </c>
       <c r="J56" t="s">
         <v>342</v>
@@ -7133,7 +7221,7 @@
         <v>345</v>
       </c>
       <c r="O56" t="s">
-        <v>992</v>
+        <v>1009</v>
       </c>
       <c r="P56" t="s">
         <v>346</v>
@@ -7147,10 +7235,10 @@
         <v>348</v>
       </c>
       <c r="B57" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="I57" t="s">
-        <v>874</v>
+        <v>890</v>
       </c>
       <c r="J57" t="s">
         <v>349</v>
@@ -7159,7 +7247,7 @@
         <v>350</v>
       </c>
       <c r="L57" t="s">
-        <v>935</v>
+        <v>951</v>
       </c>
       <c r="M57" t="s">
         <v>351</v>
@@ -7168,7 +7256,7 @@
         <v>352</v>
       </c>
       <c r="O57" t="s">
-        <v>993</v>
+        <v>1010</v>
       </c>
       <c r="P57" t="s">
         <v>353</v>
@@ -7182,10 +7270,10 @@
         <v>355</v>
       </c>
       <c r="B58" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C58" t="s">
-        <v>788</v>
+        <v>804</v>
       </c>
       <c r="D58" t="s">
         <v>356</v>
@@ -7226,10 +7314,10 @@
         <v>358</v>
       </c>
       <c r="B59" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C59" t="s">
-        <v>789</v>
+        <v>805</v>
       </c>
       <c r="D59" t="s">
         <v>359</v>
@@ -7238,7 +7326,7 @@
         <v>360</v>
       </c>
       <c r="F59" t="s">
-        <v>837</v>
+        <v>853</v>
       </c>
       <c r="G59" t="s">
         <v>361</v>
@@ -7279,10 +7367,10 @@
         <v>363</v>
       </c>
       <c r="B60" t="s">
-        <v>739</v>
+        <v>755</v>
       </c>
       <c r="C60" t="s">
-        <v>790</v>
+        <v>806</v>
       </c>
       <c r="D60" t="s">
         <v>364</v>
@@ -7305,10 +7393,10 @@
         <v>366</v>
       </c>
       <c r="B61" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F61" t="s">
-        <v>838</v>
+        <v>854</v>
       </c>
       <c r="G61" t="s">
         <v>367</v>
@@ -7349,7 +7437,7 @@
         <v>370</v>
       </c>
       <c r="B62" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C62" t="s">
         <v>371</v>
@@ -7361,7 +7449,7 @@
         <v>372</v>
       </c>
       <c r="F62" t="s">
-        <v>839</v>
+        <v>855</v>
       </c>
       <c r="G62" t="s">
         <v>373</v>
@@ -7402,7 +7490,7 @@
         <v>375</v>
       </c>
       <c r="B63" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F63" t="s">
         <v>376</v>
@@ -7446,10 +7534,10 @@
         <v>379</v>
       </c>
       <c r="B64" t="s">
-        <v>740</v>
+        <v>756</v>
       </c>
       <c r="C64" t="s">
-        <v>791</v>
+        <v>807</v>
       </c>
       <c r="D64" t="s">
         <v>380</v>
@@ -7458,7 +7546,7 @@
         <v>381</v>
       </c>
       <c r="I64" t="s">
-        <v>875</v>
+        <v>891</v>
       </c>
       <c r="J64" t="s">
         <v>382</v>
@@ -7467,7 +7555,7 @@
         <v>383</v>
       </c>
       <c r="L64" t="s">
-        <v>936</v>
+        <v>952</v>
       </c>
       <c r="M64" t="s">
         <v>384</v>
@@ -7476,7 +7564,7 @@
         <v>385</v>
       </c>
       <c r="O64" t="s">
-        <v>994</v>
+        <v>1011</v>
       </c>
       <c r="P64" t="s">
         <v>386</v>
@@ -7490,10 +7578,10 @@
         <v>388</v>
       </c>
       <c r="B65" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C65" t="s">
-        <v>792</v>
+        <v>808</v>
       </c>
       <c r="D65" t="s">
         <v>389</v>
@@ -7502,7 +7590,7 @@
         <v>390</v>
       </c>
       <c r="I65" t="s">
-        <v>876</v>
+        <v>892</v>
       </c>
       <c r="J65" t="s">
         <v>391</v>
@@ -7511,7 +7599,7 @@
         <v>392</v>
       </c>
       <c r="L65" t="s">
-        <v>937</v>
+        <v>953</v>
       </c>
       <c r="M65" t="s">
         <v>393</v>
@@ -7520,7 +7608,7 @@
         <v>394</v>
       </c>
       <c r="O65" t="s">
-        <v>995</v>
+        <v>1012</v>
       </c>
       <c r="P65" t="s">
         <v>395</v>
@@ -7534,10 +7622,10 @@
         <v>397</v>
       </c>
       <c r="B66" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C66" t="s">
-        <v>793</v>
+        <v>809</v>
       </c>
       <c r="D66" t="s">
         <v>398</v>
@@ -7546,7 +7634,7 @@
         <v>399</v>
       </c>
       <c r="I66" t="s">
-        <v>877</v>
+        <v>893</v>
       </c>
       <c r="J66" t="s">
         <v>400</v>
@@ -7564,7 +7652,7 @@
         <v>403</v>
       </c>
       <c r="O66" t="s">
-        <v>996</v>
+        <v>1013</v>
       </c>
       <c r="P66" t="s">
         <v>404</v>
@@ -7578,10 +7666,10 @@
         <v>406</v>
       </c>
       <c r="B67" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F67" t="s">
-        <v>840</v>
+        <v>856</v>
       </c>
       <c r="G67" t="s">
         <v>407</v>
@@ -7595,10 +7683,10 @@
         <v>409</v>
       </c>
       <c r="B68" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F68" t="s">
-        <v>841</v>
+        <v>857</v>
       </c>
       <c r="G68" t="s">
         <v>410</v>
@@ -7639,10 +7727,10 @@
         <v>412</v>
       </c>
       <c r="B69" t="s">
-        <v>741</v>
+        <v>757</v>
       </c>
       <c r="C69" t="s">
-        <v>794</v>
+        <v>810</v>
       </c>
       <c r="D69" t="s">
         <v>413</v>
@@ -7651,7 +7739,7 @@
         <v>414</v>
       </c>
       <c r="I69" t="s">
-        <v>878</v>
+        <v>894</v>
       </c>
       <c r="J69" t="s">
         <v>415</v>
@@ -7660,7 +7748,7 @@
         <v>416</v>
       </c>
       <c r="L69" t="s">
-        <v>938</v>
+        <v>954</v>
       </c>
       <c r="M69" t="s">
         <v>417</v>
@@ -7669,7 +7757,7 @@
         <v>418</v>
       </c>
       <c r="O69" t="s">
-        <v>997</v>
+        <v>1014</v>
       </c>
       <c r="P69" t="s">
         <v>419</v>
@@ -7683,10 +7771,10 @@
         <v>421</v>
       </c>
       <c r="B70" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C70" t="s">
-        <v>795</v>
+        <v>811</v>
       </c>
       <c r="D70" t="s">
         <v>422</v>
@@ -7700,10 +7788,10 @@
         <v>424</v>
       </c>
       <c r="B71" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C71" t="s">
-        <v>796</v>
+        <v>812</v>
       </c>
       <c r="D71" t="s">
         <v>425</v>
@@ -7717,10 +7805,10 @@
         <v>427</v>
       </c>
       <c r="B72" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C72" t="s">
-        <v>797</v>
+        <v>813</v>
       </c>
       <c r="D72" t="s">
         <v>428</v>
@@ -7734,10 +7822,10 @@
         <v>430</v>
       </c>
       <c r="B73" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C73" t="s">
-        <v>798</v>
+        <v>814</v>
       </c>
       <c r="D73" t="s">
         <v>431</v>
@@ -7751,16 +7839,16 @@
         <v>433</v>
       </c>
       <c r="B74" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C74" t="s">
-        <v>799</v>
+        <v>815</v>
       </c>
       <c r="E74" t="s">
         <v>434</v>
       </c>
       <c r="I74" t="s">
-        <v>879</v>
+        <v>895</v>
       </c>
       <c r="K74" t="s">
         <v>435</v>
@@ -7771,7 +7859,7 @@
         <v>436</v>
       </c>
       <c r="B75" t="s">
-        <v>742</v>
+        <v>758</v>
       </c>
       <c r="C75" t="s">
         <v>437</v>
@@ -7815,16 +7903,16 @@
         <v>445</v>
       </c>
       <c r="B76" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C76" t="s">
-        <v>800</v>
+        <v>816</v>
       </c>
       <c r="E76" t="s">
         <v>446</v>
       </c>
       <c r="I76" t="s">
-        <v>880</v>
+        <v>896</v>
       </c>
       <c r="K76" t="s">
         <v>447</v>
@@ -7835,22 +7923,22 @@
         <v>448</v>
       </c>
       <c r="B77" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C77" t="s">
-        <v>801</v>
+        <v>817</v>
       </c>
       <c r="E77" t="s">
         <v>449</v>
       </c>
       <c r="I77" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="K77" t="s">
         <v>450</v>
       </c>
       <c r="L77" t="s">
-        <v>939</v>
+        <v>955</v>
       </c>
       <c r="N77" t="s">
         <v>451</v>
@@ -7870,10 +7958,10 @@
         <v>454</v>
       </c>
       <c r="B78" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="C78" t="s">
-        <v>802</v>
+        <v>818</v>
       </c>
       <c r="D78" t="s">
         <v>455</v>
@@ -7882,13 +7970,13 @@
         <v>456</v>
       </c>
       <c r="I78" t="s">
-        <v>881</v>
+        <v>897</v>
       </c>
       <c r="K78" t="s">
         <v>450</v>
       </c>
       <c r="L78" t="s">
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="N78" t="s">
         <v>457</v>
@@ -7908,7 +7996,7 @@
         <v>459</v>
       </c>
       <c r="B79" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="L79" t="s">
         <v>460</v>
@@ -7925,10 +8013,10 @@
         <v>462</v>
       </c>
       <c r="B80" t="s">
-        <v>730</v>
+        <v>746</v>
       </c>
       <c r="C80" t="s">
-        <v>767</v>
+        <v>783</v>
       </c>
       <c r="D80" t="s">
         <v>167</v>
@@ -7937,7 +8025,7 @@
         <v>168</v>
       </c>
       <c r="I80" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="J80" t="s">
         <v>463</v>
@@ -7946,7 +8034,7 @@
         <v>464</v>
       </c>
       <c r="L80" t="s">
-        <v>941</v>
+        <v>957</v>
       </c>
       <c r="M80" t="s">
         <v>465</v>
@@ -7955,7 +8043,7 @@
         <v>466</v>
       </c>
       <c r="O80" t="s">
-        <v>882</v>
+        <v>898</v>
       </c>
       <c r="P80" t="s">
         <v>467</v>
@@ -7969,7 +8057,7 @@
         <v>469</v>
       </c>
       <c r="B81" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C81" t="s">
         <v>470</v>
@@ -7986,10 +8074,10 @@
         <v>472</v>
       </c>
       <c r="B82" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C82" t="s">
-        <v>803</v>
+        <v>819</v>
       </c>
       <c r="D82" t="s">
         <v>473</v>
@@ -8003,10 +8091,10 @@
         <v>475</v>
       </c>
       <c r="B83" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C83" t="s">
-        <v>804</v>
+        <v>820</v>
       </c>
       <c r="D83" t="s">
         <v>476</v>
@@ -8029,10 +8117,10 @@
         <v>480</v>
       </c>
       <c r="B84" t="s">
-        <v>727</v>
+        <v>743</v>
       </c>
       <c r="C84" t="s">
-        <v>805</v>
+        <v>821</v>
       </c>
       <c r="D84" t="s">
         <v>481</v>
@@ -8041,7 +8129,7 @@
         <v>482</v>
       </c>
       <c r="L84" t="s">
-        <v>942</v>
+        <v>958</v>
       </c>
       <c r="M84" t="s">
         <v>483</v>
@@ -8055,10 +8143,10 @@
         <v>485</v>
       </c>
       <c r="B85" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C85" t="s">
-        <v>806</v>
+        <v>822</v>
       </c>
       <c r="E85" t="s">
         <v>486</v>
@@ -8069,10 +8157,10 @@
         <v>487</v>
       </c>
       <c r="B86" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C86" t="s">
-        <v>807</v>
+        <v>823</v>
       </c>
       <c r="D86" t="s">
         <v>488</v>
@@ -8081,13 +8169,13 @@
         <v>489</v>
       </c>
       <c r="I86" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
       <c r="K86" t="s">
         <v>490</v>
       </c>
       <c r="L86" t="s">
-        <v>943</v>
+        <v>959</v>
       </c>
       <c r="N86" t="s">
         <v>293</v>
@@ -8098,10 +8186,10 @@
         <v>491</v>
       </c>
       <c r="B87" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C87" t="s">
-        <v>808</v>
+        <v>824</v>
       </c>
       <c r="D87" t="s">
         <v>492</v>
@@ -8110,7 +8198,7 @@
         <v>493</v>
       </c>
       <c r="I87" t="s">
-        <v>884</v>
+        <v>900</v>
       </c>
       <c r="J87" t="s">
         <v>494</v>
@@ -8119,7 +8207,7 @@
         <v>495</v>
       </c>
       <c r="L87" t="s">
-        <v>944</v>
+        <v>960</v>
       </c>
       <c r="M87" t="s">
         <v>496</v>
@@ -8128,7 +8216,7 @@
         <v>497</v>
       </c>
       <c r="O87" t="s">
-        <v>998</v>
+        <v>1015</v>
       </c>
       <c r="P87" t="s">
         <v>498</v>
@@ -8142,10 +8230,10 @@
         <v>500</v>
       </c>
       <c r="B88" t="s">
-        <v>725</v>
+        <v>741</v>
       </c>
       <c r="C88" t="s">
-        <v>809</v>
+        <v>825</v>
       </c>
       <c r="D88" t="s">
         <v>501</v>
@@ -8159,10 +8247,10 @@
         <v>503</v>
       </c>
       <c r="B89" t="s">
-        <v>735</v>
+        <v>751</v>
       </c>
       <c r="C89" t="s">
-        <v>810</v>
+        <v>826</v>
       </c>
       <c r="D89" t="s">
         <v>504</v>
@@ -8171,7 +8259,7 @@
         <v>505</v>
       </c>
       <c r="L89" t="s">
-        <v>945</v>
+        <v>961</v>
       </c>
       <c r="M89" t="s">
         <v>506</v>
@@ -8180,7 +8268,7 @@
         <v>507</v>
       </c>
       <c r="O89" t="s">
-        <v>999</v>
+        <v>1016</v>
       </c>
       <c r="P89" t="s">
         <v>508</v>
@@ -8194,10 +8282,10 @@
         <v>510</v>
       </c>
       <c r="B90" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="L90" t="s">
-        <v>946</v>
+        <v>962</v>
       </c>
       <c r="M90" t="s">
         <v>511</v>
@@ -8206,7 +8294,7 @@
         <v>286</v>
       </c>
       <c r="O90" t="s">
-        <v>1000</v>
+        <v>1017</v>
       </c>
       <c r="P90" t="s">
         <v>512</v>
@@ -8220,10 +8308,10 @@
         <v>514</v>
       </c>
       <c r="B91" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="F91" t="s">
-        <v>842</v>
+        <v>858</v>
       </c>
       <c r="G91" t="s">
         <v>515</v>
@@ -8264,10 +8352,10 @@
         <v>517</v>
       </c>
       <c r="B92" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C92" t="s">
-        <v>811</v>
+        <v>827</v>
       </c>
       <c r="D92" t="s">
         <v>518</v>
@@ -8276,7 +8364,7 @@
         <v>519</v>
       </c>
       <c r="F92" t="s">
-        <v>843</v>
+        <v>859</v>
       </c>
       <c r="G92" t="s">
         <v>520</v>
@@ -8290,10 +8378,10 @@
         <v>522</v>
       </c>
       <c r="B93" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C93" t="s">
-        <v>812</v>
+        <v>828</v>
       </c>
       <c r="D93" t="s">
         <v>523</v>
@@ -8302,7 +8390,7 @@
         <v>519</v>
       </c>
       <c r="F93" t="s">
-        <v>844</v>
+        <v>860</v>
       </c>
       <c r="G93" t="s">
         <v>524</v>
@@ -8316,10 +8404,10 @@
         <v>526</v>
       </c>
       <c r="B94" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C94" t="s">
-        <v>813</v>
+        <v>829</v>
       </c>
       <c r="D94" t="s">
         <v>527</v>
@@ -8328,7 +8416,7 @@
         <v>528</v>
       </c>
       <c r="F94" t="s">
-        <v>845</v>
+        <v>861</v>
       </c>
       <c r="G94" t="s">
         <v>529</v>
@@ -8342,10 +8430,10 @@
         <v>531</v>
       </c>
       <c r="B95" t="s">
-        <v>744</v>
+        <v>760</v>
       </c>
       <c r="I95" t="s">
-        <v>885</v>
+        <v>901</v>
       </c>
       <c r="J95" t="s">
         <v>532</v>
@@ -8354,7 +8442,7 @@
         <v>533</v>
       </c>
       <c r="L95" t="s">
-        <v>947</v>
+        <v>963</v>
       </c>
       <c r="M95" t="s">
         <v>534</v>
@@ -8363,7 +8451,7 @@
         <v>535</v>
       </c>
       <c r="O95" t="s">
-        <v>1001</v>
+        <v>1018</v>
       </c>
       <c r="P95" t="s">
         <v>536</v>
@@ -8377,10 +8465,10 @@
         <v>538</v>
       </c>
       <c r="B96" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="I96" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="J96" t="s">
         <v>539</v>
@@ -8389,7 +8477,7 @@
         <v>540</v>
       </c>
       <c r="L96" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="M96" t="s">
         <v>541</v>
@@ -8403,10 +8491,10 @@
         <v>543</v>
       </c>
       <c r="B97" t="s">
-        <v>731</v>
+        <v>747</v>
       </c>
       <c r="I97" t="s">
-        <v>886</v>
+        <v>902</v>
       </c>
       <c r="J97" t="s">
         <v>539</v>
@@ -8415,7 +8503,7 @@
         <v>540</v>
       </c>
       <c r="L97" t="s">
-        <v>949</v>
+        <v>965</v>
       </c>
       <c r="M97" t="s">
         <v>544</v>
@@ -8429,10 +8517,10 @@
         <v>546</v>
       </c>
       <c r="B98" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C98" t="s">
-        <v>814</v>
+        <v>830</v>
       </c>
       <c r="D98" t="s">
         <v>547</v>
@@ -8446,10 +8534,10 @@
         <v>549</v>
       </c>
       <c r="B99" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C99" t="s">
-        <v>815</v>
+        <v>831</v>
       </c>
       <c r="D99" t="s">
         <v>550</v>
@@ -8463,10 +8551,10 @@
         <v>552</v>
       </c>
       <c r="B100" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C100" t="s">
-        <v>816</v>
+        <v>832</v>
       </c>
       <c r="D100" t="s">
         <v>553</v>
@@ -8475,7 +8563,7 @@
         <v>554</v>
       </c>
       <c r="F100" t="s">
-        <v>846</v>
+        <v>862</v>
       </c>
       <c r="G100" t="s">
         <v>555</v>
@@ -8492,7 +8580,7 @@
         <v>18</v>
       </c>
       <c r="C101" t="s">
-        <v>817</v>
+        <v>833</v>
       </c>
       <c r="D101" t="s">
         <v>558</v>
@@ -8501,7 +8589,7 @@
         <v>559</v>
       </c>
       <c r="I101" t="s">
-        <v>887</v>
+        <v>903</v>
       </c>
       <c r="J101" t="s">
         <v>560</v>
@@ -8519,7 +8607,7 @@
         <v>563</v>
       </c>
       <c r="O101" t="s">
-        <v>1002</v>
+        <v>1019</v>
       </c>
       <c r="P101" t="s">
         <v>564</v>
@@ -8533,10 +8621,10 @@
         <v>566</v>
       </c>
       <c r="B102" t="s">
-        <v>722</v>
+        <v>738</v>
       </c>
       <c r="C102" t="s">
-        <v>818</v>
+        <v>834</v>
       </c>
       <c r="D102" t="s">
         <v>567</v>
@@ -8550,7 +8638,7 @@
         <v>569</v>
       </c>
       <c r="B103" t="s">
-        <v>745</v>
+        <v>761</v>
       </c>
       <c r="C103" t="s">
         <v>570</v>
@@ -8567,10 +8655,10 @@
         <v>572</v>
       </c>
       <c r="B104" t="s">
-        <v>746</v>
+        <v>762</v>
       </c>
       <c r="C104" t="s">
-        <v>819</v>
+        <v>835</v>
       </c>
       <c r="D104" t="s">
         <v>573</v>
@@ -8584,7 +8672,7 @@
         <v>575</v>
       </c>
       <c r="B105" t="s">
-        <v>747</v>
+        <v>763</v>
       </c>
     </row>
     <row r="106" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
@@ -8592,10 +8680,10 @@
         <v>576</v>
       </c>
       <c r="B106" t="s">
-        <v>743</v>
+        <v>759</v>
       </c>
       <c r="L106" t="s">
-        <v>950</v>
+        <v>966</v>
       </c>
       <c r="M106" t="s">
         <v>577</v>
@@ -8609,10 +8697,10 @@
         <v>579</v>
       </c>
       <c r="B107" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C107" t="s">
-        <v>820</v>
+        <v>836</v>
       </c>
       <c r="D107" t="s">
         <v>580</v>
@@ -8621,7 +8709,7 @@
         <v>581</v>
       </c>
       <c r="I107" t="s">
-        <v>888</v>
+        <v>904</v>
       </c>
       <c r="J107" t="s">
         <v>582</v>
@@ -8630,7 +8718,7 @@
         <v>583</v>
       </c>
       <c r="L107" t="s">
-        <v>951</v>
+        <v>967</v>
       </c>
       <c r="M107" t="s">
         <v>584</v>
@@ -8639,7 +8727,7 @@
         <v>585</v>
       </c>
       <c r="O107" t="s">
-        <v>1003</v>
+        <v>1020</v>
       </c>
       <c r="P107" t="s">
         <v>586</v>
@@ -8653,10 +8741,10 @@
         <v>588</v>
       </c>
       <c r="B108" t="s">
-        <v>749</v>
+        <v>765</v>
       </c>
       <c r="C108" t="s">
-        <v>821</v>
+        <v>837</v>
       </c>
       <c r="D108" t="s">
         <v>589</v>
@@ -8665,7 +8753,7 @@
         <v>590</v>
       </c>
       <c r="I108" t="s">
-        <v>889</v>
+        <v>905</v>
       </c>
       <c r="J108" t="s">
         <v>591</v>
@@ -8674,7 +8762,7 @@
         <v>592</v>
       </c>
       <c r="L108" t="s">
-        <v>952</v>
+        <v>968</v>
       </c>
       <c r="M108" t="s">
         <v>593</v>
@@ -8683,7 +8771,7 @@
         <v>594</v>
       </c>
       <c r="O108" t="s">
-        <v>1004</v>
+        <v>1021</v>
       </c>
       <c r="P108" t="s">
         <v>595</v>
@@ -8697,10 +8785,10 @@
         <v>597</v>
       </c>
       <c r="B109" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C109" t="s">
-        <v>822</v>
+        <v>838</v>
       </c>
       <c r="D109" t="s">
         <v>598</v>
@@ -8709,7 +8797,7 @@
         <v>599</v>
       </c>
       <c r="I109" t="s">
-        <v>890</v>
+        <v>906</v>
       </c>
       <c r="J109" t="s">
         <v>600</v>
@@ -8718,7 +8806,7 @@
         <v>601</v>
       </c>
       <c r="L109" t="s">
-        <v>953</v>
+        <v>969</v>
       </c>
       <c r="M109" t="s">
         <v>511</v>
@@ -8727,7 +8815,7 @@
         <v>286</v>
       </c>
       <c r="O109" t="s">
-        <v>1005</v>
+        <v>1022</v>
       </c>
       <c r="P109" t="s">
         <v>602</v>
@@ -8741,10 +8829,10 @@
         <v>604</v>
       </c>
       <c r="B110" t="s">
-        <v>748</v>
+        <v>764</v>
       </c>
       <c r="C110" t="s">
-        <v>823</v>
+        <v>839</v>
       </c>
       <c r="D110" t="s">
         <v>605</v>
@@ -8753,7 +8841,7 @@
         <v>606</v>
       </c>
       <c r="I110" t="s">
-        <v>891</v>
+        <v>907</v>
       </c>
       <c r="J110" t="s">
         <v>607</v>
@@ -8762,7 +8850,7 @@
         <v>608</v>
       </c>
       <c r="L110" t="s">
-        <v>954</v>
+        <v>970</v>
       </c>
       <c r="M110" t="s">
         <v>609</v>
@@ -8771,7 +8859,7 @@
         <v>610</v>
       </c>
       <c r="O110" t="s">
-        <v>1006</v>
+        <v>1023</v>
       </c>
       <c r="P110" t="s">
         <v>611</v>
@@ -8780,24 +8868,24 @@
         <v>612</v>
       </c>
     </row>
-    <row r="111" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>613</v>
       </c>
       <c r="B111" t="s">
-        <v>730</v>
-      </c>
-      <c r="C111" t="s">
-        <v>824</v>
-      </c>
-      <c r="D111" t="s">
+        <v>18</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>1034</v>
+      </c>
+      <c r="D111" s="2" t="s">
         <v>614</v>
       </c>
       <c r="E111" t="s">
         <v>615</v>
       </c>
       <c r="I111" t="s">
-        <v>892</v>
+        <v>1035</v>
       </c>
       <c r="J111" t="s">
         <v>616</v>
@@ -8805,17 +8893,17 @@
       <c r="K111" t="s">
         <v>617</v>
       </c>
-      <c r="L111" t="s">
-        <v>955</v>
-      </c>
-      <c r="M111" t="s">
+      <c r="L111" s="2" t="s">
+        <v>1036</v>
+      </c>
+      <c r="M111" s="2" t="s">
         <v>618</v>
       </c>
       <c r="N111" t="s">
         <v>619</v>
       </c>
       <c r="O111" t="s">
-        <v>1007</v>
+        <v>1037</v>
       </c>
       <c r="P111" t="s">
         <v>620</v>
@@ -8824,24 +8912,24 @@
         <v>621</v>
       </c>
     </row>
-    <row r="112" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" ht="259.2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>622</v>
       </c>
       <c r="B112" t="s">
-        <v>730</v>
-      </c>
-      <c r="C112" t="s">
-        <v>825</v>
-      </c>
-      <c r="D112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="D112" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E112" s="2" t="s">
         <v>624</v>
       </c>
       <c r="I112" t="s">
-        <v>893</v>
+        <v>1039</v>
       </c>
       <c r="J112" t="s">
         <v>625</v>
@@ -8850,7 +8938,7 @@
         <v>626</v>
       </c>
       <c r="L112" t="s">
-        <v>956</v>
+        <v>1041</v>
       </c>
       <c r="M112" t="s">
         <v>627</v>
@@ -8859,7 +8947,7 @@
         <v>628</v>
       </c>
       <c r="O112" t="s">
-        <v>1008</v>
+        <v>1040</v>
       </c>
       <c r="P112" t="s">
         <v>629</v>
@@ -8868,15 +8956,15 @@
         <v>630</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>631</v>
       </c>
       <c r="B113" t="s">
-        <v>18</v>
+        <v>746</v>
       </c>
       <c r="C113" t="s">
-        <v>826</v>
+        <v>840</v>
       </c>
       <c r="D113" t="s">
         <v>632</v>
@@ -8885,7 +8973,7 @@
         <v>633</v>
       </c>
       <c r="I113" t="s">
-        <v>894</v>
+        <v>908</v>
       </c>
       <c r="J113" t="s">
         <v>634</v>
@@ -8894,7 +8982,7 @@
         <v>635</v>
       </c>
       <c r="L113" t="s">
-        <v>957</v>
+        <v>971</v>
       </c>
       <c r="M113" t="s">
         <v>636</v>
@@ -8903,287 +8991,296 @@
         <v>637</v>
       </c>
       <c r="O113" t="s">
-        <v>1009</v>
+        <v>1024</v>
       </c>
       <c r="P113" t="s">
-        <v>638</v>
+        <v>629</v>
       </c>
       <c r="Q113" t="s">
-        <v>639</v>
+        <v>630</v>
       </c>
     </row>
     <row r="114" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
+        <v>638</v>
+      </c>
+      <c r="B114" t="s">
+        <v>746</v>
+      </c>
+      <c r="C114" t="s">
+        <v>841</v>
+      </c>
+      <c r="D114" t="s">
+        <v>639</v>
+      </c>
+      <c r="E114" t="s">
         <v>640</v>
       </c>
-      <c r="B114" t="s">
-        <v>750</v>
-      </c>
-      <c r="C114" t="s">
-        <v>827</v>
-      </c>
-      <c r="D114" t="s">
+      <c r="I114" t="s">
+        <v>909</v>
+      </c>
+      <c r="J114" t="s">
         <v>641</v>
       </c>
-      <c r="E114" t="s">
+      <c r="K114" t="s">
         <v>642</v>
       </c>
-      <c r="I114" t="s">
-        <v>895</v>
-      </c>
-      <c r="J114" t="s">
+      <c r="L114" t="s">
+        <v>972</v>
+      </c>
+      <c r="M114" t="s">
         <v>643</v>
       </c>
-      <c r="K114" t="s">
+      <c r="N114" t="s">
         <v>644</v>
       </c>
-      <c r="L114" t="s">
-        <v>958</v>
-      </c>
-      <c r="M114" t="s">
+      <c r="O114" t="s">
+        <v>1025</v>
+      </c>
+      <c r="P114" t="s">
         <v>645</v>
       </c>
-      <c r="N114" t="s">
+      <c r="Q114" t="s">
         <v>646</v>
       </c>
-      <c r="O114" t="s">
-        <v>1010</v>
-      </c>
-      <c r="P114" t="s">
+    </row>
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
         <v>647</v>
       </c>
-      <c r="Q114" t="s">
+      <c r="B115" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" t="s">
+        <v>842</v>
+      </c>
+      <c r="D115" t="s">
         <v>648</v>
       </c>
-    </row>
-    <row r="115" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A115" t="s">
+      <c r="E115" t="s">
         <v>649</v>
       </c>
-      <c r="B115" t="s">
-        <v>750</v>
-      </c>
-      <c r="D115" t="s">
+      <c r="I115" t="s">
+        <v>910</v>
+      </c>
+      <c r="J115" t="s">
         <v>650</v>
       </c>
-      <c r="E115" t="s">
-        <v>650</v>
+      <c r="K115" t="s">
+        <v>651</v>
+      </c>
+      <c r="L115" t="s">
+        <v>973</v>
+      </c>
+      <c r="M115" t="s">
+        <v>652</v>
+      </c>
+      <c r="N115" t="s">
+        <v>653</v>
+      </c>
+      <c r="O115" t="s">
+        <v>654</v>
+      </c>
+      <c r="P115" t="s">
+        <v>654</v>
+      </c>
+      <c r="Q115" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="116" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>651</v>
+        <v>656</v>
       </c>
       <c r="B116" t="s">
-        <v>750</v>
+        <v>766</v>
+      </c>
+      <c r="C116" t="s">
+        <v>843</v>
       </c>
       <c r="D116" t="s">
-        <v>650</v>
+        <v>657</v>
       </c>
       <c r="E116" t="s">
-        <v>650</v>
+        <v>658</v>
       </c>
       <c r="I116" t="s">
-        <v>896</v>
+        <v>911</v>
       </c>
       <c r="J116" t="s">
-        <v>652</v>
+        <v>659</v>
       </c>
       <c r="K116" t="s">
-        <v>653</v>
+        <v>660</v>
       </c>
       <c r="L116" t="s">
-        <v>654</v>
+        <v>974</v>
       </c>
       <c r="M116" t="s">
-        <v>654</v>
+        <v>661</v>
       </c>
       <c r="N116" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="O116" t="s">
-        <v>1011</v>
+        <v>1026</v>
       </c>
       <c r="P116" t="s">
-        <v>656</v>
+        <v>663</v>
       </c>
       <c r="Q116" t="s">
-        <v>657</v>
+        <v>664</v>
       </c>
     </row>
     <row r="117" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>658</v>
+        <v>665</v>
       </c>
       <c r="B117" t="s">
-        <v>750</v>
+        <v>766</v>
       </c>
       <c r="D117" t="s">
-        <v>650</v>
+        <v>666</v>
       </c>
       <c r="E117" t="s">
-        <v>650</v>
-      </c>
-      <c r="I117" t="s">
-        <v>897</v>
-      </c>
-      <c r="J117" t="s">
-        <v>659</v>
-      </c>
-      <c r="K117" t="s">
-        <v>660</v>
-      </c>
-      <c r="L117" t="s">
-        <v>959</v>
-      </c>
-      <c r="M117" t="s">
-        <v>661</v>
-      </c>
-      <c r="N117" t="s">
-        <v>662</v>
-      </c>
-      <c r="O117" t="s">
-        <v>1012</v>
-      </c>
-      <c r="P117" t="s">
-        <v>663</v>
-      </c>
-      <c r="Q117" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
     </row>
     <row r="118" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="B118" t="s">
-        <v>724</v>
-      </c>
-      <c r="C118" t="s">
-        <v>828</v>
+        <v>766</v>
       </c>
       <c r="D118" t="s">
         <v>666</v>
       </c>
       <c r="E118" t="s">
-        <v>667</v>
+        <v>666</v>
+      </c>
+      <c r="I118" t="s">
+        <v>912</v>
+      </c>
+      <c r="J118" t="s">
+        <v>668</v>
+      </c>
+      <c r="K118" t="s">
+        <v>669</v>
       </c>
       <c r="L118" t="s">
-        <v>960</v>
+        <v>670</v>
       </c>
       <c r="M118" t="s">
-        <v>668</v>
+        <v>670</v>
       </c>
       <c r="N118" t="s">
-        <v>669</v>
+        <v>671</v>
       </c>
       <c r="O118" t="s">
-        <v>1013</v>
+        <v>1027</v>
       </c>
       <c r="P118" t="s">
-        <v>670</v>
+        <v>672</v>
       </c>
       <c r="Q118" t="s">
-        <v>671</v>
+        <v>673</v>
       </c>
     </row>
     <row r="119" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>672</v>
+        <v>674</v>
       </c>
       <c r="B119" t="s">
-        <v>724</v>
-      </c>
-      <c r="C119" t="s">
-        <v>829</v>
+        <v>766</v>
       </c>
       <c r="D119" t="s">
-        <v>673</v>
+        <v>666</v>
       </c>
       <c r="E119" t="s">
-        <v>674</v>
+        <v>666</v>
+      </c>
+      <c r="I119" t="s">
+        <v>913</v>
+      </c>
+      <c r="J119" t="s">
+        <v>675</v>
+      </c>
+      <c r="K119" t="s">
+        <v>676</v>
       </c>
       <c r="L119" t="s">
-        <v>961</v>
+        <v>975</v>
       </c>
       <c r="M119" t="s">
-        <v>675</v>
+        <v>677</v>
       </c>
       <c r="N119" t="s">
-        <v>676</v>
+        <v>678</v>
+      </c>
+      <c r="O119" t="s">
+        <v>1028</v>
+      </c>
+      <c r="P119" t="s">
+        <v>679</v>
+      </c>
+      <c r="Q119" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="120" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="B120" t="s">
-        <v>751</v>
+        <v>740</v>
       </c>
       <c r="C120" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
       <c r="D120" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="E120" t="s">
-        <v>679</v>
-      </c>
-      <c r="I120" t="s">
-        <v>898</v>
-      </c>
-      <c r="J120" t="s">
-        <v>680</v>
-      </c>
-      <c r="K120" t="s">
-        <v>681</v>
+        <v>683</v>
       </c>
       <c r="L120" t="s">
-        <v>962</v>
+        <v>976</v>
       </c>
       <c r="M120" t="s">
-        <v>682</v>
+        <v>684</v>
       </c>
       <c r="N120" t="s">
-        <v>683</v>
+        <v>685</v>
       </c>
       <c r="O120" t="s">
-        <v>1014</v>
+        <v>1029</v>
       </c>
       <c r="P120" t="s">
-        <v>684</v>
+        <v>686</v>
       </c>
       <c r="Q120" t="s">
-        <v>685</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>686</v>
+        <v>688</v>
       </c>
       <c r="B121" t="s">
-        <v>724</v>
+        <v>740</v>
       </c>
       <c r="C121" t="s">
-        <v>831</v>
+        <v>845</v>
       </c>
       <c r="D121" t="s">
-        <v>687</v>
+        <v>689</v>
       </c>
       <c r="E121" t="s">
-        <v>688</v>
-      </c>
-      <c r="I121" t="s">
-        <v>899</v>
-      </c>
-      <c r="J121" t="s">
-        <v>689</v>
-      </c>
-      <c r="K121" t="s">
         <v>690</v>
       </c>
       <c r="L121" t="s">
-        <v>963</v>
+        <v>977</v>
       </c>
       <c r="M121" t="s">
         <v>691</v>
@@ -9191,161 +9288,240 @@
       <c r="N121" t="s">
         <v>692</v>
       </c>
-      <c r="O121" t="s">
-        <v>1015</v>
-      </c>
-      <c r="P121" t="s">
-        <v>693</v>
-      </c>
-      <c r="Q121" t="s">
-        <v>694</v>
-      </c>
     </row>
     <row r="122" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
+        <v>693</v>
+      </c>
+      <c r="B122" t="s">
+        <v>767</v>
+      </c>
+      <c r="C122" t="s">
+        <v>846</v>
+      </c>
+      <c r="D122" t="s">
+        <v>694</v>
+      </c>
+      <c r="E122" t="s">
         <v>695</v>
       </c>
-      <c r="B122" t="s">
-        <v>752</v>
-      </c>
-      <c r="C122" t="s">
-        <v>832</v>
-      </c>
-      <c r="D122" t="s">
+      <c r="I122" t="s">
+        <v>914</v>
+      </c>
+      <c r="J122" t="s">
         <v>696</v>
       </c>
-      <c r="E122" t="s">
+      <c r="K122" t="s">
         <v>697</v>
       </c>
-      <c r="I122" t="s">
-        <v>900</v>
-      </c>
-      <c r="J122" t="s">
+      <c r="L122" t="s">
+        <v>978</v>
+      </c>
+      <c r="M122" t="s">
         <v>698</v>
       </c>
-      <c r="K122" t="s">
+      <c r="N122" t="s">
         <v>699</v>
       </c>
-      <c r="L122" t="s">
-        <v>964</v>
-      </c>
-      <c r="M122" t="s">
+      <c r="O122" t="s">
+        <v>1030</v>
+      </c>
+      <c r="P122" t="s">
         <v>700</v>
       </c>
-      <c r="N122" t="s">
+      <c r="Q122" t="s">
         <v>701</v>
-      </c>
-      <c r="O122" t="s">
-        <v>1016</v>
-      </c>
-      <c r="P122" t="s">
-        <v>702</v>
-      </c>
-      <c r="Q122" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="123" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
+        <v>702</v>
+      </c>
+      <c r="B123" t="s">
+        <v>740</v>
+      </c>
+      <c r="C123" t="s">
+        <v>847</v>
+      </c>
+      <c r="D123" t="s">
+        <v>703</v>
+      </c>
+      <c r="E123" t="s">
         <v>704</v>
       </c>
-      <c r="B123" t="s">
-        <v>753</v>
-      </c>
-      <c r="C123" t="s">
-        <v>833</v>
-      </c>
-      <c r="D123" t="s">
+      <c r="I123" t="s">
+        <v>915</v>
+      </c>
+      <c r="J123" t="s">
         <v>705</v>
       </c>
-      <c r="E123" t="s">
+      <c r="K123" t="s">
         <v>706</v>
       </c>
-      <c r="I123" t="s">
-        <v>901</v>
-      </c>
-      <c r="J123" t="s">
+      <c r="L123" t="s">
+        <v>979</v>
+      </c>
+      <c r="M123" t="s">
         <v>707</v>
       </c>
-      <c r="K123" t="s">
+      <c r="N123" t="s">
         <v>708</v>
       </c>
-      <c r="L123" t="s">
-        <v>965</v>
-      </c>
-      <c r="M123" t="s">
+      <c r="O123" t="s">
+        <v>1031</v>
+      </c>
+      <c r="P123" t="s">
         <v>709</v>
       </c>
-      <c r="N123" t="s">
+      <c r="Q123" t="s">
         <v>710</v>
-      </c>
-      <c r="O123" t="s">
-        <v>1017</v>
-      </c>
-      <c r="P123" t="s">
-        <v>711</v>
-      </c>
-      <c r="Q123" t="s">
-        <v>712</v>
       </c>
     </row>
     <row r="124" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
+        <v>711</v>
+      </c>
+      <c r="B124" t="s">
+        <v>768</v>
+      </c>
+      <c r="C124" t="s">
+        <v>848</v>
+      </c>
+      <c r="D124" t="s">
+        <v>712</v>
+      </c>
+      <c r="E124" t="s">
         <v>713</v>
       </c>
-      <c r="B124" t="s">
-        <v>754</v>
-      </c>
-      <c r="C124" t="s">
-        <v>834</v>
-      </c>
-      <c r="D124" t="s">
+      <c r="I124" t="s">
+        <v>916</v>
+      </c>
+      <c r="J124" t="s">
         <v>714</v>
       </c>
-      <c r="E124" t="s">
+      <c r="K124" t="s">
         <v>715</v>
+      </c>
+      <c r="L124" t="s">
+        <v>980</v>
+      </c>
+      <c r="M124" t="s">
+        <v>716</v>
+      </c>
+      <c r="N124" t="s">
+        <v>717</v>
+      </c>
+      <c r="O124" t="s">
+        <v>1032</v>
+      </c>
+      <c r="P124" t="s">
+        <v>718</v>
+      </c>
+      <c r="Q124" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="125" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="B125" t="s">
+        <v>769</v>
+      </c>
+      <c r="C125" t="s">
+        <v>849</v>
+      </c>
+      <c r="D125" t="s">
+        <v>721</v>
+      </c>
+      <c r="E125" t="s">
+        <v>722</v>
+      </c>
+      <c r="I125" t="s">
+        <v>917</v>
+      </c>
+      <c r="J125" t="s">
+        <v>723</v>
+      </c>
+      <c r="K125" t="s">
+        <v>724</v>
+      </c>
+      <c r="L125" t="s">
+        <v>981</v>
+      </c>
+      <c r="M125" t="s">
+        <v>725</v>
+      </c>
+      <c r="N125" t="s">
+        <v>726</v>
+      </c>
+      <c r="O125" t="s">
+        <v>1033</v>
+      </c>
+      <c r="P125" t="s">
+        <v>727</v>
+      </c>
+      <c r="Q125" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="126" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A126" t="s">
+        <v>729</v>
+      </c>
+      <c r="B126" t="s">
+        <v>770</v>
+      </c>
+      <c r="C126" t="s">
+        <v>850</v>
+      </c>
+      <c r="D126" t="s">
         <v>730</v>
       </c>
-      <c r="I125" t="s">
-        <v>902</v>
-      </c>
-      <c r="J125" t="s">
-        <v>717</v>
-      </c>
-      <c r="K125" t="s">
-        <v>718</v>
-      </c>
-      <c r="L125" t="s">
-        <v>966</v>
-      </c>
-      <c r="M125" t="s">
-        <v>719</v>
-      </c>
-      <c r="N125" t="s">
+      <c r="E126" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="127" spans="1:17" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A127" t="s">
+        <v>732</v>
+      </c>
+      <c r="B127" t="s">
+        <v>746</v>
+      </c>
+      <c r="I127" t="s">
+        <v>918</v>
+      </c>
+      <c r="J127" t="s">
+        <v>733</v>
+      </c>
+      <c r="K127" t="s">
+        <v>734</v>
+      </c>
+      <c r="L127" t="s">
+        <v>982</v>
+      </c>
+      <c r="M127" t="s">
+        <v>735</v>
+      </c>
+      <c r="N127" t="s">
         <v>457</v>
       </c>
-      <c r="O125" t="s">
-        <v>902</v>
-      </c>
-      <c r="P125" t="s">
-        <v>720</v>
-      </c>
-      <c r="Q125" t="s">
-        <v>721</v>
+      <c r="O127" t="s">
+        <v>918</v>
+      </c>
+      <c r="P127" t="s">
+        <v>736</v>
+      </c>
+      <c r="Q127" t="s">
+        <v>737</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:Q125" xr:uid="{00000000-0009-0000-0000-000000000000}">
+  <autoFilter ref="A2:Q127" xr:uid="{00000000-0009-0000-0000-000000000000}">
     <filterColumn colId="1">
       <filters>
-        <filter val="EA 23.222 Patch 1"/>
+        <filter val="EA 23.229 Patch 4"/>
       </filters>
     </filterColumn>
   </autoFilter>
